--- a/output7/【河洛文讀注音】《般若波羅蜜多心經》.xlsx
+++ b/output7/【河洛文讀注音】《般若波羅蜜多心經》.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20F9EBA-2B87-4B73-8265-AE890D98AAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5FC89A5-8006-4C70-B807-26B37448FF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2699" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2271" uniqueCount="871">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2348,6 +2348,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>tiong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>hut8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2423,6 +2427,9 @@
     <t>依</t>
   </si>
   <si>
+    <t>心</t>
+  </si>
+  <si>
     <t>罣</t>
   </si>
   <si>
@@ -2456,6 +2463,15 @@
     <t>佛</t>
   </si>
   <si>
+    <t>阿</t>
+  </si>
+  <si>
+    <t>耨</t>
+  </si>
+  <si>
+    <t>藐</t>
+  </si>
+  <si>
     <t>：</t>
   </si>
   <si>
@@ -2525,14 +2541,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hang5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喜江五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cim1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2837,6 +2845,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>地恭一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>門艍五</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3077,6 +3089,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>求經三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>liap4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3222,791 +3238,195 @@
   </si>
   <si>
     <t>觀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>自</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>薩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>深</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>般</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>羅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>照</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>見</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>蘊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>皆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>切</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>苦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>厄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>舍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>利</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色</t>
   </si>
   <si>
     <t>不</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>異</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>即</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>受</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>想</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>識</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>亦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>復</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>如</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>諸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>相</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>滅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>垢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>淨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>減</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>無</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
   </si>
   <si>
     <t>眼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>耳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>鼻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>舌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意</t>
   </si>
   <si>
     <t>聲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>香</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>味</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>觸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>乃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>至</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>盡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>老</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>死</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>智</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>以</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>埵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>離</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>究</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>竟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湼</t>
   </si>
   <si>
     <t>槃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>世</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>依</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>真</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>實</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>虛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>說</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>婆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>訶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiok8</t>
-  </si>
-  <si>
-    <t>入恭八</t>
-  </si>
-  <si>
-    <t>pho1</t>
-  </si>
-  <si>
-    <t>頗高一</t>
-  </si>
-  <si>
-    <t>bit8</t>
-  </si>
-  <si>
-    <t>門巾八</t>
-  </si>
-  <si>
-    <t>si7</t>
-  </si>
-  <si>
-    <t>時居七</t>
-  </si>
-  <si>
-    <t>koo3</t>
-  </si>
-  <si>
-    <t>求沽三</t>
-  </si>
-  <si>
-    <t>bu5</t>
-  </si>
-  <si>
-    <t>門艍五</t>
-  </si>
-  <si>
-    <t>bing5</t>
-  </si>
-  <si>
-    <t>門經五</t>
-  </si>
-  <si>
-    <t>tik4</t>
-  </si>
-  <si>
-    <t>地經四</t>
-  </si>
-  <si>
-    <t>kua3</t>
-  </si>
-  <si>
-    <t>求瓜三</t>
-  </si>
-  <si>
-    <t>gai7</t>
-  </si>
-  <si>
-    <t>語皆七</t>
-  </si>
-  <si>
-    <t>iu2</t>
-  </si>
-  <si>
-    <t>英丩二</t>
-  </si>
-  <si>
-    <t>khiong2</t>
-  </si>
-  <si>
-    <t>去恭二</t>
-  </si>
-  <si>
-    <t>kiat4</t>
-  </si>
-  <si>
-    <t>求堅四</t>
-  </si>
-  <si>
-    <t>te3</t>
-  </si>
-  <si>
-    <t>地伽三</t>
-  </si>
-  <si>
-    <t>行</t>
-  </si>
-  <si>
-    <t>密</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空</t>
-  </si>
-  <si>
-    <t>！</t>
-  </si>
-  <si>
-    <t>色</t>
-  </si>
-  <si>
-    <t>受</t>
-  </si>
-  <si>
-    <t>識</t>
-  </si>
-  <si>
-    <t>亦</t>
-  </si>
-  <si>
-    <t>滅</t>
-  </si>
-  <si>
-    <t>中</t>
-  </si>
-  <si>
-    <t>眼</t>
-  </si>
-  <si>
-    <t>耳</t>
-  </si>
-  <si>
-    <t>鼻</t>
-  </si>
-  <si>
-    <t>舌</t>
-  </si>
-  <si>
-    <t>身</t>
-  </si>
-  <si>
-    <t>意</t>
-  </si>
-  <si>
-    <t>乃</t>
-  </si>
-  <si>
-    <t>盡</t>
-  </si>
-  <si>
-    <t>老</t>
-  </si>
-  <si>
-    <t>死</t>
-  </si>
-  <si>
-    <t>道</t>
-  </si>
-  <si>
-    <t>智</t>
-  </si>
-  <si>
-    <t>以</t>
-  </si>
-  <si>
-    <t>心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>礙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>藐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>揭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>諦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>僧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sat4</t>
-  </si>
-  <si>
-    <t>時干四</t>
-  </si>
-  <si>
-    <t>hang5</t>
-  </si>
-  <si>
-    <t>喜江五</t>
-  </si>
-  <si>
-    <t>bat8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>門干八</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khong1</t>
-  </si>
-  <si>
-    <t>去公一</t>
-  </si>
-  <si>
-    <t>sik4</t>
-  </si>
-  <si>
-    <t>時經四</t>
-  </si>
-  <si>
-    <t>siu7</t>
-  </si>
-  <si>
-    <t>時丩七</t>
-  </si>
-  <si>
-    <t>siong2</t>
-  </si>
-  <si>
-    <t>時恭二</t>
-  </si>
-  <si>
-    <t>ik8</t>
-  </si>
-  <si>
-    <t>英經八</t>
-  </si>
-  <si>
-    <t>huat4</t>
-  </si>
-  <si>
-    <t>喜觀四</t>
-  </si>
-  <si>
-    <t>biat8</t>
-  </si>
-  <si>
-    <t>門堅八</t>
-  </si>
-  <si>
-    <t>tiong1</t>
-  </si>
-  <si>
-    <t>地恭一</t>
-  </si>
-  <si>
-    <t>gan2</t>
-  </si>
-  <si>
-    <t>語干二</t>
-  </si>
-  <si>
-    <t>hinn7</t>
-  </si>
-  <si>
-    <t>喜梔七</t>
-  </si>
-  <si>
-    <t>phinn7</t>
-  </si>
-  <si>
-    <t>頗梔七</t>
-  </si>
-  <si>
-    <t>siat8</t>
-  </si>
-  <si>
-    <t>時堅八</t>
-  </si>
-  <si>
-    <t>sin1</t>
-  </si>
-  <si>
-    <t>時巾一</t>
-  </si>
-  <si>
-    <t>i3</t>
-  </si>
-  <si>
-    <t>英居三</t>
-  </si>
-  <si>
-    <t>kai3</t>
-  </si>
-  <si>
-    <t>求皆三</t>
-  </si>
-  <si>
-    <t>nai2</t>
-  </si>
-  <si>
-    <t>耐皆二</t>
-  </si>
-  <si>
-    <t>zi3</t>
-  </si>
-  <si>
-    <t>曾居三</t>
-  </si>
-  <si>
-    <t>zin7</t>
-  </si>
-  <si>
-    <t>曾巾七</t>
-  </si>
-  <si>
-    <t>lo2</t>
-  </si>
-  <si>
-    <t>柳高二</t>
-  </si>
-  <si>
-    <t>su2</t>
-  </si>
-  <si>
-    <t>時艍二</t>
-  </si>
-  <si>
-    <t>zip8</t>
-  </si>
-  <si>
-    <t>曾金八</t>
-  </si>
-  <si>
-    <t>to7</t>
-  </si>
-  <si>
-    <t>地高七</t>
-  </si>
-  <si>
-    <t>ti3</t>
-  </si>
-  <si>
-    <t>地居三</t>
-  </si>
-  <si>
-    <t>i2</t>
-  </si>
-  <si>
-    <t>英居二</t>
-  </si>
-  <si>
-    <t>soo2</t>
-  </si>
-  <si>
-    <t>時沽二</t>
   </si>
   <si>
     <t>sim1</t>
@@ -4017,12 +3437,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>king3</t>
-  </si>
-  <si>
-    <t>求經三</t>
-  </si>
-  <si>
     <t>a1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4073,15 +3487,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>觀自在菩薩，行深般若波羅密多時，照見五蘊皆空，度一切苦厄。
+    <t>喜經五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觀自在菩薩，行深般若波羅蜜多時，照見五蘊皆空，度一切苦厄。
 舍利子！色不異空，空不異色，色即是空，空即是色，受想行識，亦復如是。
 舍利子！是諸法空相，不生不滅，不垢不淨，不增不減。是故空中無色，無受想行識。無眼耳鼻舌身意；無色聲香味觸法。
 無眼界，乃至無意識界。無無明，亦無無明盡；乃至無老死，亦無老死盡。
-無苦集滅道。無智，亦無得。以無所得故！菩提薩埵，依般若波羅密多故，心得罣礙，無罣礙故，無有恐怖，遠離顛倒、夢想，究竟湼槃。
-三世諸佛，依般若波羅密多故，得阿耨多羅三藐三菩提！
-故知般若波羅密多，是大神咒，是大明咒，是無上咒，是無等等咒。能除一切苦！真實不虛！
-故說般若波羅密多咒，即說咒曰：揭諦，揭諦，波羅揭諦，波羅僧揭諦，菩提薩婆訶！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+無苦集滅道。無智，亦無得。以無所得故！菩提薩埵，依般若波羅蜜多故，心得罣礙，無罣礙故，無有恐怖，遠離顛倒、夢想，究竟湼槃。
+三世諸佛，依般若波羅蜜多故，得阿耨多羅三藐三菩提！
+故知般若波羅蜜多，是大神咒，是大明咒，是無上咒，是無等等咒。能除一切苦！真實不虛！
+故說般若波羅蜜多咒，即說咒曰：揭諦，揭諦，波羅揭諦，波羅僧揭諦，菩提薩婆訶！</t>
   </si>
 </sst>
 </file>
@@ -4882,7 +4299,7 @@
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5215,9 +4632,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8089,7 +7503,7 @@
         <v>165</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -8097,7 +7511,7 @@
         <v>166</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="6" spans="2:3">
@@ -8161,7 +7575,7 @@
         <v>321</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="14" spans="2:3">
@@ -8169,31 +7583,31 @@
         <v>322</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>1021</v>
+        <v>865</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="75" t="s">
-        <v>1022</v>
+        <v>866</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>1020</v>
+        <v>864</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="75" t="s">
-        <v>1018</v>
+        <v>862</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="75" t="s">
-        <v>1019</v>
+        <v>863</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>1023</v>
+        <v>867</v>
       </c>
     </row>
   </sheetData>
@@ -8229,8 +7643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B2:V242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AG9" sqref="AG9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A110" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -8278,7 +7692,7 @@
       <c r="H3" s="81"/>
       <c r="I3" s="81"/>
       <c r="J3" s="81" t="s">
-        <v>1024</v>
+        <v>868</v>
       </c>
       <c r="K3" s="81"/>
       <c r="L3" s="81"/>
@@ -8286,59 +7700,59 @@
       <c r="N3" s="81"/>
       <c r="O3" s="81"/>
       <c r="P3" s="81" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="Q3" s="81"/>
       <c r="R3" s="81"/>
       <c r="T3" s="90"/>
       <c r="V3" s="105" t="s">
-        <v>1025</v>
+        <v>870</v>
       </c>
     </row>
     <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="56"/>
       <c r="D4" s="82" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="E4" s="82" t="s">
         <v>550</v>
       </c>
       <c r="F4" s="82" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="G4" s="82" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="H4" s="82" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="I4" s="82"/>
       <c r="J4" s="82" t="s">
-        <v>611</v>
+        <v>868</v>
       </c>
       <c r="K4" s="82" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="L4" s="82" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="M4" s="82" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="N4" s="82" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="O4" s="82" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="P4" s="82" t="s">
-        <v>956</v>
+        <v>626</v>
       </c>
       <c r="Q4" s="82" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="R4" s="82" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="S4" s="91"/>
       <c r="V4" s="106"/>
@@ -8348,49 +7762,49 @@
         <v>1</v>
       </c>
       <c r="D5" s="111" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="E5" s="111" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="F5" s="111" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="G5" s="111" t="s">
-        <v>788</v>
+        <v>565</v>
       </c>
       <c r="H5" s="111" t="s">
-        <v>789</v>
+        <v>566</v>
       </c>
       <c r="I5" s="111" t="s">
-        <v>790</v>
-      </c>
-      <c r="J5" s="115" t="s">
-        <v>791</v>
+        <v>183</v>
+      </c>
+      <c r="J5" s="111" t="s">
+        <v>793</v>
       </c>
       <c r="K5" s="111" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="L5" s="111" t="s">
-        <v>793</v>
+        <v>567</v>
       </c>
       <c r="M5" s="111" t="s">
-        <v>794</v>
+        <v>568</v>
       </c>
       <c r="N5" s="111" t="s">
+        <v>569</v>
+      </c>
+      <c r="O5" s="111" t="s">
+        <v>570</v>
+      </c>
+      <c r="P5" s="111" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q5" s="111" t="s">
+        <v>572</v>
+      </c>
+      <c r="R5" s="111" t="s">
         <v>795</v>
-      </c>
-      <c r="O5" s="111" t="s">
-        <v>796</v>
-      </c>
-      <c r="P5" s="115" t="s">
-        <v>913</v>
-      </c>
-      <c r="Q5" s="111" t="s">
-        <v>797</v>
-      </c>
-      <c r="R5" s="111" t="s">
-        <v>798</v>
       </c>
       <c r="S5" s="92"/>
       <c r="V5" s="106"/>
@@ -8399,47 +7813,47 @@
       <c r="B6" s="58"/>
       <c r="C6" s="85"/>
       <c r="D6" s="83" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="E6" s="83" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="F6" s="83" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="G6" s="83" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="H6" s="83" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="I6" s="83"/>
       <c r="J6" s="83" t="s">
-        <v>612</v>
+        <v>869</v>
       </c>
       <c r="K6" s="83" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="L6" s="83" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="M6" s="83" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="N6" s="83" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="O6" s="83" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="P6" s="83" t="s">
-        <v>957</v>
+        <v>627</v>
       </c>
       <c r="Q6" s="83" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="R6" s="83" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="S6" s="93"/>
       <c r="V6" s="106"/>
@@ -8469,38 +7883,38 @@
       <c r="B8" s="56"/>
       <c r="D8" s="82"/>
       <c r="E8" s="82" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="F8" s="82" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="G8" s="82" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="H8" s="82" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="I8" s="82" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="J8" s="82" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="K8" s="82"/>
       <c r="L8" s="82" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="M8" s="82" t="s">
         <v>263</v>
       </c>
       <c r="N8" s="82" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="O8" s="82" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="P8" s="82" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="Q8" s="82"/>
       <c r="R8" s="82"/>
@@ -8513,46 +7927,46 @@
         <v>2</v>
       </c>
       <c r="D9" s="111" t="s">
-        <v>790</v>
+        <v>183</v>
       </c>
       <c r="E9" s="111" t="s">
+        <v>796</v>
+      </c>
+      <c r="F9" s="111" t="s">
+        <v>797</v>
+      </c>
+      <c r="G9" s="111" t="s">
+        <v>798</v>
+      </c>
+      <c r="H9" s="111" t="s">
         <v>799</v>
       </c>
-      <c r="F9" s="111" t="s">
+      <c r="I9" s="111" t="s">
         <v>800</v>
       </c>
-      <c r="G9" s="111" t="s">
+      <c r="J9" s="111" t="s">
         <v>801</v>
       </c>
-      <c r="H9" s="111" t="s">
+      <c r="K9" s="111" t="s">
+        <v>183</v>
+      </c>
+      <c r="L9" s="111" t="s">
         <v>802</v>
       </c>
-      <c r="I9" s="111" t="s">
+      <c r="M9" s="111" t="s">
+        <v>187</v>
+      </c>
+      <c r="N9" s="111" t="s">
         <v>803</v>
       </c>
-      <c r="J9" s="111" t="s">
+      <c r="O9" s="111" t="s">
         <v>804</v>
       </c>
-      <c r="K9" s="111" t="s">
-        <v>790</v>
-      </c>
-      <c r="L9" s="111" t="s">
+      <c r="P9" s="111" t="s">
         <v>805</v>
       </c>
-      <c r="M9" s="111" t="s">
-        <v>806</v>
-      </c>
-      <c r="N9" s="111" t="s">
-        <v>807</v>
-      </c>
-      <c r="O9" s="111" t="s">
-        <v>808</v>
-      </c>
-      <c r="P9" s="111" t="s">
-        <v>809</v>
-      </c>
       <c r="Q9" s="111" t="s">
-        <v>810</v>
+        <v>186</v>
       </c>
       <c r="R9" s="111"/>
       <c r="S9" s="92"/>
@@ -8563,38 +7977,38 @@
       <c r="B10" s="58"/>
       <c r="D10" s="83"/>
       <c r="E10" s="83" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="F10" s="83" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="G10" s="83" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="H10" s="83" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="I10" s="83" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="J10" s="83" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="K10" s="83"/>
       <c r="L10" s="83" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="M10" s="83" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="N10" s="104" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="O10" s="83" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="P10" s="83" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="Q10" s="83"/>
       <c r="R10" s="83"/>
@@ -8707,43 +8121,43 @@
     <row r="16" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="56"/>
       <c r="D16" s="82" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="F16" s="82" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="G16" s="82"/>
       <c r="H16" s="82" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="I16" s="82" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="J16" s="82" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="K16" s="82" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="L16" s="82"/>
       <c r="M16" s="82" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="N16" s="82" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="O16" s="82" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="P16" s="82" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="Q16" s="82"/>
       <c r="R16" s="82" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="S16" s="91"/>
       <c r="V16" s="106"/>
@@ -8754,49 +8168,49 @@
         <v>4</v>
       </c>
       <c r="D17" s="111" t="s">
+        <v>806</v>
+      </c>
+      <c r="E17" s="111" t="s">
+        <v>807</v>
+      </c>
+      <c r="F17" s="111" t="s">
+        <v>239</v>
+      </c>
+      <c r="G17" s="111" t="s">
+        <v>808</v>
+      </c>
+      <c r="H17" s="111" t="s">
+        <v>809</v>
+      </c>
+      <c r="I17" s="111" t="s">
+        <v>810</v>
+      </c>
+      <c r="J17" s="111" t="s">
         <v>811</v>
       </c>
-      <c r="E17" s="111" t="s">
-        <v>812</v>
-      </c>
-      <c r="F17" s="111" t="s">
-        <v>813</v>
-      </c>
-      <c r="G17" s="111" t="s">
-        <v>814</v>
-      </c>
-      <c r="H17" s="111" t="s">
-        <v>131</v>
-      </c>
-      <c r="I17" s="111" t="s">
-        <v>815</v>
-      </c>
-      <c r="J17" s="111" t="s">
-        <v>816</v>
-      </c>
       <c r="K17" s="111" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="L17" s="111" t="s">
-        <v>790</v>
+        <v>183</v>
       </c>
       <c r="M17" s="111" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="N17" s="111" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="O17" s="111" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="P17" s="111" t="s">
-        <v>131</v>
+        <v>809</v>
       </c>
       <c r="Q17" s="111" t="s">
-        <v>790</v>
+        <v>183</v>
       </c>
       <c r="R17" s="111" t="s">
-        <v>131</v>
+        <v>809</v>
       </c>
       <c r="S17" s="92"/>
       <c r="V17" s="106"/>
@@ -8804,43 +8218,43 @@
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="58"/>
       <c r="D18" s="83" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="E18" s="83" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="F18" s="83" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="G18" s="83"/>
       <c r="H18" s="83" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="I18" s="83" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="J18" s="83" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="K18" s="83" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="L18" s="83"/>
       <c r="M18" s="83" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="N18" s="83" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="O18" s="83" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="P18" s="83" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="Q18" s="83"/>
       <c r="R18" s="83" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="S18" s="94"/>
       <c r="V18" s="106"/>
@@ -8859,9 +8273,7 @@
       <c r="L19" s="81"/>
       <c r="M19" s="81"/>
       <c r="N19" s="81"/>
-      <c r="O19" s="81" t="s">
-        <v>1024</v>
-      </c>
+      <c r="O19" s="81"/>
       <c r="P19" s="81"/>
       <c r="Q19" s="81"/>
       <c r="R19" s="81"/>
@@ -8870,45 +8282,43 @@
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="56"/>
       <c r="D20" s="82" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="E20" s="82" t="s">
         <v>300</v>
       </c>
       <c r="F20" s="82" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="G20" s="82"/>
       <c r="H20" s="82" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="I20" s="82" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="J20" s="82" t="s">
         <v>300</v>
       </c>
       <c r="K20" s="82" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="L20" s="82"/>
       <c r="M20" s="82" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="N20" s="82" t="s">
         <v>551</v>
       </c>
       <c r="O20" s="82" t="s">
-        <v>611</v>
+        <v>868</v>
       </c>
       <c r="P20" s="82" t="s">
-        <v>656</v>
-      </c>
-      <c r="Q20" s="82" t="s">
-        <v>668</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="Q20" s="82"/>
       <c r="R20" s="82" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="S20" s="91"/>
       <c r="V20" s="106"/>
@@ -8919,49 +8329,49 @@
         <v>5</v>
       </c>
       <c r="D21" s="111" t="s">
-        <v>818</v>
+        <v>574</v>
       </c>
       <c r="E21" s="111" t="s">
-        <v>819</v>
+        <v>191</v>
       </c>
       <c r="F21" s="111" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="G21" s="111" t="s">
-        <v>790</v>
+        <v>183</v>
       </c>
       <c r="H21" s="111" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="I21" s="111" t="s">
-        <v>818</v>
+        <v>574</v>
       </c>
       <c r="J21" s="111" t="s">
-        <v>819</v>
+        <v>191</v>
       </c>
       <c r="K21" s="111" t="s">
-        <v>131</v>
+        <v>809</v>
       </c>
       <c r="L21" s="111" t="s">
-        <v>790</v>
+        <v>183</v>
       </c>
       <c r="M21" s="112" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="N21" s="111" t="s">
-        <v>821</v>
+        <v>575</v>
       </c>
       <c r="O21" s="111" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="P21" s="111" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="Q21" s="111" t="s">
-        <v>790</v>
+        <v>183</v>
       </c>
       <c r="R21" s="111" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="S21" s="92"/>
       <c r="V21" s="106"/>
@@ -8969,45 +8379,43 @@
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="58"/>
       <c r="D22" s="83" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="E22" s="83" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="F22" s="83" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="G22" s="83"/>
       <c r="H22" s="83" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="I22" s="83" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="J22" s="83" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="K22" s="83" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="L22" s="83"/>
       <c r="M22" s="83" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="N22" s="83" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="O22" s="83" t="s">
-        <v>612</v>
+        <v>869</v>
       </c>
       <c r="P22" s="83" t="s">
-        <v>657</v>
-      </c>
-      <c r="Q22" s="83" t="s">
-        <v>669</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="Q22" s="83"/>
       <c r="R22" s="83" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="S22" s="94"/>
       <c r="V22" s="107"/>
@@ -9041,7 +8449,7 @@
         <v>552</v>
       </c>
       <c r="F24" s="82" t="s">
-        <v>890</v>
+        <v>300</v>
       </c>
       <c r="G24" s="82"/>
       <c r="H24" s="82"/>
@@ -9064,13 +8472,13 @@
         <v>6</v>
       </c>
       <c r="D25" s="111" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="E25" s="111" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="F25" s="111" t="s">
-        <v>819</v>
+        <v>191</v>
       </c>
       <c r="G25" s="111" t="s">
         <v>186</v>
@@ -9092,13 +8500,13 @@
     <row r="26" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="58"/>
       <c r="D26" s="83" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="E26" s="83" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="F26" s="83" t="s">
-        <v>891</v>
+        <v>667</v>
       </c>
       <c r="G26" s="83"/>
       <c r="H26" s="83"/>
@@ -9245,42 +8653,42 @@
     <row r="32" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="56"/>
       <c r="D32" s="82" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="E32" s="82" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="F32" s="82" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="G32" s="82"/>
       <c r="H32" s="82" t="s">
         <v>300</v>
       </c>
       <c r="I32" s="82" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="J32" s="82" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="K32" s="82" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="L32" s="82" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="M32" s="82"/>
       <c r="N32" s="82" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="O32" s="82" t="s">
         <v>313</v>
       </c>
       <c r="P32" s="82" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="Q32" s="82" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="R32" s="82"/>
       <c r="S32" s="91"/>
@@ -9296,49 +8704,49 @@
         <v>8</v>
       </c>
       <c r="D33" s="111" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="E33" s="111" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="F33" s="111" t="s">
-        <v>813</v>
+        <v>239</v>
       </c>
       <c r="G33" s="111" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="H33" s="111" t="s">
+        <v>191</v>
+      </c>
+      <c r="I33" s="111" t="s">
+        <v>576</v>
+      </c>
+      <c r="J33" s="111" t="s">
+        <v>817</v>
+      </c>
+      <c r="K33" s="111" t="s">
+        <v>801</v>
+      </c>
+      <c r="L33" s="111" t="s">
+        <v>818</v>
+      </c>
+      <c r="M33" s="111" t="s">
+        <v>183</v>
+      </c>
+      <c r="N33" s="111" t="s">
+        <v>810</v>
+      </c>
+      <c r="O33" s="111" t="s">
         <v>819</v>
       </c>
-      <c r="I33" s="111" t="s">
-        <v>826</v>
-      </c>
-      <c r="J33" s="111" t="s">
-        <v>827</v>
-      </c>
-      <c r="K33" s="111" t="s">
-        <v>804</v>
-      </c>
-      <c r="L33" s="111" t="s">
-        <v>828</v>
-      </c>
-      <c r="M33" s="111" t="s">
-        <v>790</v>
-      </c>
-      <c r="N33" s="111" t="s">
-        <v>815</v>
-      </c>
-      <c r="O33" s="111" t="s">
-        <v>829</v>
-      </c>
       <c r="P33" s="111" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="Q33" s="111" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="R33" s="111" t="s">
-        <v>790</v>
+        <v>183</v>
       </c>
       <c r="S33" s="92"/>
       <c r="V33" s="60"/>
@@ -9346,42 +8754,42 @@
     <row r="34" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="58"/>
       <c r="D34" s="83" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="E34" s="83" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="F34" s="83" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="G34" s="83"/>
       <c r="H34" s="83" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="I34" s="83" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="J34" s="83" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="K34" s="83" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="L34" s="83" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="M34" s="83"/>
       <c r="N34" s="83" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="O34" s="83" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="P34" s="83" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="Q34" s="83" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="R34" s="83"/>
       <c r="S34" s="94"/>
@@ -9410,45 +8818,45 @@
     <row r="36" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="56"/>
       <c r="D36" s="82" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="E36" s="82" t="s">
         <v>546</v>
       </c>
       <c r="F36" s="82" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="G36" s="82" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="H36" s="82"/>
       <c r="I36" s="82" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="J36" s="82" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="K36" s="82" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="L36" s="82" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="M36" s="82"/>
       <c r="N36" s="82" t="s">
-        <v>890</v>
+        <v>300</v>
       </c>
       <c r="O36" s="82" t="s">
-        <v>892</v>
+        <v>554</v>
       </c>
       <c r="P36" s="82" t="s">
-        <v>958</v>
+        <v>642</v>
       </c>
       <c r="Q36" s="82" t="s">
-        <v>972</v>
+        <v>557</v>
       </c>
       <c r="R36" s="82" t="s">
-        <v>894</v>
+        <v>548</v>
       </c>
       <c r="S36" s="91"/>
       <c r="V36" s="60"/>
@@ -9459,46 +8867,46 @@
         <v>9</v>
       </c>
       <c r="D37" s="111" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="E37" s="111" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F37" s="111" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="G37" s="111" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="H37" s="111" t="s">
-        <v>790</v>
+        <v>183</v>
       </c>
       <c r="I37" s="111" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="J37" s="111" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="K37" s="111" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="L37" s="111" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="M37" s="111" t="s">
-        <v>810</v>
+        <v>186</v>
       </c>
       <c r="N37" s="111" t="s">
         <v>191</v>
       </c>
       <c r="O37" s="111" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="P37" s="111" t="s">
-        <v>914</v>
+        <v>801</v>
       </c>
       <c r="Q37" s="111" t="s">
-        <v>921</v>
+        <v>825</v>
       </c>
       <c r="R37" s="111" t="s">
         <v>185</v>
@@ -9509,45 +8917,45 @@
     <row r="38" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="58"/>
       <c r="D38" s="83" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="E38" s="83" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="F38" s="83" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="G38" s="83" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="H38" s="83"/>
       <c r="I38" s="83" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="J38" s="83" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="K38" s="83" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="L38" s="83" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="M38" s="83"/>
       <c r="N38" s="83" t="s">
-        <v>891</v>
+        <v>667</v>
       </c>
       <c r="O38" s="83" t="s">
-        <v>893</v>
+        <v>691</v>
       </c>
       <c r="P38" s="83" t="s">
-        <v>959</v>
+        <v>643</v>
       </c>
       <c r="Q38" s="83" t="s">
-        <v>973</v>
+        <v>692</v>
       </c>
       <c r="R38" s="83" t="s">
-        <v>895</v>
+        <v>693</v>
       </c>
       <c r="S38" s="94"/>
       <c r="V38" s="60"/>
@@ -9560,9 +8968,7 @@
       <c r="F39" s="81"/>
       <c r="G39" s="81"/>
       <c r="H39" s="81"/>
-      <c r="I39" s="81" t="s">
-        <v>1024</v>
-      </c>
+      <c r="I39" s="81"/>
       <c r="J39" s="81"/>
       <c r="K39" s="81"/>
       <c r="L39" s="81"/>
@@ -9577,45 +8983,45 @@
     <row r="40" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="56"/>
       <c r="D40" s="82" t="s">
-        <v>960</v>
+        <v>659</v>
       </c>
       <c r="E40" s="82"/>
       <c r="F40" s="82" t="s">
-        <v>894</v>
+        <v>548</v>
       </c>
       <c r="G40" s="82" t="s">
-        <v>962</v>
+        <v>668</v>
       </c>
       <c r="H40" s="82" t="s">
-        <v>964</v>
+        <v>551</v>
       </c>
       <c r="I40" s="82" t="s">
-        <v>954</v>
+        <v>868</v>
       </c>
       <c r="J40" s="82" t="s">
-        <v>960</v>
+        <v>659</v>
       </c>
       <c r="K40" s="82"/>
       <c r="L40" s="82" t="s">
-        <v>894</v>
+        <v>548</v>
       </c>
       <c r="M40" s="82" t="s">
-        <v>974</v>
+        <v>694</v>
       </c>
       <c r="N40" s="82" t="s">
-        <v>976</v>
+        <v>696</v>
       </c>
       <c r="O40" s="82" t="s">
-        <v>978</v>
+        <v>698</v>
       </c>
       <c r="P40" s="82" t="s">
-        <v>980</v>
+        <v>700</v>
       </c>
       <c r="Q40" s="82" t="s">
-        <v>982</v>
+        <v>702</v>
       </c>
       <c r="R40" s="82" t="s">
-        <v>984</v>
+        <v>704</v>
       </c>
       <c r="S40" s="91"/>
       <c r="V40" s="60"/>
@@ -9626,7 +9032,7 @@
         <v>10</v>
       </c>
       <c r="D41" s="111" t="s">
-        <v>916</v>
+        <v>809</v>
       </c>
       <c r="E41" s="111" t="s">
         <v>183</v>
@@ -9635,16 +9041,16 @@
         <v>185</v>
       </c>
       <c r="G41" s="111" t="s">
-        <v>917</v>
+        <v>812</v>
       </c>
       <c r="H41" s="111" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I41" s="111" t="s">
-        <v>912</v>
+        <v>793</v>
       </c>
       <c r="J41" s="111" t="s">
-        <v>918</v>
+        <v>813</v>
       </c>
       <c r="K41" s="111" t="s">
         <v>186</v>
@@ -9653,22 +9059,22 @@
         <v>185</v>
       </c>
       <c r="M41" s="111" t="s">
-        <v>922</v>
+        <v>826</v>
       </c>
       <c r="N41" s="111" t="s">
-        <v>923</v>
+        <v>827</v>
       </c>
       <c r="O41" s="111" t="s">
-        <v>924</v>
+        <v>828</v>
       </c>
       <c r="P41" s="111" t="s">
-        <v>925</v>
+        <v>829</v>
       </c>
       <c r="Q41" s="111" t="s">
-        <v>926</v>
+        <v>830</v>
       </c>
       <c r="R41" s="111" t="s">
-        <v>927</v>
+        <v>831</v>
       </c>
       <c r="S41" s="92"/>
       <c r="V41" s="60"/>
@@ -9676,45 +9082,45 @@
     <row r="42" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="58"/>
       <c r="D42" s="83" t="s">
-        <v>961</v>
+        <v>660</v>
       </c>
       <c r="E42" s="83"/>
       <c r="F42" s="83" t="s">
-        <v>895</v>
+        <v>693</v>
       </c>
       <c r="G42" s="83" t="s">
-        <v>963</v>
+        <v>669</v>
       </c>
       <c r="H42" s="83" t="s">
-        <v>965</v>
+        <v>670</v>
       </c>
       <c r="I42" s="83" t="s">
-        <v>955</v>
+        <v>869</v>
       </c>
       <c r="J42" s="83" t="s">
-        <v>961</v>
+        <v>660</v>
       </c>
       <c r="K42" s="83"/>
       <c r="L42" s="83" t="s">
-        <v>895</v>
+        <v>693</v>
       </c>
       <c r="M42" s="83" t="s">
-        <v>975</v>
+        <v>695</v>
       </c>
       <c r="N42" s="83" t="s">
-        <v>977</v>
+        <v>697</v>
       </c>
       <c r="O42" s="83" t="s">
-        <v>979</v>
+        <v>699</v>
       </c>
       <c r="P42" s="83" t="s">
-        <v>981</v>
+        <v>701</v>
       </c>
       <c r="Q42" s="83" t="s">
-        <v>983</v>
+        <v>703</v>
       </c>
       <c r="R42" s="83" t="s">
-        <v>985</v>
+        <v>705</v>
       </c>
       <c r="S42" s="94"/>
       <c r="V42" s="60"/>
@@ -9741,49 +9147,35 @@
     </row>
     <row r="44" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="56"/>
-      <c r="D44" s="82" t="s">
-        <v>300</v>
-      </c>
+      <c r="D44" s="82"/>
       <c r="E44" s="82" t="s">
         <v>548</v>
       </c>
       <c r="F44" s="82" t="s">
-        <v>960</v>
+        <v>659</v>
       </c>
       <c r="G44" s="82" t="s">
         <v>313</v>
       </c>
       <c r="H44" s="82" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="I44" s="82" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="J44" s="82" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="K44" s="82" t="s">
-        <v>968</v>
-      </c>
-      <c r="L44" s="82" t="s">
-        <v>548</v>
-      </c>
-      <c r="M44" s="82" t="s">
-        <v>665</v>
-      </c>
-      <c r="N44" s="82" t="s">
-        <v>551</v>
-      </c>
-      <c r="O44" s="82" t="s">
-        <v>611</v>
-      </c>
-      <c r="P44" s="82" t="s">
-        <v>656</v>
-      </c>
+        <v>677</v>
+      </c>
+      <c r="L44" s="82"/>
+      <c r="M44" s="82"/>
+      <c r="N44" s="82"/>
+      <c r="O44" s="82"/>
+      <c r="P44" s="82"/>
       <c r="Q44" s="82"/>
-      <c r="R44" s="82" t="s">
-        <v>548</v>
-      </c>
+      <c r="R44" s="82"/>
       <c r="S44" s="91"/>
       <c r="V44" s="60"/>
     </row>
@@ -9793,98 +9185,72 @@
         <v>11</v>
       </c>
       <c r="D45" s="111" t="s">
+        <v>573</v>
+      </c>
+      <c r="E45" s="111" t="s">
+        <v>185</v>
+      </c>
+      <c r="F45" s="111" t="s">
+        <v>809</v>
+      </c>
+      <c r="G45" s="111" t="s">
+        <v>832</v>
+      </c>
+      <c r="H45" s="111" t="s">
+        <v>833</v>
+      </c>
+      <c r="I45" s="111" t="s">
+        <v>834</v>
+      </c>
+      <c r="J45" s="111" t="s">
+        <v>835</v>
+      </c>
+      <c r="K45" s="111" t="s">
         <v>817</v>
       </c>
-      <c r="E45" s="111" t="s">
-        <v>836</v>
-      </c>
-      <c r="F45" s="111" t="s">
-        <v>131</v>
-      </c>
-      <c r="G45" s="111" t="s">
-        <v>842</v>
-      </c>
-      <c r="H45" s="111" t="s">
-        <v>843</v>
-      </c>
-      <c r="I45" s="111" t="s">
-        <v>844</v>
-      </c>
-      <c r="J45" s="111" t="s">
-        <v>845</v>
-      </c>
-      <c r="K45" s="111" t="s">
-        <v>827</v>
-      </c>
       <c r="L45" s="111" t="s">
-        <v>810</v>
-      </c>
-      <c r="M45" s="111" t="s">
-        <v>820</v>
-      </c>
-      <c r="N45" s="111" t="s">
-        <v>821</v>
-      </c>
-      <c r="O45" s="111" t="s">
-        <v>791</v>
-      </c>
-      <c r="P45" s="111" t="s">
-        <v>822</v>
-      </c>
-      <c r="Q45" s="111" t="s">
-        <v>817</v>
-      </c>
-      <c r="R45" s="111" t="s">
-        <v>836</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M45" s="111"/>
+      <c r="N45" s="111"/>
+      <c r="O45" s="111"/>
+      <c r="P45" s="111"/>
+      <c r="Q45" s="111"/>
+      <c r="R45" s="111"/>
       <c r="S45" s="92"/>
       <c r="V45" s="60"/>
     </row>
     <row r="46" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="58"/>
-      <c r="D46" s="83" t="s">
-        <v>664</v>
-      </c>
+      <c r="D46" s="83"/>
       <c r="E46" s="83" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="F46" s="83" t="s">
-        <v>961</v>
+        <v>660</v>
       </c>
       <c r="G46" s="83" t="s">
+        <v>681</v>
+      </c>
+      <c r="H46" s="83" t="s">
+        <v>707</v>
+      </c>
+      <c r="I46" s="83" t="s">
+        <v>709</v>
+      </c>
+      <c r="J46" s="83" t="s">
+        <v>711</v>
+      </c>
+      <c r="K46" s="83" t="s">
         <v>678</v>
       </c>
-      <c r="H46" s="83" t="s">
-        <v>703</v>
-      </c>
-      <c r="I46" s="83" t="s">
-        <v>705</v>
-      </c>
-      <c r="J46" s="83" t="s">
-        <v>707</v>
-      </c>
-      <c r="K46" s="83" t="s">
-        <v>969</v>
-      </c>
-      <c r="L46" s="83" t="s">
-        <v>689</v>
-      </c>
-      <c r="M46" s="83" t="s">
-        <v>666</v>
-      </c>
-      <c r="N46" s="83" t="s">
-        <v>667</v>
-      </c>
-      <c r="O46" s="83" t="s">
-        <v>612</v>
-      </c>
-      <c r="P46" s="83" t="s">
-        <v>657</v>
-      </c>
+      <c r="L46" s="83"/>
+      <c r="M46" s="83"/>
+      <c r="N46" s="83"/>
+      <c r="O46" s="83"/>
+      <c r="P46" s="83"/>
       <c r="Q46" s="83"/>
-      <c r="R46" s="83" t="s">
-        <v>689</v>
-      </c>
+      <c r="R46" s="83"/>
       <c r="S46" s="94"/>
       <c r="V46" s="60"/>
     </row>
@@ -9910,46 +9276,20 @@
     </row>
     <row r="48" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="56"/>
-      <c r="D48" s="82" t="s">
-        <v>690</v>
-      </c>
-      <c r="E48" s="82" t="s">
-        <v>692</v>
-      </c>
-      <c r="F48" s="82" t="s">
-        <v>694</v>
-      </c>
-      <c r="G48" s="82" t="s">
-        <v>696</v>
-      </c>
-      <c r="H48" s="82" t="s">
-        <v>698</v>
-      </c>
-      <c r="I48" s="82" t="s">
-        <v>700</v>
-      </c>
+      <c r="D48" s="82"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="82"/>
+      <c r="I48" s="82"/>
       <c r="J48" s="82"/>
-      <c r="K48" s="82" t="s">
-        <v>548</v>
-      </c>
-      <c r="L48" s="82" t="s">
-        <v>656</v>
-      </c>
-      <c r="M48" s="82" t="s">
-        <v>313</v>
-      </c>
-      <c r="N48" s="82" t="s">
-        <v>702</v>
-      </c>
-      <c r="O48" s="82" t="s">
-        <v>704</v>
-      </c>
-      <c r="P48" s="82" t="s">
-        <v>706</v>
-      </c>
-      <c r="Q48" s="82" t="s">
-        <v>674</v>
-      </c>
+      <c r="K48" s="82"/>
+      <c r="L48" s="82"/>
+      <c r="M48" s="82"/>
+      <c r="N48" s="82"/>
+      <c r="O48" s="82"/>
+      <c r="P48" s="82"/>
+      <c r="Q48" s="82"/>
       <c r="R48" s="82"/>
       <c r="S48" s="91"/>
       <c r="V48" s="60"/>
@@ -9959,96 +9299,40 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="111" t="s">
-        <v>837</v>
-      </c>
-      <c r="E49" s="111" t="s">
-        <v>838</v>
-      </c>
-      <c r="F49" s="111" t="s">
-        <v>839</v>
-      </c>
-      <c r="G49" s="111" t="s">
-        <v>840</v>
-      </c>
-      <c r="H49" s="111" t="s">
-        <v>841</v>
-      </c>
-      <c r="I49" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="J49" s="111" t="s">
-        <v>817</v>
-      </c>
-      <c r="K49" s="111" t="s">
-        <v>836</v>
-      </c>
-      <c r="L49" s="111" t="s">
-        <v>131</v>
-      </c>
-      <c r="M49" s="111" t="s">
-        <v>842</v>
-      </c>
-      <c r="N49" s="111" t="s">
-        <v>843</v>
-      </c>
-      <c r="O49" s="111" t="s">
-        <v>844</v>
-      </c>
-      <c r="P49" s="111" t="s">
-        <v>845</v>
-      </c>
-      <c r="Q49" s="111" t="s">
-        <v>827</v>
-      </c>
-      <c r="R49" s="111" t="s">
-        <v>817</v>
-      </c>
+      <c r="D49" s="111"/>
+      <c r="E49" s="111"/>
+      <c r="F49" s="111"/>
+      <c r="G49" s="111"/>
+      <c r="H49" s="111"/>
+      <c r="I49" s="111"/>
+      <c r="J49" s="111"/>
+      <c r="K49" s="111"/>
+      <c r="L49" s="111"/>
+      <c r="M49" s="111"/>
+      <c r="N49" s="111"/>
+      <c r="O49" s="111"/>
+      <c r="P49" s="111"/>
+      <c r="Q49" s="111"/>
+      <c r="R49" s="111"/>
       <c r="S49" s="92"/>
       <c r="V49" s="60"/>
     </row>
     <row r="50" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="58"/>
-      <c r="D50" s="83" t="s">
-        <v>691</v>
-      </c>
-      <c r="E50" s="83" t="s">
-        <v>693</v>
-      </c>
-      <c r="F50" s="83" t="s">
-        <v>695</v>
-      </c>
-      <c r="G50" s="83" t="s">
-        <v>697</v>
-      </c>
-      <c r="H50" s="83" t="s">
-        <v>699</v>
-      </c>
-      <c r="I50" s="83" t="s">
-        <v>701</v>
-      </c>
+      <c r="D50" s="83"/>
+      <c r="E50" s="83"/>
+      <c r="F50" s="83"/>
+      <c r="G50" s="83"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="83"/>
       <c r="J50" s="83"/>
-      <c r="K50" s="83" t="s">
-        <v>689</v>
-      </c>
-      <c r="L50" s="83" t="s">
-        <v>657</v>
-      </c>
-      <c r="M50" s="83" t="s">
-        <v>678</v>
-      </c>
-      <c r="N50" s="83" t="s">
-        <v>703</v>
-      </c>
-      <c r="O50" s="83" t="s">
-        <v>705</v>
-      </c>
-      <c r="P50" s="104" t="s">
-        <v>707</v>
-      </c>
-      <c r="Q50" s="83" t="s">
-        <v>675</v>
-      </c>
+      <c r="K50" s="83"/>
+      <c r="L50" s="83"/>
+      <c r="M50" s="83"/>
+      <c r="N50" s="83"/>
+      <c r="O50" s="83"/>
+      <c r="P50" s="104"/>
+      <c r="Q50" s="83"/>
       <c r="R50" s="83"/>
       <c r="S50" s="94"/>
       <c r="V50" s="60"/>
@@ -10076,42 +9360,42 @@
     <row r="52" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="56"/>
       <c r="D52" s="82" t="s">
-        <v>894</v>
+        <v>548</v>
       </c>
       <c r="E52" s="82" t="s">
-        <v>974</v>
+        <v>694</v>
       </c>
       <c r="F52" s="82" t="s">
-        <v>986</v>
+        <v>293</v>
       </c>
       <c r="G52" s="82"/>
       <c r="H52" s="82" t="s">
-        <v>988</v>
+        <v>713</v>
       </c>
       <c r="I52" s="82" t="s">
-        <v>990</v>
+        <v>326</v>
       </c>
       <c r="J52" s="82" t="s">
-        <v>894</v>
+        <v>548</v>
       </c>
       <c r="K52" s="82" t="s">
-        <v>984</v>
+        <v>704</v>
       </c>
       <c r="L52" s="82" t="s">
-        <v>960</v>
+        <v>659</v>
       </c>
       <c r="M52" s="82" t="s">
-        <v>986</v>
+        <v>293</v>
       </c>
       <c r="N52" s="82"/>
       <c r="O52" s="82" t="s">
-        <v>894</v>
+        <v>548</v>
       </c>
       <c r="P52" s="82" t="s">
-        <v>894</v>
+        <v>548</v>
       </c>
       <c r="Q52" s="82" t="s">
-        <v>896</v>
+        <v>716</v>
       </c>
       <c r="R52" s="82"/>
       <c r="S52" s="91"/>
@@ -10126,7 +9410,7 @@
         <v>185</v>
       </c>
       <c r="E53" s="111" t="s">
-        <v>922</v>
+        <v>826</v>
       </c>
       <c r="F53" s="111" t="s">
         <v>232</v>
@@ -10135,7 +9419,7 @@
         <v>183</v>
       </c>
       <c r="H53" s="111" t="s">
-        <v>928</v>
+        <v>836</v>
       </c>
       <c r="I53" s="111" t="s">
         <v>197</v>
@@ -10144,10 +9428,10 @@
         <v>185</v>
       </c>
       <c r="K53" s="111" t="s">
-        <v>927</v>
+        <v>831</v>
       </c>
       <c r="L53" s="111" t="s">
-        <v>918</v>
+        <v>813</v>
       </c>
       <c r="M53" s="111" t="s">
         <v>232</v>
@@ -10162,7 +9446,7 @@
         <v>185</v>
       </c>
       <c r="Q53" s="111" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="R53" s="111" t="s">
         <v>183</v>
@@ -10173,42 +9457,42 @@
     <row r="54" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="58"/>
       <c r="D54" s="83" t="s">
-        <v>895</v>
+        <v>693</v>
       </c>
       <c r="E54" s="83" t="s">
-        <v>975</v>
+        <v>695</v>
       </c>
       <c r="F54" s="83" t="s">
-        <v>987</v>
+        <v>712</v>
       </c>
       <c r="G54" s="83"/>
       <c r="H54" s="83" t="s">
-        <v>989</v>
+        <v>714</v>
       </c>
       <c r="I54" s="83" t="s">
-        <v>991</v>
+        <v>715</v>
       </c>
       <c r="J54" s="83" t="s">
-        <v>895</v>
+        <v>693</v>
       </c>
       <c r="K54" s="83" t="s">
-        <v>985</v>
+        <v>705</v>
       </c>
       <c r="L54" s="83" t="s">
-        <v>961</v>
+        <v>660</v>
       </c>
       <c r="M54" s="83" t="s">
-        <v>987</v>
+        <v>712</v>
       </c>
       <c r="N54" s="83"/>
       <c r="O54" s="83" t="s">
-        <v>895</v>
+        <v>693</v>
       </c>
       <c r="P54" s="83" t="s">
-        <v>895</v>
+        <v>693</v>
       </c>
       <c r="Q54" s="83" t="s">
-        <v>897</v>
+        <v>717</v>
       </c>
       <c r="R54" s="83"/>
       <c r="S54" s="94"/>
@@ -10237,45 +9521,45 @@
     <row r="56" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="56"/>
       <c r="D56" s="82" t="s">
-        <v>966</v>
+        <v>671</v>
       </c>
       <c r="E56" s="82" t="s">
-        <v>894</v>
+        <v>548</v>
       </c>
       <c r="F56" s="82" t="s">
-        <v>894</v>
+        <v>548</v>
       </c>
       <c r="G56" s="82" t="s">
-        <v>896</v>
+        <v>716</v>
       </c>
       <c r="H56" s="82" t="s">
-        <v>992</v>
+        <v>718</v>
       </c>
       <c r="I56" s="82"/>
       <c r="J56" s="82" t="s">
-        <v>988</v>
+        <v>713</v>
       </c>
       <c r="K56" s="82" t="s">
-        <v>990</v>
+        <v>326</v>
       </c>
       <c r="L56" s="82" t="s">
-        <v>894</v>
+        <v>548</v>
       </c>
       <c r="M56" s="82" t="s">
-        <v>994</v>
+        <v>560</v>
       </c>
       <c r="N56" s="82" t="s">
-        <v>996</v>
+        <v>721</v>
       </c>
       <c r="O56" s="82"/>
       <c r="P56" s="82" t="s">
-        <v>966</v>
+        <v>671</v>
       </c>
       <c r="Q56" s="82" t="s">
-        <v>894</v>
+        <v>548</v>
       </c>
       <c r="R56" s="82" t="s">
-        <v>994</v>
+        <v>560</v>
       </c>
       <c r="S56" s="91"/>
       <c r="V56" s="60"/>
@@ -10286,7 +9570,7 @@
         <v>14</v>
       </c>
       <c r="D57" s="111" t="s">
-        <v>919</v>
+        <v>814</v>
       </c>
       <c r="E57" s="111" t="s">
         <v>185</v>
@@ -10295,16 +9579,16 @@
         <v>185</v>
       </c>
       <c r="G57" s="113" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H57" s="111" t="s">
-        <v>929</v>
+        <v>837</v>
       </c>
       <c r="I57" s="111" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="J57" s="111" t="s">
-        <v>928</v>
+        <v>836</v>
       </c>
       <c r="K57" s="111" t="s">
         <v>197</v>
@@ -10313,22 +9597,22 @@
         <v>185</v>
       </c>
       <c r="M57" s="111" t="s">
-        <v>930</v>
+        <v>838</v>
       </c>
       <c r="N57" s="111" t="s">
-        <v>931</v>
+        <v>839</v>
       </c>
       <c r="O57" s="111" t="s">
         <v>183</v>
       </c>
       <c r="P57" s="111" t="s">
-        <v>919</v>
+        <v>814</v>
       </c>
       <c r="Q57" s="111" t="s">
         <v>185</v>
       </c>
       <c r="R57" s="111" t="s">
-        <v>930</v>
+        <v>838</v>
       </c>
       <c r="S57" s="92"/>
       <c r="V57" s="60"/>
@@ -10336,45 +9620,45 @@
     <row r="58" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="58"/>
       <c r="D58" s="83" t="s">
-        <v>967</v>
+        <v>672</v>
       </c>
       <c r="E58" s="83" t="s">
-        <v>895</v>
+        <v>693</v>
       </c>
       <c r="F58" s="83" t="s">
-        <v>895</v>
+        <v>693</v>
       </c>
       <c r="G58" s="83" t="s">
-        <v>897</v>
+        <v>717</v>
       </c>
       <c r="H58" s="83" t="s">
-        <v>993</v>
+        <v>719</v>
       </c>
       <c r="I58" s="83"/>
       <c r="J58" s="83" t="s">
-        <v>989</v>
+        <v>714</v>
       </c>
       <c r="K58" s="83" t="s">
-        <v>991</v>
+        <v>715</v>
       </c>
       <c r="L58" s="83" t="s">
-        <v>895</v>
+        <v>693</v>
       </c>
       <c r="M58" s="83" t="s">
-        <v>995</v>
+        <v>720</v>
       </c>
       <c r="N58" s="83" t="s">
-        <v>997</v>
+        <v>722</v>
       </c>
       <c r="O58" s="83"/>
       <c r="P58" s="83" t="s">
-        <v>967</v>
+        <v>672</v>
       </c>
       <c r="Q58" s="83" t="s">
-        <v>895</v>
+        <v>693</v>
       </c>
       <c r="R58" s="83" t="s">
-        <v>995</v>
+        <v>720</v>
       </c>
       <c r="S58" s="94"/>
       <c r="V58" s="60"/>
@@ -10402,43 +9686,23 @@
     <row r="60" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="56"/>
       <c r="D60" s="82" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="E60" s="82" t="s">
-        <v>714</v>
-      </c>
-      <c r="F60" s="82" t="s">
-        <v>293</v>
-      </c>
+        <v>718</v>
+      </c>
+      <c r="F60" s="82"/>
       <c r="G60" s="82"/>
-      <c r="H60" s="82" t="s">
-        <v>709</v>
-      </c>
-      <c r="I60" s="82" t="s">
-        <v>326</v>
-      </c>
-      <c r="J60" s="82" t="s">
-        <v>548</v>
-      </c>
-      <c r="K60" s="82" t="s">
-        <v>700</v>
-      </c>
-      <c r="L60" s="82" t="s">
-        <v>656</v>
-      </c>
-      <c r="M60" s="82" t="s">
-        <v>293</v>
-      </c>
+      <c r="H60" s="82"/>
+      <c r="I60" s="82"/>
+      <c r="J60" s="82"/>
+      <c r="K60" s="82"/>
+      <c r="L60" s="82"/>
+      <c r="M60" s="82"/>
       <c r="N60" s="82"/>
-      <c r="O60" s="82" t="s">
-        <v>548</v>
-      </c>
-      <c r="P60" s="82" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q60" s="82" t="s">
-        <v>712</v>
-      </c>
+      <c r="O60" s="82"/>
+      <c r="P60" s="82"/>
+      <c r="Q60" s="82"/>
       <c r="R60" s="82"/>
       <c r="S60" s="91"/>
       <c r="V60" s="60"/>
@@ -10449,93 +9713,49 @@
         <v>15</v>
       </c>
       <c r="D61" s="111" t="s">
-        <v>851</v>
+        <v>839</v>
       </c>
       <c r="E61" s="111" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="F61" s="111" t="s">
-        <v>810</v>
-      </c>
-      <c r="G61" s="113" t="s">
-        <v>790</v>
-      </c>
-      <c r="H61" s="111" t="s">
-        <v>847</v>
-      </c>
-      <c r="I61" s="111" t="s">
-        <v>848</v>
-      </c>
-      <c r="J61" s="111" t="s">
-        <v>836</v>
-      </c>
-      <c r="K61" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="L61" s="111" t="s">
-        <v>822</v>
-      </c>
-      <c r="M61" s="111" t="s">
-        <v>846</v>
-      </c>
-      <c r="N61" s="111" t="s">
-        <v>817</v>
-      </c>
-      <c r="O61" s="111" t="s">
-        <v>836</v>
-      </c>
-      <c r="P61" s="111" t="s">
-        <v>836</v>
-      </c>
-      <c r="Q61" s="111" t="s">
-        <v>265</v>
-      </c>
-      <c r="R61" s="111" t="s">
-        <v>790</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G61" s="113"/>
+      <c r="H61" s="111"/>
+      <c r="I61" s="111"/>
+      <c r="J61" s="111"/>
+      <c r="K61" s="111"/>
+      <c r="L61" s="111"/>
+      <c r="M61" s="111"/>
+      <c r="N61" s="111"/>
+      <c r="O61" s="111"/>
+      <c r="P61" s="111"/>
+      <c r="Q61" s="111"/>
+      <c r="R61" s="111"/>
       <c r="S61" s="92"/>
       <c r="V61" s="60"/>
     </row>
     <row r="62" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="58"/>
       <c r="D62" s="83" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="E62" s="83" t="s">
-        <v>715</v>
-      </c>
-      <c r="F62" s="83" t="s">
-        <v>708</v>
-      </c>
+        <v>719</v>
+      </c>
+      <c r="F62" s="83"/>
       <c r="G62" s="83"/>
-      <c r="H62" s="83" t="s">
-        <v>710</v>
-      </c>
-      <c r="I62" s="83" t="s">
-        <v>711</v>
-      </c>
-      <c r="J62" s="83" t="s">
-        <v>689</v>
-      </c>
-      <c r="K62" s="83" t="s">
-        <v>701</v>
-      </c>
-      <c r="L62" s="83" t="s">
-        <v>657</v>
-      </c>
-      <c r="M62" s="83" t="s">
-        <v>708</v>
-      </c>
+      <c r="H62" s="83"/>
+      <c r="I62" s="83"/>
+      <c r="J62" s="83"/>
+      <c r="K62" s="83"/>
+      <c r="L62" s="83"/>
+      <c r="M62" s="83"/>
       <c r="N62" s="83"/>
-      <c r="O62" s="83" t="s">
-        <v>689</v>
-      </c>
-      <c r="P62" s="83" t="s">
-        <v>689</v>
-      </c>
-      <c r="Q62" s="83" t="s">
-        <v>713</v>
-      </c>
+      <c r="O62" s="83"/>
+      <c r="P62" s="83"/>
+      <c r="Q62" s="83"/>
       <c r="R62" s="83"/>
       <c r="S62" s="94"/>
       <c r="V62" s="60"/>
@@ -10562,47 +9782,21 @@
     </row>
     <row r="64" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="56"/>
-      <c r="D64" s="82" t="s">
-        <v>668</v>
-      </c>
-      <c r="E64" s="82" t="s">
-        <v>548</v>
-      </c>
-      <c r="F64" s="82" t="s">
-        <v>548</v>
-      </c>
-      <c r="G64" s="82" t="s">
-        <v>712</v>
-      </c>
-      <c r="H64" s="82" t="s">
-        <v>714</v>
-      </c>
+      <c r="D64" s="82"/>
+      <c r="E64" s="82"/>
+      <c r="F64" s="82"/>
+      <c r="G64" s="82"/>
+      <c r="H64" s="82"/>
       <c r="I64" s="82"/>
-      <c r="J64" s="82" t="s">
-        <v>709</v>
-      </c>
-      <c r="K64" s="82" t="s">
-        <v>326</v>
-      </c>
-      <c r="L64" s="82" t="s">
-        <v>548</v>
-      </c>
-      <c r="M64" s="82" t="s">
-        <v>559</v>
-      </c>
-      <c r="N64" s="82" t="s">
-        <v>717</v>
-      </c>
+      <c r="J64" s="82"/>
+      <c r="K64" s="82"/>
+      <c r="L64" s="82"/>
+      <c r="M64" s="82"/>
+      <c r="N64" s="82"/>
       <c r="O64" s="82"/>
-      <c r="P64" s="82" t="s">
-        <v>668</v>
-      </c>
-      <c r="Q64" s="82" t="s">
-        <v>548</v>
-      </c>
-      <c r="R64" s="82" t="s">
-        <v>559</v>
-      </c>
+      <c r="P64" s="82"/>
+      <c r="Q64" s="82"/>
+      <c r="R64" s="82"/>
       <c r="S64" s="91"/>
       <c r="V64" s="60"/>
     </row>
@@ -10611,97 +9805,41 @@
         <f>B61+1</f>
         <v>16</v>
       </c>
-      <c r="D65" s="111" t="s">
-        <v>823</v>
-      </c>
-      <c r="E65" s="111" t="s">
-        <v>836</v>
-      </c>
-      <c r="F65" s="111" t="s">
-        <v>836</v>
-      </c>
-      <c r="G65" s="113" t="s">
-        <v>265</v>
-      </c>
-      <c r="H65" s="111" t="s">
-        <v>849</v>
-      </c>
-      <c r="I65" s="111" t="s">
-        <v>790</v>
-      </c>
-      <c r="J65" s="111" t="s">
-        <v>847</v>
-      </c>
-      <c r="K65" s="111" t="s">
-        <v>848</v>
-      </c>
-      <c r="L65" s="111" t="s">
-        <v>836</v>
-      </c>
-      <c r="M65" s="111" t="s">
-        <v>850</v>
-      </c>
-      <c r="N65" s="111" t="s">
-        <v>851</v>
-      </c>
-      <c r="O65" s="111" t="s">
-        <v>790</v>
-      </c>
-      <c r="P65" s="111" t="s">
-        <v>823</v>
-      </c>
-      <c r="Q65" s="111" t="s">
-        <v>836</v>
-      </c>
-      <c r="R65" s="111" t="s">
-        <v>850</v>
-      </c>
+      <c r="D65" s="111"/>
+      <c r="E65" s="111"/>
+      <c r="F65" s="111"/>
+      <c r="G65" s="113"/>
+      <c r="H65" s="111"/>
+      <c r="I65" s="111"/>
+      <c r="J65" s="111"/>
+      <c r="K65" s="111"/>
+      <c r="L65" s="111"/>
+      <c r="M65" s="111"/>
+      <c r="N65" s="111"/>
+      <c r="O65" s="111"/>
+      <c r="P65" s="111"/>
+      <c r="Q65" s="111"/>
+      <c r="R65" s="111"/>
       <c r="S65" s="92"/>
       <c r="V65" s="60"/>
     </row>
     <row r="66" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="58"/>
-      <c r="D66" s="83" t="s">
-        <v>669</v>
-      </c>
-      <c r="E66" s="83" t="s">
-        <v>689</v>
-      </c>
-      <c r="F66" s="83" t="s">
-        <v>689</v>
-      </c>
-      <c r="G66" s="83" t="s">
-        <v>713</v>
-      </c>
-      <c r="H66" s="83" t="s">
-        <v>715</v>
-      </c>
+      <c r="D66" s="83"/>
+      <c r="E66" s="83"/>
+      <c r="F66" s="83"/>
+      <c r="G66" s="83"/>
+      <c r="H66" s="83"/>
       <c r="I66" s="83"/>
-      <c r="J66" s="83" t="s">
-        <v>710</v>
-      </c>
-      <c r="K66" s="83" t="s">
-        <v>711</v>
-      </c>
-      <c r="L66" s="83" t="s">
-        <v>689</v>
-      </c>
-      <c r="M66" s="83" t="s">
-        <v>716</v>
-      </c>
-      <c r="N66" s="83" t="s">
-        <v>718</v>
-      </c>
+      <c r="J66" s="83"/>
+      <c r="K66" s="83"/>
+      <c r="L66" s="83"/>
+      <c r="M66" s="83"/>
+      <c r="N66" s="83"/>
       <c r="O66" s="83"/>
-      <c r="P66" s="83" t="s">
-        <v>669</v>
-      </c>
-      <c r="Q66" s="83" t="s">
-        <v>689</v>
-      </c>
-      <c r="R66" s="83" t="s">
-        <v>716</v>
-      </c>
+      <c r="P66" s="83"/>
+      <c r="Q66" s="83"/>
+      <c r="R66" s="83"/>
       <c r="S66" s="94"/>
       <c r="V66" s="60"/>
     </row>
@@ -10731,40 +9869,40 @@
         <v>548</v>
       </c>
       <c r="E68" s="82" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="F68" s="82" t="s">
-        <v>998</v>
+        <v>723</v>
       </c>
       <c r="G68" s="82" t="s">
-        <v>970</v>
+        <v>682</v>
       </c>
       <c r="H68" s="82" t="s">
-        <v>1000</v>
+        <v>549</v>
       </c>
       <c r="I68" s="82"/>
       <c r="J68" s="82" t="s">
-        <v>894</v>
+        <v>548</v>
       </c>
       <c r="K68" s="82" t="s">
-        <v>1002</v>
+        <v>726</v>
       </c>
       <c r="L68" s="82"/>
       <c r="M68" s="82" t="s">
-        <v>966</v>
+        <v>671</v>
       </c>
       <c r="N68" s="82" t="s">
-        <v>894</v>
+        <v>548</v>
       </c>
       <c r="O68" s="82" t="s">
-        <v>898</v>
+        <v>553</v>
       </c>
       <c r="P68" s="82"/>
       <c r="Q68" s="82" t="s">
-        <v>1004</v>
+        <v>561</v>
       </c>
       <c r="R68" s="82" t="s">
-        <v>894</v>
+        <v>548</v>
       </c>
       <c r="S68" s="91"/>
       <c r="V68" s="60"/>
@@ -10775,19 +9913,19 @@
         <v>17</v>
       </c>
       <c r="D69" s="111" t="s">
-        <v>836</v>
+        <v>185</v>
       </c>
       <c r="E69" s="111" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="F69" s="111" t="s">
-        <v>852</v>
+        <v>840</v>
       </c>
       <c r="G69" s="113" t="s">
-        <v>920</v>
+        <v>820</v>
       </c>
       <c r="H69" s="111" t="s">
-        <v>932</v>
+        <v>841</v>
       </c>
       <c r="I69" s="111" t="s">
         <v>186</v>
@@ -10796,25 +9934,25 @@
         <v>185</v>
       </c>
       <c r="K69" s="111" t="s">
-        <v>933</v>
+        <v>842</v>
       </c>
       <c r="L69" s="111" t="s">
         <v>183</v>
       </c>
       <c r="M69" s="111" t="s">
-        <v>919</v>
+        <v>814</v>
       </c>
       <c r="N69" s="111" t="s">
         <v>185</v>
       </c>
       <c r="O69" s="111" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="P69" s="111" t="s">
         <v>186</v>
       </c>
       <c r="Q69" s="111" t="s">
-        <v>934</v>
+        <v>843</v>
       </c>
       <c r="R69" s="111" t="s">
         <v>185</v>
@@ -10825,43 +9963,43 @@
     <row r="70" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="58"/>
       <c r="D70" s="83" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="E70" s="83" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="F70" s="83" t="s">
-        <v>999</v>
+        <v>724</v>
       </c>
       <c r="G70" s="83" t="s">
-        <v>971</v>
+        <v>683</v>
       </c>
       <c r="H70" s="83" t="s">
-        <v>1001</v>
+        <v>725</v>
       </c>
       <c r="I70" s="83"/>
       <c r="J70" s="83" t="s">
-        <v>895</v>
+        <v>693</v>
       </c>
       <c r="K70" s="83" t="s">
-        <v>1003</v>
+        <v>727</v>
       </c>
       <c r="L70" s="83"/>
       <c r="M70" s="83" t="s">
-        <v>967</v>
+        <v>672</v>
       </c>
       <c r="N70" s="83" t="s">
-        <v>895</v>
+        <v>693</v>
       </c>
       <c r="O70" s="83" t="s">
-        <v>899</v>
+        <v>728</v>
       </c>
       <c r="P70" s="83"/>
       <c r="Q70" s="83" t="s">
-        <v>1005</v>
+        <v>729</v>
       </c>
       <c r="R70" s="83" t="s">
-        <v>895</v>
+        <v>693</v>
       </c>
       <c r="S70" s="94"/>
       <c r="V70" s="60"/>
@@ -10889,26 +10027,46 @@
     <row r="72" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="56"/>
       <c r="D72" s="82" t="s">
-        <v>1006</v>
+        <v>304</v>
       </c>
       <c r="E72" s="82" t="s">
-        <v>898</v>
+        <v>553</v>
       </c>
       <c r="F72" s="82" t="s">
-        <v>892</v>
+        <v>554</v>
       </c>
       <c r="G72" s="82"/>
-      <c r="H72" s="82"/>
-      <c r="I72" s="82"/>
-      <c r="J72" s="82"/>
-      <c r="K72" s="82"/>
+      <c r="H72" s="82" t="s">
+        <v>612</v>
+      </c>
+      <c r="I72" s="82" t="s">
+        <v>731</v>
+      </c>
+      <c r="J72" s="82" t="s">
+        <v>614</v>
+      </c>
+      <c r="K72" s="82" t="s">
+        <v>628</v>
+      </c>
       <c r="L72" s="82"/>
-      <c r="M72" s="82"/>
-      <c r="N72" s="82"/>
-      <c r="O72" s="82"/>
-      <c r="P72" s="82"/>
-      <c r="Q72" s="82"/>
-      <c r="R72" s="82"/>
+      <c r="M72" s="82" t="s">
+        <v>733</v>
+      </c>
+      <c r="N72" s="82" t="s">
+        <v>618</v>
+      </c>
+      <c r="O72" s="82" t="s">
+        <v>620</v>
+      </c>
+      <c r="P72" s="82" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q72" s="82" t="s">
+        <v>624</v>
+      </c>
+      <c r="R72" s="82" t="s">
+        <v>626</v>
+      </c>
       <c r="S72" s="91"/>
       <c r="V72" s="60"/>
     </row>
@@ -10921,51 +10079,93 @@
         <v>190</v>
       </c>
       <c r="E73" s="111" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F73" s="111" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G73" s="111" t="s">
-        <v>915</v>
-      </c>
-      <c r="H73" s="111"/>
-      <c r="I73" s="111"/>
-      <c r="J73" s="111"/>
-      <c r="K73" s="111"/>
-      <c r="L73" s="111"/>
-      <c r="M73" s="111"/>
-      <c r="N73" s="111"/>
-      <c r="O73" s="111"/>
-      <c r="P73" s="111"/>
-      <c r="Q73" s="111"/>
-      <c r="R73" s="111"/>
+        <v>808</v>
+      </c>
+      <c r="H73" s="111" t="s">
+        <v>565</v>
+      </c>
+      <c r="I73" s="111" t="s">
+        <v>254</v>
+      </c>
+      <c r="J73" s="111" t="s">
+        <v>566</v>
+      </c>
+      <c r="K73" s="111" t="s">
+        <v>844</v>
+      </c>
+      <c r="L73" s="111" t="s">
+        <v>183</v>
+      </c>
+      <c r="M73" s="111" t="s">
+        <v>580</v>
+      </c>
+      <c r="N73" s="111" t="s">
+        <v>567</v>
+      </c>
+      <c r="O73" s="111" t="s">
+        <v>568</v>
+      </c>
+      <c r="P73" s="111" t="s">
+        <v>569</v>
+      </c>
+      <c r="Q73" s="111" t="s">
+        <v>570</v>
+      </c>
+      <c r="R73" s="111" t="s">
+        <v>571</v>
+      </c>
       <c r="S73" s="92"/>
       <c r="V73" s="60"/>
     </row>
     <row r="74" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="58"/>
       <c r="D74" s="83" t="s">
-        <v>1007</v>
+        <v>730</v>
       </c>
       <c r="E74" s="83" t="s">
-        <v>899</v>
+        <v>728</v>
       </c>
       <c r="F74" s="83" t="s">
-        <v>893</v>
+        <v>691</v>
       </c>
       <c r="G74" s="83"/>
-      <c r="H74" s="83"/>
-      <c r="I74" s="83"/>
-      <c r="J74" s="83"/>
-      <c r="K74" s="83"/>
+      <c r="H74" s="83" t="s">
+        <v>613</v>
+      </c>
+      <c r="I74" s="83" t="s">
+        <v>732</v>
+      </c>
+      <c r="J74" s="83" t="s">
+        <v>615</v>
+      </c>
+      <c r="K74" s="83" t="s">
+        <v>629</v>
+      </c>
       <c r="L74" s="83"/>
-      <c r="M74" s="83"/>
-      <c r="N74" s="83"/>
-      <c r="O74" s="83"/>
-      <c r="P74" s="83"/>
-      <c r="Q74" s="83"/>
-      <c r="R74" s="83"/>
+      <c r="M74" s="83" t="s">
+        <v>734</v>
+      </c>
+      <c r="N74" s="83" t="s">
+        <v>619</v>
+      </c>
+      <c r="O74" s="83" t="s">
+        <v>621</v>
+      </c>
+      <c r="P74" s="83" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q74" s="83" t="s">
+        <v>625</v>
+      </c>
+      <c r="R74" s="83" t="s">
+        <v>627</v>
+      </c>
       <c r="S74" s="94"/>
       <c r="V74" s="60"/>
     </row>
@@ -10992,45 +10192,43 @@
     <row r="76" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="56"/>
       <c r="D76" s="82" t="s">
+        <v>628</v>
+      </c>
+      <c r="E76" s="82" t="s">
+        <v>554</v>
+      </c>
+      <c r="F76" s="82"/>
+      <c r="G76" s="82" t="s">
+        <v>854</v>
+      </c>
+      <c r="H76" s="82" t="s">
         <v>548</v>
       </c>
-      <c r="E76" s="82" t="s">
-        <v>646</v>
-      </c>
-      <c r="F76" s="82" t="s">
-        <v>719</v>
-      </c>
-      <c r="G76" s="82" t="s">
-        <v>679</v>
-      </c>
-      <c r="H76" s="82" t="s">
-        <v>549</v>
-      </c>
-      <c r="I76" s="82"/>
+      <c r="I76" s="82" t="s">
+        <v>735</v>
+      </c>
       <c r="J76" s="82" t="s">
+        <v>737</v>
+      </c>
+      <c r="K76" s="82"/>
+      <c r="L76" s="82" t="s">
         <v>548</v>
       </c>
-      <c r="K76" s="82" t="s">
-        <v>722</v>
-      </c>
-      <c r="L76" s="82" t="s">
-        <v>668</v>
-      </c>
       <c r="M76" s="82" t="s">
-        <v>548</v>
+        <v>735</v>
       </c>
       <c r="N76" s="82" t="s">
-        <v>553</v>
-      </c>
-      <c r="O76" s="82"/>
-      <c r="P76" s="82" t="s">
-        <v>560</v>
-      </c>
+        <v>737</v>
+      </c>
+      <c r="O76" s="82" t="s">
+        <v>554</v>
+      </c>
+      <c r="P76" s="82"/>
       <c r="Q76" s="82" t="s">
         <v>548</v>
       </c>
       <c r="R76" s="82" t="s">
-        <v>304</v>
+        <v>739</v>
       </c>
       <c r="S76" s="91"/>
       <c r="V76" s="60"/>
@@ -11041,49 +10239,49 @@
         <v>19</v>
       </c>
       <c r="D77" s="111" t="s">
-        <v>836</v>
+        <v>572</v>
       </c>
       <c r="E77" s="111" t="s">
-        <v>808</v>
+        <v>577</v>
       </c>
       <c r="F77" s="111" t="s">
-        <v>852</v>
+        <v>183</v>
       </c>
       <c r="G77" s="113" t="s">
-        <v>830</v>
+        <v>581</v>
       </c>
       <c r="H77" s="111" t="s">
-        <v>853</v>
+        <v>185</v>
       </c>
       <c r="I77" s="111" t="s">
-        <v>817</v>
+        <v>582</v>
       </c>
       <c r="J77" s="111" t="s">
-        <v>836</v>
+        <v>583</v>
       </c>
       <c r="K77" s="111" t="s">
-        <v>854</v>
+        <v>183</v>
       </c>
       <c r="L77" s="111" t="s">
-        <v>823</v>
+        <v>185</v>
       </c>
       <c r="M77" s="111" t="s">
-        <v>836</v>
+        <v>582</v>
       </c>
       <c r="N77" s="111" t="s">
-        <v>855</v>
+        <v>583</v>
       </c>
       <c r="O77" s="111" t="s">
-        <v>810</v>
+        <v>577</v>
       </c>
       <c r="P77" s="111" t="s">
-        <v>856</v>
+        <v>183</v>
       </c>
       <c r="Q77" s="111" t="s">
-        <v>836</v>
+        <v>185</v>
       </c>
       <c r="R77" s="111" t="s">
-        <v>857</v>
+        <v>188</v>
       </c>
       <c r="S77" s="92"/>
       <c r="V77" s="60"/>
@@ -11091,45 +10289,43 @@
     <row r="78" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="58"/>
       <c r="D78" s="83" t="s">
-        <v>689</v>
+        <v>629</v>
       </c>
       <c r="E78" s="83" t="s">
-        <v>647</v>
-      </c>
-      <c r="F78" s="83" t="s">
-        <v>720</v>
-      </c>
+        <v>691</v>
+      </c>
+      <c r="F78" s="83"/>
       <c r="G78" s="83" t="s">
-        <v>680</v>
+        <v>855</v>
       </c>
       <c r="H78" s="83" t="s">
-        <v>721</v>
-      </c>
-      <c r="I78" s="83"/>
+        <v>693</v>
+      </c>
+      <c r="I78" s="83" t="s">
+        <v>736</v>
+      </c>
       <c r="J78" s="83" t="s">
-        <v>689</v>
-      </c>
-      <c r="K78" s="83" t="s">
-        <v>723</v>
-      </c>
+        <v>738</v>
+      </c>
+      <c r="K78" s="83"/>
       <c r="L78" s="83" t="s">
-        <v>669</v>
+        <v>693</v>
       </c>
       <c r="M78" s="83" t="s">
-        <v>689</v>
+        <v>736</v>
       </c>
       <c r="N78" s="83" t="s">
-        <v>724</v>
-      </c>
-      <c r="O78" s="83"/>
-      <c r="P78" s="83" t="s">
-        <v>725</v>
-      </c>
+        <v>738</v>
+      </c>
+      <c r="O78" s="83" t="s">
+        <v>691</v>
+      </c>
+      <c r="P78" s="83"/>
       <c r="Q78" s="83" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="R78" s="83" t="s">
-        <v>726</v>
+        <v>740</v>
       </c>
       <c r="S78" s="94"/>
       <c r="V78" s="60"/>
@@ -11157,49 +10353,43 @@
     <row r="80" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="56"/>
       <c r="D80" s="82" t="s">
-        <v>607</v>
+        <v>741</v>
       </c>
       <c r="E80" s="82" t="s">
-        <v>727</v>
-      </c>
-      <c r="F80" s="82" t="s">
-        <v>952</v>
-      </c>
+        <v>743</v>
+      </c>
+      <c r="F80" s="82"/>
       <c r="G80" s="82" t="s">
-        <v>625</v>
+        <v>745</v>
       </c>
       <c r="H80" s="82" t="s">
-        <v>727</v>
+        <v>655</v>
       </c>
       <c r="I80" s="82" t="s">
-        <v>729</v>
+        <v>747</v>
       </c>
       <c r="J80" s="82" t="s">
-        <v>615</v>
-      </c>
-      <c r="K80" s="82" t="s">
-        <v>884</v>
-      </c>
+        <v>749</v>
+      </c>
+      <c r="K80" s="82"/>
       <c r="L80" s="82" t="s">
-        <v>619</v>
+        <v>556</v>
       </c>
       <c r="M80" s="82" t="s">
-        <v>621</v>
-      </c>
-      <c r="N80" s="82" t="s">
-        <v>956</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="N80" s="82"/>
       <c r="O80" s="82" t="s">
-        <v>625</v>
+        <v>303</v>
       </c>
       <c r="P80" s="82" t="s">
-        <v>554</v>
+        <v>278</v>
       </c>
       <c r="Q80" s="82" t="s">
-        <v>888</v>
+        <v>754</v>
       </c>
       <c r="R80" s="82" t="s">
-        <v>1008</v>
+        <v>756</v>
       </c>
       <c r="S80" s="91"/>
       <c r="V80" s="60"/>
@@ -11210,49 +10400,49 @@
         <v>20</v>
       </c>
       <c r="D81" s="111" t="s">
-        <v>788</v>
+        <v>584</v>
       </c>
       <c r="E81" s="111" t="s">
-        <v>858</v>
+        <v>585</v>
       </c>
       <c r="F81" s="111" t="s">
-        <v>789</v>
+        <v>183</v>
       </c>
       <c r="G81" s="111" t="s">
-        <v>859</v>
+        <v>586</v>
       </c>
       <c r="H81" s="111" t="s">
-        <v>790</v>
+        <v>587</v>
       </c>
       <c r="I81" s="111" t="s">
-        <v>872</v>
+        <v>588</v>
       </c>
       <c r="J81" s="111" t="s">
-        <v>793</v>
+        <v>589</v>
       </c>
       <c r="K81" s="111" t="s">
-        <v>794</v>
+        <v>216</v>
       </c>
       <c r="L81" s="111" t="s">
-        <v>795</v>
+        <v>590</v>
       </c>
       <c r="M81" s="111" t="s">
-        <v>796</v>
+        <v>575</v>
       </c>
       <c r="N81" s="111" t="s">
-        <v>913</v>
+        <v>183</v>
       </c>
       <c r="O81" s="111" t="s">
-        <v>797</v>
+        <v>845</v>
       </c>
       <c r="P81" s="111" t="s">
-        <v>835</v>
+        <v>846</v>
       </c>
       <c r="Q81" s="111" t="s">
-        <v>790</v>
+        <v>847</v>
       </c>
       <c r="R81" s="111" t="s">
-        <v>935</v>
+        <v>848</v>
       </c>
       <c r="S81" s="92"/>
       <c r="V81" s="60"/>
@@ -11260,49 +10450,43 @@
     <row r="82" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="58"/>
       <c r="D82" s="83" t="s">
-        <v>608</v>
+        <v>742</v>
       </c>
       <c r="E82" s="83" t="s">
-        <v>728</v>
-      </c>
-      <c r="F82" s="83" t="s">
-        <v>953</v>
-      </c>
+        <v>744</v>
+      </c>
+      <c r="F82" s="83"/>
       <c r="G82" s="83" t="s">
-        <v>626</v>
+        <v>746</v>
       </c>
       <c r="H82" s="83" t="s">
-        <v>728</v>
+        <v>656</v>
       </c>
       <c r="I82" s="83" t="s">
-        <v>730</v>
+        <v>748</v>
       </c>
       <c r="J82" s="83" t="s">
-        <v>616</v>
-      </c>
-      <c r="K82" s="83" t="s">
-        <v>885</v>
-      </c>
+        <v>750</v>
+      </c>
+      <c r="K82" s="83"/>
       <c r="L82" s="83" t="s">
-        <v>620</v>
+        <v>751</v>
       </c>
       <c r="M82" s="83" t="s">
-        <v>622</v>
-      </c>
-      <c r="N82" s="83" t="s">
-        <v>957</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="N82" s="83"/>
       <c r="O82" s="83" t="s">
-        <v>626</v>
+        <v>752</v>
       </c>
       <c r="P82" s="83" t="s">
-        <v>688</v>
+        <v>753</v>
       </c>
       <c r="Q82" s="83" t="s">
-        <v>889</v>
+        <v>755</v>
       </c>
       <c r="R82" s="83" t="s">
-        <v>1009</v>
+        <v>757</v>
       </c>
       <c r="S82" s="94"/>
       <c r="V82" s="60"/>
@@ -11329,51 +10513,21 @@
     </row>
     <row r="84" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B84" s="56"/>
-      <c r="D84" s="82" t="s">
-        <v>553</v>
-      </c>
-      <c r="E84" s="82" t="s">
-        <v>900</v>
-      </c>
-      <c r="F84" s="82" t="s">
-        <v>733</v>
-      </c>
-      <c r="G84" s="82" t="s">
-        <v>894</v>
-      </c>
-      <c r="H84" s="82" t="s">
-        <v>548</v>
-      </c>
-      <c r="I84" s="82" t="s">
-        <v>731</v>
-      </c>
-      <c r="J84" s="82" t="s">
-        <v>902</v>
-      </c>
-      <c r="K84" s="82" t="s">
-        <v>554</v>
-      </c>
-      <c r="L84" s="82" t="s">
-        <v>900</v>
-      </c>
-      <c r="M84" s="82" t="s">
-        <v>548</v>
-      </c>
-      <c r="N84" s="82" t="s">
-        <v>735</v>
-      </c>
-      <c r="O84" s="82" t="s">
-        <v>906</v>
-      </c>
-      <c r="P84" s="82" t="s">
-        <v>739</v>
-      </c>
-      <c r="Q84" s="82" t="s">
-        <v>904</v>
-      </c>
-      <c r="R84" s="82" t="s">
-        <v>741</v>
-      </c>
+      <c r="D84" s="82"/>
+      <c r="E84" s="82"/>
+      <c r="F84" s="82"/>
+      <c r="G84" s="82"/>
+      <c r="H84" s="82"/>
+      <c r="I84" s="82"/>
+      <c r="J84" s="82"/>
+      <c r="K84" s="82"/>
+      <c r="L84" s="82"/>
+      <c r="M84" s="82"/>
+      <c r="N84" s="82"/>
+      <c r="O84" s="82"/>
+      <c r="P84" s="82"/>
+      <c r="Q84" s="82"/>
+      <c r="R84" s="82"/>
       <c r="S84" s="91"/>
       <c r="V84" s="60"/>
     </row>
@@ -11383,100 +10537,42 @@
         <v>21</v>
       </c>
       <c r="D85" s="111" t="s">
-        <v>855</v>
-      </c>
-      <c r="E85" s="111" t="s">
-        <v>936</v>
-      </c>
-      <c r="F85" s="111" t="s">
-        <v>937</v>
-      </c>
-      <c r="G85" s="113" t="s">
-        <v>790</v>
-      </c>
-      <c r="H85" s="111" t="s">
-        <v>836</v>
-      </c>
-      <c r="I85" s="111" t="s">
-        <v>936</v>
-      </c>
-      <c r="J85" s="111" t="s">
-        <v>937</v>
-      </c>
-      <c r="K85" s="111" t="s">
-        <v>835</v>
-      </c>
-      <c r="L85" s="111" t="s">
-        <v>790</v>
-      </c>
-      <c r="M85" s="111" t="s">
-        <v>836</v>
-      </c>
-      <c r="N85" s="111" t="s">
-        <v>938</v>
-      </c>
-      <c r="O85" s="111" t="s">
-        <v>939</v>
-      </c>
-      <c r="P85" s="111" t="s">
-        <v>860</v>
-      </c>
-      <c r="Q85" s="111" t="s">
-        <v>790</v>
-      </c>
-      <c r="R85" s="111" t="s">
-        <v>861</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="E85" s="111"/>
+      <c r="F85" s="111"/>
+      <c r="G85" s="113"/>
+      <c r="H85" s="111"/>
+      <c r="I85" s="111"/>
+      <c r="J85" s="111"/>
+      <c r="K85" s="111"/>
+      <c r="L85" s="111"/>
+      <c r="M85" s="111"/>
+      <c r="N85" s="111"/>
+      <c r="O85" s="111"/>
+      <c r="P85" s="111"/>
+      <c r="Q85" s="111"/>
+      <c r="R85" s="111"/>
       <c r="S85" s="92"/>
       <c r="V85" s="60"/>
     </row>
     <row r="86" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B86" s="58"/>
-      <c r="D86" s="83" t="s">
-        <v>724</v>
-      </c>
-      <c r="E86" s="83" t="s">
-        <v>901</v>
-      </c>
-      <c r="F86" s="83" t="s">
-        <v>734</v>
-      </c>
-      <c r="G86" s="83" t="s">
-        <v>895</v>
-      </c>
-      <c r="H86" s="83" t="s">
-        <v>689</v>
-      </c>
-      <c r="I86" s="83" t="s">
-        <v>732</v>
-      </c>
-      <c r="J86" s="83" t="s">
-        <v>903</v>
-      </c>
-      <c r="K86" s="83" t="s">
-        <v>688</v>
-      </c>
-      <c r="L86" s="83" t="s">
-        <v>901</v>
-      </c>
-      <c r="M86" s="83" t="s">
-        <v>689</v>
-      </c>
-      <c r="N86" s="83" t="s">
-        <v>736</v>
-      </c>
-      <c r="O86" s="83" t="s">
-        <v>907</v>
-      </c>
-      <c r="P86" s="83" t="s">
-        <v>740</v>
-      </c>
-      <c r="Q86" s="83" t="s">
-        <v>905</v>
-      </c>
-      <c r="R86" s="83" t="s">
-        <v>742</v>
-      </c>
+      <c r="D86" s="83"/>
+      <c r="E86" s="83"/>
+      <c r="F86" s="83"/>
+      <c r="G86" s="83"/>
+      <c r="H86" s="83"/>
+      <c r="I86" s="83"/>
+      <c r="J86" s="83"/>
+      <c r="K86" s="83"/>
+      <c r="L86" s="83"/>
+      <c r="M86" s="83"/>
+      <c r="N86" s="83"/>
+      <c r="O86" s="83"/>
+      <c r="P86" s="83"/>
+      <c r="Q86" s="83"/>
+      <c r="R86" s="83"/>
       <c r="S86" s="94"/>
       <c r="V86" s="60"/>
     </row>
@@ -11502,49 +10598,21 @@
     </row>
     <row r="88" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B88" s="56"/>
-      <c r="D88" s="82" t="s">
-        <v>652</v>
-      </c>
-      <c r="E88" s="82" t="s">
-        <v>743</v>
-      </c>
-      <c r="F88" s="82" t="s">
-        <v>745</v>
-      </c>
-      <c r="G88" s="82" t="s">
-        <v>652</v>
-      </c>
-      <c r="H88" s="82" t="s">
-        <v>556</v>
-      </c>
-      <c r="I88" s="82" t="s">
-        <v>551</v>
-      </c>
-      <c r="J88" s="82" t="s">
-        <v>556</v>
-      </c>
-      <c r="K88" s="82" t="s">
-        <v>303</v>
-      </c>
-      <c r="L88" s="82" t="s">
-        <v>1010</v>
-      </c>
-      <c r="M88" s="82" t="s">
-        <v>303</v>
-      </c>
-      <c r="N88" s="82" t="s">
-        <v>751</v>
-      </c>
-      <c r="O88" s="82" t="s">
-        <v>749</v>
-      </c>
-      <c r="P88" s="82" t="s">
-        <v>751</v>
-      </c>
+      <c r="D88" s="82"/>
+      <c r="E88" s="82"/>
+      <c r="F88" s="82"/>
+      <c r="G88" s="82"/>
+      <c r="H88" s="82"/>
+      <c r="I88" s="82"/>
+      <c r="J88" s="82"/>
+      <c r="K88" s="82"/>
+      <c r="L88" s="82"/>
+      <c r="M88" s="82"/>
+      <c r="N88" s="82"/>
+      <c r="O88" s="82"/>
+      <c r="P88" s="82"/>
       <c r="Q88" s="82"/>
-      <c r="R88" s="82" t="s">
-        <v>548</v>
-      </c>
+      <c r="R88" s="82"/>
       <c r="S88" s="91"/>
       <c r="V88" s="60"/>
     </row>
@@ -11553,99 +10621,41 @@
         <f>B85+1</f>
         <v>22</v>
       </c>
-      <c r="D89" s="111" t="s">
-        <v>862</v>
-      </c>
-      <c r="E89" s="111" t="s">
-        <v>863</v>
-      </c>
-      <c r="F89" s="111" t="s">
-        <v>864</v>
-      </c>
-      <c r="G89" s="111" t="s">
-        <v>940</v>
-      </c>
-      <c r="H89" s="111" t="s">
-        <v>865</v>
-      </c>
-      <c r="I89" s="111" t="s">
-        <v>821</v>
-      </c>
-      <c r="J89" s="111" t="s">
-        <v>790</v>
-      </c>
-      <c r="K89" s="111" t="s">
-        <v>866</v>
-      </c>
-      <c r="L89" s="111" t="s">
-        <v>867</v>
-      </c>
-      <c r="M89" s="111" t="s">
-        <v>941</v>
-      </c>
-      <c r="N89" s="111" t="s">
-        <v>868</v>
-      </c>
-      <c r="O89" s="111" t="s">
-        <v>810</v>
-      </c>
-      <c r="P89" s="111" t="s">
-        <v>868</v>
-      </c>
-      <c r="Q89" s="111" t="s">
-        <v>810</v>
-      </c>
-      <c r="R89" s="111" t="s">
-        <v>185</v>
-      </c>
+      <c r="D89" s="111"/>
+      <c r="E89" s="111"/>
+      <c r="F89" s="111"/>
+      <c r="G89" s="111"/>
+      <c r="H89" s="111"/>
+      <c r="I89" s="111"/>
+      <c r="J89" s="111"/>
+      <c r="K89" s="111"/>
+      <c r="L89" s="111"/>
+      <c r="M89" s="111"/>
+      <c r="N89" s="111"/>
+      <c r="O89" s="111"/>
+      <c r="P89" s="111"/>
+      <c r="Q89" s="111"/>
+      <c r="R89" s="111"/>
       <c r="S89" s="92"/>
       <c r="V89" s="60"/>
     </row>
     <row r="90" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B90" s="58"/>
-      <c r="D90" s="83" t="s">
-        <v>653</v>
-      </c>
-      <c r="E90" s="83" t="s">
-        <v>744</v>
-      </c>
-      <c r="F90" s="83" t="s">
-        <v>746</v>
-      </c>
-      <c r="G90" s="83" t="s">
-        <v>653</v>
-      </c>
-      <c r="H90" s="83" t="s">
-        <v>747</v>
-      </c>
-      <c r="I90" s="83" t="s">
-        <v>667</v>
-      </c>
-      <c r="J90" s="83" t="s">
-        <v>747</v>
-      </c>
-      <c r="K90" s="83" t="s">
-        <v>748</v>
-      </c>
-      <c r="L90" s="83" t="s">
-        <v>1011</v>
-      </c>
-      <c r="M90" s="83" t="s">
-        <v>748</v>
-      </c>
-      <c r="N90" s="83" t="s">
-        <v>752</v>
-      </c>
-      <c r="O90" s="83" t="s">
-        <v>750</v>
-      </c>
-      <c r="P90" s="83" t="s">
-        <v>752</v>
-      </c>
+      <c r="D90" s="83"/>
+      <c r="E90" s="83"/>
+      <c r="F90" s="83"/>
+      <c r="G90" s="83"/>
+      <c r="H90" s="83"/>
+      <c r="I90" s="83"/>
+      <c r="J90" s="83"/>
+      <c r="K90" s="83"/>
+      <c r="L90" s="83"/>
+      <c r="M90" s="83"/>
+      <c r="N90" s="83"/>
+      <c r="O90" s="83"/>
+      <c r="P90" s="83"/>
       <c r="Q90" s="83"/>
-      <c r="R90" s="83" t="s">
-        <v>689</v>
-      </c>
+      <c r="R90" s="83"/>
       <c r="S90" s="94"/>
       <c r="V90" s="60"/>
     </row>
@@ -11672,45 +10682,45 @@
     <row r="92" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B92" s="56"/>
       <c r="D92" s="82" t="s">
-        <v>731</v>
+        <v>555</v>
       </c>
       <c r="E92" s="82" t="s">
+        <v>314</v>
+      </c>
+      <c r="F92" s="82" t="s">
+        <v>675</v>
+      </c>
+      <c r="G92" s="82" t="s">
+        <v>558</v>
+      </c>
+      <c r="H92" s="82"/>
+      <c r="I92" s="82" t="s">
         <v>733</v>
       </c>
-      <c r="F92" s="82" t="s">
+      <c r="J92" s="82" t="s">
+        <v>618</v>
+      </c>
+      <c r="K92" s="82" t="s">
+        <v>620</v>
+      </c>
+      <c r="L92" s="82" t="s">
+        <v>622</v>
+      </c>
+      <c r="M92" s="82" t="s">
+        <v>624</v>
+      </c>
+      <c r="N92" s="82" t="s">
+        <v>626</v>
+      </c>
+      <c r="O92" s="82" t="s">
+        <v>628</v>
+      </c>
+      <c r="P92" s="82" t="s">
         <v>554</v>
       </c>
-      <c r="G92" s="82"/>
-      <c r="H92" s="82" t="s">
-        <v>548</v>
-      </c>
-      <c r="I92" s="82" t="s">
-        <v>735</v>
-      </c>
-      <c r="J92" s="82" t="s">
-        <v>737</v>
-      </c>
-      <c r="K92" s="82" t="s">
-        <v>739</v>
-      </c>
-      <c r="L92" s="82"/>
-      <c r="M92" s="82" t="s">
-        <v>741</v>
-      </c>
-      <c r="N92" s="82" t="s">
-        <v>652</v>
-      </c>
-      <c r="O92" s="82" t="s">
-        <v>743</v>
-      </c>
-      <c r="P92" s="82" t="s">
-        <v>745</v>
-      </c>
-      <c r="Q92" s="82" t="s">
-        <v>556</v>
-      </c>
+      <c r="Q92" s="82"/>
       <c r="R92" s="82" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="S92" s="91"/>
       <c r="V92" s="60"/>
@@ -11721,49 +10731,49 @@
         <v>23</v>
       </c>
       <c r="D93" s="111" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="E93" s="111" t="s">
-        <v>581</v>
+        <v>196</v>
       </c>
       <c r="F93" s="111" t="s">
         <v>576</v>
       </c>
       <c r="G93" s="111" t="s">
+        <v>592</v>
+      </c>
+      <c r="H93" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="H93" s="111" t="s">
-        <v>185</v>
-      </c>
       <c r="I93" s="111" t="s">
-        <v>188</v>
+        <v>580</v>
       </c>
       <c r="J93" s="111" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="K93" s="111" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="L93" s="111" t="s">
+        <v>569</v>
+      </c>
+      <c r="M93" s="111" t="s">
+        <v>570</v>
+      </c>
+      <c r="N93" s="111" t="s">
+        <v>571</v>
+      </c>
+      <c r="O93" s="111" t="s">
+        <v>572</v>
+      </c>
+      <c r="P93" s="111" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q93" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="M93" s="111" t="s">
-        <v>584</v>
-      </c>
-      <c r="N93" s="111" t="s">
-        <v>585</v>
-      </c>
-      <c r="O93" s="111" t="s">
-        <v>586</v>
-      </c>
-      <c r="P93" s="111" t="s">
-        <v>587</v>
-      </c>
-      <c r="Q93" s="111" t="s">
-        <v>588</v>
-      </c>
       <c r="R93" s="111" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="S93" s="92"/>
       <c r="V93" s="60"/>
@@ -11771,45 +10781,45 @@
     <row r="94" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B94" s="58"/>
       <c r="D94" s="83" t="s">
-        <v>732</v>
+        <v>758</v>
       </c>
       <c r="E94" s="83" t="s">
+        <v>759</v>
+      </c>
+      <c r="F94" s="83" t="s">
+        <v>676</v>
+      </c>
+      <c r="G94" s="83" t="s">
+        <v>760</v>
+      </c>
+      <c r="H94" s="83"/>
+      <c r="I94" s="83" t="s">
         <v>734</v>
       </c>
-      <c r="F94" s="83" t="s">
-        <v>688</v>
-      </c>
-      <c r="G94" s="83"/>
-      <c r="H94" s="83" t="s">
-        <v>689</v>
-      </c>
-      <c r="I94" s="83" t="s">
-        <v>736</v>
-      </c>
       <c r="J94" s="83" t="s">
-        <v>738</v>
+        <v>619</v>
       </c>
       <c r="K94" s="83" t="s">
-        <v>740</v>
-      </c>
-      <c r="L94" s="83"/>
+        <v>621</v>
+      </c>
+      <c r="L94" s="83" t="s">
+        <v>623</v>
+      </c>
       <c r="M94" s="83" t="s">
-        <v>742</v>
+        <v>625</v>
       </c>
       <c r="N94" s="83" t="s">
-        <v>653</v>
+        <v>627</v>
       </c>
       <c r="O94" s="83" t="s">
-        <v>744</v>
+        <v>629</v>
       </c>
       <c r="P94" s="83" t="s">
-        <v>746</v>
-      </c>
-      <c r="Q94" s="83" t="s">
-        <v>747</v>
-      </c>
+        <v>691</v>
+      </c>
+      <c r="Q94" s="83"/>
       <c r="R94" s="83" t="s">
-        <v>667</v>
+        <v>728</v>
       </c>
       <c r="S94" s="94"/>
       <c r="V94" s="60"/>
@@ -11837,48 +10847,38 @@
     <row r="96" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B96" s="56"/>
       <c r="D96" s="82" t="s">
+        <v>856</v>
+      </c>
+      <c r="E96" s="82" t="s">
+        <v>858</v>
+      </c>
+      <c r="F96" s="82" t="s">
+        <v>628</v>
+      </c>
+      <c r="G96" s="82" t="s">
+        <v>624</v>
+      </c>
+      <c r="H96" s="82" t="s">
         <v>555</v>
       </c>
-      <c r="E96" s="82" t="s">
-        <v>314</v>
-      </c>
-      <c r="F96" s="82" t="s">
-        <v>672</v>
-      </c>
-      <c r="G96" s="82" t="s">
-        <v>557</v>
-      </c>
-      <c r="H96" s="82" t="s">
-        <v>751</v>
-      </c>
       <c r="I96" s="82" t="s">
-        <v>729</v>
+        <v>860</v>
       </c>
       <c r="J96" s="82" t="s">
-        <v>615</v>
+        <v>555</v>
       </c>
       <c r="K96" s="82" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="L96" s="82" t="s">
-        <v>619</v>
-      </c>
-      <c r="M96" s="82" t="s">
-        <v>621</v>
-      </c>
-      <c r="N96" s="82" t="s">
-        <v>956</v>
-      </c>
-      <c r="O96" s="82" t="s">
-        <v>625</v>
-      </c>
-      <c r="P96" s="82" t="s">
-        <v>554</v>
-      </c>
+        <v>731</v>
+      </c>
+      <c r="M96" s="82"/>
+      <c r="N96" s="82"/>
+      <c r="O96" s="82"/>
+      <c r="P96" s="82"/>
       <c r="Q96" s="82"/>
-      <c r="R96" s="82" t="s">
-        <v>553</v>
-      </c>
+      <c r="R96" s="82"/>
       <c r="S96" s="91"/>
       <c r="V96" s="60"/>
     </row>
@@ -11888,98 +10888,78 @@
         <v>24</v>
       </c>
       <c r="D97" s="111" t="s">
-        <v>869</v>
+        <v>593</v>
       </c>
       <c r="E97" s="111" t="s">
-        <v>870</v>
+        <v>594</v>
       </c>
       <c r="F97" s="111" t="s">
-        <v>826</v>
+        <v>572</v>
       </c>
       <c r="G97" s="113" t="s">
-        <v>871</v>
+        <v>570</v>
       </c>
       <c r="H97" s="111" t="s">
-        <v>790</v>
+        <v>591</v>
       </c>
       <c r="I97" s="111" t="s">
-        <v>872</v>
+        <v>595</v>
       </c>
       <c r="J97" s="111" t="s">
-        <v>793</v>
+        <v>591</v>
       </c>
       <c r="K97" s="111" t="s">
-        <v>794</v>
+        <v>565</v>
       </c>
       <c r="L97" s="111" t="s">
-        <v>795</v>
+        <v>254</v>
       </c>
       <c r="M97" s="111" t="s">
-        <v>796</v>
-      </c>
-      <c r="N97" s="111" t="s">
-        <v>913</v>
-      </c>
-      <c r="O97" s="111" t="s">
-        <v>797</v>
-      </c>
-      <c r="P97" s="111" t="s">
-        <v>835</v>
-      </c>
-      <c r="Q97" s="111" t="s">
-        <v>790</v>
-      </c>
-      <c r="R97" s="111" t="s">
-        <v>855</v>
-      </c>
+        <v>808</v>
+      </c>
+      <c r="N97" s="111"/>
+      <c r="O97" s="111"/>
+      <c r="P97" s="111"/>
+      <c r="Q97" s="111"/>
+      <c r="R97" s="111"/>
       <c r="S97" s="92"/>
       <c r="V97" s="60"/>
     </row>
     <row r="98" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B98" s="58"/>
       <c r="D98" s="83" t="s">
-        <v>753</v>
+        <v>857</v>
       </c>
       <c r="E98" s="83" t="s">
-        <v>754</v>
+        <v>859</v>
       </c>
       <c r="F98" s="83" t="s">
-        <v>673</v>
+        <v>629</v>
       </c>
       <c r="G98" s="83" t="s">
-        <v>755</v>
+        <v>625</v>
       </c>
       <c r="H98" s="83" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="I98" s="83" t="s">
-        <v>730</v>
+        <v>861</v>
       </c>
       <c r="J98" s="83" t="s">
-        <v>616</v>
+        <v>758</v>
       </c>
       <c r="K98" s="83" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="L98" s="83" t="s">
-        <v>620</v>
-      </c>
-      <c r="M98" s="83" t="s">
-        <v>622</v>
-      </c>
-      <c r="N98" s="83" t="s">
-        <v>957</v>
-      </c>
-      <c r="O98" s="83" t="s">
-        <v>626</v>
-      </c>
-      <c r="P98" s="83" t="s">
-        <v>688</v>
-      </c>
+        <v>732</v>
+      </c>
+      <c r="M98" s="83"/>
+      <c r="N98" s="83"/>
+      <c r="O98" s="83"/>
+      <c r="P98" s="83"/>
       <c r="Q98" s="83"/>
-      <c r="R98" s="83" t="s">
-        <v>724</v>
-      </c>
+      <c r="R98" s="83"/>
       <c r="S98" s="94"/>
       <c r="V98" s="60"/>
     </row>
@@ -12005,33 +10985,15 @@
     </row>
     <row r="100" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B100" s="56"/>
-      <c r="D100" s="82" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E100" s="82" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F100" s="82" t="s">
-        <v>625</v>
-      </c>
-      <c r="G100" s="82" t="s">
-        <v>621</v>
-      </c>
-      <c r="H100" s="82" t="s">
-        <v>555</v>
-      </c>
-      <c r="I100" s="82" t="s">
-        <v>1016</v>
-      </c>
-      <c r="J100" s="82" t="s">
-        <v>555</v>
-      </c>
-      <c r="K100" s="82" t="s">
-        <v>607</v>
-      </c>
-      <c r="L100" s="82" t="s">
-        <v>727</v>
-      </c>
+      <c r="D100" s="82"/>
+      <c r="E100" s="82"/>
+      <c r="F100" s="82"/>
+      <c r="G100" s="82"/>
+      <c r="H100" s="82"/>
+      <c r="I100" s="82"/>
+      <c r="J100" s="82"/>
+      <c r="K100" s="82"/>
+      <c r="L100" s="82"/>
       <c r="M100" s="82"/>
       <c r="N100" s="82"/>
       <c r="O100" s="82"/>
@@ -12046,36 +11008,16 @@
         <f>B97+1</f>
         <v>25</v>
       </c>
-      <c r="D101" s="111" t="s">
-        <v>942</v>
-      </c>
-      <c r="E101" s="111" t="s">
-        <v>943</v>
-      </c>
-      <c r="F101" s="111" t="s">
-        <v>797</v>
-      </c>
-      <c r="G101" s="111" t="s">
-        <v>796</v>
-      </c>
-      <c r="H101" s="111" t="s">
-        <v>869</v>
-      </c>
-      <c r="I101" s="111" t="s">
-        <v>944</v>
-      </c>
-      <c r="J101" s="111" t="s">
-        <v>869</v>
-      </c>
-      <c r="K101" s="111" t="s">
-        <v>788</v>
-      </c>
-      <c r="L101" s="111" t="s">
-        <v>858</v>
-      </c>
-      <c r="M101" s="111" t="s">
-        <v>814</v>
-      </c>
+      <c r="D101" s="111"/>
+      <c r="E101" s="111"/>
+      <c r="F101" s="111"/>
+      <c r="G101" s="111"/>
+      <c r="H101" s="111"/>
+      <c r="I101" s="111"/>
+      <c r="J101" s="111"/>
+      <c r="K101" s="111"/>
+      <c r="L101" s="111"/>
+      <c r="M101" s="111"/>
       <c r="N101" s="111"/>
       <c r="O101" s="111"/>
       <c r="P101" s="111"/>
@@ -12086,33 +11028,15 @@
     </row>
     <row r="102" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B102" s="58"/>
-      <c r="D102" s="83" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E102" s="83" t="s">
-        <v>1015</v>
-      </c>
-      <c r="F102" s="83" t="s">
-        <v>626</v>
-      </c>
-      <c r="G102" s="83" t="s">
-        <v>622</v>
-      </c>
-      <c r="H102" s="83" t="s">
-        <v>753</v>
-      </c>
-      <c r="I102" s="83" t="s">
-        <v>1017</v>
-      </c>
-      <c r="J102" s="83" t="s">
-        <v>753</v>
-      </c>
-      <c r="K102" s="83" t="s">
-        <v>608</v>
-      </c>
-      <c r="L102" s="83" t="s">
-        <v>728</v>
-      </c>
+      <c r="D102" s="83"/>
+      <c r="E102" s="83"/>
+      <c r="F102" s="83"/>
+      <c r="G102" s="83"/>
+      <c r="H102" s="83"/>
+      <c r="I102" s="83"/>
+      <c r="J102" s="83"/>
+      <c r="K102" s="83"/>
+      <c r="L102" s="83"/>
       <c r="M102" s="83"/>
       <c r="N102" s="83"/>
       <c r="O102" s="83"/>
@@ -12145,45 +11069,45 @@
     <row r="104" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B104" s="56"/>
       <c r="D104" s="82" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E104" s="82" t="s">
-        <v>314</v>
+        <v>761</v>
       </c>
       <c r="F104" s="82" t="s">
-        <v>672</v>
+        <v>618</v>
       </c>
       <c r="G104" s="82" t="s">
-        <v>557</v>
-      </c>
-      <c r="H104" s="82"/>
+        <v>620</v>
+      </c>
+      <c r="H104" s="82" t="s">
+        <v>622</v>
+      </c>
       <c r="I104" s="82" t="s">
-        <v>729</v>
+        <v>624</v>
       </c>
       <c r="J104" s="82" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="K104" s="82" t="s">
-        <v>617</v>
-      </c>
-      <c r="L104" s="82" t="s">
-        <v>619</v>
-      </c>
+        <v>628</v>
+      </c>
+      <c r="L104" s="82"/>
       <c r="M104" s="82" t="s">
-        <v>621</v>
+        <v>300</v>
       </c>
       <c r="N104" s="82" t="s">
-        <v>623</v>
+        <v>310</v>
       </c>
       <c r="O104" s="82" t="s">
-        <v>625</v>
+        <v>559</v>
       </c>
       <c r="P104" s="82" t="s">
-        <v>554</v>
+        <v>765</v>
       </c>
       <c r="Q104" s="82"/>
       <c r="R104" s="82" t="s">
-        <v>553</v>
+        <v>300</v>
       </c>
       <c r="S104" s="91"/>
       <c r="V104" s="60"/>
@@ -12194,49 +11118,49 @@
         <v>26</v>
       </c>
       <c r="D105" s="111" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="E105" s="111" t="s">
-        <v>196</v>
+        <v>849</v>
       </c>
       <c r="F105" s="111" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="G105" s="113" t="s">
-        <v>590</v>
+        <v>568</v>
       </c>
       <c r="H105" s="111" t="s">
+        <v>569</v>
+      </c>
+      <c r="I105" s="111" t="s">
+        <v>570</v>
+      </c>
+      <c r="J105" s="111" t="s">
+        <v>571</v>
+      </c>
+      <c r="K105" s="111" t="s">
+        <v>572</v>
+      </c>
+      <c r="L105" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="I105" s="111" t="s">
-        <v>579</v>
-      </c>
-      <c r="J105" s="111" t="s">
-        <v>566</v>
-      </c>
-      <c r="K105" s="111" t="s">
-        <v>567</v>
-      </c>
-      <c r="L105" s="111" t="s">
-        <v>568</v>
-      </c>
       <c r="M105" s="111" t="s">
-        <v>569</v>
+        <v>191</v>
       </c>
       <c r="N105" s="111" t="s">
-        <v>570</v>
+        <v>195</v>
       </c>
       <c r="O105" s="114" t="s">
-        <v>571</v>
+        <v>597</v>
       </c>
       <c r="P105" s="111" t="s">
-        <v>576</v>
+        <v>598</v>
       </c>
       <c r="Q105" s="111" t="s">
         <v>183</v>
       </c>
       <c r="R105" s="111" t="s">
-        <v>578</v>
+        <v>191</v>
       </c>
       <c r="S105" s="92"/>
       <c r="V105" s="60"/>
@@ -12244,45 +11168,45 @@
     <row r="106" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B106" s="58"/>
       <c r="D106" s="83" t="s">
-        <v>753</v>
+        <v>691</v>
       </c>
       <c r="E106" s="83" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
       <c r="F106" s="83" t="s">
-        <v>673</v>
+        <v>619</v>
       </c>
       <c r="G106" s="83" t="s">
-        <v>755</v>
-      </c>
-      <c r="H106" s="83"/>
+        <v>621</v>
+      </c>
+      <c r="H106" s="83" t="s">
+        <v>623</v>
+      </c>
       <c r="I106" s="83" t="s">
-        <v>730</v>
+        <v>625</v>
       </c>
       <c r="J106" s="83" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="K106" s="83" t="s">
-        <v>618</v>
-      </c>
-      <c r="L106" s="83" t="s">
-        <v>620</v>
-      </c>
+        <v>629</v>
+      </c>
+      <c r="L106" s="83"/>
       <c r="M106" s="83" t="s">
-        <v>622</v>
+        <v>667</v>
       </c>
       <c r="N106" s="83" t="s">
-        <v>624</v>
+        <v>763</v>
       </c>
       <c r="O106" s="83" t="s">
-        <v>626</v>
+        <v>764</v>
       </c>
       <c r="P106" s="83" t="s">
-        <v>688</v>
+        <v>766</v>
       </c>
       <c r="Q106" s="83"/>
       <c r="R106" s="83" t="s">
-        <v>724</v>
+        <v>667</v>
       </c>
       <c r="S106" s="94"/>
       <c r="V106" s="60"/>
@@ -12310,48 +11234,44 @@
     <row r="108" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B108" s="56"/>
       <c r="D108" s="82" t="s">
-        <v>554</v>
+        <v>310</v>
       </c>
       <c r="E108" s="82" t="s">
-        <v>756</v>
+        <v>716</v>
       </c>
       <c r="F108" s="82" t="s">
-        <v>615</v>
-      </c>
-      <c r="G108" s="82" t="s">
-        <v>617</v>
-      </c>
+        <v>765</v>
+      </c>
+      <c r="G108" s="82"/>
       <c r="H108" s="82" t="s">
-        <v>619</v>
+        <v>300</v>
       </c>
       <c r="I108" s="82" t="s">
-        <v>621</v>
+        <v>548</v>
       </c>
       <c r="J108" s="82" t="s">
-        <v>956</v>
+        <v>284</v>
       </c>
       <c r="K108" s="82" t="s">
-        <v>625</v>
-      </c>
-      <c r="L108" s="82" t="s">
-        <v>625</v>
-      </c>
+        <v>765</v>
+      </c>
+      <c r="L108" s="82"/>
       <c r="M108" s="82" t="s">
         <v>300</v>
       </c>
       <c r="N108" s="82" t="s">
-        <v>310</v>
+        <v>548</v>
       </c>
       <c r="O108" s="82" t="s">
-        <v>558</v>
+        <v>768</v>
       </c>
       <c r="P108" s="82" t="s">
-        <v>760</v>
-      </c>
-      <c r="Q108" s="82"/>
-      <c r="R108" s="82" t="s">
-        <v>300</v>
-      </c>
+        <v>768</v>
+      </c>
+      <c r="Q108" s="82" t="s">
+        <v>765</v>
+      </c>
+      <c r="R108" s="82"/>
       <c r="S108" s="91"/>
       <c r="V108" s="60"/>
     </row>
@@ -12361,49 +11281,49 @@
         <v>27</v>
       </c>
       <c r="D109" s="111" t="s">
-        <v>835</v>
+        <v>195</v>
       </c>
       <c r="E109" s="111" t="s">
-        <v>873</v>
+        <v>578</v>
       </c>
       <c r="F109" s="111" t="s">
-        <v>793</v>
+        <v>598</v>
       </c>
       <c r="G109" s="111" t="s">
-        <v>794</v>
+        <v>183</v>
       </c>
       <c r="H109" s="111" t="s">
-        <v>795</v>
+        <v>191</v>
       </c>
       <c r="I109" s="111" t="s">
-        <v>796</v>
+        <v>185</v>
       </c>
       <c r="J109" s="111" t="s">
-        <v>913</v>
+        <v>225</v>
       </c>
       <c r="K109" s="111" t="s">
-        <v>797</v>
+        <v>598</v>
       </c>
       <c r="L109" s="111" t="s">
-        <v>790</v>
+        <v>183</v>
       </c>
       <c r="M109" s="111" t="s">
-        <v>819</v>
+        <v>191</v>
       </c>
       <c r="N109" s="111" t="s">
-        <v>945</v>
+        <v>185</v>
       </c>
       <c r="O109" s="111" t="s">
-        <v>946</v>
+        <v>599</v>
       </c>
       <c r="P109" s="111" t="s">
-        <v>881</v>
+        <v>599</v>
       </c>
       <c r="Q109" s="111" t="s">
-        <v>790</v>
+        <v>598</v>
       </c>
       <c r="R109" s="111" t="s">
-        <v>819</v>
+        <v>186</v>
       </c>
       <c r="S109" s="92"/>
       <c r="V109" s="60"/>
@@ -12411,48 +11331,44 @@
     <row r="110" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B110" s="58"/>
       <c r="D110" s="83" t="s">
-        <v>688</v>
+        <v>763</v>
       </c>
       <c r="E110" s="83" t="s">
-        <v>757</v>
+        <v>717</v>
       </c>
       <c r="F110" s="83" t="s">
-        <v>616</v>
-      </c>
-      <c r="G110" s="83" t="s">
-        <v>618</v>
-      </c>
+        <v>766</v>
+      </c>
+      <c r="G110" s="83"/>
       <c r="H110" s="83" t="s">
-        <v>620</v>
+        <v>667</v>
       </c>
       <c r="I110" s="83" t="s">
-        <v>622</v>
+        <v>693</v>
       </c>
       <c r="J110" s="83" t="s">
-        <v>957</v>
+        <v>767</v>
       </c>
       <c r="K110" s="83" t="s">
-        <v>626</v>
-      </c>
-      <c r="L110" s="83" t="s">
-        <v>626</v>
-      </c>
+        <v>766</v>
+      </c>
+      <c r="L110" s="83"/>
       <c r="M110" s="83" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="N110" s="83" t="s">
-        <v>758</v>
+        <v>693</v>
       </c>
       <c r="O110" s="83" t="s">
-        <v>759</v>
+        <v>769</v>
       </c>
       <c r="P110" s="83" t="s">
-        <v>761</v>
-      </c>
-      <c r="Q110" s="83"/>
-      <c r="R110" s="83" t="s">
-        <v>664</v>
-      </c>
+        <v>769</v>
+      </c>
+      <c r="Q110" s="83" t="s">
+        <v>766</v>
+      </c>
+      <c r="R110" s="83"/>
       <c r="S110" s="94"/>
       <c r="V110" s="60"/>
     </row>
@@ -12479,43 +11395,37 @@
     <row r="112" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B112" s="56"/>
       <c r="D112" s="82" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="E112" s="82" t="s">
-        <v>712</v>
+        <v>771</v>
       </c>
       <c r="F112" s="82" t="s">
-        <v>760</v>
-      </c>
-      <c r="G112" s="82"/>
+        <v>263</v>
+      </c>
+      <c r="G112" s="82" t="s">
+        <v>647</v>
+      </c>
       <c r="H112" s="82" t="s">
-        <v>300</v>
-      </c>
-      <c r="I112" s="82" t="s">
-        <v>548</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="I112" s="82"/>
       <c r="J112" s="82" t="s">
-        <v>284</v>
+        <v>773</v>
       </c>
       <c r="K112" s="82" t="s">
-        <v>760</v>
-      </c>
-      <c r="L112" s="82"/>
+        <v>775</v>
+      </c>
+      <c r="L112" s="82" t="s">
+        <v>661</v>
+      </c>
       <c r="M112" s="82" t="s">
-        <v>300</v>
-      </c>
-      <c r="N112" s="82" t="s">
-        <v>548</v>
-      </c>
-      <c r="O112" s="82" t="s">
-        <v>763</v>
-      </c>
-      <c r="P112" s="82" t="s">
-        <v>763</v>
-      </c>
-      <c r="Q112" s="82" t="s">
-        <v>760</v>
-      </c>
+        <v>777</v>
+      </c>
+      <c r="N112" s="82"/>
+      <c r="O112" s="82"/>
+      <c r="P112" s="82"/>
+      <c r="Q112" s="82"/>
       <c r="R112" s="82"/>
       <c r="S112" s="91"/>
       <c r="V112" s="60"/>
@@ -12526,93 +11436,79 @@
         <v>28</v>
       </c>
       <c r="D113" s="111" t="s">
-        <v>945</v>
+        <v>202</v>
       </c>
       <c r="E113" s="111" t="s">
-        <v>265</v>
+        <v>850</v>
       </c>
       <c r="F113" s="111" t="s">
-        <v>881</v>
+        <v>187</v>
       </c>
       <c r="G113" s="111" t="s">
-        <v>790</v>
+        <v>803</v>
       </c>
       <c r="H113" s="111" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
       <c r="I113" s="111" t="s">
-        <v>836</v>
+        <v>808</v>
       </c>
       <c r="J113" s="111" t="s">
-        <v>3</v>
+        <v>851</v>
       </c>
       <c r="K113" s="111" t="s">
-        <v>881</v>
+        <v>852</v>
       </c>
       <c r="L113" s="111" t="s">
-        <v>790</v>
+        <v>810</v>
       </c>
       <c r="M113" s="111" t="s">
-        <v>819</v>
+        <v>853</v>
       </c>
       <c r="N113" s="111" t="s">
-        <v>836</v>
-      </c>
-      <c r="O113" s="114" t="s">
-        <v>947</v>
-      </c>
-      <c r="P113" s="111" t="s">
-        <v>947</v>
-      </c>
-      <c r="Q113" s="111" t="s">
-        <v>881</v>
-      </c>
-      <c r="R113" s="111" t="s">
-        <v>810</v>
-      </c>
+        <v>808</v>
+      </c>
+      <c r="O113" s="114"/>
+      <c r="P113" s="111"/>
+      <c r="Q113" s="111"/>
+      <c r="R113" s="111"/>
       <c r="S113" s="92"/>
       <c r="V113" s="60"/>
     </row>
     <row r="114" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B114" s="58"/>
       <c r="D114" s="83" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="E114" s="83" t="s">
-        <v>713</v>
+        <v>772</v>
       </c>
       <c r="F114" s="83" t="s">
-        <v>761</v>
-      </c>
-      <c r="G114" s="83"/>
+        <v>646</v>
+      </c>
+      <c r="G114" s="83" t="s">
+        <v>648</v>
+      </c>
       <c r="H114" s="83" t="s">
-        <v>664</v>
-      </c>
-      <c r="I114" s="83" t="s">
-        <v>689</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="I114" s="83"/>
       <c r="J114" s="83" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
       <c r="K114" s="83" t="s">
-        <v>761</v>
-      </c>
-      <c r="L114" s="83"/>
+        <v>776</v>
+      </c>
+      <c r="L114" s="83" t="s">
+        <v>662</v>
+      </c>
       <c r="M114" s="83" t="s">
-        <v>664</v>
-      </c>
-      <c r="N114" s="83" t="s">
-        <v>689</v>
-      </c>
-      <c r="O114" s="83" t="s">
-        <v>764</v>
-      </c>
-      <c r="P114" s="83" t="s">
-        <v>764</v>
-      </c>
-      <c r="Q114" s="83" t="s">
-        <v>761</v>
-      </c>
+        <v>778</v>
+      </c>
+      <c r="N114" s="83"/>
+      <c r="O114" s="83"/>
+      <c r="P114" s="83"/>
+      <c r="Q114" s="83"/>
       <c r="R114" s="83"/>
       <c r="S114" s="94"/>
       <c r="V114" s="60"/>
@@ -12639,49 +11535,21 @@
     </row>
     <row r="116" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B116" s="56"/>
-      <c r="D116" s="82" t="s">
-        <v>283</v>
-      </c>
-      <c r="E116" s="82" t="s">
-        <v>766</v>
-      </c>
-      <c r="F116" s="82" t="s">
-        <v>263</v>
-      </c>
-      <c r="G116" s="82" t="s">
-        <v>644</v>
-      </c>
-      <c r="H116" s="82" t="s">
-        <v>646</v>
-      </c>
-      <c r="I116" s="82" t="s">
-        <v>619</v>
-      </c>
-      <c r="J116" s="82" t="s">
-        <v>768</v>
-      </c>
-      <c r="K116" s="82" t="s">
-        <v>770</v>
-      </c>
-      <c r="L116" s="82" t="s">
-        <v>658</v>
-      </c>
-      <c r="M116" s="82" t="s">
-        <v>772</v>
-      </c>
-      <c r="N116" s="82" t="s">
-        <v>310</v>
-      </c>
-      <c r="O116" s="82" t="s">
-        <v>558</v>
-      </c>
-      <c r="P116" s="82" t="s">
-        <v>760</v>
-      </c>
+      <c r="D116" s="82"/>
+      <c r="E116" s="82"/>
+      <c r="F116" s="82"/>
+      <c r="G116" s="82"/>
+      <c r="H116" s="82"/>
+      <c r="I116" s="82"/>
+      <c r="J116" s="82"/>
+      <c r="K116" s="82"/>
+      <c r="L116" s="82"/>
+      <c r="M116" s="82"/>
+      <c r="N116" s="82"/>
+      <c r="O116" s="82"/>
+      <c r="P116" s="82"/>
       <c r="Q116" s="82"/>
-      <c r="R116" s="82" t="s">
-        <v>300</v>
-      </c>
+      <c r="R116" s="82"/>
       <c r="S116" s="91"/>
       <c r="V116" s="60"/>
     </row>
@@ -12690,99 +11558,41 @@
         <f>B113+1</f>
         <v>29</v>
       </c>
-      <c r="D117" s="111" t="s">
-        <v>875</v>
-      </c>
-      <c r="E117" s="111" t="s">
-        <v>876</v>
-      </c>
-      <c r="F117" s="113" t="s">
-        <v>806</v>
-      </c>
-      <c r="G117" s="113" t="s">
-        <v>807</v>
-      </c>
-      <c r="H117" s="111" t="s">
-        <v>808</v>
-      </c>
-      <c r="I117" s="111" t="s">
-        <v>814</v>
-      </c>
-      <c r="J117" s="111" t="s">
-        <v>877</v>
-      </c>
-      <c r="K117" s="111" t="s">
-        <v>878</v>
-      </c>
-      <c r="L117" s="111" t="s">
-        <v>815</v>
-      </c>
-      <c r="M117" s="111" t="s">
-        <v>879</v>
-      </c>
-      <c r="N117" s="111" t="s">
-        <v>814</v>
-      </c>
-      <c r="O117" s="111" t="s">
-        <v>592</v>
-      </c>
-      <c r="P117" s="111" t="s">
-        <v>593</v>
-      </c>
-      <c r="Q117" s="111" t="s">
-        <v>183</v>
-      </c>
-      <c r="R117" s="111" t="s">
-        <v>191</v>
-      </c>
+      <c r="D117" s="111"/>
+      <c r="E117" s="111"/>
+      <c r="F117" s="113"/>
+      <c r="G117" s="113"/>
+      <c r="H117" s="111"/>
+      <c r="I117" s="111"/>
+      <c r="J117" s="111"/>
+      <c r="K117" s="111"/>
+      <c r="L117" s="111"/>
+      <c r="M117" s="111"/>
+      <c r="N117" s="111"/>
+      <c r="O117" s="111"/>
+      <c r="P117" s="111"/>
+      <c r="Q117" s="111"/>
+      <c r="R117" s="111"/>
       <c r="S117" s="92"/>
       <c r="V117" s="60"/>
     </row>
     <row r="118" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B118" s="58"/>
-      <c r="D118" s="83" t="s">
-        <v>765</v>
-      </c>
-      <c r="E118" s="83" t="s">
-        <v>767</v>
-      </c>
-      <c r="F118" s="83" t="s">
-        <v>643</v>
-      </c>
-      <c r="G118" s="83" t="s">
-        <v>645</v>
-      </c>
-      <c r="H118" s="83" t="s">
-        <v>647</v>
-      </c>
-      <c r="I118" s="83" t="s">
-        <v>620</v>
-      </c>
-      <c r="J118" s="83" t="s">
-        <v>769</v>
-      </c>
-      <c r="K118" s="83" t="s">
-        <v>771</v>
-      </c>
-      <c r="L118" s="83" t="s">
-        <v>659</v>
-      </c>
-      <c r="M118" s="83" t="s">
-        <v>773</v>
-      </c>
-      <c r="N118" s="83" t="s">
-        <v>758</v>
-      </c>
-      <c r="O118" s="83" t="s">
-        <v>759</v>
-      </c>
-      <c r="P118" s="83" t="s">
-        <v>761</v>
-      </c>
+      <c r="D118" s="83"/>
+      <c r="E118" s="83"/>
+      <c r="F118" s="83"/>
+      <c r="G118" s="83"/>
+      <c r="H118" s="83"/>
+      <c r="I118" s="83"/>
+      <c r="J118" s="83"/>
+      <c r="K118" s="83"/>
+      <c r="L118" s="83"/>
+      <c r="M118" s="83"/>
+      <c r="N118" s="83"/>
+      <c r="O118" s="83"/>
+      <c r="P118" s="83"/>
       <c r="Q118" s="83"/>
-      <c r="R118" s="83" t="s">
-        <v>664</v>
-      </c>
+      <c r="R118" s="83"/>
       <c r="S118" s="94"/>
       <c r="V118" s="60"/>
     </row>
@@ -12809,42 +11619,44 @@
     <row r="120" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B120" s="56"/>
       <c r="D120" s="82" t="s">
-        <v>310</v>
+        <v>554</v>
       </c>
       <c r="E120" s="82" t="s">
-        <v>712</v>
+        <v>779</v>
       </c>
       <c r="F120" s="82" t="s">
-        <v>760</v>
-      </c>
-      <c r="G120" s="82"/>
+        <v>618</v>
+      </c>
+      <c r="G120" s="82" t="s">
+        <v>620</v>
+      </c>
       <c r="H120" s="82" t="s">
-        <v>300</v>
+        <v>622</v>
       </c>
       <c r="I120" s="82" t="s">
-        <v>548</v>
+        <v>624</v>
       </c>
       <c r="J120" s="82" t="s">
-        <v>284</v>
+        <v>626</v>
       </c>
       <c r="K120" s="82" t="s">
-        <v>760</v>
-      </c>
-      <c r="L120" s="82"/>
-      <c r="M120" s="82" t="s">
-        <v>300</v>
-      </c>
+        <v>628</v>
+      </c>
+      <c r="L120" s="82" t="s">
+        <v>765</v>
+      </c>
+      <c r="M120" s="82"/>
       <c r="N120" s="82" t="s">
-        <v>548</v>
+        <v>665</v>
       </c>
       <c r="O120" s="82" t="s">
-        <v>763</v>
+        <v>779</v>
       </c>
       <c r="P120" s="82" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="Q120" s="82" t="s">
-        <v>760</v>
+        <v>781</v>
       </c>
       <c r="R120" s="82"/>
       <c r="S120" s="91"/>
@@ -12856,49 +11668,49 @@
         <v>30</v>
       </c>
       <c r="D121" s="111" t="s">
-        <v>195</v>
+        <v>577</v>
       </c>
       <c r="E121" s="111" t="s">
-        <v>577</v>
+        <v>600</v>
       </c>
       <c r="F121" s="111" t="s">
-        <v>593</v>
+        <v>567</v>
       </c>
       <c r="G121" s="113" t="s">
+        <v>568</v>
+      </c>
+      <c r="H121" s="111" t="s">
+        <v>569</v>
+      </c>
+      <c r="I121" s="111" t="s">
+        <v>570</v>
+      </c>
+      <c r="J121" s="111" t="s">
+        <v>571</v>
+      </c>
+      <c r="K121" s="111" t="s">
+        <v>572</v>
+      </c>
+      <c r="L121" s="111" t="s">
+        <v>598</v>
+      </c>
+      <c r="M121" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="H121" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="I121" s="111" t="s">
-        <v>185</v>
-      </c>
-      <c r="J121" s="111" t="s">
-        <v>225</v>
-      </c>
-      <c r="K121" s="111" t="s">
-        <v>593</v>
-      </c>
-      <c r="L121" s="111" t="s">
-        <v>183</v>
-      </c>
-      <c r="M121" s="111" t="s">
-        <v>191</v>
-      </c>
       <c r="N121" s="111" t="s">
-        <v>185</v>
+        <v>574</v>
       </c>
       <c r="O121" s="111" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="P121" s="111" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="Q121" s="111" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="R121" s="111" t="s">
-        <v>183</v>
+        <v>596</v>
       </c>
       <c r="S121" s="92"/>
       <c r="V121" s="60"/>
@@ -12906,42 +11718,44 @@
     <row r="122" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B122" s="58"/>
       <c r="D122" s="83" t="s">
-        <v>758</v>
+        <v>691</v>
       </c>
       <c r="E122" s="83" t="s">
-        <v>713</v>
+        <v>780</v>
       </c>
       <c r="F122" s="83" t="s">
-        <v>761</v>
-      </c>
-      <c r="G122" s="83"/>
+        <v>619</v>
+      </c>
+      <c r="G122" s="83" t="s">
+        <v>621</v>
+      </c>
       <c r="H122" s="83" t="s">
-        <v>664</v>
+        <v>623</v>
       </c>
       <c r="I122" s="83" t="s">
-        <v>689</v>
+        <v>625</v>
       </c>
       <c r="J122" s="83" t="s">
-        <v>762</v>
+        <v>627</v>
       </c>
       <c r="K122" s="83" t="s">
-        <v>761</v>
-      </c>
-      <c r="L122" s="83"/>
-      <c r="M122" s="83" t="s">
-        <v>664</v>
-      </c>
+        <v>629</v>
+      </c>
+      <c r="L122" s="83" t="s">
+        <v>766</v>
+      </c>
+      <c r="M122" s="83"/>
       <c r="N122" s="83" t="s">
-        <v>689</v>
+        <v>666</v>
       </c>
       <c r="O122" s="83" t="s">
-        <v>764</v>
+        <v>780</v>
       </c>
       <c r="P122" s="83" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="Q122" s="83" t="s">
-        <v>761</v>
+        <v>782</v>
       </c>
       <c r="R122" s="83"/>
       <c r="S122" s="94"/>
@@ -12970,48 +11784,44 @@
     <row r="124" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B124" s="56"/>
       <c r="D124" s="82" t="s">
-        <v>554</v>
+        <v>788</v>
       </c>
       <c r="E124" s="82" t="s">
-        <v>774</v>
-      </c>
-      <c r="F124" s="82" t="s">
-        <v>615</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="F124" s="82"/>
       <c r="G124" s="82" t="s">
-        <v>617</v>
+        <v>788</v>
       </c>
       <c r="H124" s="82" t="s">
-        <v>619</v>
-      </c>
-      <c r="I124" s="82" t="s">
-        <v>621</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="I124" s="82"/>
       <c r="J124" s="82" t="s">
-        <v>956</v>
+        <v>622</v>
       </c>
       <c r="K124" s="82" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="L124" s="82" t="s">
-        <v>760</v>
+        <v>788</v>
       </c>
       <c r="M124" s="82" t="s">
-        <v>772</v>
-      </c>
-      <c r="N124" s="82" t="s">
-        <v>662</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="N124" s="82"/>
       <c r="O124" s="82" t="s">
-        <v>774</v>
+        <v>622</v>
       </c>
       <c r="P124" s="82" t="s">
-        <v>760</v>
+        <v>624</v>
       </c>
       <c r="Q124" s="82" t="s">
-        <v>776</v>
-      </c>
-      <c r="R124" s="82"/>
+        <v>687</v>
+      </c>
+      <c r="R124" s="82" t="s">
+        <v>788</v>
+      </c>
       <c r="S124" s="91"/>
       <c r="V124" s="60"/>
     </row>
@@ -13021,49 +11831,49 @@
         <v>31</v>
       </c>
       <c r="D125" s="111" t="s">
-        <v>835</v>
+        <v>602</v>
       </c>
       <c r="E125" s="111" t="s">
-        <v>880</v>
+        <v>603</v>
       </c>
       <c r="F125" s="111" t="s">
-        <v>793</v>
+        <v>183</v>
       </c>
       <c r="G125" s="113" t="s">
-        <v>794</v>
+        <v>602</v>
       </c>
       <c r="H125" s="111" t="s">
-        <v>795</v>
+        <v>603</v>
       </c>
       <c r="I125" s="111" t="s">
-        <v>796</v>
+        <v>183</v>
       </c>
       <c r="J125" s="111" t="s">
-        <v>913</v>
+        <v>569</v>
       </c>
       <c r="K125" s="111" t="s">
-        <v>797</v>
+        <v>570</v>
       </c>
       <c r="L125" s="111" t="s">
-        <v>881</v>
+        <v>602</v>
       </c>
       <c r="M125" s="111" t="s">
-        <v>790</v>
+        <v>603</v>
       </c>
       <c r="N125" s="111" t="s">
-        <v>818</v>
+        <v>183</v>
       </c>
       <c r="O125" s="111" t="s">
-        <v>880</v>
+        <v>569</v>
       </c>
       <c r="P125" s="111" t="s">
-        <v>881</v>
+        <v>570</v>
       </c>
       <c r="Q125" s="111" t="s">
-        <v>948</v>
+        <v>604</v>
       </c>
       <c r="R125" s="111" t="s">
-        <v>874</v>
+        <v>602</v>
       </c>
       <c r="S125" s="92"/>
       <c r="V125" s="60"/>
@@ -13071,48 +11881,44 @@
     <row r="126" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B126" s="58"/>
       <c r="D126" s="83" t="s">
+        <v>789</v>
+      </c>
+      <c r="E126" s="83" t="s">
+        <v>783</v>
+      </c>
+      <c r="F126" s="83"/>
+      <c r="G126" s="83" t="s">
+        <v>789</v>
+      </c>
+      <c r="H126" s="83" t="s">
+        <v>783</v>
+      </c>
+      <c r="I126" s="83"/>
+      <c r="J126" s="83" t="s">
+        <v>623</v>
+      </c>
+      <c r="K126" s="83" t="s">
+        <v>625</v>
+      </c>
+      <c r="L126" s="83" t="s">
+        <v>789</v>
+      </c>
+      <c r="M126" s="83" t="s">
+        <v>783</v>
+      </c>
+      <c r="N126" s="83"/>
+      <c r="O126" s="83" t="s">
+        <v>623</v>
+      </c>
+      <c r="P126" s="83" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q126" s="83" t="s">
         <v>688</v>
       </c>
-      <c r="E126" s="83" t="s">
-        <v>775</v>
-      </c>
-      <c r="F126" s="83" t="s">
-        <v>616</v>
-      </c>
-      <c r="G126" s="83" t="s">
-        <v>618</v>
-      </c>
-      <c r="H126" s="83" t="s">
-        <v>620</v>
-      </c>
-      <c r="I126" s="83" t="s">
-        <v>622</v>
-      </c>
-      <c r="J126" s="83" t="s">
-        <v>957</v>
-      </c>
-      <c r="K126" s="83" t="s">
-        <v>626</v>
-      </c>
-      <c r="L126" s="83" t="s">
-        <v>761</v>
-      </c>
-      <c r="M126" s="83" t="s">
-        <v>773</v>
-      </c>
-      <c r="N126" s="83" t="s">
-        <v>663</v>
-      </c>
-      <c r="O126" s="83" t="s">
-        <v>775</v>
-      </c>
-      <c r="P126" s="83" t="s">
-        <v>761</v>
-      </c>
-      <c r="Q126" s="83" t="s">
-        <v>777</v>
-      </c>
-      <c r="R126" s="83"/>
+      <c r="R126" s="83" t="s">
+        <v>789</v>
+      </c>
       <c r="S126" s="94"/>
       <c r="V126" s="60"/>
     </row>
@@ -13139,50 +11945,32 @@
     <row r="128" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B128" s="56"/>
       <c r="D128" s="82" t="s">
-        <v>783</v>
-      </c>
-      <c r="E128" s="82" t="s">
         <v>285</v>
       </c>
+      <c r="E128" s="82"/>
       <c r="F128" s="82" t="s">
-        <v>908</v>
+        <v>612</v>
       </c>
       <c r="G128" s="82" t="s">
-        <v>783</v>
+        <v>731</v>
       </c>
       <c r="H128" s="82" t="s">
-        <v>910</v>
+        <v>614</v>
       </c>
       <c r="I128" s="82" t="s">
-        <v>886</v>
+        <v>784</v>
       </c>
       <c r="J128" s="82" t="s">
-        <v>619</v>
-      </c>
-      <c r="K128" s="82" t="s">
-        <v>621</v>
-      </c>
-      <c r="L128" s="82" t="s">
-        <v>783</v>
-      </c>
-      <c r="M128" s="82" t="s">
-        <v>910</v>
-      </c>
-      <c r="N128" s="82" t="s">
-        <v>886</v>
-      </c>
-      <c r="O128" s="82" t="s">
-        <v>619</v>
-      </c>
-      <c r="P128" s="82" t="s">
-        <v>621</v>
-      </c>
-      <c r="Q128" s="82" t="s">
-        <v>684</v>
-      </c>
-      <c r="R128" s="82" t="s">
-        <v>783</v>
-      </c>
+        <v>786</v>
+      </c>
+      <c r="K128" s="82"/>
+      <c r="L128" s="82"/>
+      <c r="M128" s="82"/>
+      <c r="N128" s="82"/>
+      <c r="O128" s="82"/>
+      <c r="P128" s="82"/>
+      <c r="Q128" s="82"/>
+      <c r="R128" s="82"/>
       <c r="S128" s="91"/>
       <c r="V128" s="60"/>
     </row>
@@ -13192,100 +11980,68 @@
         <v>32</v>
       </c>
       <c r="D129" s="111" t="s">
-        <v>949</v>
+        <v>603</v>
       </c>
       <c r="E129" s="111" t="s">
-        <v>950</v>
+        <v>183</v>
       </c>
       <c r="F129" s="111" t="s">
-        <v>790</v>
+        <v>565</v>
       </c>
       <c r="G129" s="111" t="s">
-        <v>949</v>
+        <v>254</v>
       </c>
       <c r="H129" s="111" t="s">
-        <v>950</v>
+        <v>566</v>
       </c>
       <c r="I129" s="111" t="s">
-        <v>790</v>
+        <v>605</v>
       </c>
       <c r="J129" s="111" t="s">
-        <v>795</v>
+        <v>606</v>
       </c>
       <c r="K129" s="111" t="s">
-        <v>796</v>
-      </c>
-      <c r="L129" s="111" t="s">
-        <v>949</v>
-      </c>
-      <c r="M129" s="111" t="s">
-        <v>950</v>
-      </c>
-      <c r="N129" s="111" t="s">
-        <v>790</v>
-      </c>
-      <c r="O129" s="111" t="s">
-        <v>795</v>
-      </c>
-      <c r="P129" s="111" t="s">
-        <v>796</v>
-      </c>
-      <c r="Q129" s="111" t="s">
-        <v>951</v>
-      </c>
-      <c r="R129" s="111" t="s">
-        <v>949</v>
-      </c>
+        <v>808</v>
+      </c>
+      <c r="L129" s="111"/>
+      <c r="M129" s="111"/>
+      <c r="N129" s="111"/>
+      <c r="O129" s="111"/>
+      <c r="P129" s="111"/>
+      <c r="Q129" s="111"/>
+      <c r="R129" s="111"/>
       <c r="S129" s="92"/>
       <c r="V129" s="60"/>
     </row>
     <row r="130" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B130" s="58"/>
       <c r="D130" s="83" t="s">
-        <v>784</v>
-      </c>
-      <c r="E130" s="83" t="s">
-        <v>778</v>
-      </c>
+        <v>783</v>
+      </c>
+      <c r="E130" s="83"/>
       <c r="F130" s="83" t="s">
-        <v>909</v>
+        <v>613</v>
       </c>
       <c r="G130" s="83" t="s">
-        <v>784</v>
+        <v>732</v>
       </c>
       <c r="H130" s="83" t="s">
-        <v>911</v>
+        <v>615</v>
       </c>
       <c r="I130" s="83" t="s">
-        <v>887</v>
+        <v>785</v>
       </c>
       <c r="J130" s="83" t="s">
-        <v>620</v>
-      </c>
-      <c r="K130" s="83" t="s">
-        <v>622</v>
-      </c>
-      <c r="L130" s="83" t="s">
-        <v>784</v>
-      </c>
-      <c r="M130" s="83" t="s">
-        <v>911</v>
-      </c>
-      <c r="N130" s="83" t="s">
-        <v>887</v>
-      </c>
-      <c r="O130" s="83" t="s">
-        <v>620</v>
-      </c>
-      <c r="P130" s="83" t="s">
-        <v>622</v>
-      </c>
-      <c r="Q130" s="83" t="s">
-        <v>685</v>
-      </c>
-      <c r="R130" s="83" t="s">
-        <v>784</v>
-      </c>
+        <v>787</v>
+      </c>
+      <c r="K130" s="83"/>
+      <c r="L130" s="83"/>
+      <c r="M130" s="83"/>
+      <c r="N130" s="83"/>
+      <c r="O130" s="83"/>
+      <c r="P130" s="83"/>
+      <c r="Q130" s="83"/>
+      <c r="R130" s="83"/>
       <c r="S130" s="94"/>
       <c r="V130" s="60"/>
     </row>
@@ -13311,46 +12067,20 @@
     </row>
     <row r="132" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B132" s="56"/>
-      <c r="D132" s="82" t="s">
-        <v>285</v>
-      </c>
-      <c r="E132" s="82" t="s">
-        <v>607</v>
-      </c>
-      <c r="F132" s="82" t="s">
-        <v>607</v>
-      </c>
-      <c r="G132" s="82" t="s">
-        <v>727</v>
-      </c>
-      <c r="H132" s="82" t="s">
-        <v>609</v>
-      </c>
-      <c r="I132" s="82" t="s">
-        <v>779</v>
-      </c>
-      <c r="J132" s="82" t="s">
-        <v>781</v>
-      </c>
-      <c r="K132" s="82" t="s">
-        <v>625</v>
-      </c>
-      <c r="L132" s="82" t="s">
-        <v>760</v>
-      </c>
+      <c r="D132" s="82"/>
+      <c r="E132" s="82"/>
+      <c r="F132" s="82"/>
+      <c r="G132" s="82"/>
+      <c r="H132" s="82"/>
+      <c r="I132" s="82"/>
+      <c r="J132" s="82"/>
+      <c r="K132" s="82"/>
+      <c r="L132" s="82"/>
       <c r="M132" s="82"/>
-      <c r="N132" s="82" t="s">
-        <v>662</v>
-      </c>
-      <c r="O132" s="82" t="s">
-        <v>774</v>
-      </c>
-      <c r="P132" s="82" t="s">
-        <v>760</v>
-      </c>
-      <c r="Q132" s="82" t="s">
-        <v>776</v>
-      </c>
+      <c r="N132" s="82"/>
+      <c r="O132" s="82"/>
+      <c r="P132" s="82"/>
+      <c r="Q132" s="82"/>
       <c r="R132" s="82"/>
       <c r="S132" s="91"/>
       <c r="V132" s="60"/>
@@ -13360,96 +12090,40 @@
         <f>B129+1</f>
         <v>33</v>
       </c>
-      <c r="D133" s="111" t="s">
-        <v>950</v>
-      </c>
-      <c r="E133" s="111" t="s">
-        <v>790</v>
-      </c>
-      <c r="F133" s="111" t="s">
-        <v>788</v>
-      </c>
-      <c r="G133" s="113" t="s">
-        <v>858</v>
-      </c>
-      <c r="H133" s="111" t="s">
-        <v>789</v>
-      </c>
-      <c r="I133" s="111" t="s">
-        <v>882</v>
-      </c>
-      <c r="J133" s="111" t="s">
-        <v>883</v>
-      </c>
-      <c r="K133" s="111" t="s">
-        <v>814</v>
-      </c>
-      <c r="L133" s="111" t="s">
-        <v>593</v>
-      </c>
-      <c r="M133" s="111" t="s">
-        <v>183</v>
-      </c>
-      <c r="N133" s="111" t="s">
-        <v>573</v>
-      </c>
-      <c r="O133" s="111" t="s">
-        <v>595</v>
-      </c>
-      <c r="P133" s="111" t="s">
-        <v>593</v>
-      </c>
-      <c r="Q133" s="111" t="s">
-        <v>596</v>
-      </c>
-      <c r="R133" s="111" t="s">
-        <v>591</v>
-      </c>
+      <c r="D133" s="111"/>
+      <c r="E133" s="111"/>
+      <c r="F133" s="111"/>
+      <c r="G133" s="113"/>
+      <c r="H133" s="111"/>
+      <c r="I133" s="111"/>
+      <c r="J133" s="111"/>
+      <c r="K133" s="111"/>
+      <c r="L133" s="111"/>
+      <c r="M133" s="111"/>
+      <c r="N133" s="111"/>
+      <c r="O133" s="111"/>
+      <c r="P133" s="111"/>
+      <c r="Q133" s="111"/>
+      <c r="R133" s="111"/>
       <c r="S133" s="92"/>
       <c r="V133" s="60"/>
     </row>
     <row r="134" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B134" s="58"/>
-      <c r="D134" s="83" t="s">
-        <v>778</v>
-      </c>
-      <c r="E134" s="83" t="s">
-        <v>608</v>
-      </c>
-      <c r="F134" s="83" t="s">
-        <v>608</v>
-      </c>
-      <c r="G134" s="83" t="s">
-        <v>728</v>
-      </c>
-      <c r="H134" s="83" t="s">
-        <v>610</v>
-      </c>
-      <c r="I134" s="83" t="s">
-        <v>780</v>
-      </c>
-      <c r="J134" s="83" t="s">
-        <v>782</v>
-      </c>
-      <c r="K134" s="83" t="s">
-        <v>626</v>
-      </c>
-      <c r="L134" s="83" t="s">
-        <v>761</v>
-      </c>
+      <c r="D134" s="83"/>
+      <c r="E134" s="83"/>
+      <c r="F134" s="83"/>
+      <c r="G134" s="83"/>
+      <c r="H134" s="83"/>
+      <c r="I134" s="83"/>
+      <c r="J134" s="83"/>
+      <c r="K134" s="83"/>
+      <c r="L134" s="83"/>
       <c r="M134" s="83"/>
-      <c r="N134" s="83" t="s">
-        <v>663</v>
-      </c>
-      <c r="O134" s="83" t="s">
-        <v>775</v>
-      </c>
-      <c r="P134" s="83" t="s">
-        <v>761</v>
-      </c>
-      <c r="Q134" s="83" t="s">
-        <v>777</v>
-      </c>
+      <c r="N134" s="83"/>
+      <c r="O134" s="83"/>
+      <c r="P134" s="83"/>
+      <c r="Q134" s="83"/>
       <c r="R134" s="83"/>
       <c r="S134" s="94"/>
       <c r="V134" s="60"/>
@@ -13476,47 +12150,21 @@
     </row>
     <row r="136" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B136" s="56"/>
-      <c r="D136" s="82" t="s">
-        <v>783</v>
-      </c>
-      <c r="E136" s="82" t="s">
-        <v>285</v>
-      </c>
-      <c r="F136" s="82" t="s">
-        <v>783</v>
-      </c>
-      <c r="G136" s="82" t="s">
-        <v>285</v>
-      </c>
+      <c r="D136" s="82"/>
+      <c r="E136" s="82"/>
+      <c r="F136" s="82"/>
+      <c r="G136" s="82"/>
       <c r="H136" s="82"/>
-      <c r="I136" s="82" t="s">
-        <v>619</v>
-      </c>
-      <c r="J136" s="82" t="s">
-        <v>621</v>
-      </c>
-      <c r="K136" s="82" t="s">
-        <v>783</v>
-      </c>
-      <c r="L136" s="82" t="s">
-        <v>285</v>
-      </c>
+      <c r="I136" s="82"/>
+      <c r="J136" s="82"/>
+      <c r="K136" s="82"/>
+      <c r="L136" s="82"/>
       <c r="M136" s="82"/>
-      <c r="N136" s="82" t="s">
-        <v>619</v>
-      </c>
-      <c r="O136" s="82" t="s">
-        <v>621</v>
-      </c>
-      <c r="P136" s="82" t="s">
-        <v>684</v>
-      </c>
-      <c r="Q136" s="82" t="s">
-        <v>783</v>
-      </c>
-      <c r="R136" s="82" t="s">
-        <v>285</v>
-      </c>
+      <c r="N136" s="82"/>
+      <c r="O136" s="82"/>
+      <c r="P136" s="82"/>
+      <c r="Q136" s="82"/>
+      <c r="R136" s="82"/>
       <c r="S136" s="91"/>
       <c r="V136" s="60"/>
     </row>
@@ -13525,97 +12173,41 @@
         <f>B133+1</f>
         <v>34</v>
       </c>
-      <c r="D137" s="111" t="s">
-        <v>597</v>
-      </c>
-      <c r="E137" s="111" t="s">
-        <v>598</v>
-      </c>
-      <c r="F137" s="111" t="s">
-        <v>597</v>
-      </c>
-      <c r="G137" s="111" t="s">
-        <v>598</v>
-      </c>
-      <c r="H137" s="111" t="s">
-        <v>183</v>
-      </c>
-      <c r="I137" s="111" t="s">
-        <v>568</v>
-      </c>
-      <c r="J137" s="111" t="s">
-        <v>569</v>
-      </c>
-      <c r="K137" s="111" t="s">
-        <v>597</v>
-      </c>
-      <c r="L137" s="111" t="s">
-        <v>598</v>
-      </c>
-      <c r="M137" s="111" t="s">
-        <v>183</v>
-      </c>
-      <c r="N137" s="111" t="s">
-        <v>568</v>
-      </c>
-      <c r="O137" s="111" t="s">
-        <v>569</v>
-      </c>
-      <c r="P137" s="111" t="s">
-        <v>599</v>
-      </c>
-      <c r="Q137" s="111" t="s">
-        <v>597</v>
-      </c>
-      <c r="R137" s="111" t="s">
-        <v>598</v>
-      </c>
+      <c r="D137" s="111"/>
+      <c r="E137" s="111"/>
+      <c r="F137" s="111"/>
+      <c r="G137" s="111"/>
+      <c r="H137" s="111"/>
+      <c r="I137" s="111"/>
+      <c r="J137" s="111"/>
+      <c r="K137" s="111"/>
+      <c r="L137" s="111"/>
+      <c r="M137" s="111"/>
+      <c r="N137" s="111"/>
+      <c r="O137" s="111"/>
+      <c r="P137" s="111"/>
+      <c r="Q137" s="111"/>
+      <c r="R137" s="111"/>
       <c r="S137" s="92"/>
       <c r="V137" s="60"/>
     </row>
     <row r="138" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B138" s="58"/>
-      <c r="D138" s="83" t="s">
-        <v>784</v>
-      </c>
-      <c r="E138" s="83" t="s">
-        <v>778</v>
-      </c>
-      <c r="F138" s="83" t="s">
-        <v>784</v>
-      </c>
-      <c r="G138" s="83" t="s">
-        <v>778</v>
-      </c>
+      <c r="D138" s="83"/>
+      <c r="E138" s="83"/>
+      <c r="F138" s="83"/>
+      <c r="G138" s="83"/>
       <c r="H138" s="83"/>
-      <c r="I138" s="83" t="s">
-        <v>620</v>
-      </c>
-      <c r="J138" s="83" t="s">
-        <v>622</v>
-      </c>
-      <c r="K138" s="83" t="s">
-        <v>784</v>
-      </c>
-      <c r="L138" s="83" t="s">
-        <v>778</v>
-      </c>
+      <c r="I138" s="83"/>
+      <c r="J138" s="83"/>
+      <c r="K138" s="83"/>
+      <c r="L138" s="83"/>
       <c r="M138" s="83"/>
-      <c r="N138" s="83" t="s">
-        <v>620</v>
-      </c>
-      <c r="O138" s="83" t="s">
-        <v>622</v>
-      </c>
-      <c r="P138" s="83" t="s">
-        <v>685</v>
-      </c>
-      <c r="Q138" s="83" t="s">
-        <v>784</v>
-      </c>
-      <c r="R138" s="83" t="s">
-        <v>778</v>
-      </c>
+      <c r="N138" s="83"/>
+      <c r="O138" s="83"/>
+      <c r="P138" s="83"/>
+      <c r="Q138" s="83"/>
+      <c r="R138" s="83"/>
       <c r="S138" s="94"/>
       <c r="V138" s="60"/>
     </row>
@@ -13642,21 +12234,11 @@
     <row r="140" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B140" s="56"/>
       <c r="D140" s="82"/>
-      <c r="E140" s="82" t="s">
-        <v>607</v>
-      </c>
-      <c r="F140" s="82" t="s">
-        <v>727</v>
-      </c>
-      <c r="G140" s="82" t="s">
-        <v>609</v>
-      </c>
-      <c r="H140" s="82" t="s">
-        <v>779</v>
-      </c>
-      <c r="I140" s="82" t="s">
-        <v>781</v>
-      </c>
+      <c r="E140" s="82"/>
+      <c r="F140" s="82"/>
+      <c r="G140" s="82"/>
+      <c r="H140" s="82"/>
+      <c r="I140" s="82"/>
       <c r="J140" s="82"/>
       <c r="K140" s="82"/>
       <c r="L140" s="82"/>
@@ -13674,27 +12256,13 @@
         <f>B137+1</f>
         <v>35</v>
       </c>
-      <c r="D141" s="111" t="s">
-        <v>183</v>
-      </c>
-      <c r="E141" s="111" t="s">
-        <v>564</v>
-      </c>
-      <c r="F141" s="111" t="s">
-        <v>254</v>
-      </c>
-      <c r="G141" s="113" t="s">
-        <v>565</v>
-      </c>
-      <c r="H141" s="111" t="s">
-        <v>600</v>
-      </c>
-      <c r="I141" s="111" t="s">
-        <v>601</v>
-      </c>
-      <c r="J141" s="111" t="s">
-        <v>186</v>
-      </c>
+      <c r="D141" s="111"/>
+      <c r="E141" s="111"/>
+      <c r="F141" s="111"/>
+      <c r="G141" s="113"/>
+      <c r="H141" s="111"/>
+      <c r="I141" s="111"/>
+      <c r="J141" s="111"/>
       <c r="K141" s="111"/>
       <c r="L141" s="111"/>
       <c r="M141" s="111"/>
@@ -13709,21 +12277,11 @@
     <row r="142" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B142" s="58"/>
       <c r="D142" s="83"/>
-      <c r="E142" s="83" t="s">
-        <v>608</v>
-      </c>
-      <c r="F142" s="83" t="s">
-        <v>728</v>
-      </c>
-      <c r="G142" s="83" t="s">
-        <v>610</v>
-      </c>
-      <c r="H142" s="83" t="s">
-        <v>780</v>
-      </c>
-      <c r="I142" s="83" t="s">
-        <v>782</v>
-      </c>
+      <c r="E142" s="83"/>
+      <c r="F142" s="83"/>
+      <c r="G142" s="83"/>
+      <c r="H142" s="83"/>
+      <c r="I142" s="83"/>
       <c r="J142" s="83"/>
       <c r="K142" s="83"/>
       <c r="L142" s="83"/>

--- a/output7/【河洛文讀注音】《般若波羅蜜多心經》.xlsx
+++ b/output7/【河洛文讀注音】《般若波羅蜜多心經》.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5FC89A5-8006-4C70-B807-26B37448FF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FED563EC-B597-416C-8B93-9C598D1D320A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -4299,7 +4299,7 @@
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4620,18 +4620,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7761,49 +7749,49 @@
       <c r="B5" s="57">
         <v>1</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="97" t="s">
         <v>790</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="97" t="s">
         <v>791</v>
       </c>
-      <c r="F5" s="111" t="s">
+      <c r="F5" s="97" t="s">
         <v>792</v>
       </c>
-      <c r="G5" s="111" t="s">
+      <c r="G5" s="97" t="s">
         <v>565</v>
       </c>
-      <c r="H5" s="111" t="s">
+      <c r="H5" s="97" t="s">
         <v>566</v>
       </c>
-      <c r="I5" s="111" t="s">
+      <c r="I5" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="J5" s="111" t="s">
+      <c r="J5" s="97" t="s">
         <v>793</v>
       </c>
-      <c r="K5" s="111" t="s">
+      <c r="K5" s="97" t="s">
         <v>794</v>
       </c>
-      <c r="L5" s="111" t="s">
+      <c r="L5" s="97" t="s">
         <v>567</v>
       </c>
-      <c r="M5" s="111" t="s">
+      <c r="M5" s="97" t="s">
         <v>568</v>
       </c>
-      <c r="N5" s="111" t="s">
+      <c r="N5" s="97" t="s">
         <v>569</v>
       </c>
-      <c r="O5" s="111" t="s">
+      <c r="O5" s="97" t="s">
         <v>570</v>
       </c>
-      <c r="P5" s="111" t="s">
+      <c r="P5" s="97" t="s">
         <v>571</v>
       </c>
-      <c r="Q5" s="111" t="s">
+      <c r="Q5" s="97" t="s">
         <v>572</v>
       </c>
-      <c r="R5" s="111" t="s">
+      <c r="R5" s="97" t="s">
         <v>795</v>
       </c>
       <c r="S5" s="92"/>
@@ -7926,49 +7914,49 @@
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="111" t="s">
+      <c r="D9" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="111" t="s">
+      <c r="E9" s="97" t="s">
         <v>796</v>
       </c>
-      <c r="F9" s="111" t="s">
+      <c r="F9" s="97" t="s">
         <v>797</v>
       </c>
-      <c r="G9" s="111" t="s">
+      <c r="G9" s="97" t="s">
         <v>798</v>
       </c>
-      <c r="H9" s="111" t="s">
+      <c r="H9" s="97" t="s">
         <v>799</v>
       </c>
-      <c r="I9" s="111" t="s">
+      <c r="I9" s="97" t="s">
         <v>800</v>
       </c>
-      <c r="J9" s="111" t="s">
+      <c r="J9" s="97" t="s">
         <v>801</v>
       </c>
-      <c r="K9" s="111" t="s">
+      <c r="K9" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="L9" s="111" t="s">
+      <c r="L9" s="97" t="s">
         <v>802</v>
       </c>
-      <c r="M9" s="111" t="s">
+      <c r="M9" s="97" t="s">
         <v>187</v>
       </c>
-      <c r="N9" s="111" t="s">
+      <c r="N9" s="97" t="s">
         <v>803</v>
       </c>
-      <c r="O9" s="111" t="s">
+      <c r="O9" s="97" t="s">
         <v>804</v>
       </c>
-      <c r="P9" s="111" t="s">
+      <c r="P9" s="97" t="s">
         <v>805</v>
       </c>
-      <c r="Q9" s="111" t="s">
+      <c r="Q9" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="R9" s="111"/>
+      <c r="R9" s="97"/>
       <c r="S9" s="92"/>
       <c r="T9" s="90"/>
       <c r="V9" s="106"/>
@@ -8060,21 +8048,21 @@
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="111"/>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="111"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="97"/>
       <c r="S13" s="92"/>
       <c r="V13" s="106"/>
     </row>
@@ -8167,49 +8155,49 @@
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="111" t="s">
+      <c r="D17" s="97" t="s">
         <v>806</v>
       </c>
-      <c r="E17" s="111" t="s">
+      <c r="E17" s="97" t="s">
         <v>807</v>
       </c>
-      <c r="F17" s="111" t="s">
+      <c r="F17" s="97" t="s">
         <v>239</v>
       </c>
-      <c r="G17" s="111" t="s">
+      <c r="G17" s="97" t="s">
         <v>808</v>
       </c>
-      <c r="H17" s="111" t="s">
+      <c r="H17" s="97" t="s">
         <v>809</v>
       </c>
-      <c r="I17" s="111" t="s">
+      <c r="I17" s="97" t="s">
         <v>810</v>
       </c>
-      <c r="J17" s="111" t="s">
+      <c r="J17" s="97" t="s">
         <v>811</v>
       </c>
-      <c r="K17" s="111" t="s">
+      <c r="K17" s="97" t="s">
         <v>801</v>
       </c>
-      <c r="L17" s="111" t="s">
+      <c r="L17" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="M17" s="111" t="s">
+      <c r="M17" s="97" t="s">
         <v>801</v>
       </c>
-      <c r="N17" s="111" t="s">
+      <c r="N17" s="97" t="s">
         <v>810</v>
       </c>
-      <c r="O17" s="111" t="s">
+      <c r="O17" s="97" t="s">
         <v>811</v>
       </c>
-      <c r="P17" s="111" t="s">
+      <c r="P17" s="97" t="s">
         <v>809</v>
       </c>
-      <c r="Q17" s="111" t="s">
+      <c r="Q17" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="R17" s="111" t="s">
+      <c r="R17" s="97" t="s">
         <v>809</v>
       </c>
       <c r="S17" s="92"/>
@@ -8328,49 +8316,49 @@
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="111" t="s">
+      <c r="D21" s="97" t="s">
         <v>574</v>
       </c>
-      <c r="E21" s="111" t="s">
+      <c r="E21" s="97" t="s">
         <v>191</v>
       </c>
-      <c r="F21" s="111" t="s">
+      <c r="F21" s="97" t="s">
         <v>801</v>
       </c>
-      <c r="G21" s="111" t="s">
+      <c r="G21" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="H21" s="111" t="s">
+      <c r="H21" s="97" t="s">
         <v>801</v>
       </c>
-      <c r="I21" s="111" t="s">
+      <c r="I21" s="97" t="s">
         <v>574</v>
       </c>
-      <c r="J21" s="111" t="s">
+      <c r="J21" s="97" t="s">
         <v>191</v>
       </c>
-      <c r="K21" s="111" t="s">
+      <c r="K21" s="97" t="s">
         <v>809</v>
       </c>
-      <c r="L21" s="111" t="s">
+      <c r="L21" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="M21" s="112" t="s">
+      <c r="M21" s="101" t="s">
         <v>812</v>
       </c>
-      <c r="N21" s="111" t="s">
+      <c r="N21" s="97" t="s">
         <v>575</v>
       </c>
-      <c r="O21" s="111" t="s">
+      <c r="O21" s="102" t="s">
         <v>793</v>
       </c>
-      <c r="P21" s="111" t="s">
+      <c r="P21" s="97" t="s">
         <v>813</v>
       </c>
-      <c r="Q21" s="111" t="s">
+      <c r="Q21" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="R21" s="111" t="s">
+      <c r="R21" s="97" t="s">
         <v>814</v>
       </c>
       <c r="S21" s="92"/>
@@ -8471,29 +8459,29 @@
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="111" t="s">
+      <c r="D25" s="97" t="s">
         <v>815</v>
       </c>
-      <c r="E25" s="111" t="s">
+      <c r="E25" s="97" t="s">
         <v>816</v>
       </c>
-      <c r="F25" s="111" t="s">
+      <c r="F25" s="97" t="s">
         <v>191</v>
       </c>
-      <c r="G25" s="111" t="s">
+      <c r="G25" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="H25" s="111"/>
-      <c r="I25" s="111"/>
-      <c r="J25" s="111"/>
-      <c r="K25" s="111"/>
-      <c r="L25" s="111"/>
-      <c r="M25" s="111"/>
-      <c r="N25" s="111"/>
-      <c r="O25" s="111"/>
-      <c r="P25" s="111"/>
-      <c r="Q25" s="111"/>
-      <c r="R25" s="111"/>
+      <c r="H25" s="97"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="97"/>
+      <c r="L25" s="97"/>
+      <c r="M25" s="97"/>
+      <c r="N25" s="97"/>
+      <c r="O25" s="97"/>
+      <c r="P25" s="97"/>
+      <c r="Q25" s="97"/>
+      <c r="R25" s="97"/>
       <c r="S25" s="92"/>
       <c r="V25" s="60"/>
     </row>
@@ -8580,21 +8568,21 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="111"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="111"/>
-      <c r="I29" s="111"/>
-      <c r="J29" s="111"/>
-      <c r="K29" s="111"/>
-      <c r="L29" s="111"/>
-      <c r="M29" s="111"/>
-      <c r="N29" s="111"/>
-      <c r="O29" s="111"/>
-      <c r="P29" s="111"/>
-      <c r="Q29" s="111"/>
-      <c r="R29" s="111"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="97"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="97"/>
+      <c r="K29" s="97"/>
+      <c r="L29" s="97"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="97"/>
+      <c r="O29" s="97"/>
+      <c r="P29" s="97"/>
+      <c r="Q29" s="97"/>
+      <c r="R29" s="97"/>
       <c r="S29" s="92"/>
       <c r="U29" s="67" t="str">
         <f t="shared" si="0"/>
@@ -8703,49 +8691,49 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="111" t="s">
+      <c r="D33" s="97" t="s">
         <v>806</v>
       </c>
-      <c r="E33" s="111" t="s">
+      <c r="E33" s="97" t="s">
         <v>807</v>
       </c>
-      <c r="F33" s="111" t="s">
+      <c r="F33" s="97" t="s">
         <v>239</v>
       </c>
-      <c r="G33" s="111" t="s">
+      <c r="G33" s="97" t="s">
         <v>808</v>
       </c>
-      <c r="H33" s="111" t="s">
+      <c r="H33" s="97" t="s">
         <v>191</v>
       </c>
-      <c r="I33" s="111" t="s">
+      <c r="I33" s="97" t="s">
         <v>576</v>
       </c>
-      <c r="J33" s="111" t="s">
+      <c r="J33" s="97" t="s">
         <v>817</v>
       </c>
-      <c r="K33" s="111" t="s">
+      <c r="K33" s="97" t="s">
         <v>801</v>
       </c>
-      <c r="L33" s="111" t="s">
+      <c r="L33" s="97" t="s">
         <v>818</v>
       </c>
-      <c r="M33" s="111" t="s">
+      <c r="M33" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="N33" s="111" t="s">
+      <c r="N33" s="97" t="s">
         <v>810</v>
       </c>
-      <c r="O33" s="111" t="s">
+      <c r="O33" s="97" t="s">
         <v>819</v>
       </c>
-      <c r="P33" s="111" t="s">
+      <c r="P33" s="97" t="s">
         <v>810</v>
       </c>
-      <c r="Q33" s="111" t="s">
+      <c r="Q33" s="97" t="s">
         <v>820</v>
       </c>
-      <c r="R33" s="111" t="s">
+      <c r="R33" s="97" t="s">
         <v>183</v>
       </c>
       <c r="S33" s="92"/>
@@ -8866,49 +8854,49 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="111" t="s">
+      <c r="D37" s="97" t="s">
         <v>810</v>
       </c>
-      <c r="E37" s="111" t="s">
+      <c r="E37" s="97" t="s">
         <v>821</v>
       </c>
-      <c r="F37" s="111" t="s">
+      <c r="F37" s="97" t="s">
         <v>810</v>
       </c>
-      <c r="G37" s="111" t="s">
+      <c r="G37" s="97" t="s">
         <v>822</v>
       </c>
-      <c r="H37" s="111" t="s">
+      <c r="H37" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="I37" s="111" t="s">
+      <c r="I37" s="97" t="s">
         <v>810</v>
       </c>
-      <c r="J37" s="111" t="s">
+      <c r="J37" s="97" t="s">
         <v>823</v>
       </c>
-      <c r="K37" s="111" t="s">
+      <c r="K37" s="97" t="s">
         <v>810</v>
       </c>
-      <c r="L37" s="111" t="s">
+      <c r="L37" s="97" t="s">
         <v>824</v>
       </c>
-      <c r="M37" s="111" t="s">
+      <c r="M37" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="N37" s="111" t="s">
+      <c r="N37" s="97" t="s">
         <v>191</v>
       </c>
-      <c r="O37" s="111" t="s">
+      <c r="O37" s="97" t="s">
         <v>577</v>
       </c>
-      <c r="P37" s="111" t="s">
+      <c r="P37" s="97" t="s">
         <v>801</v>
       </c>
-      <c r="Q37" s="111" t="s">
+      <c r="Q37" s="97" t="s">
         <v>825</v>
       </c>
-      <c r="R37" s="111" t="s">
+      <c r="R37" s="97" t="s">
         <v>185</v>
       </c>
       <c r="S37" s="92"/>
@@ -9031,49 +9019,49 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="111" t="s">
+      <c r="D41" s="97" t="s">
         <v>809</v>
       </c>
-      <c r="E41" s="111" t="s">
+      <c r="E41" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="F41" s="111" t="s">
+      <c r="F41" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="G41" s="111" t="s">
+      <c r="G41" s="97" t="s">
         <v>812</v>
       </c>
-      <c r="H41" s="111" t="s">
+      <c r="H41" s="97" t="s">
         <v>575</v>
       </c>
-      <c r="I41" s="111" t="s">
+      <c r="I41" s="102" t="s">
         <v>793</v>
       </c>
-      <c r="J41" s="111" t="s">
+      <c r="J41" s="97" t="s">
         <v>813</v>
       </c>
-      <c r="K41" s="111" t="s">
+      <c r="K41" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="L41" s="111" t="s">
+      <c r="L41" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="M41" s="111" t="s">
+      <c r="M41" s="97" t="s">
         <v>826</v>
       </c>
-      <c r="N41" s="111" t="s">
+      <c r="N41" s="97" t="s">
         <v>827</v>
       </c>
-      <c r="O41" s="111" t="s">
+      <c r="O41" s="97" t="s">
         <v>828</v>
       </c>
-      <c r="P41" s="111" t="s">
+      <c r="P41" s="97" t="s">
         <v>829</v>
       </c>
-      <c r="Q41" s="111" t="s">
+      <c r="Q41" s="97" t="s">
         <v>830</v>
       </c>
-      <c r="R41" s="111" t="s">
+      <c r="R41" s="97" t="s">
         <v>831</v>
       </c>
       <c r="S41" s="92"/>
@@ -9184,39 +9172,39 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="111" t="s">
+      <c r="D45" s="97" t="s">
         <v>573</v>
       </c>
-      <c r="E45" s="111" t="s">
+      <c r="E45" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="F45" s="111" t="s">
+      <c r="F45" s="97" t="s">
         <v>809</v>
       </c>
-      <c r="G45" s="111" t="s">
+      <c r="G45" s="97" t="s">
         <v>832</v>
       </c>
-      <c r="H45" s="111" t="s">
+      <c r="H45" s="97" t="s">
         <v>833</v>
       </c>
-      <c r="I45" s="111" t="s">
+      <c r="I45" s="97" t="s">
         <v>834</v>
       </c>
-      <c r="J45" s="111" t="s">
+      <c r="J45" s="97" t="s">
         <v>835</v>
       </c>
-      <c r="K45" s="111" t="s">
+      <c r="K45" s="97" t="s">
         <v>817</v>
       </c>
-      <c r="L45" s="111" t="s">
+      <c r="L45" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="M45" s="111"/>
-      <c r="N45" s="111"/>
-      <c r="O45" s="111"/>
-      <c r="P45" s="111"/>
-      <c r="Q45" s="111"/>
-      <c r="R45" s="111"/>
+      <c r="M45" s="97"/>
+      <c r="N45" s="97"/>
+      <c r="O45" s="97"/>
+      <c r="P45" s="97"/>
+      <c r="Q45" s="97"/>
+      <c r="R45" s="97"/>
       <c r="S45" s="92"/>
       <c r="V45" s="60"/>
     </row>
@@ -9299,21 +9287,21 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="111"/>
-      <c r="E49" s="111"/>
-      <c r="F49" s="111"/>
-      <c r="G49" s="111"/>
-      <c r="H49" s="111"/>
-      <c r="I49" s="111"/>
-      <c r="J49" s="111"/>
-      <c r="K49" s="111"/>
-      <c r="L49" s="111"/>
-      <c r="M49" s="111"/>
-      <c r="N49" s="111"/>
-      <c r="O49" s="111"/>
-      <c r="P49" s="111"/>
-      <c r="Q49" s="111"/>
-      <c r="R49" s="111"/>
+      <c r="D49" s="97"/>
+      <c r="E49" s="97"/>
+      <c r="F49" s="97"/>
+      <c r="G49" s="97"/>
+      <c r="H49" s="97"/>
+      <c r="I49" s="97"/>
+      <c r="J49" s="97"/>
+      <c r="K49" s="97"/>
+      <c r="L49" s="97"/>
+      <c r="M49" s="97"/>
+      <c r="N49" s="97"/>
+      <c r="O49" s="97"/>
+      <c r="P49" s="97"/>
+      <c r="Q49" s="97"/>
+      <c r="R49" s="97"/>
       <c r="S49" s="92"/>
       <c r="V49" s="60"/>
     </row>
@@ -9406,49 +9394,49 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="111" t="s">
+      <c r="D53" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="E53" s="111" t="s">
+      <c r="E53" s="97" t="s">
         <v>826</v>
       </c>
-      <c r="F53" s="111" t="s">
+      <c r="F53" s="97" t="s">
         <v>232</v>
       </c>
-      <c r="G53" s="111" t="s">
+      <c r="G53" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="H53" s="111" t="s">
+      <c r="H53" s="97" t="s">
         <v>836</v>
       </c>
-      <c r="I53" s="111" t="s">
+      <c r="I53" s="97" t="s">
         <v>197</v>
       </c>
-      <c r="J53" s="111" t="s">
+      <c r="J53" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="K53" s="111" t="s">
+      <c r="K53" s="97" t="s">
         <v>831</v>
       </c>
-      <c r="L53" s="111" t="s">
+      <c r="L53" s="97" t="s">
         <v>813</v>
       </c>
-      <c r="M53" s="111" t="s">
+      <c r="M53" s="97" t="s">
         <v>232</v>
       </c>
-      <c r="N53" s="111" t="s">
+      <c r="N53" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="O53" s="111" t="s">
+      <c r="O53" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="P53" s="111" t="s">
+      <c r="P53" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="Q53" s="111" t="s">
+      <c r="Q53" s="97" t="s">
         <v>578</v>
       </c>
-      <c r="R53" s="111" t="s">
+      <c r="R53" s="97" t="s">
         <v>183</v>
       </c>
       <c r="S53" s="92"/>
@@ -9569,49 +9557,49 @@
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="111" t="s">
+      <c r="D57" s="97" t="s">
         <v>814</v>
       </c>
-      <c r="E57" s="111" t="s">
+      <c r="E57" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="F57" s="111" t="s">
+      <c r="F57" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="G57" s="113" t="s">
+      <c r="G57" s="98" t="s">
         <v>578</v>
       </c>
-      <c r="H57" s="111" t="s">
+      <c r="H57" s="97" t="s">
         <v>837</v>
       </c>
-      <c r="I57" s="111" t="s">
+      <c r="I57" s="97" t="s">
         <v>573</v>
       </c>
-      <c r="J57" s="111" t="s">
+      <c r="J57" s="97" t="s">
         <v>836</v>
       </c>
-      <c r="K57" s="111" t="s">
+      <c r="K57" s="97" t="s">
         <v>197</v>
       </c>
-      <c r="L57" s="111" t="s">
+      <c r="L57" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="M57" s="111" t="s">
+      <c r="M57" s="97" t="s">
         <v>838</v>
       </c>
-      <c r="N57" s="111" t="s">
+      <c r="N57" s="97" t="s">
         <v>839</v>
       </c>
-      <c r="O57" s="111" t="s">
+      <c r="O57" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="P57" s="111" t="s">
+      <c r="P57" s="97" t="s">
         <v>814</v>
       </c>
-      <c r="Q57" s="111" t="s">
+      <c r="Q57" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="R57" s="111" t="s">
+      <c r="R57" s="97" t="s">
         <v>838</v>
       </c>
       <c r="S57" s="92"/>
@@ -9712,27 +9700,27 @@
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="D61" s="111" t="s">
+      <c r="D61" s="97" t="s">
         <v>839</v>
       </c>
-      <c r="E61" s="111" t="s">
+      <c r="E61" s="97" t="s">
         <v>837</v>
       </c>
-      <c r="F61" s="111" t="s">
+      <c r="F61" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="G61" s="113"/>
-      <c r="H61" s="111"/>
-      <c r="I61" s="111"/>
-      <c r="J61" s="111"/>
-      <c r="K61" s="111"/>
-      <c r="L61" s="111"/>
-      <c r="M61" s="111"/>
-      <c r="N61" s="111"/>
-      <c r="O61" s="111"/>
-      <c r="P61" s="111"/>
-      <c r="Q61" s="111"/>
-      <c r="R61" s="111"/>
+      <c r="G61" s="98"/>
+      <c r="H61" s="97"/>
+      <c r="I61" s="97"/>
+      <c r="J61" s="97"/>
+      <c r="K61" s="97"/>
+      <c r="L61" s="97"/>
+      <c r="M61" s="97"/>
+      <c r="N61" s="97"/>
+      <c r="O61" s="97"/>
+      <c r="P61" s="97"/>
+      <c r="Q61" s="97"/>
+      <c r="R61" s="97"/>
       <c r="S61" s="92"/>
       <c r="V61" s="60"/>
     </row>
@@ -9805,21 +9793,21 @@
         <f>B61+1</f>
         <v>16</v>
       </c>
-      <c r="D65" s="111"/>
-      <c r="E65" s="111"/>
-      <c r="F65" s="111"/>
-      <c r="G65" s="113"/>
-      <c r="H65" s="111"/>
-      <c r="I65" s="111"/>
-      <c r="J65" s="111"/>
-      <c r="K65" s="111"/>
-      <c r="L65" s="111"/>
-      <c r="M65" s="111"/>
-      <c r="N65" s="111"/>
-      <c r="O65" s="111"/>
-      <c r="P65" s="111"/>
-      <c r="Q65" s="111"/>
-      <c r="R65" s="111"/>
+      <c r="D65" s="97"/>
+      <c r="E65" s="97"/>
+      <c r="F65" s="97"/>
+      <c r="G65" s="98"/>
+      <c r="H65" s="97"/>
+      <c r="I65" s="97"/>
+      <c r="J65" s="97"/>
+      <c r="K65" s="97"/>
+      <c r="L65" s="97"/>
+      <c r="M65" s="97"/>
+      <c r="N65" s="97"/>
+      <c r="O65" s="97"/>
+      <c r="P65" s="97"/>
+      <c r="Q65" s="97"/>
+      <c r="R65" s="97"/>
       <c r="S65" s="92"/>
       <c r="V65" s="60"/>
     </row>
@@ -9912,49 +9900,49 @@
         <f>B65+1</f>
         <v>17</v>
       </c>
-      <c r="D69" s="111" t="s">
+      <c r="D69" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="E69" s="111" t="s">
+      <c r="E69" s="97" t="s">
         <v>804</v>
       </c>
-      <c r="F69" s="111" t="s">
+      <c r="F69" s="97" t="s">
         <v>840</v>
       </c>
-      <c r="G69" s="113" t="s">
+      <c r="G69" s="98" t="s">
         <v>820</v>
       </c>
-      <c r="H69" s="111" t="s">
+      <c r="H69" s="97" t="s">
         <v>841</v>
       </c>
-      <c r="I69" s="111" t="s">
+      <c r="I69" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="J69" s="111" t="s">
+      <c r="J69" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="K69" s="111" t="s">
+      <c r="K69" s="97" t="s">
         <v>842</v>
       </c>
-      <c r="L69" s="111" t="s">
+      <c r="L69" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="M69" s="111" t="s">
+      <c r="M69" s="97" t="s">
         <v>814</v>
       </c>
-      <c r="N69" s="111" t="s">
+      <c r="N69" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="O69" s="111" t="s">
+      <c r="O69" s="97" t="s">
         <v>579</v>
       </c>
-      <c r="P69" s="111" t="s">
+      <c r="P69" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="Q69" s="111" t="s">
+      <c r="Q69" s="97" t="s">
         <v>843</v>
       </c>
-      <c r="R69" s="111" t="s">
+      <c r="R69" s="97" t="s">
         <v>185</v>
       </c>
       <c r="S69" s="92"/>
@@ -10075,49 +10063,49 @@
         <f>B69+1</f>
         <v>18</v>
       </c>
-      <c r="D73" s="111" t="s">
+      <c r="D73" s="97" t="s">
         <v>190</v>
       </c>
-      <c r="E73" s="111" t="s">
+      <c r="E73" s="97" t="s">
         <v>579</v>
       </c>
-      <c r="F73" s="111" t="s">
+      <c r="F73" s="97" t="s">
         <v>577</v>
       </c>
-      <c r="G73" s="111" t="s">
+      <c r="G73" s="97" t="s">
         <v>808</v>
       </c>
-      <c r="H73" s="111" t="s">
+      <c r="H73" s="97" t="s">
         <v>565</v>
       </c>
-      <c r="I73" s="111" t="s">
+      <c r="I73" s="97" t="s">
         <v>254</v>
       </c>
-      <c r="J73" s="111" t="s">
+      <c r="J73" s="97" t="s">
         <v>566</v>
       </c>
-      <c r="K73" s="111" t="s">
+      <c r="K73" s="97" t="s">
         <v>844</v>
       </c>
-      <c r="L73" s="111" t="s">
+      <c r="L73" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="M73" s="111" t="s">
+      <c r="M73" s="97" t="s">
         <v>580</v>
       </c>
-      <c r="N73" s="111" t="s">
+      <c r="N73" s="97" t="s">
         <v>567</v>
       </c>
-      <c r="O73" s="111" t="s">
+      <c r="O73" s="97" t="s">
         <v>568</v>
       </c>
-      <c r="P73" s="111" t="s">
+      <c r="P73" s="97" t="s">
         <v>569</v>
       </c>
-      <c r="Q73" s="111" t="s">
+      <c r="Q73" s="97" t="s">
         <v>570</v>
       </c>
-      <c r="R73" s="111" t="s">
+      <c r="R73" s="102" t="s">
         <v>571</v>
       </c>
       <c r="S73" s="92"/>
@@ -10238,49 +10226,49 @@
         <f>B73+1</f>
         <v>19</v>
       </c>
-      <c r="D77" s="111" t="s">
+      <c r="D77" s="97" t="s">
         <v>572</v>
       </c>
-      <c r="E77" s="111" t="s">
+      <c r="E77" s="97" t="s">
         <v>577</v>
       </c>
-      <c r="F77" s="111" t="s">
+      <c r="F77" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="G77" s="113" t="s">
+      <c r="G77" s="98" t="s">
         <v>581</v>
       </c>
-      <c r="H77" s="111" t="s">
+      <c r="H77" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="I77" s="111" t="s">
+      <c r="I77" s="97" t="s">
         <v>582</v>
       </c>
-      <c r="J77" s="111" t="s">
+      <c r="J77" s="97" t="s">
         <v>583</v>
       </c>
-      <c r="K77" s="111" t="s">
+      <c r="K77" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="L77" s="111" t="s">
+      <c r="L77" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="M77" s="111" t="s">
+      <c r="M77" s="97" t="s">
         <v>582</v>
       </c>
-      <c r="N77" s="111" t="s">
+      <c r="N77" s="97" t="s">
         <v>583</v>
       </c>
-      <c r="O77" s="111" t="s">
+      <c r="O77" s="97" t="s">
         <v>577</v>
       </c>
-      <c r="P77" s="111" t="s">
+      <c r="P77" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="Q77" s="111" t="s">
+      <c r="Q77" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="R77" s="111" t="s">
+      <c r="R77" s="97" t="s">
         <v>188</v>
       </c>
       <c r="S77" s="92"/>
@@ -10399,49 +10387,49 @@
         <f>B77+1</f>
         <v>20</v>
       </c>
-      <c r="D81" s="111" t="s">
+      <c r="D81" s="97" t="s">
         <v>584</v>
       </c>
-      <c r="E81" s="111" t="s">
+      <c r="E81" s="97" t="s">
         <v>585</v>
       </c>
-      <c r="F81" s="111" t="s">
+      <c r="F81" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="G81" s="111" t="s">
+      <c r="G81" s="97" t="s">
         <v>586</v>
       </c>
-      <c r="H81" s="111" t="s">
+      <c r="H81" s="97" t="s">
         <v>587</v>
       </c>
-      <c r="I81" s="111" t="s">
+      <c r="I81" s="97" t="s">
         <v>588</v>
       </c>
-      <c r="J81" s="111" t="s">
+      <c r="J81" s="97" t="s">
         <v>589</v>
       </c>
-      <c r="K81" s="111" t="s">
+      <c r="K81" s="97" t="s">
         <v>216</v>
       </c>
-      <c r="L81" s="111" t="s">
+      <c r="L81" s="97" t="s">
         <v>590</v>
       </c>
-      <c r="M81" s="111" t="s">
+      <c r="M81" s="97" t="s">
         <v>575</v>
       </c>
-      <c r="N81" s="111" t="s">
+      <c r="N81" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="O81" s="111" t="s">
+      <c r="O81" s="97" t="s">
         <v>845</v>
       </c>
-      <c r="P81" s="111" t="s">
+      <c r="P81" s="97" t="s">
         <v>846</v>
       </c>
-      <c r="Q81" s="111" t="s">
+      <c r="Q81" s="97" t="s">
         <v>847</v>
       </c>
-      <c r="R81" s="111" t="s">
+      <c r="R81" s="97" t="s">
         <v>848</v>
       </c>
       <c r="S81" s="92"/>
@@ -10536,23 +10524,23 @@
         <f>B81+1</f>
         <v>21</v>
       </c>
-      <c r="D85" s="111" t="s">
+      <c r="D85" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="E85" s="111"/>
-      <c r="F85" s="111"/>
-      <c r="G85" s="113"/>
-      <c r="H85" s="111"/>
-      <c r="I85" s="111"/>
-      <c r="J85" s="111"/>
-      <c r="K85" s="111"/>
-      <c r="L85" s="111"/>
-      <c r="M85" s="111"/>
-      <c r="N85" s="111"/>
-      <c r="O85" s="111"/>
-      <c r="P85" s="111"/>
-      <c r="Q85" s="111"/>
-      <c r="R85" s="111"/>
+      <c r="E85" s="97"/>
+      <c r="F85" s="97"/>
+      <c r="G85" s="98"/>
+      <c r="H85" s="97"/>
+      <c r="I85" s="97"/>
+      <c r="J85" s="97"/>
+      <c r="K85" s="97"/>
+      <c r="L85" s="97"/>
+      <c r="M85" s="97"/>
+      <c r="N85" s="97"/>
+      <c r="O85" s="97"/>
+      <c r="P85" s="97"/>
+      <c r="Q85" s="97"/>
+      <c r="R85" s="97"/>
       <c r="S85" s="92"/>
       <c r="V85" s="60"/>
     </row>
@@ -10621,21 +10609,21 @@
         <f>B85+1</f>
         <v>22</v>
       </c>
-      <c r="D89" s="111"/>
-      <c r="E89" s="111"/>
-      <c r="F89" s="111"/>
-      <c r="G89" s="111"/>
-      <c r="H89" s="111"/>
-      <c r="I89" s="111"/>
-      <c r="J89" s="111"/>
-      <c r="K89" s="111"/>
-      <c r="L89" s="111"/>
-      <c r="M89" s="111"/>
-      <c r="N89" s="111"/>
-      <c r="O89" s="111"/>
-      <c r="P89" s="111"/>
-      <c r="Q89" s="111"/>
-      <c r="R89" s="111"/>
+      <c r="D89" s="97"/>
+      <c r="E89" s="97"/>
+      <c r="F89" s="97"/>
+      <c r="G89" s="97"/>
+      <c r="H89" s="97"/>
+      <c r="I89" s="97"/>
+      <c r="J89" s="97"/>
+      <c r="K89" s="97"/>
+      <c r="L89" s="97"/>
+      <c r="M89" s="97"/>
+      <c r="N89" s="97"/>
+      <c r="O89" s="97"/>
+      <c r="P89" s="97"/>
+      <c r="Q89" s="97"/>
+      <c r="R89" s="97"/>
       <c r="S89" s="92"/>
       <c r="V89" s="60"/>
     </row>
@@ -10730,49 +10718,49 @@
         <f>B89+1</f>
         <v>23</v>
       </c>
-      <c r="D93" s="111" t="s">
+      <c r="D93" s="97" t="s">
         <v>591</v>
       </c>
-      <c r="E93" s="111" t="s">
+      <c r="E93" s="97" t="s">
         <v>196</v>
       </c>
-      <c r="F93" s="111" t="s">
+      <c r="F93" s="97" t="s">
         <v>576</v>
       </c>
-      <c r="G93" s="111" t="s">
+      <c r="G93" s="97" t="s">
         <v>592</v>
       </c>
-      <c r="H93" s="111" t="s">
+      <c r="H93" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="I93" s="111" t="s">
+      <c r="I93" s="97" t="s">
         <v>580</v>
       </c>
-      <c r="J93" s="111" t="s">
+      <c r="J93" s="97" t="s">
         <v>567</v>
       </c>
-      <c r="K93" s="111" t="s">
+      <c r="K93" s="97" t="s">
         <v>568</v>
       </c>
-      <c r="L93" s="111" t="s">
+      <c r="L93" s="97" t="s">
         <v>569</v>
       </c>
-      <c r="M93" s="111" t="s">
+      <c r="M93" s="97" t="s">
         <v>570</v>
       </c>
-      <c r="N93" s="111" t="s">
+      <c r="N93" s="102" t="s">
         <v>571</v>
       </c>
-      <c r="O93" s="111" t="s">
+      <c r="O93" s="97" t="s">
         <v>572</v>
       </c>
-      <c r="P93" s="111" t="s">
+      <c r="P93" s="97" t="s">
         <v>577</v>
       </c>
-      <c r="Q93" s="111" t="s">
+      <c r="Q93" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="R93" s="111" t="s">
+      <c r="R93" s="97" t="s">
         <v>579</v>
       </c>
       <c r="S93" s="92"/>
@@ -10887,41 +10875,41 @@
         <f>B93+1</f>
         <v>24</v>
       </c>
-      <c r="D97" s="111" t="s">
+      <c r="D97" s="97" t="s">
         <v>593</v>
       </c>
-      <c r="E97" s="111" t="s">
+      <c r="E97" s="97" t="s">
         <v>594</v>
       </c>
-      <c r="F97" s="111" t="s">
+      <c r="F97" s="97" t="s">
         <v>572</v>
       </c>
-      <c r="G97" s="113" t="s">
+      <c r="G97" s="98" t="s">
         <v>570</v>
       </c>
-      <c r="H97" s="111" t="s">
+      <c r="H97" s="97" t="s">
         <v>591</v>
       </c>
-      <c r="I97" s="111" t="s">
+      <c r="I97" s="97" t="s">
         <v>595</v>
       </c>
-      <c r="J97" s="111" t="s">
+      <c r="J97" s="97" t="s">
         <v>591</v>
       </c>
-      <c r="K97" s="111" t="s">
+      <c r="K97" s="97" t="s">
         <v>565</v>
       </c>
-      <c r="L97" s="111" t="s">
+      <c r="L97" s="97" t="s">
         <v>254</v>
       </c>
-      <c r="M97" s="111" t="s">
+      <c r="M97" s="97" t="s">
         <v>808</v>
       </c>
-      <c r="N97" s="111"/>
-      <c r="O97" s="111"/>
-      <c r="P97" s="111"/>
-      <c r="Q97" s="111"/>
-      <c r="R97" s="111"/>
+      <c r="N97" s="97"/>
+      <c r="O97" s="97"/>
+      <c r="P97" s="97"/>
+      <c r="Q97" s="97"/>
+      <c r="R97" s="97"/>
       <c r="S97" s="92"/>
       <c r="V97" s="60"/>
     </row>
@@ -11008,21 +10996,21 @@
         <f>B97+1</f>
         <v>25</v>
       </c>
-      <c r="D101" s="111"/>
-      <c r="E101" s="111"/>
-      <c r="F101" s="111"/>
-      <c r="G101" s="111"/>
-      <c r="H101" s="111"/>
-      <c r="I101" s="111"/>
-      <c r="J101" s="111"/>
-      <c r="K101" s="111"/>
-      <c r="L101" s="111"/>
-      <c r="M101" s="111"/>
-      <c r="N101" s="111"/>
-      <c r="O101" s="111"/>
-      <c r="P101" s="111"/>
-      <c r="Q101" s="111"/>
-      <c r="R101" s="111"/>
+      <c r="D101" s="97"/>
+      <c r="E101" s="97"/>
+      <c r="F101" s="97"/>
+      <c r="G101" s="97"/>
+      <c r="H101" s="97"/>
+      <c r="I101" s="97"/>
+      <c r="J101" s="97"/>
+      <c r="K101" s="97"/>
+      <c r="L101" s="97"/>
+      <c r="M101" s="97"/>
+      <c r="N101" s="97"/>
+      <c r="O101" s="97"/>
+      <c r="P101" s="97"/>
+      <c r="Q101" s="97"/>
+      <c r="R101" s="97"/>
       <c r="S101" s="92"/>
       <c r="V101" s="60"/>
     </row>
@@ -11117,49 +11105,49 @@
         <f>B101+1</f>
         <v>26</v>
       </c>
-      <c r="D105" s="111" t="s">
+      <c r="D105" s="97" t="s">
         <v>577</v>
       </c>
-      <c r="E105" s="111" t="s">
+      <c r="E105" s="97" t="s">
         <v>849</v>
       </c>
-      <c r="F105" s="111" t="s">
+      <c r="F105" s="97" t="s">
         <v>567</v>
       </c>
-      <c r="G105" s="113" t="s">
+      <c r="G105" s="98" t="s">
         <v>568</v>
       </c>
-      <c r="H105" s="111" t="s">
+      <c r="H105" s="97" t="s">
         <v>569</v>
       </c>
-      <c r="I105" s="111" t="s">
+      <c r="I105" s="97" t="s">
         <v>570</v>
       </c>
-      <c r="J105" s="111" t="s">
+      <c r="J105" s="102" t="s">
         <v>571</v>
       </c>
-      <c r="K105" s="111" t="s">
+      <c r="K105" s="97" t="s">
         <v>572</v>
       </c>
-      <c r="L105" s="111" t="s">
+      <c r="L105" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="M105" s="111" t="s">
+      <c r="M105" s="97" t="s">
         <v>191</v>
       </c>
-      <c r="N105" s="111" t="s">
+      <c r="N105" s="97" t="s">
         <v>195</v>
       </c>
-      <c r="O105" s="114" t="s">
+      <c r="O105" s="99" t="s">
         <v>597</v>
       </c>
-      <c r="P105" s="111" t="s">
+      <c r="P105" s="97" t="s">
         <v>598</v>
       </c>
-      <c r="Q105" s="111" t="s">
+      <c r="Q105" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="R105" s="111" t="s">
+      <c r="R105" s="97" t="s">
         <v>191</v>
       </c>
       <c r="S105" s="92"/>
@@ -11280,49 +11268,49 @@
         <f>B105+1</f>
         <v>27</v>
       </c>
-      <c r="D109" s="111" t="s">
+      <c r="D109" s="97" t="s">
         <v>195</v>
       </c>
-      <c r="E109" s="111" t="s">
+      <c r="E109" s="97" t="s">
         <v>578</v>
       </c>
-      <c r="F109" s="111" t="s">
+      <c r="F109" s="97" t="s">
         <v>598</v>
       </c>
-      <c r="G109" s="111" t="s">
+      <c r="G109" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="H109" s="111" t="s">
+      <c r="H109" s="97" t="s">
         <v>191</v>
       </c>
-      <c r="I109" s="111" t="s">
+      <c r="I109" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="J109" s="111" t="s">
+      <c r="J109" s="97" t="s">
         <v>225</v>
       </c>
-      <c r="K109" s="111" t="s">
+      <c r="K109" s="97" t="s">
         <v>598</v>
       </c>
-      <c r="L109" s="111" t="s">
+      <c r="L109" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="M109" s="111" t="s">
+      <c r="M109" s="97" t="s">
         <v>191</v>
       </c>
-      <c r="N109" s="111" t="s">
+      <c r="N109" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="O109" s="111" t="s">
+      <c r="O109" s="97" t="s">
         <v>599</v>
       </c>
-      <c r="P109" s="111" t="s">
+      <c r="P109" s="97" t="s">
         <v>599</v>
       </c>
-      <c r="Q109" s="111" t="s">
+      <c r="Q109" s="97" t="s">
         <v>598</v>
       </c>
-      <c r="R109" s="111" t="s">
+      <c r="R109" s="97" t="s">
         <v>186</v>
       </c>
       <c r="S109" s="92"/>
@@ -11435,43 +11423,43 @@
         <f>B109+1</f>
         <v>28</v>
       </c>
-      <c r="D113" s="111" t="s">
+      <c r="D113" s="97" t="s">
         <v>202</v>
       </c>
-      <c r="E113" s="111" t="s">
+      <c r="E113" s="97" t="s">
         <v>850</v>
       </c>
-      <c r="F113" s="111" t="s">
+      <c r="F113" s="97" t="s">
         <v>187</v>
       </c>
-      <c r="G113" s="111" t="s">
+      <c r="G113" s="97" t="s">
         <v>803</v>
       </c>
-      <c r="H113" s="111" t="s">
+      <c r="H113" s="97" t="s">
         <v>804</v>
       </c>
-      <c r="I113" s="111" t="s">
+      <c r="I113" s="97" t="s">
         <v>808</v>
       </c>
-      <c r="J113" s="111" t="s">
+      <c r="J113" s="97" t="s">
         <v>851</v>
       </c>
-      <c r="K113" s="111" t="s">
+      <c r="K113" s="97" t="s">
         <v>852</v>
       </c>
-      <c r="L113" s="111" t="s">
+      <c r="L113" s="97" t="s">
         <v>810</v>
       </c>
-      <c r="M113" s="111" t="s">
+      <c r="M113" s="97" t="s">
         <v>853</v>
       </c>
-      <c r="N113" s="111" t="s">
+      <c r="N113" s="97" t="s">
         <v>808</v>
       </c>
-      <c r="O113" s="114"/>
-      <c r="P113" s="111"/>
-      <c r="Q113" s="111"/>
-      <c r="R113" s="111"/>
+      <c r="O113" s="99"/>
+      <c r="P113" s="97"/>
+      <c r="Q113" s="97"/>
+      <c r="R113" s="97"/>
       <c r="S113" s="92"/>
       <c r="V113" s="60"/>
     </row>
@@ -11558,21 +11546,21 @@
         <f>B113+1</f>
         <v>29</v>
       </c>
-      <c r="D117" s="111"/>
-      <c r="E117" s="111"/>
-      <c r="F117" s="113"/>
-      <c r="G117" s="113"/>
-      <c r="H117" s="111"/>
-      <c r="I117" s="111"/>
-      <c r="J117" s="111"/>
-      <c r="K117" s="111"/>
-      <c r="L117" s="111"/>
-      <c r="M117" s="111"/>
-      <c r="N117" s="111"/>
-      <c r="O117" s="111"/>
-      <c r="P117" s="111"/>
-      <c r="Q117" s="111"/>
-      <c r="R117" s="111"/>
+      <c r="D117" s="97"/>
+      <c r="E117" s="97"/>
+      <c r="F117" s="98"/>
+      <c r="G117" s="98"/>
+      <c r="H117" s="97"/>
+      <c r="I117" s="97"/>
+      <c r="J117" s="97"/>
+      <c r="K117" s="97"/>
+      <c r="L117" s="97"/>
+      <c r="M117" s="97"/>
+      <c r="N117" s="97"/>
+      <c r="O117" s="97"/>
+      <c r="P117" s="97"/>
+      <c r="Q117" s="97"/>
+      <c r="R117" s="97"/>
       <c r="S117" s="92"/>
       <c r="V117" s="60"/>
     </row>
@@ -11667,49 +11655,49 @@
         <f>B117+1</f>
         <v>30</v>
       </c>
-      <c r="D121" s="111" t="s">
+      <c r="D121" s="97" t="s">
         <v>577</v>
       </c>
-      <c r="E121" s="111" t="s">
+      <c r="E121" s="97" t="s">
         <v>600</v>
       </c>
-      <c r="F121" s="111" t="s">
+      <c r="F121" s="97" t="s">
         <v>567</v>
       </c>
-      <c r="G121" s="113" t="s">
+      <c r="G121" s="98" t="s">
         <v>568</v>
       </c>
-      <c r="H121" s="111" t="s">
+      <c r="H121" s="97" t="s">
         <v>569</v>
       </c>
-      <c r="I121" s="111" t="s">
+      <c r="I121" s="97" t="s">
         <v>570</v>
       </c>
-      <c r="J121" s="111" t="s">
+      <c r="J121" s="102" t="s">
         <v>571</v>
       </c>
-      <c r="K121" s="111" t="s">
+      <c r="K121" s="97" t="s">
         <v>572</v>
       </c>
-      <c r="L121" s="111" t="s">
+      <c r="L121" s="97" t="s">
         <v>598</v>
       </c>
-      <c r="M121" s="111" t="s">
+      <c r="M121" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="N121" s="111" t="s">
+      <c r="N121" s="97" t="s">
         <v>574</v>
       </c>
-      <c r="O121" s="111" t="s">
+      <c r="O121" s="97" t="s">
         <v>600</v>
       </c>
-      <c r="P121" s="111" t="s">
+      <c r="P121" s="97" t="s">
         <v>598</v>
       </c>
-      <c r="Q121" s="111" t="s">
+      <c r="Q121" s="97" t="s">
         <v>601</v>
       </c>
-      <c r="R121" s="111" t="s">
+      <c r="R121" s="97" t="s">
         <v>596</v>
       </c>
       <c r="S121" s="92"/>
@@ -11830,49 +11818,49 @@
         <f>B121+1</f>
         <v>31</v>
       </c>
-      <c r="D125" s="111" t="s">
+      <c r="D125" s="97" t="s">
         <v>602</v>
       </c>
-      <c r="E125" s="111" t="s">
+      <c r="E125" s="97" t="s">
         <v>603</v>
       </c>
-      <c r="F125" s="111" t="s">
+      <c r="F125" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="G125" s="113" t="s">
+      <c r="G125" s="98" t="s">
         <v>602</v>
       </c>
-      <c r="H125" s="111" t="s">
+      <c r="H125" s="97" t="s">
         <v>603</v>
       </c>
-      <c r="I125" s="111" t="s">
+      <c r="I125" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="J125" s="111" t="s">
+      <c r="J125" s="97" t="s">
         <v>569</v>
       </c>
-      <c r="K125" s="111" t="s">
+      <c r="K125" s="97" t="s">
         <v>570</v>
       </c>
-      <c r="L125" s="111" t="s">
+      <c r="L125" s="97" t="s">
         <v>602</v>
       </c>
-      <c r="M125" s="111" t="s">
+      <c r="M125" s="97" t="s">
         <v>603</v>
       </c>
-      <c r="N125" s="111" t="s">
+      <c r="N125" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="O125" s="111" t="s">
+      <c r="O125" s="97" t="s">
         <v>569</v>
       </c>
-      <c r="P125" s="111" t="s">
+      <c r="P125" s="97" t="s">
         <v>570</v>
       </c>
-      <c r="Q125" s="111" t="s">
+      <c r="Q125" s="97" t="s">
         <v>604</v>
       </c>
-      <c r="R125" s="111" t="s">
+      <c r="R125" s="97" t="s">
         <v>602</v>
       </c>
       <c r="S125" s="92"/>
@@ -11979,37 +11967,37 @@
         <f>B125+1</f>
         <v>32</v>
       </c>
-      <c r="D129" s="111" t="s">
+      <c r="D129" s="97" t="s">
         <v>603</v>
       </c>
-      <c r="E129" s="111" t="s">
+      <c r="E129" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="F129" s="111" t="s">
+      <c r="F129" s="97" t="s">
         <v>565</v>
       </c>
-      <c r="G129" s="111" t="s">
+      <c r="G129" s="97" t="s">
         <v>254</v>
       </c>
-      <c r="H129" s="111" t="s">
+      <c r="H129" s="97" t="s">
         <v>566</v>
       </c>
-      <c r="I129" s="111" t="s">
+      <c r="I129" s="97" t="s">
         <v>605</v>
       </c>
-      <c r="J129" s="111" t="s">
+      <c r="J129" s="97" t="s">
         <v>606</v>
       </c>
-      <c r="K129" s="111" t="s">
+      <c r="K129" s="97" t="s">
         <v>808</v>
       </c>
-      <c r="L129" s="111"/>
-      <c r="M129" s="111"/>
-      <c r="N129" s="111"/>
-      <c r="O129" s="111"/>
-      <c r="P129" s="111"/>
-      <c r="Q129" s="111"/>
-      <c r="R129" s="111"/>
+      <c r="L129" s="97"/>
+      <c r="M129" s="97"/>
+      <c r="N129" s="97"/>
+      <c r="O129" s="97"/>
+      <c r="P129" s="97"/>
+      <c r="Q129" s="97"/>
+      <c r="R129" s="97"/>
       <c r="S129" s="92"/>
       <c r="V129" s="60"/>
     </row>
@@ -12090,21 +12078,21 @@
         <f>B129+1</f>
         <v>33</v>
       </c>
-      <c r="D133" s="111"/>
-      <c r="E133" s="111"/>
-      <c r="F133" s="111"/>
-      <c r="G133" s="113"/>
-      <c r="H133" s="111"/>
-      <c r="I133" s="111"/>
-      <c r="J133" s="111"/>
-      <c r="K133" s="111"/>
-      <c r="L133" s="111"/>
-      <c r="M133" s="111"/>
-      <c r="N133" s="111"/>
-      <c r="O133" s="111"/>
-      <c r="P133" s="111"/>
-      <c r="Q133" s="111"/>
-      <c r="R133" s="111"/>
+      <c r="D133" s="97"/>
+      <c r="E133" s="97"/>
+      <c r="F133" s="97"/>
+      <c r="G133" s="98"/>
+      <c r="H133" s="97"/>
+      <c r="I133" s="97"/>
+      <c r="J133" s="97"/>
+      <c r="K133" s="97"/>
+      <c r="L133" s="97"/>
+      <c r="M133" s="97"/>
+      <c r="N133" s="97"/>
+      <c r="O133" s="97"/>
+      <c r="P133" s="97"/>
+      <c r="Q133" s="97"/>
+      <c r="R133" s="97"/>
       <c r="S133" s="92"/>
       <c r="V133" s="60"/>
     </row>
@@ -12173,21 +12161,21 @@
         <f>B133+1</f>
         <v>34</v>
       </c>
-      <c r="D137" s="111"/>
-      <c r="E137" s="111"/>
-      <c r="F137" s="111"/>
-      <c r="G137" s="111"/>
-      <c r="H137" s="111"/>
-      <c r="I137" s="111"/>
-      <c r="J137" s="111"/>
-      <c r="K137" s="111"/>
-      <c r="L137" s="111"/>
-      <c r="M137" s="111"/>
-      <c r="N137" s="111"/>
-      <c r="O137" s="111"/>
-      <c r="P137" s="111"/>
-      <c r="Q137" s="111"/>
-      <c r="R137" s="111"/>
+      <c r="D137" s="97"/>
+      <c r="E137" s="97"/>
+      <c r="F137" s="97"/>
+      <c r="G137" s="97"/>
+      <c r="H137" s="97"/>
+      <c r="I137" s="97"/>
+      <c r="J137" s="97"/>
+      <c r="K137" s="97"/>
+      <c r="L137" s="97"/>
+      <c r="M137" s="97"/>
+      <c r="N137" s="97"/>
+      <c r="O137" s="97"/>
+      <c r="P137" s="97"/>
+      <c r="Q137" s="97"/>
+      <c r="R137" s="97"/>
       <c r="S137" s="92"/>
       <c r="V137" s="60"/>
     </row>
@@ -12256,21 +12244,21 @@
         <f>B137+1</f>
         <v>35</v>
       </c>
-      <c r="D141" s="111"/>
-      <c r="E141" s="111"/>
-      <c r="F141" s="111"/>
-      <c r="G141" s="113"/>
-      <c r="H141" s="111"/>
-      <c r="I141" s="111"/>
-      <c r="J141" s="111"/>
-      <c r="K141" s="111"/>
-      <c r="L141" s="111"/>
-      <c r="M141" s="111"/>
-      <c r="N141" s="111"/>
-      <c r="O141" s="111"/>
-      <c r="P141" s="111"/>
-      <c r="Q141" s="111"/>
-      <c r="R141" s="111"/>
+      <c r="D141" s="97"/>
+      <c r="E141" s="97"/>
+      <c r="F141" s="97"/>
+      <c r="G141" s="98"/>
+      <c r="H141" s="97"/>
+      <c r="I141" s="97"/>
+      <c r="J141" s="97"/>
+      <c r="K141" s="97"/>
+      <c r="L141" s="97"/>
+      <c r="M141" s="97"/>
+      <c r="N141" s="97"/>
+      <c r="O141" s="97"/>
+      <c r="P141" s="97"/>
+      <c r="Q141" s="97"/>
+      <c r="R141" s="97"/>
       <c r="S141" s="92"/>
       <c r="V141" s="60"/>
     </row>
@@ -12339,21 +12327,21 @@
         <f>B141+1</f>
         <v>36</v>
       </c>
-      <c r="D145" s="111"/>
-      <c r="E145" s="111"/>
-      <c r="F145" s="111"/>
-      <c r="G145" s="113"/>
-      <c r="H145" s="111"/>
-      <c r="I145" s="111"/>
-      <c r="J145" s="111"/>
-      <c r="K145" s="111"/>
-      <c r="L145" s="111"/>
-      <c r="M145" s="111"/>
-      <c r="N145" s="111"/>
-      <c r="O145" s="111"/>
-      <c r="P145" s="111"/>
-      <c r="Q145" s="111"/>
-      <c r="R145" s="111"/>
+      <c r="D145" s="97"/>
+      <c r="E145" s="97"/>
+      <c r="F145" s="97"/>
+      <c r="G145" s="98"/>
+      <c r="H145" s="97"/>
+      <c r="I145" s="97"/>
+      <c r="J145" s="97"/>
+      <c r="K145" s="97"/>
+      <c r="L145" s="97"/>
+      <c r="M145" s="97"/>
+      <c r="N145" s="97"/>
+      <c r="O145" s="97"/>
+      <c r="P145" s="97"/>
+      <c r="Q145" s="97"/>
+      <c r="R145" s="97"/>
       <c r="S145" s="92"/>
       <c r="V145" s="60"/>
     </row>
@@ -12422,21 +12410,21 @@
         <f>B145+1</f>
         <v>37</v>
       </c>
-      <c r="D149" s="111"/>
-      <c r="E149" s="111"/>
-      <c r="F149" s="111"/>
-      <c r="G149" s="111"/>
-      <c r="H149" s="111"/>
-      <c r="I149" s="111"/>
-      <c r="J149" s="111"/>
-      <c r="K149" s="111"/>
-      <c r="L149" s="111"/>
-      <c r="M149" s="111"/>
-      <c r="N149" s="111"/>
-      <c r="O149" s="111"/>
-      <c r="P149" s="111"/>
-      <c r="Q149" s="111"/>
-      <c r="R149" s="111"/>
+      <c r="D149" s="97"/>
+      <c r="E149" s="97"/>
+      <c r="F149" s="97"/>
+      <c r="G149" s="97"/>
+      <c r="H149" s="97"/>
+      <c r="I149" s="97"/>
+      <c r="J149" s="97"/>
+      <c r="K149" s="97"/>
+      <c r="L149" s="97"/>
+      <c r="M149" s="97"/>
+      <c r="N149" s="97"/>
+      <c r="O149" s="97"/>
+      <c r="P149" s="97"/>
+      <c r="Q149" s="97"/>
+      <c r="R149" s="97"/>
       <c r="S149" s="92"/>
       <c r="V149" s="60"/>
     </row>
@@ -12505,21 +12493,21 @@
         <f>B149+1</f>
         <v>38</v>
       </c>
-      <c r="D153" s="111"/>
-      <c r="E153" s="111"/>
-      <c r="F153" s="111"/>
-      <c r="G153" s="111"/>
-      <c r="H153" s="111"/>
-      <c r="I153" s="111"/>
-      <c r="J153" s="111"/>
-      <c r="K153" s="111"/>
-      <c r="L153" s="111"/>
-      <c r="M153" s="111"/>
-      <c r="N153" s="111"/>
-      <c r="O153" s="111"/>
-      <c r="P153" s="111"/>
-      <c r="Q153" s="111"/>
-      <c r="R153" s="111"/>
+      <c r="D153" s="97"/>
+      <c r="E153" s="97"/>
+      <c r="F153" s="97"/>
+      <c r="G153" s="97"/>
+      <c r="H153" s="97"/>
+      <c r="I153" s="97"/>
+      <c r="J153" s="97"/>
+      <c r="K153" s="97"/>
+      <c r="L153" s="97"/>
+      <c r="M153" s="97"/>
+      <c r="N153" s="97"/>
+      <c r="O153" s="97"/>
+      <c r="P153" s="97"/>
+      <c r="Q153" s="97"/>
+      <c r="R153" s="97"/>
       <c r="S153" s="92"/>
       <c r="V153" s="60"/>
     </row>
@@ -12588,21 +12576,21 @@
         <f>B153+1</f>
         <v>39</v>
       </c>
-      <c r="D157" s="111"/>
-      <c r="E157" s="111"/>
-      <c r="F157" s="111"/>
-      <c r="G157" s="111"/>
-      <c r="H157" s="111"/>
-      <c r="I157" s="111"/>
-      <c r="J157" s="111"/>
-      <c r="K157" s="111"/>
-      <c r="L157" s="111"/>
-      <c r="M157" s="111"/>
-      <c r="N157" s="111"/>
-      <c r="O157" s="111"/>
-      <c r="P157" s="111"/>
-      <c r="Q157" s="111"/>
-      <c r="R157" s="111"/>
+      <c r="D157" s="97"/>
+      <c r="E157" s="97"/>
+      <c r="F157" s="97"/>
+      <c r="G157" s="97"/>
+      <c r="H157" s="97"/>
+      <c r="I157" s="97"/>
+      <c r="J157" s="97"/>
+      <c r="K157" s="97"/>
+      <c r="L157" s="97"/>
+      <c r="M157" s="97"/>
+      <c r="N157" s="97"/>
+      <c r="O157" s="97"/>
+      <c r="P157" s="97"/>
+      <c r="Q157" s="97"/>
+      <c r="R157" s="97"/>
       <c r="S157" s="92"/>
       <c r="V157" s="60"/>
     </row>
@@ -12671,21 +12659,21 @@
         <f>B157+1</f>
         <v>40</v>
       </c>
-      <c r="D161" s="111"/>
-      <c r="E161" s="111"/>
-      <c r="F161" s="111"/>
-      <c r="G161" s="111"/>
-      <c r="H161" s="111"/>
-      <c r="I161" s="111"/>
-      <c r="J161" s="111"/>
-      <c r="K161" s="111"/>
-      <c r="L161" s="111"/>
-      <c r="M161" s="111"/>
-      <c r="N161" s="111"/>
-      <c r="O161" s="111"/>
-      <c r="P161" s="111"/>
-      <c r="Q161" s="111"/>
-      <c r="R161" s="111"/>
+      <c r="D161" s="97"/>
+      <c r="E161" s="97"/>
+      <c r="F161" s="97"/>
+      <c r="G161" s="97"/>
+      <c r="H161" s="97"/>
+      <c r="I161" s="97"/>
+      <c r="J161" s="97"/>
+      <c r="K161" s="97"/>
+      <c r="L161" s="97"/>
+      <c r="M161" s="97"/>
+      <c r="N161" s="97"/>
+      <c r="O161" s="97"/>
+      <c r="P161" s="97"/>
+      <c r="Q161" s="97"/>
+      <c r="R161" s="97"/>
       <c r="S161" s="92"/>
       <c r="V161" s="60"/>
     </row>
@@ -12754,21 +12742,21 @@
         <f>B161+1</f>
         <v>41</v>
       </c>
-      <c r="D165" s="111"/>
-      <c r="E165" s="111"/>
-      <c r="F165" s="111"/>
-      <c r="G165" s="111"/>
-      <c r="H165" s="111"/>
-      <c r="I165" s="111"/>
-      <c r="J165" s="111"/>
-      <c r="K165" s="111"/>
-      <c r="L165" s="111"/>
-      <c r="M165" s="111"/>
-      <c r="N165" s="111"/>
-      <c r="O165" s="111"/>
-      <c r="P165" s="111"/>
-      <c r="Q165" s="111"/>
-      <c r="R165" s="111"/>
+      <c r="D165" s="97"/>
+      <c r="E165" s="97"/>
+      <c r="F165" s="97"/>
+      <c r="G165" s="97"/>
+      <c r="H165" s="97"/>
+      <c r="I165" s="97"/>
+      <c r="J165" s="97"/>
+      <c r="K165" s="97"/>
+      <c r="L165" s="97"/>
+      <c r="M165" s="97"/>
+      <c r="N165" s="97"/>
+      <c r="O165" s="97"/>
+      <c r="P165" s="97"/>
+      <c r="Q165" s="97"/>
+      <c r="R165" s="97"/>
       <c r="S165" s="92"/>
       <c r="V165" s="60"/>
     </row>
@@ -12836,21 +12824,21 @@
         <v>42</v>
       </c>
       <c r="C169" s="1"/>
-      <c r="D169" s="111"/>
-      <c r="E169" s="111"/>
-      <c r="F169" s="111"/>
-      <c r="G169" s="111"/>
-      <c r="H169" s="111"/>
-      <c r="I169" s="111"/>
-      <c r="J169" s="111"/>
-      <c r="K169" s="111"/>
-      <c r="L169" s="111"/>
-      <c r="M169" s="111"/>
-      <c r="N169" s="111"/>
-      <c r="O169" s="111"/>
-      <c r="P169" s="111"/>
-      <c r="Q169" s="111"/>
-      <c r="R169" s="111"/>
+      <c r="D169" s="97"/>
+      <c r="E169" s="97"/>
+      <c r="F169" s="97"/>
+      <c r="G169" s="97"/>
+      <c r="H169" s="97"/>
+      <c r="I169" s="97"/>
+      <c r="J169" s="97"/>
+      <c r="K169" s="97"/>
+      <c r="L169" s="97"/>
+      <c r="M169" s="97"/>
+      <c r="N169" s="97"/>
+      <c r="O169" s="97"/>
+      <c r="P169" s="97"/>
+      <c r="Q169" s="97"/>
+      <c r="R169" s="97"/>
     </row>
     <row r="170" spans="2:22">
       <c r="B170" s="58"/>
@@ -12915,21 +12903,21 @@
         <v>43</v>
       </c>
       <c r="C173" s="1"/>
-      <c r="D173" s="111"/>
-      <c r="E173" s="111"/>
-      <c r="F173" s="111"/>
-      <c r="G173" s="113"/>
-      <c r="H173" s="111"/>
-      <c r="I173" s="111"/>
-      <c r="J173" s="111"/>
-      <c r="K173" s="111"/>
-      <c r="L173" s="111"/>
-      <c r="M173" s="111"/>
-      <c r="N173" s="111"/>
-      <c r="O173" s="111"/>
-      <c r="P173" s="111"/>
-      <c r="Q173" s="111"/>
-      <c r="R173" s="111"/>
+      <c r="D173" s="97"/>
+      <c r="E173" s="97"/>
+      <c r="F173" s="97"/>
+      <c r="G173" s="98"/>
+      <c r="H173" s="97"/>
+      <c r="I173" s="97"/>
+      <c r="J173" s="97"/>
+      <c r="K173" s="97"/>
+      <c r="L173" s="97"/>
+      <c r="M173" s="97"/>
+      <c r="N173" s="97"/>
+      <c r="O173" s="97"/>
+      <c r="P173" s="97"/>
+      <c r="Q173" s="97"/>
+      <c r="R173" s="97"/>
     </row>
     <row r="174" spans="2:22">
       <c r="B174" s="58"/>
@@ -12994,21 +12982,21 @@
         <v>44</v>
       </c>
       <c r="C177" s="1"/>
-      <c r="D177" s="111"/>
-      <c r="E177" s="111"/>
-      <c r="F177" s="111"/>
-      <c r="G177" s="111"/>
-      <c r="H177" s="111"/>
-      <c r="I177" s="111"/>
-      <c r="J177" s="111"/>
-      <c r="K177" s="111"/>
-      <c r="L177" s="111"/>
-      <c r="M177" s="111"/>
-      <c r="N177" s="111"/>
-      <c r="O177" s="111"/>
-      <c r="P177" s="111"/>
-      <c r="Q177" s="111"/>
-      <c r="R177" s="111"/>
+      <c r="D177" s="97"/>
+      <c r="E177" s="97"/>
+      <c r="F177" s="97"/>
+      <c r="G177" s="97"/>
+      <c r="H177" s="97"/>
+      <c r="I177" s="97"/>
+      <c r="J177" s="97"/>
+      <c r="K177" s="97"/>
+      <c r="L177" s="97"/>
+      <c r="M177" s="97"/>
+      <c r="N177" s="97"/>
+      <c r="O177" s="97"/>
+      <c r="P177" s="97"/>
+      <c r="Q177" s="97"/>
+      <c r="R177" s="97"/>
     </row>
     <row r="178" spans="2:18">
       <c r="B178" s="58"/>
@@ -13073,21 +13061,21 @@
         <v>45</v>
       </c>
       <c r="C181" s="1"/>
-      <c r="D181" s="111"/>
-      <c r="E181" s="111"/>
-      <c r="F181" s="111"/>
-      <c r="G181" s="113"/>
-      <c r="H181" s="111"/>
-      <c r="I181" s="111"/>
-      <c r="J181" s="111"/>
-      <c r="K181" s="111"/>
-      <c r="L181" s="111"/>
-      <c r="M181" s="111"/>
-      <c r="N181" s="111"/>
-      <c r="O181" s="111"/>
-      <c r="P181" s="111"/>
-      <c r="Q181" s="111"/>
-      <c r="R181" s="111"/>
+      <c r="D181" s="97"/>
+      <c r="E181" s="97"/>
+      <c r="F181" s="97"/>
+      <c r="G181" s="98"/>
+      <c r="H181" s="97"/>
+      <c r="I181" s="97"/>
+      <c r="J181" s="97"/>
+      <c r="K181" s="97"/>
+      <c r="L181" s="97"/>
+      <c r="M181" s="97"/>
+      <c r="N181" s="97"/>
+      <c r="O181" s="97"/>
+      <c r="P181" s="97"/>
+      <c r="Q181" s="97"/>
+      <c r="R181" s="97"/>
     </row>
     <row r="182" spans="2:18">
       <c r="B182" s="58"/>
@@ -13152,21 +13140,21 @@
         <v>46</v>
       </c>
       <c r="C185" s="1"/>
-      <c r="D185" s="111"/>
-      <c r="E185" s="111"/>
-      <c r="F185" s="111"/>
-      <c r="G185" s="111"/>
-      <c r="H185" s="111"/>
-      <c r="I185" s="111"/>
-      <c r="J185" s="111"/>
-      <c r="K185" s="111"/>
-      <c r="L185" s="111"/>
-      <c r="M185" s="111"/>
-      <c r="N185" s="111"/>
-      <c r="O185" s="111"/>
-      <c r="P185" s="111"/>
-      <c r="Q185" s="111"/>
-      <c r="R185" s="111"/>
+      <c r="D185" s="97"/>
+      <c r="E185" s="97"/>
+      <c r="F185" s="97"/>
+      <c r="G185" s="97"/>
+      <c r="H185" s="97"/>
+      <c r="I185" s="97"/>
+      <c r="J185" s="97"/>
+      <c r="K185" s="97"/>
+      <c r="L185" s="97"/>
+      <c r="M185" s="97"/>
+      <c r="N185" s="97"/>
+      <c r="O185" s="97"/>
+      <c r="P185" s="97"/>
+      <c r="Q185" s="97"/>
+      <c r="R185" s="97"/>
     </row>
     <row r="186" spans="2:18">
       <c r="B186" s="58"/>
@@ -13231,21 +13219,21 @@
         <v>47</v>
       </c>
       <c r="C189" s="1"/>
-      <c r="D189" s="111"/>
-      <c r="E189" s="111"/>
-      <c r="F189" s="111"/>
-      <c r="G189" s="111"/>
-      <c r="H189" s="111"/>
-      <c r="I189" s="111"/>
-      <c r="J189" s="111"/>
-      <c r="K189" s="111"/>
-      <c r="L189" s="111"/>
-      <c r="M189" s="111"/>
-      <c r="N189" s="111"/>
-      <c r="O189" s="111"/>
-      <c r="P189" s="111"/>
-      <c r="Q189" s="111"/>
-      <c r="R189" s="111"/>
+      <c r="D189" s="97"/>
+      <c r="E189" s="97"/>
+      <c r="F189" s="97"/>
+      <c r="G189" s="97"/>
+      <c r="H189" s="97"/>
+      <c r="I189" s="97"/>
+      <c r="J189" s="97"/>
+      <c r="K189" s="97"/>
+      <c r="L189" s="97"/>
+      <c r="M189" s="97"/>
+      <c r="N189" s="97"/>
+      <c r="O189" s="97"/>
+      <c r="P189" s="97"/>
+      <c r="Q189" s="97"/>
+      <c r="R189" s="97"/>
     </row>
     <row r="190" spans="2:18">
       <c r="B190" s="58"/>
@@ -13310,21 +13298,21 @@
         <v>48</v>
       </c>
       <c r="C193" s="1"/>
-      <c r="D193" s="111"/>
-      <c r="E193" s="111"/>
-      <c r="F193" s="111"/>
-      <c r="G193" s="113"/>
-      <c r="H193" s="111"/>
-      <c r="I193" s="111"/>
-      <c r="J193" s="111"/>
-      <c r="K193" s="111"/>
-      <c r="L193" s="111"/>
-      <c r="M193" s="111"/>
-      <c r="N193" s="111"/>
-      <c r="O193" s="111"/>
-      <c r="P193" s="111"/>
-      <c r="Q193" s="111"/>
-      <c r="R193" s="111"/>
+      <c r="D193" s="97"/>
+      <c r="E193" s="97"/>
+      <c r="F193" s="97"/>
+      <c r="G193" s="98"/>
+      <c r="H193" s="97"/>
+      <c r="I193" s="97"/>
+      <c r="J193" s="97"/>
+      <c r="K193" s="97"/>
+      <c r="L193" s="97"/>
+      <c r="M193" s="97"/>
+      <c r="N193" s="97"/>
+      <c r="O193" s="97"/>
+      <c r="P193" s="97"/>
+      <c r="Q193" s="97"/>
+      <c r="R193" s="97"/>
     </row>
     <row r="194" spans="2:18">
       <c r="B194" s="58"/>
@@ -13389,21 +13377,21 @@
         <v>49</v>
       </c>
       <c r="C197" s="1"/>
-      <c r="D197" s="111"/>
-      <c r="E197" s="111"/>
-      <c r="F197" s="111"/>
-      <c r="G197" s="113"/>
-      <c r="H197" s="111"/>
-      <c r="I197" s="111"/>
-      <c r="J197" s="111"/>
-      <c r="K197" s="111"/>
-      <c r="L197" s="111"/>
-      <c r="M197" s="111"/>
-      <c r="N197" s="111"/>
-      <c r="O197" s="111"/>
-      <c r="P197" s="111"/>
-      <c r="Q197" s="111"/>
-      <c r="R197" s="111"/>
+      <c r="D197" s="97"/>
+      <c r="E197" s="97"/>
+      <c r="F197" s="97"/>
+      <c r="G197" s="98"/>
+      <c r="H197" s="97"/>
+      <c r="I197" s="97"/>
+      <c r="J197" s="97"/>
+      <c r="K197" s="97"/>
+      <c r="L197" s="97"/>
+      <c r="M197" s="97"/>
+      <c r="N197" s="97"/>
+      <c r="O197" s="97"/>
+      <c r="P197" s="97"/>
+      <c r="Q197" s="97"/>
+      <c r="R197" s="97"/>
     </row>
     <row r="198" spans="2:18">
       <c r="B198" s="58"/>
@@ -13468,21 +13456,21 @@
         <v>50</v>
       </c>
       <c r="C201" s="1"/>
-      <c r="D201" s="111"/>
-      <c r="E201" s="111"/>
-      <c r="F201" s="111"/>
-      <c r="G201" s="113"/>
-      <c r="H201" s="111"/>
-      <c r="I201" s="111"/>
-      <c r="J201" s="111"/>
-      <c r="K201" s="111"/>
-      <c r="L201" s="111"/>
-      <c r="M201" s="111"/>
-      <c r="N201" s="111"/>
-      <c r="O201" s="111"/>
-      <c r="P201" s="111"/>
-      <c r="Q201" s="111"/>
-      <c r="R201" s="111"/>
+      <c r="D201" s="97"/>
+      <c r="E201" s="97"/>
+      <c r="F201" s="97"/>
+      <c r="G201" s="98"/>
+      <c r="H201" s="97"/>
+      <c r="I201" s="97"/>
+      <c r="J201" s="97"/>
+      <c r="K201" s="97"/>
+      <c r="L201" s="97"/>
+      <c r="M201" s="97"/>
+      <c r="N201" s="97"/>
+      <c r="O201" s="97"/>
+      <c r="P201" s="97"/>
+      <c r="Q201" s="97"/>
+      <c r="R201" s="97"/>
     </row>
     <row r="202" spans="2:18">
       <c r="B202" s="58"/>
@@ -13547,21 +13535,21 @@
         <v>51</v>
       </c>
       <c r="C205" s="1"/>
-      <c r="D205" s="111"/>
-      <c r="E205" s="111"/>
-      <c r="F205" s="111"/>
-      <c r="G205" s="113"/>
-      <c r="H205" s="111"/>
-      <c r="I205" s="111"/>
-      <c r="J205" s="111"/>
-      <c r="K205" s="111"/>
-      <c r="L205" s="111"/>
-      <c r="M205" s="111"/>
-      <c r="N205" s="111"/>
-      <c r="O205" s="111"/>
-      <c r="P205" s="111"/>
-      <c r="Q205" s="111"/>
-      <c r="R205" s="111"/>
+      <c r="D205" s="97"/>
+      <c r="E205" s="97"/>
+      <c r="F205" s="97"/>
+      <c r="G205" s="98"/>
+      <c r="H205" s="97"/>
+      <c r="I205" s="97"/>
+      <c r="J205" s="97"/>
+      <c r="K205" s="97"/>
+      <c r="L205" s="97"/>
+      <c r="M205" s="97"/>
+      <c r="N205" s="97"/>
+      <c r="O205" s="97"/>
+      <c r="P205" s="97"/>
+      <c r="Q205" s="97"/>
+      <c r="R205" s="97"/>
     </row>
     <row r="206" spans="2:18">
       <c r="B206" s="58"/>
@@ -13626,21 +13614,21 @@
         <v>52</v>
       </c>
       <c r="C209" s="1"/>
-      <c r="D209" s="111"/>
-      <c r="E209" s="111"/>
-      <c r="F209" s="111"/>
-      <c r="G209" s="113"/>
-      <c r="H209" s="111"/>
-      <c r="I209" s="111"/>
-      <c r="J209" s="111"/>
-      <c r="K209" s="111"/>
-      <c r="L209" s="111"/>
-      <c r="M209" s="111"/>
-      <c r="N209" s="111"/>
-      <c r="O209" s="111"/>
-      <c r="P209" s="111"/>
-      <c r="Q209" s="111"/>
-      <c r="R209" s="111"/>
+      <c r="D209" s="97"/>
+      <c r="E209" s="97"/>
+      <c r="F209" s="97"/>
+      <c r="G209" s="98"/>
+      <c r="H209" s="97"/>
+      <c r="I209" s="97"/>
+      <c r="J209" s="97"/>
+      <c r="K209" s="97"/>
+      <c r="L209" s="97"/>
+      <c r="M209" s="97"/>
+      <c r="N209" s="97"/>
+      <c r="O209" s="97"/>
+      <c r="P209" s="97"/>
+      <c r="Q209" s="97"/>
+      <c r="R209" s="97"/>
     </row>
     <row r="210" spans="2:18">
       <c r="B210" s="58"/>
@@ -13705,21 +13693,21 @@
         <v>53</v>
       </c>
       <c r="C213" s="1"/>
-      <c r="D213" s="111"/>
-      <c r="E213" s="111"/>
-      <c r="F213" s="111"/>
-      <c r="G213" s="113"/>
-      <c r="H213" s="111"/>
-      <c r="I213" s="111"/>
-      <c r="J213" s="111"/>
-      <c r="K213" s="111"/>
-      <c r="L213" s="111"/>
-      <c r="M213" s="111"/>
-      <c r="N213" s="111"/>
-      <c r="O213" s="111"/>
-      <c r="P213" s="111"/>
-      <c r="Q213" s="111"/>
-      <c r="R213" s="111"/>
+      <c r="D213" s="97"/>
+      <c r="E213" s="97"/>
+      <c r="F213" s="97"/>
+      <c r="G213" s="98"/>
+      <c r="H213" s="97"/>
+      <c r="I213" s="97"/>
+      <c r="J213" s="97"/>
+      <c r="K213" s="97"/>
+      <c r="L213" s="97"/>
+      <c r="M213" s="97"/>
+      <c r="N213" s="97"/>
+      <c r="O213" s="97"/>
+      <c r="P213" s="97"/>
+      <c r="Q213" s="97"/>
+      <c r="R213" s="97"/>
     </row>
     <row r="214" spans="2:18">
       <c r="B214" s="58"/>
@@ -13784,21 +13772,21 @@
         <v>54</v>
       </c>
       <c r="C217" s="1"/>
-      <c r="D217" s="111"/>
-      <c r="E217" s="111"/>
-      <c r="F217" s="111"/>
-      <c r="G217" s="113"/>
-      <c r="H217" s="111"/>
-      <c r="I217" s="111"/>
-      <c r="J217" s="111"/>
-      <c r="K217" s="111"/>
-      <c r="L217" s="111"/>
-      <c r="M217" s="111"/>
-      <c r="N217" s="111"/>
-      <c r="O217" s="111"/>
-      <c r="P217" s="111"/>
-      <c r="Q217" s="111"/>
-      <c r="R217" s="111"/>
+      <c r="D217" s="97"/>
+      <c r="E217" s="97"/>
+      <c r="F217" s="97"/>
+      <c r="G217" s="98"/>
+      <c r="H217" s="97"/>
+      <c r="I217" s="97"/>
+      <c r="J217" s="97"/>
+      <c r="K217" s="97"/>
+      <c r="L217" s="97"/>
+      <c r="M217" s="97"/>
+      <c r="N217" s="97"/>
+      <c r="O217" s="97"/>
+      <c r="P217" s="97"/>
+      <c r="Q217" s="97"/>
+      <c r="R217" s="97"/>
     </row>
     <row r="218" spans="2:18">
       <c r="B218" s="58"/>
@@ -13863,21 +13851,21 @@
         <v>55</v>
       </c>
       <c r="C221" s="1"/>
-      <c r="D221" s="111"/>
-      <c r="E221" s="111"/>
-      <c r="F221" s="111"/>
-      <c r="G221" s="113"/>
-      <c r="H221" s="111"/>
-      <c r="I221" s="111"/>
-      <c r="J221" s="111"/>
-      <c r="K221" s="111"/>
-      <c r="L221" s="111"/>
-      <c r="M221" s="111"/>
-      <c r="N221" s="111"/>
-      <c r="O221" s="111"/>
-      <c r="P221" s="111"/>
-      <c r="Q221" s="111"/>
-      <c r="R221" s="111"/>
+      <c r="D221" s="97"/>
+      <c r="E221" s="97"/>
+      <c r="F221" s="97"/>
+      <c r="G221" s="98"/>
+      <c r="H221" s="97"/>
+      <c r="I221" s="97"/>
+      <c r="J221" s="97"/>
+      <c r="K221" s="97"/>
+      <c r="L221" s="97"/>
+      <c r="M221" s="97"/>
+      <c r="N221" s="97"/>
+      <c r="O221" s="97"/>
+      <c r="P221" s="97"/>
+      <c r="Q221" s="97"/>
+      <c r="R221" s="97"/>
     </row>
     <row r="222" spans="2:18">
       <c r="B222" s="58"/>
@@ -13942,21 +13930,21 @@
         <v>56</v>
       </c>
       <c r="C225" s="1"/>
-      <c r="D225" s="111"/>
-      <c r="E225" s="111"/>
-      <c r="F225" s="111"/>
-      <c r="G225" s="113"/>
-      <c r="H225" s="111"/>
-      <c r="I225" s="111"/>
-      <c r="J225" s="111"/>
-      <c r="K225" s="111"/>
-      <c r="L225" s="111"/>
-      <c r="M225" s="111"/>
-      <c r="N225" s="111"/>
-      <c r="O225" s="111"/>
-      <c r="P225" s="111"/>
-      <c r="Q225" s="111"/>
-      <c r="R225" s="111"/>
+      <c r="D225" s="97"/>
+      <c r="E225" s="97"/>
+      <c r="F225" s="97"/>
+      <c r="G225" s="98"/>
+      <c r="H225" s="97"/>
+      <c r="I225" s="97"/>
+      <c r="J225" s="97"/>
+      <c r="K225" s="97"/>
+      <c r="L225" s="97"/>
+      <c r="M225" s="97"/>
+      <c r="N225" s="97"/>
+      <c r="O225" s="97"/>
+      <c r="P225" s="97"/>
+      <c r="Q225" s="97"/>
+      <c r="R225" s="97"/>
     </row>
     <row r="226" spans="2:18">
       <c r="B226" s="58"/>
@@ -14021,21 +14009,21 @@
         <v>57</v>
       </c>
       <c r="C229" s="1"/>
-      <c r="D229" s="111"/>
-      <c r="E229" s="111"/>
-      <c r="F229" s="111"/>
-      <c r="G229" s="113"/>
-      <c r="H229" s="111"/>
-      <c r="I229" s="111"/>
-      <c r="J229" s="111"/>
-      <c r="K229" s="111"/>
-      <c r="L229" s="111"/>
-      <c r="M229" s="111"/>
-      <c r="N229" s="111"/>
-      <c r="O229" s="111"/>
-      <c r="P229" s="111"/>
-      <c r="Q229" s="111"/>
-      <c r="R229" s="111"/>
+      <c r="D229" s="97"/>
+      <c r="E229" s="97"/>
+      <c r="F229" s="97"/>
+      <c r="G229" s="98"/>
+      <c r="H229" s="97"/>
+      <c r="I229" s="97"/>
+      <c r="J229" s="97"/>
+      <c r="K229" s="97"/>
+      <c r="L229" s="97"/>
+      <c r="M229" s="97"/>
+      <c r="N229" s="97"/>
+      <c r="O229" s="97"/>
+      <c r="P229" s="97"/>
+      <c r="Q229" s="97"/>
+      <c r="R229" s="97"/>
     </row>
     <row r="230" spans="2:18">
       <c r="B230" s="58"/>
@@ -14100,21 +14088,21 @@
         <v>58</v>
       </c>
       <c r="C233" s="1"/>
-      <c r="D233" s="111"/>
-      <c r="E233" s="111"/>
-      <c r="F233" s="111"/>
-      <c r="G233" s="113"/>
-      <c r="H233" s="111"/>
-      <c r="I233" s="111"/>
-      <c r="J233" s="111"/>
-      <c r="K233" s="111"/>
-      <c r="L233" s="111"/>
-      <c r="M233" s="111"/>
-      <c r="N233" s="111"/>
-      <c r="O233" s="111"/>
-      <c r="P233" s="111"/>
-      <c r="Q233" s="111"/>
-      <c r="R233" s="111"/>
+      <c r="D233" s="97"/>
+      <c r="E233" s="97"/>
+      <c r="F233" s="97"/>
+      <c r="G233" s="98"/>
+      <c r="H233" s="97"/>
+      <c r="I233" s="97"/>
+      <c r="J233" s="97"/>
+      <c r="K233" s="97"/>
+      <c r="L233" s="97"/>
+      <c r="M233" s="97"/>
+      <c r="N233" s="97"/>
+      <c r="O233" s="97"/>
+      <c r="P233" s="97"/>
+      <c r="Q233" s="97"/>
+      <c r="R233" s="97"/>
     </row>
     <row r="234" spans="2:18">
       <c r="B234" s="58"/>
@@ -14179,21 +14167,21 @@
         <v>59</v>
       </c>
       <c r="C237" s="1"/>
-      <c r="D237" s="111"/>
-      <c r="E237" s="111"/>
-      <c r="F237" s="111"/>
-      <c r="G237" s="113"/>
-      <c r="H237" s="111"/>
-      <c r="I237" s="111"/>
-      <c r="J237" s="111"/>
-      <c r="K237" s="111"/>
-      <c r="L237" s="111"/>
-      <c r="M237" s="111"/>
-      <c r="N237" s="111"/>
-      <c r="O237" s="111"/>
-      <c r="P237" s="111"/>
-      <c r="Q237" s="111"/>
-      <c r="R237" s="111"/>
+      <c r="D237" s="97"/>
+      <c r="E237" s="97"/>
+      <c r="F237" s="97"/>
+      <c r="G237" s="98"/>
+      <c r="H237" s="97"/>
+      <c r="I237" s="97"/>
+      <c r="J237" s="97"/>
+      <c r="K237" s="97"/>
+      <c r="L237" s="97"/>
+      <c r="M237" s="97"/>
+      <c r="N237" s="97"/>
+      <c r="O237" s="97"/>
+      <c r="P237" s="97"/>
+      <c r="Q237" s="97"/>
+      <c r="R237" s="97"/>
     </row>
     <row r="238" spans="2:18">
       <c r="B238" s="58"/>
@@ -14258,21 +14246,21 @@
         <v>60</v>
       </c>
       <c r="C241" s="1"/>
-      <c r="D241" s="111"/>
-      <c r="E241" s="111"/>
-      <c r="F241" s="111"/>
-      <c r="G241" s="113"/>
-      <c r="H241" s="111"/>
-      <c r="I241" s="111"/>
-      <c r="J241" s="111"/>
-      <c r="K241" s="111"/>
-      <c r="L241" s="111"/>
-      <c r="M241" s="111"/>
-      <c r="N241" s="111"/>
-      <c r="O241" s="111"/>
-      <c r="P241" s="111"/>
-      <c r="Q241" s="111"/>
-      <c r="R241" s="111"/>
+      <c r="D241" s="97"/>
+      <c r="E241" s="97"/>
+      <c r="F241" s="97"/>
+      <c r="G241" s="98"/>
+      <c r="H241" s="97"/>
+      <c r="I241" s="97"/>
+      <c r="J241" s="97"/>
+      <c r="K241" s="97"/>
+      <c r="L241" s="97"/>
+      <c r="M241" s="97"/>
+      <c r="N241" s="97"/>
+      <c r="O241" s="97"/>
+      <c r="P241" s="97"/>
+      <c r="Q241" s="97"/>
+      <c r="R241" s="97"/>
     </row>
     <row r="242" spans="2:18">
       <c r="B242" s="58"/>
@@ -14315,43 +14303,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="187" priority="39">
+    <cfRule type="expression" dxfId="187" priority="40">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="186" priority="39">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="186" priority="40">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="185" priority="37">
+    <cfRule type="expression" dxfId="185" priority="38">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="184" priority="37">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="184" priority="38">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="183" priority="35">
+    <cfRule type="expression" dxfId="183" priority="36">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="182" priority="35">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="182" priority="36">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23 D39:R39 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="181" priority="49">
+    <cfRule type="expression" dxfId="181" priority="50">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="180" priority="49">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="180" priority="50">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="179" priority="33">
+    <cfRule type="expression" dxfId="179" priority="34">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="178" priority="33">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="178" priority="34">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
@@ -14363,19 +14351,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="175" priority="29">
+    <cfRule type="expression" dxfId="175" priority="30">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="174" priority="29">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="174" priority="30">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="173" priority="27">
+    <cfRule type="expression" dxfId="173" priority="28">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="172" priority="27">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="172" priority="28">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
@@ -14387,19 +14375,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:R51">
-    <cfRule type="expression" dxfId="169" priority="23">
+    <cfRule type="expression" dxfId="169" priority="24">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="168" priority="23">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="168" priority="24">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="167" priority="21">
+    <cfRule type="expression" dxfId="167" priority="22">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="166" priority="21">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="166" priority="22">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
@@ -14411,35 +14399,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="163" priority="17">
+    <cfRule type="expression" dxfId="163" priority="18">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="17">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="162" priority="18">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="161" priority="15">
+    <cfRule type="expression" dxfId="161" priority="16">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="160" priority="15">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="160" priority="16">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
-    <cfRule type="expression" dxfId="159" priority="13">
+    <cfRule type="expression" dxfId="159" priority="14">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="158" priority="13">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="158" priority="14">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="157" priority="11">
+    <cfRule type="expression" dxfId="157" priority="12">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="11">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="156" priority="12">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
@@ -14451,11 +14439,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
-    <cfRule type="expression" dxfId="153" priority="7">
+    <cfRule type="expression" dxfId="153" priority="8">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="152" priority="7">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="152" priority="8">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
@@ -20281,43 +20269,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="139" priority="39">
+    <cfRule type="expression" dxfId="139" priority="40">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="39">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="138" priority="40">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="137" priority="37">
+    <cfRule type="expression" dxfId="137" priority="38">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="37">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="136" priority="38">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="135" priority="35">
+    <cfRule type="expression" dxfId="135" priority="36">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="35">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="36">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23 D39:R39 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="133" priority="47">
+    <cfRule type="expression" dxfId="133" priority="48">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="47">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="132" priority="48">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="131" priority="33">
+    <cfRule type="expression" dxfId="131" priority="34">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="33">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="130" priority="34">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
@@ -20329,19 +20317,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="127" priority="29">
+    <cfRule type="expression" dxfId="127" priority="30">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="29">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="126" priority="30">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="125" priority="27">
+    <cfRule type="expression" dxfId="125" priority="28">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="27">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="124" priority="28">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
@@ -20353,19 +20341,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:R51">
-    <cfRule type="expression" dxfId="121" priority="23">
+    <cfRule type="expression" dxfId="121" priority="24">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="23">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="24">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="119" priority="21">
+    <cfRule type="expression" dxfId="119" priority="22">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="21">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="22">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
@@ -20377,35 +20365,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="115" priority="17">
+    <cfRule type="expression" dxfId="115" priority="18">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="17">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="18">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="113" priority="15">
+    <cfRule type="expression" dxfId="113" priority="16">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="15">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="16">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
-    <cfRule type="expression" dxfId="111" priority="13">
+    <cfRule type="expression" dxfId="111" priority="14">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="13">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="14">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="109" priority="11">
+    <cfRule type="expression" dxfId="109" priority="12">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="11">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="12">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
@@ -20417,11 +20405,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
-    <cfRule type="expression" dxfId="105" priority="7">
+    <cfRule type="expression" dxfId="105" priority="8">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="7">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="8">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
@@ -26247,43 +26235,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="91" priority="39">
+    <cfRule type="expression" dxfId="91" priority="40">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="39">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="40">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="89" priority="37">
+    <cfRule type="expression" dxfId="89" priority="38">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="37">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="38">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="87" priority="35">
+    <cfRule type="expression" dxfId="87" priority="36">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="35">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="36">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23 D39:R39 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="85" priority="47">
+    <cfRule type="expression" dxfId="85" priority="48">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="47">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="48">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="83" priority="33">
+    <cfRule type="expression" dxfId="83" priority="34">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="33">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="34">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
@@ -26295,19 +26283,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="79" priority="29">
+    <cfRule type="expression" dxfId="79" priority="30">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="29">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="30">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="77" priority="27">
+    <cfRule type="expression" dxfId="77" priority="28">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="27">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="28">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
@@ -26319,19 +26307,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:R51">
-    <cfRule type="expression" dxfId="73" priority="23">
+    <cfRule type="expression" dxfId="73" priority="24">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="23">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="24">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="71" priority="21">
+    <cfRule type="expression" dxfId="71" priority="22">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="21">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="22">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
@@ -26343,35 +26331,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="67" priority="17">
+    <cfRule type="expression" dxfId="67" priority="18">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="17">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="18">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="65" priority="15">
+    <cfRule type="expression" dxfId="65" priority="16">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="15">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="16">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
-    <cfRule type="expression" dxfId="63" priority="13">
+    <cfRule type="expression" dxfId="63" priority="14">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="13">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="14">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="61" priority="11">
+    <cfRule type="expression" dxfId="61" priority="12">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="11">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="12">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
@@ -26383,11 +26371,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
-    <cfRule type="expression" dxfId="57" priority="7">
+    <cfRule type="expression" dxfId="57" priority="8">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="7">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="8">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
@@ -32198,27 +32186,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="45" priority="37">
+    <cfRule type="expression" dxfId="45" priority="38">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="37">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="38">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="43" priority="35">
+    <cfRule type="expression" dxfId="43" priority="36">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="35">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="36">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="41" priority="33">
+    <cfRule type="expression" dxfId="41" priority="34">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="33">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="34">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
@@ -32230,27 +32218,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23 D39:R39 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="37" priority="45">
+    <cfRule type="expression" dxfId="37" priority="46">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="45">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="46">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="35" priority="29">
+    <cfRule type="expression" dxfId="35" priority="30">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="29">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="30">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="33" priority="27">
+    <cfRule type="expression" dxfId="33" priority="28">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="27">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="28">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
@@ -32262,19 +32250,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="29" priority="23">
+    <cfRule type="expression" dxfId="29" priority="24">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="23">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="24">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
-    <cfRule type="expression" dxfId="27" priority="21">
+    <cfRule type="expression" dxfId="27" priority="22">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="21">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="22">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:R51">
@@ -32286,19 +32274,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="23" priority="17">
+    <cfRule type="expression" dxfId="23" priority="18">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="17">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="18">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
-    <cfRule type="expression" dxfId="21" priority="15">
+    <cfRule type="expression" dxfId="21" priority="16">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="15">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="16">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
@@ -32310,11 +32298,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="17" priority="11">
+    <cfRule type="expression" dxfId="17" priority="12">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="11">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="12">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
@@ -32326,11 +32314,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="13" priority="8">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="7">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
@@ -32350,11 +32338,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">

--- a/output7/【河洛文讀注音】《般若波羅蜜多心經》.xlsx
+++ b/output7/【河洛文讀注音】《般若波羅蜜多心經》.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FED563EC-B597-416C-8B93-9C598D1D320A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E17672F-60E9-4163-BBC2-D8E1E6AB6FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -2368,9 +2368,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>十五音</t>
-  </si>
-  <si>
     <t>《般若波羅蜜多心經》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3470,10 +3467,6 @@
   </si>
   <si>
     <t>上及右</t>
-  </si>
-  <si>
-    <t>DBL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>標音方式</t>
@@ -3499,6 +3492,12 @@
 三世諸佛，依般若波羅蜜多故，得阿耨多羅三藐三菩提！
 故知般若波羅蜜多，是大神咒，是大明咒，是無上咒，是無等等咒。能除一切苦！真實不虛！
 故說般若波羅蜜多咒，即說咒曰：揭諦，揭諦，波羅揭諦，波羅僧揭諦，菩提薩婆訶！</t>
+  </si>
+  <si>
+    <t>雅俗通</t>
+  </si>
+  <si>
+    <t>無預設</t>
   </si>
 </sst>
 </file>
@@ -7450,8 +7449,8 @@
   </sheetPr>
   <dimension ref="B1:C17"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="25.5"/>
@@ -7491,7 +7490,7 @@
         <v>165</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -7499,7 +7498,7 @@
         <v>166</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="6" spans="2:3">
@@ -7563,7 +7562,7 @@
         <v>321</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>562</v>
+        <v>869</v>
       </c>
     </row>
     <row r="14" spans="2:3">
@@ -7571,36 +7570,36 @@
         <v>322</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="75" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="75" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>562</v>
+        <v>869</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="75" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="6">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{DE2F131F-8109-4114-9E19-8669EDE792F8}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
@@ -7611,13 +7610,16 @@
       <formula1>"河洛話, 廣韻"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14" xr:uid="{C79E7157-C92D-4508-86F1-7B35F7E5DF1D}">
-      <formula1>"SNI, TPS, POJ, TL, BP, TLPA_Plus, DBL"</formula1>
+      <formula1>"無預設, SNI, TPS, POJ, TL, BP, TLPA_Plus, DBL"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15" xr:uid="{3372F129-5C21-48C2-98EC-CC00FD46859C}">
       <formula1>"預設,上,右,上及右"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C13 C16:C17" xr:uid="{17F876CB-ADF5-4106-A0F0-31D26D7F16CE}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C16:C17" xr:uid="{17F876CB-ADF5-4106-A0F0-31D26D7F16CE}">
       <formula1>" ,十五音, 雅俗通,方音符號,台語音標, 白話字, 台羅拼音, 閩拼方案"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{F58DA5C4-F87A-475C-94D7-4E3EF2B47E1E}">
+      <formula1>"預設,十五音, 雅俗通,方音符號,台語音標, 白話字, 台羅拼音, 閩拼方案"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -7680,7 +7682,7 @@
       <c r="H3" s="81"/>
       <c r="I3" s="81"/>
       <c r="J3" s="81" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="K3" s="81"/>
       <c r="L3" s="81"/>
@@ -7688,59 +7690,59 @@
       <c r="N3" s="81"/>
       <c r="O3" s="81"/>
       <c r="P3" s="81" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Q3" s="81"/>
       <c r="R3" s="81"/>
       <c r="T3" s="90"/>
       <c r="V3" s="105" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="56"/>
       <c r="D4" s="82" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E4" s="82" t="s">
         <v>550</v>
       </c>
       <c r="F4" s="82" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G4" s="82" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H4" s="82" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I4" s="82"/>
       <c r="J4" s="82" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="K4" s="82" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="L4" s="82" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="M4" s="82" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="N4" s="82" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="O4" s="82" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P4" s="82" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Q4" s="82" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R4" s="82" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="S4" s="91"/>
       <c r="V4" s="106"/>
@@ -7750,49 +7752,49 @@
         <v>1</v>
       </c>
       <c r="D5" s="97" t="s">
+        <v>789</v>
+      </c>
+      <c r="E5" s="97" t="s">
         <v>790</v>
       </c>
-      <c r="E5" s="97" t="s">
+      <c r="F5" s="97" t="s">
         <v>791</v>
       </c>
-      <c r="F5" s="97" t="s">
-        <v>792</v>
-      </c>
       <c r="G5" s="97" t="s">
+        <v>564</v>
+      </c>
+      <c r="H5" s="97" t="s">
         <v>565</v>
-      </c>
-      <c r="H5" s="97" t="s">
-        <v>566</v>
       </c>
       <c r="I5" s="97" t="s">
         <v>183</v>
       </c>
       <c r="J5" s="97" t="s">
+        <v>792</v>
+      </c>
+      <c r="K5" s="97" t="s">
         <v>793</v>
       </c>
-      <c r="K5" s="97" t="s">
+      <c r="L5" s="97" t="s">
+        <v>566</v>
+      </c>
+      <c r="M5" s="97" t="s">
+        <v>567</v>
+      </c>
+      <c r="N5" s="97" t="s">
+        <v>568</v>
+      </c>
+      <c r="O5" s="97" t="s">
+        <v>569</v>
+      </c>
+      <c r="P5" s="97" t="s">
+        <v>570</v>
+      </c>
+      <c r="Q5" s="97" t="s">
+        <v>571</v>
+      </c>
+      <c r="R5" s="97" t="s">
         <v>794</v>
-      </c>
-      <c r="L5" s="97" t="s">
-        <v>567</v>
-      </c>
-      <c r="M5" s="97" t="s">
-        <v>568</v>
-      </c>
-      <c r="N5" s="97" t="s">
-        <v>569</v>
-      </c>
-      <c r="O5" s="97" t="s">
-        <v>570</v>
-      </c>
-      <c r="P5" s="97" t="s">
-        <v>571</v>
-      </c>
-      <c r="Q5" s="97" t="s">
-        <v>572</v>
-      </c>
-      <c r="R5" s="97" t="s">
-        <v>795</v>
       </c>
       <c r="S5" s="92"/>
       <c r="V5" s="106"/>
@@ -7801,47 +7803,47 @@
       <c r="B6" s="58"/>
       <c r="C6" s="85"/>
       <c r="D6" s="83" t="s">
+        <v>607</v>
+      </c>
+      <c r="E6" s="83" t="s">
         <v>608</v>
       </c>
-      <c r="E6" s="83" t="s">
-        <v>609</v>
-      </c>
       <c r="F6" s="83" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G6" s="83" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H6" s="83" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I6" s="83"/>
       <c r="J6" s="83" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="K6" s="83" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L6" s="83" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="M6" s="83" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="N6" s="83" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="O6" s="83" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="P6" s="83" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Q6" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="R6" s="83" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="S6" s="93"/>
       <c r="V6" s="106"/>
@@ -7871,38 +7873,38 @@
       <c r="B8" s="56"/>
       <c r="D8" s="82"/>
       <c r="E8" s="82" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F8" s="82" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G8" s="82" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H8" s="82" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I8" s="82" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="J8" s="82" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="K8" s="82"/>
       <c r="L8" s="82" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="M8" s="82" t="s">
         <v>263</v>
       </c>
       <c r="N8" s="82" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="O8" s="82" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="P8" s="82" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="Q8" s="82"/>
       <c r="R8" s="82"/>
@@ -7918,40 +7920,40 @@
         <v>183</v>
       </c>
       <c r="E9" s="97" t="s">
+        <v>795</v>
+      </c>
+      <c r="F9" s="97" t="s">
         <v>796</v>
       </c>
-      <c r="F9" s="97" t="s">
+      <c r="G9" s="97" t="s">
         <v>797</v>
       </c>
-      <c r="G9" s="97" t="s">
+      <c r="H9" s="97" t="s">
         <v>798</v>
       </c>
-      <c r="H9" s="97" t="s">
+      <c r="I9" s="97" t="s">
         <v>799</v>
       </c>
-      <c r="I9" s="97" t="s">
+      <c r="J9" s="97" t="s">
         <v>800</v>
-      </c>
-      <c r="J9" s="97" t="s">
-        <v>801</v>
       </c>
       <c r="K9" s="97" t="s">
         <v>183</v>
       </c>
       <c r="L9" s="97" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="M9" s="97" t="s">
         <v>187</v>
       </c>
       <c r="N9" s="97" t="s">
+        <v>802</v>
+      </c>
+      <c r="O9" s="97" t="s">
         <v>803</v>
       </c>
-      <c r="O9" s="97" t="s">
+      <c r="P9" s="97" t="s">
         <v>804</v>
-      </c>
-      <c r="P9" s="97" t="s">
-        <v>805</v>
       </c>
       <c r="Q9" s="97" t="s">
         <v>186</v>
@@ -7965,38 +7967,38 @@
       <c r="B10" s="58"/>
       <c r="D10" s="83"/>
       <c r="E10" s="83" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F10" s="83" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G10" s="83" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H10" s="83" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I10" s="83" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J10" s="83" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K10" s="83"/>
       <c r="L10" s="83" t="s">
+        <v>644</v>
+      </c>
+      <c r="M10" s="83" t="s">
         <v>645</v>
       </c>
-      <c r="M10" s="83" t="s">
-        <v>646</v>
-      </c>
       <c r="N10" s="104" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="O10" s="83" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="P10" s="83" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="Q10" s="83"/>
       <c r="R10" s="83"/>
@@ -8109,43 +8111,43 @@
     <row r="16" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="56"/>
       <c r="D16" s="82" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F16" s="82" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G16" s="82"/>
       <c r="H16" s="82" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I16" s="82" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J16" s="82" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K16" s="82" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="L16" s="82"/>
       <c r="M16" s="82" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N16" s="82" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="O16" s="82" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P16" s="82" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="Q16" s="82"/>
       <c r="R16" s="82" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="S16" s="91"/>
       <c r="V16" s="106"/>
@@ -8156,49 +8158,49 @@
         <v>4</v>
       </c>
       <c r="D17" s="97" t="s">
+        <v>805</v>
+      </c>
+      <c r="E17" s="97" t="s">
         <v>806</v>
-      </c>
-      <c r="E17" s="97" t="s">
-        <v>807</v>
       </c>
       <c r="F17" s="97" t="s">
         <v>239</v>
       </c>
       <c r="G17" s="97" t="s">
+        <v>807</v>
+      </c>
+      <c r="H17" s="97" t="s">
         <v>808</v>
       </c>
-      <c r="H17" s="97" t="s">
+      <c r="I17" s="97" t="s">
         <v>809</v>
       </c>
-      <c r="I17" s="97" t="s">
+      <c r="J17" s="97" t="s">
         <v>810</v>
       </c>
-      <c r="J17" s="97" t="s">
-        <v>811</v>
-      </c>
       <c r="K17" s="97" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="L17" s="97" t="s">
         <v>183</v>
       </c>
       <c r="M17" s="97" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="N17" s="97" t="s">
+        <v>809</v>
+      </c>
+      <c r="O17" s="97" t="s">
         <v>810</v>
       </c>
-      <c r="O17" s="97" t="s">
-        <v>811</v>
-      </c>
       <c r="P17" s="97" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="Q17" s="97" t="s">
         <v>183</v>
       </c>
       <c r="R17" s="97" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="S17" s="92"/>
       <c r="V17" s="106"/>
@@ -8206,43 +8208,43 @@
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="58"/>
       <c r="D18" s="83" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E18" s="83" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F18" s="83" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G18" s="83"/>
       <c r="H18" s="83" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I18" s="83" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J18" s="83" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="K18" s="83" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L18" s="83"/>
       <c r="M18" s="83" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="N18" s="83" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="O18" s="83" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="P18" s="83" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="Q18" s="83"/>
       <c r="R18" s="83" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="S18" s="94"/>
       <c r="V18" s="106"/>
@@ -8270,43 +8272,43 @@
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="56"/>
       <c r="D20" s="82" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E20" s="82" t="s">
         <v>300</v>
       </c>
       <c r="F20" s="82" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G20" s="82"/>
       <c r="H20" s="82" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I20" s="82" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J20" s="82" t="s">
         <v>300</v>
       </c>
       <c r="K20" s="82" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="L20" s="82"/>
       <c r="M20" s="82" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N20" s="82" t="s">
         <v>551</v>
       </c>
       <c r="O20" s="82" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="P20" s="82" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="Q20" s="82"/>
       <c r="R20" s="82" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="S20" s="91"/>
       <c r="V20" s="106"/>
@@ -8317,49 +8319,49 @@
         <v>5</v>
       </c>
       <c r="D21" s="97" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E21" s="97" t="s">
         <v>191</v>
       </c>
       <c r="F21" s="97" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G21" s="97" t="s">
         <v>183</v>
       </c>
       <c r="H21" s="97" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="I21" s="97" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J21" s="97" t="s">
         <v>191</v>
       </c>
       <c r="K21" s="97" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="L21" s="97" t="s">
         <v>183</v>
       </c>
       <c r="M21" s="101" t="s">
+        <v>811</v>
+      </c>
+      <c r="N21" s="97" t="s">
+        <v>574</v>
+      </c>
+      <c r="O21" s="102" t="s">
+        <v>792</v>
+      </c>
+      <c r="P21" s="97" t="s">
         <v>812</v>
-      </c>
-      <c r="N21" s="97" t="s">
-        <v>575</v>
-      </c>
-      <c r="O21" s="102" t="s">
-        <v>793</v>
-      </c>
-      <c r="P21" s="97" t="s">
-        <v>813</v>
       </c>
       <c r="Q21" s="97" t="s">
         <v>183</v>
       </c>
       <c r="R21" s="97" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="S21" s="92"/>
       <c r="V21" s="106"/>
@@ -8367,43 +8369,43 @@
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="58"/>
       <c r="D22" s="83" t="s">
+        <v>665</v>
+      </c>
+      <c r="E22" s="83" t="s">
         <v>666</v>
       </c>
-      <c r="E22" s="83" t="s">
-        <v>667</v>
-      </c>
       <c r="F22" s="83" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G22" s="83"/>
       <c r="H22" s="83" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I22" s="83" t="s">
+        <v>665</v>
+      </c>
+      <c r="J22" s="83" t="s">
         <v>666</v>
       </c>
-      <c r="J22" s="83" t="s">
-        <v>667</v>
-      </c>
       <c r="K22" s="83" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="L22" s="83"/>
       <c r="M22" s="83" t="s">
+        <v>668</v>
+      </c>
+      <c r="N22" s="83" t="s">
         <v>669</v>
       </c>
-      <c r="N22" s="83" t="s">
-        <v>670</v>
-      </c>
       <c r="O22" s="83" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="P22" s="83" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="Q22" s="83"/>
       <c r="R22" s="83" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="S22" s="94"/>
       <c r="V22" s="107"/>
@@ -8460,10 +8462,10 @@
         <v>6</v>
       </c>
       <c r="D25" s="97" t="s">
+        <v>814</v>
+      </c>
+      <c r="E25" s="97" t="s">
         <v>815</v>
-      </c>
-      <c r="E25" s="97" t="s">
-        <v>816</v>
       </c>
       <c r="F25" s="97" t="s">
         <v>191</v>
@@ -8488,13 +8490,13 @@
     <row r="26" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="58"/>
       <c r="D26" s="83" t="s">
+        <v>672</v>
+      </c>
+      <c r="E26" s="83" t="s">
         <v>673</v>
       </c>
-      <c r="E26" s="83" t="s">
-        <v>674</v>
-      </c>
       <c r="F26" s="83" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G26" s="83"/>
       <c r="H26" s="83"/>
@@ -8641,42 +8643,42 @@
     <row r="32" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="56"/>
       <c r="D32" s="82" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E32" s="82" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F32" s="82" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G32" s="82"/>
       <c r="H32" s="82" t="s">
         <v>300</v>
       </c>
       <c r="I32" s="82" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J32" s="82" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K32" s="82" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="L32" s="82" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="M32" s="82"/>
       <c r="N32" s="82" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="O32" s="82" t="s">
         <v>313</v>
       </c>
       <c r="P32" s="82" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="Q32" s="82" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="R32" s="82"/>
       <c r="S32" s="91"/>
@@ -8692,46 +8694,46 @@
         <v>8</v>
       </c>
       <c r="D33" s="97" t="s">
+        <v>805</v>
+      </c>
+      <c r="E33" s="97" t="s">
         <v>806</v>
-      </c>
-      <c r="E33" s="97" t="s">
-        <v>807</v>
       </c>
       <c r="F33" s="97" t="s">
         <v>239</v>
       </c>
       <c r="G33" s="97" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H33" s="97" t="s">
         <v>191</v>
       </c>
       <c r="I33" s="97" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="J33" s="97" t="s">
+        <v>816</v>
+      </c>
+      <c r="K33" s="97" t="s">
+        <v>800</v>
+      </c>
+      <c r="L33" s="97" t="s">
         <v>817</v>
-      </c>
-      <c r="K33" s="97" t="s">
-        <v>801</v>
-      </c>
-      <c r="L33" s="97" t="s">
-        <v>818</v>
       </c>
       <c r="M33" s="97" t="s">
         <v>183</v>
       </c>
       <c r="N33" s="97" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="O33" s="97" t="s">
+        <v>818</v>
+      </c>
+      <c r="P33" s="97" t="s">
+        <v>809</v>
+      </c>
+      <c r="Q33" s="97" t="s">
         <v>819</v>
-      </c>
-      <c r="P33" s="97" t="s">
-        <v>810</v>
-      </c>
-      <c r="Q33" s="97" t="s">
-        <v>820</v>
       </c>
       <c r="R33" s="97" t="s">
         <v>183</v>
@@ -8742,42 +8744,42 @@
     <row r="34" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="58"/>
       <c r="D34" s="83" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E34" s="83" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F34" s="83" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G34" s="83"/>
       <c r="H34" s="83" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I34" s="83" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J34" s="83" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="K34" s="83" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L34" s="83" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="M34" s="83"/>
       <c r="N34" s="83" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="O34" s="83" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="P34" s="83" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Q34" s="83" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="R34" s="83"/>
       <c r="S34" s="94"/>
@@ -8806,29 +8808,29 @@
     <row r="36" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="56"/>
       <c r="D36" s="82" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E36" s="82" t="s">
         <v>546</v>
       </c>
       <c r="F36" s="82" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G36" s="82" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H36" s="82"/>
       <c r="I36" s="82" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J36" s="82" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K36" s="82" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L36" s="82" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="M36" s="82"/>
       <c r="N36" s="82" t="s">
@@ -8838,7 +8840,7 @@
         <v>554</v>
       </c>
       <c r="P36" s="82" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="Q36" s="82" t="s">
         <v>557</v>
@@ -8855,31 +8857,31 @@
         <v>9</v>
       </c>
       <c r="D37" s="97" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E37" s="97" t="s">
+        <v>820</v>
+      </c>
+      <c r="F37" s="97" t="s">
+        <v>809</v>
+      </c>
+      <c r="G37" s="97" t="s">
         <v>821</v>
-      </c>
-      <c r="F37" s="97" t="s">
-        <v>810</v>
-      </c>
-      <c r="G37" s="97" t="s">
-        <v>822</v>
       </c>
       <c r="H37" s="97" t="s">
         <v>183</v>
       </c>
       <c r="I37" s="97" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="J37" s="97" t="s">
+        <v>822</v>
+      </c>
+      <c r="K37" s="97" t="s">
+        <v>809</v>
+      </c>
+      <c r="L37" s="97" t="s">
         <v>823</v>
-      </c>
-      <c r="K37" s="97" t="s">
-        <v>810</v>
-      </c>
-      <c r="L37" s="97" t="s">
-        <v>824</v>
       </c>
       <c r="M37" s="97" t="s">
         <v>186</v>
@@ -8888,13 +8890,13 @@
         <v>191</v>
       </c>
       <c r="O37" s="97" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="P37" s="97" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="Q37" s="97" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="R37" s="97" t="s">
         <v>185</v>
@@ -8905,45 +8907,45 @@
     <row r="38" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="58"/>
       <c r="D38" s="83" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E38" s="83" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F38" s="83" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G38" s="83" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H38" s="83"/>
       <c r="I38" s="83" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J38" s="83" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K38" s="83" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="L38" s="83" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="M38" s="83"/>
       <c r="N38" s="83" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="O38" s="83" t="s">
+        <v>690</v>
+      </c>
+      <c r="P38" s="83" t="s">
+        <v>642</v>
+      </c>
+      <c r="Q38" s="83" t="s">
         <v>691</v>
       </c>
-      <c r="P38" s="83" t="s">
-        <v>643</v>
-      </c>
-      <c r="Q38" s="83" t="s">
+      <c r="R38" s="83" t="s">
         <v>692</v>
-      </c>
-      <c r="R38" s="83" t="s">
-        <v>693</v>
       </c>
       <c r="S38" s="94"/>
       <c r="V38" s="60"/>
@@ -8971,45 +8973,45 @@
     <row r="40" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="56"/>
       <c r="D40" s="82" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E40" s="82"/>
       <c r="F40" s="82" t="s">
         <v>548</v>
       </c>
       <c r="G40" s="82" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H40" s="82" t="s">
         <v>551</v>
       </c>
       <c r="I40" s="82" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="J40" s="82" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K40" s="82"/>
       <c r="L40" s="82" t="s">
         <v>548</v>
       </c>
       <c r="M40" s="82" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N40" s="82" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="O40" s="82" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="P40" s="82" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="Q40" s="82" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="R40" s="82" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="S40" s="91"/>
       <c r="V40" s="60"/>
@@ -9020,7 +9022,7 @@
         <v>10</v>
       </c>
       <c r="D41" s="97" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E41" s="97" t="s">
         <v>183</v>
@@ -9029,16 +9031,16 @@
         <v>185</v>
       </c>
       <c r="G41" s="97" t="s">
+        <v>811</v>
+      </c>
+      <c r="H41" s="97" t="s">
+        <v>574</v>
+      </c>
+      <c r="I41" s="102" t="s">
+        <v>792</v>
+      </c>
+      <c r="J41" s="97" t="s">
         <v>812</v>
-      </c>
-      <c r="H41" s="97" t="s">
-        <v>575</v>
-      </c>
-      <c r="I41" s="102" t="s">
-        <v>793</v>
-      </c>
-      <c r="J41" s="97" t="s">
-        <v>813</v>
       </c>
       <c r="K41" s="97" t="s">
         <v>186</v>
@@ -9047,22 +9049,22 @@
         <v>185</v>
       </c>
       <c r="M41" s="97" t="s">
+        <v>825</v>
+      </c>
+      <c r="N41" s="97" t="s">
         <v>826</v>
       </c>
-      <c r="N41" s="97" t="s">
+      <c r="O41" s="97" t="s">
         <v>827</v>
       </c>
-      <c r="O41" s="97" t="s">
+      <c r="P41" s="97" t="s">
         <v>828</v>
       </c>
-      <c r="P41" s="97" t="s">
+      <c r="Q41" s="97" t="s">
         <v>829</v>
       </c>
-      <c r="Q41" s="97" t="s">
+      <c r="R41" s="97" t="s">
         <v>830</v>
-      </c>
-      <c r="R41" s="97" t="s">
-        <v>831</v>
       </c>
       <c r="S41" s="92"/>
       <c r="V41" s="60"/>
@@ -9070,45 +9072,45 @@
     <row r="42" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="58"/>
       <c r="D42" s="83" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E42" s="83"/>
       <c r="F42" s="83" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G42" s="83" t="s">
+        <v>668</v>
+      </c>
+      <c r="H42" s="83" t="s">
         <v>669</v>
       </c>
-      <c r="H42" s="83" t="s">
-        <v>670</v>
-      </c>
       <c r="I42" s="83" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="J42" s="83" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K42" s="83"/>
       <c r="L42" s="83" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M42" s="83" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N42" s="83" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="O42" s="83" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P42" s="83" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="Q42" s="83" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="R42" s="83" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="S42" s="94"/>
       <c r="V42" s="60"/>
@@ -9140,22 +9142,22 @@
         <v>548</v>
       </c>
       <c r="F44" s="82" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G44" s="82" t="s">
         <v>313</v>
       </c>
       <c r="H44" s="82" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I44" s="82" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J44" s="82" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K44" s="82" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="L44" s="82"/>
       <c r="M44" s="82"/>
@@ -9173,28 +9175,28 @@
         <v>11</v>
       </c>
       <c r="D45" s="97" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E45" s="97" t="s">
         <v>185</v>
       </c>
       <c r="F45" s="97" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G45" s="97" t="s">
+        <v>831</v>
+      </c>
+      <c r="H45" s="97" t="s">
         <v>832</v>
       </c>
-      <c r="H45" s="97" t="s">
+      <c r="I45" s="97" t="s">
         <v>833</v>
       </c>
-      <c r="I45" s="97" t="s">
+      <c r="J45" s="97" t="s">
         <v>834</v>
       </c>
-      <c r="J45" s="97" t="s">
-        <v>835</v>
-      </c>
       <c r="K45" s="97" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="L45" s="97" t="s">
         <v>186</v>
@@ -9212,25 +9214,25 @@
       <c r="B46" s="58"/>
       <c r="D46" s="83"/>
       <c r="E46" s="83" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F46" s="83" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G46" s="83" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H46" s="83" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I46" s="83" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J46" s="83" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K46" s="83" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="L46" s="83"/>
       <c r="M46" s="83"/>
@@ -9351,14 +9353,14 @@
         <v>548</v>
       </c>
       <c r="E52" s="82" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F52" s="82" t="s">
         <v>293</v>
       </c>
       <c r="G52" s="82"/>
       <c r="H52" s="82" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I52" s="82" t="s">
         <v>326</v>
@@ -9367,10 +9369,10 @@
         <v>548</v>
       </c>
       <c r="K52" s="82" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="L52" s="82" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M52" s="82" t="s">
         <v>293</v>
@@ -9383,7 +9385,7 @@
         <v>548</v>
       </c>
       <c r="Q52" s="82" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="R52" s="82"/>
       <c r="S52" s="91"/>
@@ -9398,7 +9400,7 @@
         <v>185</v>
       </c>
       <c r="E53" s="97" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F53" s="97" t="s">
         <v>232</v>
@@ -9407,7 +9409,7 @@
         <v>183</v>
       </c>
       <c r="H53" s="97" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I53" s="97" t="s">
         <v>197</v>
@@ -9416,10 +9418,10 @@
         <v>185</v>
       </c>
       <c r="K53" s="97" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L53" s="97" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="M53" s="97" t="s">
         <v>232</v>
@@ -9434,7 +9436,7 @@
         <v>185</v>
       </c>
       <c r="Q53" s="97" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="R53" s="97" t="s">
         <v>183</v>
@@ -9445,42 +9447,42 @@
     <row r="54" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="58"/>
       <c r="D54" s="83" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E54" s="83" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F54" s="83" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G54" s="83"/>
       <c r="H54" s="83" t="s">
+        <v>713</v>
+      </c>
+      <c r="I54" s="83" t="s">
         <v>714</v>
       </c>
-      <c r="I54" s="83" t="s">
-        <v>715</v>
-      </c>
       <c r="J54" s="83" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="K54" s="83" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="L54" s="83" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M54" s="83" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="N54" s="83"/>
       <c r="O54" s="83" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="P54" s="83" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="Q54" s="83" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="R54" s="83"/>
       <c r="S54" s="94"/>
@@ -9509,7 +9511,7 @@
     <row r="56" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="56"/>
       <c r="D56" s="82" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E56" s="82" t="s">
         <v>548</v>
@@ -9518,14 +9520,14 @@
         <v>548</v>
       </c>
       <c r="G56" s="82" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H56" s="82" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I56" s="82"/>
       <c r="J56" s="82" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K56" s="82" t="s">
         <v>326</v>
@@ -9537,11 +9539,11 @@
         <v>560</v>
       </c>
       <c r="N56" s="82" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="O56" s="82"/>
       <c r="P56" s="82" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="Q56" s="82" t="s">
         <v>548</v>
@@ -9558,7 +9560,7 @@
         <v>14</v>
       </c>
       <c r="D57" s="97" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E57" s="97" t="s">
         <v>185</v>
@@ -9567,16 +9569,16 @@
         <v>185</v>
       </c>
       <c r="G57" s="98" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H57" s="97" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="I57" s="97" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J57" s="97" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K57" s="97" t="s">
         <v>197</v>
@@ -9585,22 +9587,22 @@
         <v>185</v>
       </c>
       <c r="M57" s="97" t="s">
+        <v>837</v>
+      </c>
+      <c r="N57" s="97" t="s">
         <v>838</v>
-      </c>
-      <c r="N57" s="97" t="s">
-        <v>839</v>
       </c>
       <c r="O57" s="97" t="s">
         <v>183</v>
       </c>
       <c r="P57" s="97" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="Q57" s="97" t="s">
         <v>185</v>
       </c>
       <c r="R57" s="97" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="S57" s="92"/>
       <c r="V57" s="60"/>
@@ -9608,45 +9610,45 @@
     <row r="58" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="58"/>
       <c r="D58" s="83" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E58" s="83" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F58" s="83" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G58" s="83" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H58" s="83" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I58" s="83"/>
       <c r="J58" s="83" t="s">
+        <v>713</v>
+      </c>
+      <c r="K58" s="83" t="s">
         <v>714</v>
       </c>
-      <c r="K58" s="83" t="s">
-        <v>715</v>
-      </c>
       <c r="L58" s="83" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M58" s="83" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="N58" s="83" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="O58" s="83"/>
       <c r="P58" s="83" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="Q58" s="83" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="R58" s="83" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="S58" s="94"/>
       <c r="V58" s="60"/>
@@ -9674,10 +9676,10 @@
     <row r="60" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="56"/>
       <c r="D60" s="82" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E60" s="82" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F60" s="82"/>
       <c r="G60" s="82"/>
@@ -9701,10 +9703,10 @@
         <v>15</v>
       </c>
       <c r="D61" s="97" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E61" s="97" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F61" s="97" t="s">
         <v>186</v>
@@ -9727,10 +9729,10 @@
     <row r="62" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="58"/>
       <c r="D62" s="83" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E62" s="83" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F62" s="83"/>
       <c r="G62" s="83"/>
@@ -9857,13 +9859,13 @@
         <v>548</v>
       </c>
       <c r="E68" s="82" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F68" s="82" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G68" s="82" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H68" s="82" t="s">
         <v>549</v>
@@ -9873,11 +9875,11 @@
         <v>548</v>
       </c>
       <c r="K68" s="82" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L68" s="82"/>
       <c r="M68" s="82" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N68" s="82" t="s">
         <v>548</v>
@@ -9904,16 +9906,16 @@
         <v>185</v>
       </c>
       <c r="E69" s="97" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F69" s="97" t="s">
+        <v>839</v>
+      </c>
+      <c r="G69" s="98" t="s">
+        <v>819</v>
+      </c>
+      <c r="H69" s="97" t="s">
         <v>840</v>
-      </c>
-      <c r="G69" s="98" t="s">
-        <v>820</v>
-      </c>
-      <c r="H69" s="97" t="s">
-        <v>841</v>
       </c>
       <c r="I69" s="97" t="s">
         <v>186</v>
@@ -9922,25 +9924,25 @@
         <v>185</v>
       </c>
       <c r="K69" s="97" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="L69" s="97" t="s">
         <v>183</v>
       </c>
       <c r="M69" s="97" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N69" s="97" t="s">
         <v>185</v>
       </c>
       <c r="O69" s="97" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P69" s="97" t="s">
         <v>186</v>
       </c>
       <c r="Q69" s="97" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="R69" s="97" t="s">
         <v>185</v>
@@ -9951,43 +9953,43 @@
     <row r="70" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="58"/>
       <c r="D70" s="83" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E70" s="83" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F70" s="83" t="s">
+        <v>723</v>
+      </c>
+      <c r="G70" s="83" t="s">
+        <v>682</v>
+      </c>
+      <c r="H70" s="83" t="s">
         <v>724</v>
-      </c>
-      <c r="G70" s="83" t="s">
-        <v>683</v>
-      </c>
-      <c r="H70" s="83" t="s">
-        <v>725</v>
       </c>
       <c r="I70" s="83"/>
       <c r="J70" s="83" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="K70" s="83" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L70" s="83"/>
       <c r="M70" s="83" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="N70" s="83" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="O70" s="83" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="P70" s="83"/>
       <c r="Q70" s="83" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="R70" s="83" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="S70" s="94"/>
       <c r="V70" s="60"/>
@@ -10025,35 +10027,35 @@
       </c>
       <c r="G72" s="82"/>
       <c r="H72" s="82" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I72" s="82" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J72" s="82" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K72" s="82" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="L72" s="82"/>
       <c r="M72" s="82" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="N72" s="82" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="O72" s="82" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="P72" s="82" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="Q72" s="82" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="R72" s="82" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="S72" s="91"/>
       <c r="V72" s="60"/>
@@ -10067,46 +10069,46 @@
         <v>190</v>
       </c>
       <c r="E73" s="97" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F73" s="97" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G73" s="97" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H73" s="97" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I73" s="97" t="s">
         <v>254</v>
       </c>
       <c r="J73" s="97" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K73" s="97" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="L73" s="97" t="s">
         <v>183</v>
       </c>
       <c r="M73" s="97" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N73" s="97" t="s">
+        <v>566</v>
+      </c>
+      <c r="O73" s="97" t="s">
         <v>567</v>
       </c>
-      <c r="O73" s="97" t="s">
+      <c r="P73" s="97" t="s">
         <v>568</v>
       </c>
-      <c r="P73" s="97" t="s">
+      <c r="Q73" s="97" t="s">
         <v>569</v>
       </c>
-      <c r="Q73" s="97" t="s">
+      <c r="R73" s="102" t="s">
         <v>570</v>
-      </c>
-      <c r="R73" s="102" t="s">
-        <v>571</v>
       </c>
       <c r="S73" s="92"/>
       <c r="V73" s="60"/>
@@ -10114,45 +10116,45 @@
     <row r="74" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="58"/>
       <c r="D74" s="83" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E74" s="83" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F74" s="83" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G74" s="83"/>
       <c r="H74" s="83" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I74" s="83" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="J74" s="83" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K74" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L74" s="83"/>
       <c r="M74" s="83" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="N74" s="83" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="O74" s="83" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="P74" s="83" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Q74" s="83" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="R74" s="83" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="S74" s="94"/>
       <c r="V74" s="60"/>
@@ -10180,33 +10182,33 @@
     <row r="76" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="56"/>
       <c r="D76" s="82" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E76" s="82" t="s">
         <v>554</v>
       </c>
       <c r="F76" s="82"/>
       <c r="G76" s="82" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H76" s="82" t="s">
         <v>548</v>
       </c>
       <c r="I76" s="82" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="J76" s="82" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="K76" s="82"/>
       <c r="L76" s="82" t="s">
         <v>548</v>
       </c>
       <c r="M76" s="82" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="N76" s="82" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="O76" s="82" t="s">
         <v>554</v>
@@ -10216,7 +10218,7 @@
         <v>548</v>
       </c>
       <c r="R76" s="82" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="S76" s="91"/>
       <c r="V76" s="60"/>
@@ -10227,25 +10229,25 @@
         <v>19</v>
       </c>
       <c r="D77" s="97" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E77" s="97" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F77" s="97" t="s">
         <v>183</v>
       </c>
       <c r="G77" s="98" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H77" s="97" t="s">
         <v>185</v>
       </c>
       <c r="I77" s="97" t="s">
+        <v>581</v>
+      </c>
+      <c r="J77" s="97" t="s">
         <v>582</v>
-      </c>
-      <c r="J77" s="97" t="s">
-        <v>583</v>
       </c>
       <c r="K77" s="97" t="s">
         <v>183</v>
@@ -10254,13 +10256,13 @@
         <v>185</v>
       </c>
       <c r="M77" s="97" t="s">
+        <v>581</v>
+      </c>
+      <c r="N77" s="97" t="s">
         <v>582</v>
       </c>
-      <c r="N77" s="97" t="s">
-        <v>583</v>
-      </c>
       <c r="O77" s="97" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="P77" s="97" t="s">
         <v>183</v>
@@ -10277,43 +10279,43 @@
     <row r="78" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="58"/>
       <c r="D78" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E78" s="83" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F78" s="83"/>
       <c r="G78" s="83" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H78" s="83" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I78" s="83" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J78" s="83" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="K78" s="83"/>
       <c r="L78" s="83" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M78" s="83" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="N78" s="83" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="O78" s="83" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="P78" s="83"/>
       <c r="Q78" s="83" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="R78" s="83" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="S78" s="94"/>
       <c r="V78" s="60"/>
@@ -10341,23 +10343,23 @@
     <row r="80" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="56"/>
       <c r="D80" s="82" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E80" s="82" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F80" s="82"/>
       <c r="G80" s="82" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H80" s="82" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I80" s="82" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J80" s="82" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="K80" s="82"/>
       <c r="L80" s="82" t="s">
@@ -10374,10 +10376,10 @@
         <v>278</v>
       </c>
       <c r="Q80" s="82" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="R80" s="82" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="S80" s="91"/>
       <c r="V80" s="60"/>
@@ -10388,49 +10390,49 @@
         <v>20</v>
       </c>
       <c r="D81" s="97" t="s">
+        <v>583</v>
+      </c>
+      <c r="E81" s="97" t="s">
         <v>584</v>
-      </c>
-      <c r="E81" s="97" t="s">
-        <v>585</v>
       </c>
       <c r="F81" s="97" t="s">
         <v>183</v>
       </c>
       <c r="G81" s="97" t="s">
+        <v>585</v>
+      </c>
+      <c r="H81" s="97" t="s">
         <v>586</v>
       </c>
-      <c r="H81" s="97" t="s">
+      <c r="I81" s="97" t="s">
         <v>587</v>
       </c>
-      <c r="I81" s="97" t="s">
+      <c r="J81" s="97" t="s">
         <v>588</v>
-      </c>
-      <c r="J81" s="97" t="s">
-        <v>589</v>
       </c>
       <c r="K81" s="97" t="s">
         <v>216</v>
       </c>
       <c r="L81" s="97" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M81" s="97" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="N81" s="97" t="s">
         <v>183</v>
       </c>
       <c r="O81" s="97" t="s">
+        <v>844</v>
+      </c>
+      <c r="P81" s="97" t="s">
         <v>845</v>
       </c>
-      <c r="P81" s="97" t="s">
+      <c r="Q81" s="97" t="s">
         <v>846</v>
       </c>
-      <c r="Q81" s="97" t="s">
+      <c r="R81" s="97" t="s">
         <v>847</v>
-      </c>
-      <c r="R81" s="97" t="s">
-        <v>848</v>
       </c>
       <c r="S81" s="92"/>
       <c r="V81" s="60"/>
@@ -10438,43 +10440,43 @@
     <row r="82" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="58"/>
       <c r="D82" s="83" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E82" s="83" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F82" s="83"/>
       <c r="G82" s="83" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H82" s="83" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I82" s="83" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J82" s="83" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="K82" s="83"/>
       <c r="L82" s="83" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="M82" s="83" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N82" s="83"/>
       <c r="O82" s="83" t="s">
+        <v>751</v>
+      </c>
+      <c r="P82" s="83" t="s">
         <v>752</v>
       </c>
-      <c r="P82" s="83" t="s">
-        <v>753</v>
-      </c>
       <c r="Q82" s="83" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="R82" s="83" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="S82" s="94"/>
       <c r="V82" s="60"/>
@@ -10676,32 +10678,32 @@
         <v>314</v>
       </c>
       <c r="F92" s="82" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G92" s="82" t="s">
         <v>558</v>
       </c>
       <c r="H92" s="82"/>
       <c r="I92" s="82" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="J92" s="82" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K92" s="82" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="L92" s="82" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="M92" s="82" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N92" s="82" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="O92" s="82" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="P92" s="82" t="s">
         <v>554</v>
@@ -10719,49 +10721,49 @@
         <v>23</v>
       </c>
       <c r="D93" s="97" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E93" s="97" t="s">
         <v>196</v>
       </c>
       <c r="F93" s="97" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G93" s="97" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H93" s="97" t="s">
         <v>183</v>
       </c>
       <c r="I93" s="97" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J93" s="97" t="s">
+        <v>566</v>
+      </c>
+      <c r="K93" s="97" t="s">
         <v>567</v>
       </c>
-      <c r="K93" s="97" t="s">
+      <c r="L93" s="97" t="s">
         <v>568</v>
       </c>
-      <c r="L93" s="97" t="s">
+      <c r="M93" s="97" t="s">
         <v>569</v>
       </c>
-      <c r="M93" s="97" t="s">
+      <c r="N93" s="102" t="s">
         <v>570</v>
       </c>
-      <c r="N93" s="102" t="s">
+      <c r="O93" s="97" t="s">
         <v>571</v>
       </c>
-      <c r="O93" s="97" t="s">
-        <v>572</v>
-      </c>
       <c r="P93" s="97" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="Q93" s="97" t="s">
         <v>183</v>
       </c>
       <c r="R93" s="97" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="S93" s="92"/>
       <c r="V93" s="60"/>
@@ -10769,45 +10771,45 @@
     <row r="94" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B94" s="58"/>
       <c r="D94" s="83" t="s">
+        <v>757</v>
+      </c>
+      <c r="E94" s="83" t="s">
         <v>758</v>
       </c>
-      <c r="E94" s="83" t="s">
+      <c r="F94" s="83" t="s">
+        <v>675</v>
+      </c>
+      <c r="G94" s="83" t="s">
         <v>759</v>
-      </c>
-      <c r="F94" s="83" t="s">
-        <v>676</v>
-      </c>
-      <c r="G94" s="83" t="s">
-        <v>760</v>
       </c>
       <c r="H94" s="83"/>
       <c r="I94" s="83" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J94" s="83" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K94" s="83" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L94" s="83" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M94" s="83" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N94" s="83" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O94" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="P94" s="83" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="Q94" s="83"/>
       <c r="R94" s="83" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="S94" s="94"/>
       <c r="V94" s="60"/>
@@ -10835,31 +10837,31 @@
     <row r="96" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B96" s="56"/>
       <c r="D96" s="82" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E96" s="82" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F96" s="82" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G96" s="82" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H96" s="82" t="s">
         <v>555</v>
       </c>
       <c r="I96" s="82" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="J96" s="82" t="s">
         <v>555</v>
       </c>
       <c r="K96" s="82" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L96" s="82" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="M96" s="82"/>
       <c r="N96" s="82"/>
@@ -10876,34 +10878,34 @@
         <v>24</v>
       </c>
       <c r="D97" s="97" t="s">
+        <v>592</v>
+      </c>
+      <c r="E97" s="97" t="s">
         <v>593</v>
       </c>
-      <c r="E97" s="97" t="s">
+      <c r="F97" s="97" t="s">
+        <v>571</v>
+      </c>
+      <c r="G97" s="98" t="s">
+        <v>569</v>
+      </c>
+      <c r="H97" s="97" t="s">
+        <v>590</v>
+      </c>
+      <c r="I97" s="97" t="s">
         <v>594</v>
       </c>
-      <c r="F97" s="97" t="s">
-        <v>572</v>
-      </c>
-      <c r="G97" s="98" t="s">
-        <v>570</v>
-      </c>
-      <c r="H97" s="97" t="s">
-        <v>591</v>
-      </c>
-      <c r="I97" s="97" t="s">
-        <v>595</v>
-      </c>
       <c r="J97" s="97" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K97" s="97" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L97" s="97" t="s">
         <v>254</v>
       </c>
       <c r="M97" s="97" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="N97" s="97"/>
       <c r="O97" s="97"/>
@@ -10916,31 +10918,31 @@
     <row r="98" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B98" s="58"/>
       <c r="D98" s="83" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E98" s="83" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F98" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G98" s="83" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H98" s="83" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I98" s="83" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="J98" s="83" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K98" s="83" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="L98" s="83" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="M98" s="83"/>
       <c r="N98" s="83"/>
@@ -11060,25 +11062,25 @@
         <v>554</v>
       </c>
       <c r="E104" s="82" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F104" s="82" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G104" s="82" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H104" s="82" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I104" s="82" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J104" s="82" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K104" s="82" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="L104" s="82"/>
       <c r="M104" s="82" t="s">
@@ -11091,7 +11093,7 @@
         <v>559</v>
       </c>
       <c r="P104" s="82" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="Q104" s="82"/>
       <c r="R104" s="82" t="s">
@@ -11106,28 +11108,28 @@
         <v>26</v>
       </c>
       <c r="D105" s="97" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E105" s="97" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F105" s="97" t="s">
+        <v>566</v>
+      </c>
+      <c r="G105" s="98" t="s">
         <v>567</v>
       </c>
-      <c r="G105" s="98" t="s">
+      <c r="H105" s="97" t="s">
         <v>568</v>
       </c>
-      <c r="H105" s="97" t="s">
+      <c r="I105" s="97" t="s">
         <v>569</v>
       </c>
-      <c r="I105" s="97" t="s">
+      <c r="J105" s="102" t="s">
         <v>570</v>
       </c>
-      <c r="J105" s="102" t="s">
+      <c r="K105" s="97" t="s">
         <v>571</v>
-      </c>
-      <c r="K105" s="97" t="s">
-        <v>572</v>
       </c>
       <c r="L105" s="97" t="s">
         <v>183</v>
@@ -11139,10 +11141,10 @@
         <v>195</v>
       </c>
       <c r="O105" s="99" t="s">
+        <v>596</v>
+      </c>
+      <c r="P105" s="97" t="s">
         <v>597</v>
-      </c>
-      <c r="P105" s="97" t="s">
-        <v>598</v>
       </c>
       <c r="Q105" s="97" t="s">
         <v>183</v>
@@ -11156,45 +11158,45 @@
     <row r="106" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B106" s="58"/>
       <c r="D106" s="83" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E106" s="83" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F106" s="83" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G106" s="83" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H106" s="83" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I106" s="83" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J106" s="83" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="K106" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L106" s="83"/>
       <c r="M106" s="83" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N106" s="83" t="s">
+        <v>762</v>
+      </c>
+      <c r="O106" s="83" t="s">
         <v>763</v>
       </c>
-      <c r="O106" s="83" t="s">
-        <v>764</v>
-      </c>
       <c r="P106" s="83" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="Q106" s="83"/>
       <c r="R106" s="83" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="S106" s="94"/>
       <c r="V106" s="60"/>
@@ -11225,10 +11227,10 @@
         <v>310</v>
       </c>
       <c r="E108" s="82" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F108" s="82" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G108" s="82"/>
       <c r="H108" s="82" t="s">
@@ -11241,7 +11243,7 @@
         <v>284</v>
       </c>
       <c r="K108" s="82" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="L108" s="82"/>
       <c r="M108" s="82" t="s">
@@ -11251,13 +11253,13 @@
         <v>548</v>
       </c>
       <c r="O108" s="82" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="P108" s="82" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="Q108" s="82" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="R108" s="82"/>
       <c r="S108" s="91"/>
@@ -11272,10 +11274,10 @@
         <v>195</v>
       </c>
       <c r="E109" s="97" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F109" s="97" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G109" s="97" t="s">
         <v>183</v>
@@ -11290,7 +11292,7 @@
         <v>225</v>
       </c>
       <c r="K109" s="97" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L109" s="97" t="s">
         <v>183</v>
@@ -11302,13 +11304,13 @@
         <v>185</v>
       </c>
       <c r="O109" s="97" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="P109" s="97" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="Q109" s="97" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="R109" s="97" t="s">
         <v>186</v>
@@ -11319,42 +11321,42 @@
     <row r="110" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B110" s="58"/>
       <c r="D110" s="83" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E110" s="83" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F110" s="83" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G110" s="83"/>
       <c r="H110" s="83" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I110" s="83" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="J110" s="83" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K110" s="83" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="L110" s="83"/>
       <c r="M110" s="83" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N110" s="83" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="O110" s="83" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="P110" s="83" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="Q110" s="83" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="R110" s="83"/>
       <c r="S110" s="94"/>
@@ -11386,29 +11388,29 @@
         <v>283</v>
       </c>
       <c r="E112" s="82" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F112" s="82" t="s">
         <v>263</v>
       </c>
       <c r="G112" s="82" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H112" s="82" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I112" s="82"/>
       <c r="J112" s="82" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="K112" s="82" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L112" s="82" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="M112" s="82" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="N112" s="82"/>
       <c r="O112" s="82"/>
@@ -11427,34 +11429,34 @@
         <v>202</v>
       </c>
       <c r="E113" s="97" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F113" s="97" t="s">
         <v>187</v>
       </c>
       <c r="G113" s="97" t="s">
+        <v>802</v>
+      </c>
+      <c r="H113" s="97" t="s">
         <v>803</v>
       </c>
-      <c r="H113" s="97" t="s">
-        <v>804</v>
-      </c>
       <c r="I113" s="97" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J113" s="97" t="s">
+        <v>850</v>
+      </c>
+      <c r="K113" s="97" t="s">
         <v>851</v>
       </c>
-      <c r="K113" s="97" t="s">
+      <c r="L113" s="97" t="s">
+        <v>809</v>
+      </c>
+      <c r="M113" s="97" t="s">
         <v>852</v>
       </c>
-      <c r="L113" s="97" t="s">
-        <v>810</v>
-      </c>
-      <c r="M113" s="97" t="s">
-        <v>853</v>
-      </c>
       <c r="N113" s="97" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="O113" s="99"/>
       <c r="P113" s="97"/>
@@ -11466,32 +11468,32 @@
     <row r="114" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B114" s="58"/>
       <c r="D114" s="83" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E114" s="83" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F114" s="83" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G114" s="83" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H114" s="83" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I114" s="83"/>
       <c r="J114" s="83" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="K114" s="83" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="L114" s="83" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="M114" s="83" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="N114" s="83"/>
       <c r="O114" s="83"/>
@@ -11610,41 +11612,41 @@
         <v>554</v>
       </c>
       <c r="E120" s="82" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F120" s="82" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G120" s="82" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H120" s="82" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I120" s="82" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J120" s="82" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K120" s="82" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="L120" s="82" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="M120" s="82"/>
       <c r="N120" s="82" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="O120" s="82" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="P120" s="82" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="Q120" s="82" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="R120" s="82"/>
       <c r="S120" s="91"/>
@@ -11656,49 +11658,49 @@
         <v>30</v>
       </c>
       <c r="D121" s="97" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E121" s="97" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F121" s="97" t="s">
+        <v>566</v>
+      </c>
+      <c r="G121" s="98" t="s">
         <v>567</v>
       </c>
-      <c r="G121" s="98" t="s">
+      <c r="H121" s="97" t="s">
         <v>568</v>
       </c>
-      <c r="H121" s="97" t="s">
+      <c r="I121" s="97" t="s">
         <v>569</v>
       </c>
-      <c r="I121" s="97" t="s">
+      <c r="J121" s="102" t="s">
         <v>570</v>
       </c>
-      <c r="J121" s="102" t="s">
+      <c r="K121" s="97" t="s">
         <v>571</v>
       </c>
-      <c r="K121" s="97" t="s">
-        <v>572</v>
-      </c>
       <c r="L121" s="97" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="M121" s="97" t="s">
         <v>183</v>
       </c>
       <c r="N121" s="97" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="O121" s="97" t="s">
+        <v>599</v>
+      </c>
+      <c r="P121" s="97" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q121" s="97" t="s">
         <v>600</v>
       </c>
-      <c r="P121" s="97" t="s">
-        <v>598</v>
-      </c>
-      <c r="Q121" s="97" t="s">
-        <v>601</v>
-      </c>
       <c r="R121" s="97" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="S121" s="92"/>
       <c r="V121" s="60"/>
@@ -11706,44 +11708,44 @@
     <row r="122" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B122" s="58"/>
       <c r="D122" s="83" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E122" s="83" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F122" s="83" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G122" s="83" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H122" s="83" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I122" s="83" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J122" s="83" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="K122" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L122" s="83" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="M122" s="83"/>
       <c r="N122" s="83" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="O122" s="83" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="P122" s="83" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="Q122" s="83" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="R122" s="83"/>
       <c r="S122" s="94"/>
@@ -11772,43 +11774,43 @@
     <row r="124" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B124" s="56"/>
       <c r="D124" s="82" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E124" s="82" t="s">
         <v>285</v>
       </c>
       <c r="F124" s="82"/>
       <c r="G124" s="82" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H124" s="82" t="s">
         <v>285</v>
       </c>
       <c r="I124" s="82"/>
       <c r="J124" s="82" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K124" s="82" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L124" s="82" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="M124" s="82" t="s">
         <v>285</v>
       </c>
       <c r="N124" s="82"/>
       <c r="O124" s="82" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="P124" s="82" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="Q124" s="82" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="R124" s="82" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="S124" s="91"/>
       <c r="V124" s="60"/>
@@ -11819,49 +11821,49 @@
         <v>31</v>
       </c>
       <c r="D125" s="97" t="s">
+        <v>601</v>
+      </c>
+      <c r="E125" s="97" t="s">
         <v>602</v>
-      </c>
-      <c r="E125" s="97" t="s">
-        <v>603</v>
       </c>
       <c r="F125" s="97" t="s">
         <v>183</v>
       </c>
       <c r="G125" s="98" t="s">
+        <v>601</v>
+      </c>
+      <c r="H125" s="97" t="s">
         <v>602</v>
-      </c>
-      <c r="H125" s="97" t="s">
-        <v>603</v>
       </c>
       <c r="I125" s="97" t="s">
         <v>183</v>
       </c>
       <c r="J125" s="97" t="s">
+        <v>568</v>
+      </c>
+      <c r="K125" s="97" t="s">
         <v>569</v>
       </c>
-      <c r="K125" s="97" t="s">
-        <v>570</v>
-      </c>
       <c r="L125" s="97" t="s">
+        <v>601</v>
+      </c>
+      <c r="M125" s="97" t="s">
         <v>602</v>
-      </c>
-      <c r="M125" s="97" t="s">
-        <v>603</v>
       </c>
       <c r="N125" s="97" t="s">
         <v>183</v>
       </c>
       <c r="O125" s="97" t="s">
+        <v>568</v>
+      </c>
+      <c r="P125" s="97" t="s">
         <v>569</v>
       </c>
-      <c r="P125" s="97" t="s">
-        <v>570</v>
-      </c>
       <c r="Q125" s="97" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="R125" s="97" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="S125" s="92"/>
       <c r="V125" s="60"/>
@@ -11869,43 +11871,43 @@
     <row r="126" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B126" s="58"/>
       <c r="D126" s="83" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E126" s="83" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F126" s="83"/>
       <c r="G126" s="83" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H126" s="83" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I126" s="83"/>
       <c r="J126" s="83" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K126" s="83" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="L126" s="83" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="M126" s="83" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="N126" s="83"/>
       <c r="O126" s="83" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="P126" s="83" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Q126" s="83" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="R126" s="83" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="S126" s="94"/>
       <c r="V126" s="60"/>
@@ -11937,19 +11939,19 @@
       </c>
       <c r="E128" s="82"/>
       <c r="F128" s="82" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G128" s="82" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H128" s="82" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I128" s="82" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J128" s="82" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="K128" s="82"/>
       <c r="L128" s="82"/>
@@ -11968,28 +11970,28 @@
         <v>32</v>
       </c>
       <c r="D129" s="97" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E129" s="97" t="s">
         <v>183</v>
       </c>
       <c r="F129" s="97" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G129" s="97" t="s">
         <v>254</v>
       </c>
       <c r="H129" s="97" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I129" s="97" t="s">
+        <v>604</v>
+      </c>
+      <c r="J129" s="97" t="s">
         <v>605</v>
       </c>
-      <c r="J129" s="97" t="s">
-        <v>606</v>
-      </c>
       <c r="K129" s="97" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L129" s="97"/>
       <c r="M129" s="97"/>
@@ -12004,23 +12006,23 @@
     <row r="130" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B130" s="58"/>
       <c r="D130" s="83" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E130" s="83"/>
       <c r="F130" s="83" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G130" s="83" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H130" s="83" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I130" s="83" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J130" s="83" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="K130" s="83"/>
       <c r="L130" s="83"/>

--- a/output7/【河洛文讀注音】《般若波羅蜜多心經》.xlsx
+++ b/output7/【河洛文讀注音】《般若波羅蜜多心經》.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E17672F-60E9-4163-BBC2-D8E1E6AB6FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462A2B0A-4363-42DC-8E20-54102B011673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2271" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="871">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2304,70 +2304,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>koo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>河洛話</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ju5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tik4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>koo3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sam1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bang7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hut8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sin5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>《般若波羅蜜多心經》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2502,738 +2442,6 @@
     <t>訶</t>
   </si>
   <si>
-    <t>kuan1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>求觀一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾艍七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zai7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾皆七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phoo1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>頗沽一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時干四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cim1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出金一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>puann1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邊官一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入恭八</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pho1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>頗高一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柳高五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>門巾八</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地高一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時居五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziau3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾嬌三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kian3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>求堅三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngoo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雅沽二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>un3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英君三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kai1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>求皆一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去公一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>too7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地沽七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英巾四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ce3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出伽三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khoo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去沽二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eeh4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英嘉四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sia2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時迦二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>li7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柳居七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾艍二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sik4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時經四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>put4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邊君四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英居七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zik4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾經四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時居七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時丩七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時恭二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ik8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英經八</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喜公八</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入艍五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾艍一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喜觀四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時恭三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時經一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>biat8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>門堅八</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>求沽二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zing7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾經七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zing1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾經一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kiam2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>求兼二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>求沽三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地恭一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>門艍五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gan2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>語干二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hinn7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喜梔七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phinn7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>頗梔七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siat8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時堅八</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時巾一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英居三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喜恭一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bi7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>門居七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ciok4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出恭四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>求皆三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nai2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耐皆二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾居三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bing5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>門經五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zin7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾巾七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柳高二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>su2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時艍二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zip8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾金八</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地高七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ti3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地居三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地經四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英居二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時沽二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>the5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>他伽五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英居一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kua3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>求瓜三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gai7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>語皆七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英丩二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>khiong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去恭二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>poo3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邊沽三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uan2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英觀二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tian1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地堅一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地高三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>門江七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>求丩三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>求經三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liap4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柳兼四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>puan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邊觀五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時甘一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時伽三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喜君八</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ti1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地居一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地皆七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時巾五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziu3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾丩三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時姜七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ting2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地經二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柳經五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地艍五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾巾一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sit8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時巾八</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hi1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喜居一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>suat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時觀四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uat8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英觀八</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地伽三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>po5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邊高五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英高一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kiat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>求堅四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>觀</t>
   </si>
   <si>
@@ -3424,38 +2632,6 @@
   </si>
   <si>
     <t>虛</t>
-  </si>
-  <si>
-    <t>sim1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時金一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英膠一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loo7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柳沽七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>biau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>門嬌二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>上邊標音</t>
@@ -3474,14 +2650,6 @@
   </si>
   <si>
     <t>方音符號</t>
-  </si>
-  <si>
-    <t>hing5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喜經五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>觀自在菩薩，行深般若波羅蜜多時，照見五蘊皆空，度一切苦厄。
@@ -3498,6 +2666,630 @@
   </si>
   <si>
     <t>無預設</t>
+  </si>
+  <si>
+    <t>kuan1</t>
+  </si>
+  <si>
+    <t>觀一求</t>
+  </si>
+  <si>
+    <t>zu7</t>
+  </si>
+  <si>
+    <t>艍七曾</t>
+  </si>
+  <si>
+    <t>zai7</t>
+  </si>
+  <si>
+    <t>皆七曾</t>
+  </si>
+  <si>
+    <t>phoo1</t>
+  </si>
+  <si>
+    <t>沽一頗</t>
+  </si>
+  <si>
+    <t>sat4</t>
+  </si>
+  <si>
+    <t>干四時</t>
+  </si>
+  <si>
+    <t>hang5</t>
+  </si>
+  <si>
+    <t>江五喜</t>
+  </si>
+  <si>
+    <t>cim1</t>
+  </si>
+  <si>
+    <t>金一出</t>
+  </si>
+  <si>
+    <t>puann1</t>
+  </si>
+  <si>
+    <t>官一邊</t>
+  </si>
+  <si>
+    <t>jiok8</t>
+  </si>
+  <si>
+    <t>恭八入</t>
+  </si>
+  <si>
+    <t>pho1</t>
+  </si>
+  <si>
+    <t>高一頗</t>
+  </si>
+  <si>
+    <t>lo5</t>
+  </si>
+  <si>
+    <t>高五柳</t>
+  </si>
+  <si>
+    <t>bit8</t>
+  </si>
+  <si>
+    <t>巾八門</t>
+  </si>
+  <si>
+    <t>to1</t>
+  </si>
+  <si>
+    <t>高一地</t>
+  </si>
+  <si>
+    <t>si5</t>
+  </si>
+  <si>
+    <t>居五時</t>
+  </si>
+  <si>
+    <t>ziau3</t>
+  </si>
+  <si>
+    <t>嬌三曾</t>
+  </si>
+  <si>
+    <t>kian3</t>
+  </si>
+  <si>
+    <t>堅三求</t>
+  </si>
+  <si>
+    <t>ngoo2</t>
+  </si>
+  <si>
+    <t>沽二雅</t>
+  </si>
+  <si>
+    <t>un3</t>
+  </si>
+  <si>
+    <t>君三英</t>
+  </si>
+  <si>
+    <t>kai1</t>
+  </si>
+  <si>
+    <t>皆一求</t>
+  </si>
+  <si>
+    <t>khong1</t>
+  </si>
+  <si>
+    <t>公一去</t>
+  </si>
+  <si>
+    <t>too7</t>
+  </si>
+  <si>
+    <t>沽七地</t>
+  </si>
+  <si>
+    <t>it4</t>
+  </si>
+  <si>
+    <t>ce3</t>
+  </si>
+  <si>
+    <t>伽三出</t>
+  </si>
+  <si>
+    <t>khoo2</t>
+  </si>
+  <si>
+    <t>沽二去</t>
+  </si>
+  <si>
+    <t>eeh4</t>
+  </si>
+  <si>
+    <t>嘉四英</t>
+  </si>
+  <si>
+    <t>sia2</t>
+  </si>
+  <si>
+    <t>迦二時</t>
+  </si>
+  <si>
+    <t>li7</t>
+  </si>
+  <si>
+    <t>居七柳</t>
+  </si>
+  <si>
+    <t>zu2</t>
+  </si>
+  <si>
+    <t>艍二曾</t>
+  </si>
+  <si>
+    <t>sik4</t>
+  </si>
+  <si>
+    <t>經四時</t>
+  </si>
+  <si>
+    <t>put4</t>
+  </si>
+  <si>
+    <t>君四邊</t>
+  </si>
+  <si>
+    <t>i7</t>
+  </si>
+  <si>
+    <t>居七英</t>
+  </si>
+  <si>
+    <t>zik4</t>
+  </si>
+  <si>
+    <t>經四曾</t>
+  </si>
+  <si>
+    <t>si7</t>
+  </si>
+  <si>
+    <t>siu7</t>
+  </si>
+  <si>
+    <t>丩七時</t>
+  </si>
+  <si>
+    <t>siong2</t>
+  </si>
+  <si>
+    <t>恭二時</t>
+  </si>
+  <si>
+    <t>ik8</t>
+  </si>
+  <si>
+    <t>經八英</t>
+  </si>
+  <si>
+    <t>hok8</t>
+  </si>
+  <si>
+    <t>ju5</t>
+  </si>
+  <si>
+    <t>艍五入</t>
+  </si>
+  <si>
+    <t>zu1</t>
+  </si>
+  <si>
+    <t>艍一曾</t>
+  </si>
+  <si>
+    <t>huat4</t>
+  </si>
+  <si>
+    <t>觀四喜</t>
+  </si>
+  <si>
+    <t>siong3</t>
+  </si>
+  <si>
+    <t>恭三時</t>
+  </si>
+  <si>
+    <t>sing1</t>
+  </si>
+  <si>
+    <t>biat8</t>
+  </si>
+  <si>
+    <t>堅八門</t>
+  </si>
+  <si>
+    <t>koo2</t>
+  </si>
+  <si>
+    <t>沽二求</t>
+  </si>
+  <si>
+    <t>zing7</t>
+  </si>
+  <si>
+    <t>經七曾</t>
+  </si>
+  <si>
+    <t>zing1</t>
+  </si>
+  <si>
+    <t>經一曾</t>
+  </si>
+  <si>
+    <t>kiam2</t>
+  </si>
+  <si>
+    <t>兼二求</t>
+  </si>
+  <si>
+    <t>koo3</t>
+  </si>
+  <si>
+    <t>沽三求</t>
+  </si>
+  <si>
+    <t>tiong1</t>
+  </si>
+  <si>
+    <t>恭一地</t>
+  </si>
+  <si>
+    <t>bu5</t>
+  </si>
+  <si>
+    <t>艍五門</t>
+  </si>
+  <si>
+    <t>gan2</t>
+  </si>
+  <si>
+    <t>干二語</t>
+  </si>
+  <si>
+    <t>hinn7</t>
+  </si>
+  <si>
+    <t>梔七喜</t>
+  </si>
+  <si>
+    <t>phinn7</t>
+  </si>
+  <si>
+    <t>梔七頗</t>
+  </si>
+  <si>
+    <t>siat8</t>
+  </si>
+  <si>
+    <t>堅八時</t>
+  </si>
+  <si>
+    <t>sin1</t>
+  </si>
+  <si>
+    <t>巾一時</t>
+  </si>
+  <si>
+    <t>i3</t>
+  </si>
+  <si>
+    <t>居三英</t>
+  </si>
+  <si>
+    <t>hiong1</t>
+  </si>
+  <si>
+    <t>恭一喜</t>
+  </si>
+  <si>
+    <t>bi7</t>
+  </si>
+  <si>
+    <t>居七門</t>
+  </si>
+  <si>
+    <t>ciok4</t>
+  </si>
+  <si>
+    <t>恭四出</t>
+  </si>
+  <si>
+    <t>kai3</t>
+  </si>
+  <si>
+    <t>nai2</t>
+  </si>
+  <si>
+    <t>皆二耐</t>
+  </si>
+  <si>
+    <t>zi3</t>
+  </si>
+  <si>
+    <t>bing5</t>
+  </si>
+  <si>
+    <t>經五門</t>
+  </si>
+  <si>
+    <t>zin7</t>
+  </si>
+  <si>
+    <t>巾七曾</t>
+  </si>
+  <si>
+    <t>lo2</t>
+  </si>
+  <si>
+    <t>高二柳</t>
+  </si>
+  <si>
+    <t>su2</t>
+  </si>
+  <si>
+    <t>艍二時</t>
+  </si>
+  <si>
+    <t>zip8</t>
+  </si>
+  <si>
+    <t>金八曾</t>
+  </si>
+  <si>
+    <t>to7</t>
+  </si>
+  <si>
+    <t>高七地</t>
+  </si>
+  <si>
+    <t>ti3</t>
+  </si>
+  <si>
+    <t>居三地</t>
+  </si>
+  <si>
+    <t>tik4</t>
+  </si>
+  <si>
+    <t>經四地</t>
+  </si>
+  <si>
+    <t>i2</t>
+  </si>
+  <si>
+    <t>居二英</t>
+  </si>
+  <si>
+    <t>soo2</t>
+  </si>
+  <si>
+    <t>the5</t>
+  </si>
+  <si>
+    <t>伽五他</t>
+  </si>
+  <si>
+    <t>i1</t>
+  </si>
+  <si>
+    <t>居一英</t>
+  </si>
+  <si>
+    <t>sim1</t>
+  </si>
+  <si>
+    <t>金一時</t>
+  </si>
+  <si>
+    <t>kua3</t>
+  </si>
+  <si>
+    <t>瓜三求</t>
+  </si>
+  <si>
+    <t>gai7</t>
+  </si>
+  <si>
+    <t>皆七語</t>
+  </si>
+  <si>
+    <t>iu2</t>
+  </si>
+  <si>
+    <t>丩二英</t>
+  </si>
+  <si>
+    <t>khiong2</t>
+  </si>
+  <si>
+    <t>恭二去</t>
+  </si>
+  <si>
+    <t>poo3</t>
+  </si>
+  <si>
+    <t>沽三邊</t>
+  </si>
+  <si>
+    <t>uan2</t>
+  </si>
+  <si>
+    <t>觀二英</t>
+  </si>
+  <si>
+    <t>tian1</t>
+  </si>
+  <si>
+    <t>堅一地</t>
+  </si>
+  <si>
+    <t>to3</t>
+  </si>
+  <si>
+    <t>高三地</t>
+  </si>
+  <si>
+    <t>bang7</t>
+  </si>
+  <si>
+    <t>江七門</t>
+  </si>
+  <si>
+    <t>kiu3</t>
+  </si>
+  <si>
+    <t>king3</t>
+  </si>
+  <si>
+    <t>liap4</t>
+  </si>
+  <si>
+    <t>兼四柳</t>
+  </si>
+  <si>
+    <t>puan5</t>
+  </si>
+  <si>
+    <t>觀五邊</t>
+  </si>
+  <si>
+    <t>sam1</t>
+  </si>
+  <si>
+    <t>甘一時</t>
+  </si>
+  <si>
+    <t>se3</t>
+  </si>
+  <si>
+    <t>hut8</t>
+  </si>
+  <si>
+    <t>君八喜</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>膠一英</t>
+  </si>
+  <si>
+    <t>loo7</t>
+  </si>
+  <si>
+    <t>沽七柳</t>
+  </si>
+  <si>
+    <t>biau2</t>
+  </si>
+  <si>
+    <t>嬌二門</t>
+  </si>
+  <si>
+    <t>ti1</t>
+  </si>
+  <si>
+    <t>居一地</t>
+  </si>
+  <si>
+    <t>tai7</t>
+  </si>
+  <si>
+    <t>sin5</t>
+  </si>
+  <si>
+    <t>巾五時</t>
+  </si>
+  <si>
+    <t>ziu3</t>
+  </si>
+  <si>
+    <t>丩三曾</t>
+  </si>
+  <si>
+    <t>siang7</t>
+  </si>
+  <si>
+    <t>ting2</t>
+  </si>
+  <si>
+    <t>經二地</t>
+  </si>
+  <si>
+    <t>ling5</t>
+  </si>
+  <si>
+    <t>tu5</t>
+  </si>
+  <si>
+    <t>艍五地</t>
+  </si>
+  <si>
+    <t>zin1</t>
+  </si>
+  <si>
+    <t>巾一曾</t>
+  </si>
+  <si>
+    <t>sit8</t>
+  </si>
+  <si>
+    <t>巾八時</t>
+  </si>
+  <si>
+    <t>hi1</t>
+  </si>
+  <si>
+    <t>居一喜</t>
+  </si>
+  <si>
+    <t>suat4</t>
+  </si>
+  <si>
+    <t>觀四時</t>
+  </si>
+  <si>
+    <t>uat8</t>
+  </si>
+  <si>
+    <t>觀八英</t>
+  </si>
+  <si>
+    <t>kiat4</t>
+  </si>
+  <si>
+    <t>堅四求</t>
+  </si>
+  <si>
+    <t>te3</t>
+  </si>
+  <si>
+    <t>po5</t>
+  </si>
+  <si>
+    <t>高五邊</t>
+  </si>
+  <si>
+    <t>o1</t>
+  </si>
+  <si>
+    <t>高一英</t>
   </si>
 </sst>
 </file>
@@ -4298,7 +4090,7 @@
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4619,6 +4411,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7450,7 +7254,7 @@
   <dimension ref="B1:C17"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="25.5"/>
@@ -7490,7 +7294,7 @@
         <v>165</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -7498,7 +7302,7 @@
         <v>166</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
     </row>
     <row r="6" spans="2:3">
@@ -7554,7 +7358,7 @@
         <v>194</v>
       </c>
       <c r="C12" s="103" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="13" spans="2:3">
@@ -7562,7 +7366,7 @@
         <v>321</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>869</v>
+        <v>661</v>
       </c>
     </row>
     <row r="14" spans="2:3">
@@ -7570,31 +7374,31 @@
         <v>322</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>870</v>
+        <v>662</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="75" t="s">
-        <v>864</v>
+        <v>658</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>863</v>
+        <v>657</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="75" t="s">
-        <v>861</v>
+        <v>655</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>869</v>
+        <v>661</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="75" t="s">
-        <v>862</v>
+        <v>656</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>865</v>
+        <v>659</v>
       </c>
     </row>
   </sheetData>
@@ -7681,68 +7485,64 @@
       <c r="G3" s="81"/>
       <c r="H3" s="81"/>
       <c r="I3" s="81"/>
-      <c r="J3" s="81" t="s">
-        <v>866</v>
-      </c>
+      <c r="J3" s="81"/>
       <c r="K3" s="81"/>
       <c r="L3" s="81"/>
       <c r="M3" s="81"/>
       <c r="N3" s="81"/>
       <c r="O3" s="81"/>
-      <c r="P3" s="81" t="s">
-        <v>625</v>
-      </c>
+      <c r="P3" s="81"/>
       <c r="Q3" s="81"/>
       <c r="R3" s="81"/>
       <c r="T3" s="90"/>
       <c r="V3" s="105" t="s">
-        <v>868</v>
+        <v>660</v>
       </c>
     </row>
     <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="56"/>
       <c r="D4" s="82" t="s">
-        <v>606</v>
+        <v>663</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>550</v>
+        <v>665</v>
       </c>
       <c r="F4" s="82" t="s">
-        <v>609</v>
+        <v>667</v>
       </c>
       <c r="G4" s="82" t="s">
-        <v>611</v>
+        <v>669</v>
       </c>
       <c r="H4" s="82" t="s">
-        <v>613</v>
+        <v>671</v>
       </c>
       <c r="I4" s="82"/>
       <c r="J4" s="82" t="s">
-        <v>866</v>
+        <v>673</v>
       </c>
       <c r="K4" s="82" t="s">
-        <v>615</v>
+        <v>675</v>
       </c>
       <c r="L4" s="82" t="s">
-        <v>617</v>
+        <v>677</v>
       </c>
       <c r="M4" s="82" t="s">
-        <v>619</v>
+        <v>679</v>
       </c>
       <c r="N4" s="82" t="s">
-        <v>621</v>
+        <v>681</v>
       </c>
       <c r="O4" s="82" t="s">
-        <v>623</v>
+        <v>683</v>
       </c>
       <c r="P4" s="82" t="s">
-        <v>625</v>
+        <v>685</v>
       </c>
       <c r="Q4" s="82" t="s">
-        <v>627</v>
+        <v>687</v>
       </c>
       <c r="R4" s="82" t="s">
-        <v>629</v>
+        <v>689</v>
       </c>
       <c r="S4" s="91"/>
       <c r="V4" s="106"/>
@@ -7751,50 +7551,50 @@
       <c r="B5" s="57">
         <v>1</v>
       </c>
-      <c r="D5" s="97" t="s">
-        <v>789</v>
-      </c>
-      <c r="E5" s="97" t="s">
-        <v>790</v>
-      </c>
-      <c r="F5" s="97" t="s">
-        <v>791</v>
-      </c>
-      <c r="G5" s="97" t="s">
-        <v>564</v>
-      </c>
-      <c r="H5" s="97" t="s">
-        <v>565</v>
-      </c>
-      <c r="I5" s="97" t="s">
+      <c r="D5" s="111" t="s">
+        <v>591</v>
+      </c>
+      <c r="E5" s="111" t="s">
+        <v>592</v>
+      </c>
+      <c r="F5" s="111" t="s">
+        <v>593</v>
+      </c>
+      <c r="G5" s="111" t="s">
+        <v>549</v>
+      </c>
+      <c r="H5" s="111" t="s">
+        <v>550</v>
+      </c>
+      <c r="I5" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="J5" s="97" t="s">
-        <v>792</v>
-      </c>
-      <c r="K5" s="97" t="s">
-        <v>793</v>
-      </c>
-      <c r="L5" s="97" t="s">
-        <v>566</v>
-      </c>
-      <c r="M5" s="97" t="s">
-        <v>567</v>
-      </c>
-      <c r="N5" s="97" t="s">
-        <v>568</v>
-      </c>
-      <c r="O5" s="97" t="s">
-        <v>569</v>
-      </c>
-      <c r="P5" s="97" t="s">
-        <v>570</v>
-      </c>
-      <c r="Q5" s="97" t="s">
-        <v>571</v>
-      </c>
-      <c r="R5" s="97" t="s">
-        <v>794</v>
+      <c r="J5" s="111" t="s">
+        <v>594</v>
+      </c>
+      <c r="K5" s="111" t="s">
+        <v>595</v>
+      </c>
+      <c r="L5" s="111" t="s">
+        <v>551</v>
+      </c>
+      <c r="M5" s="111" t="s">
+        <v>552</v>
+      </c>
+      <c r="N5" s="111" t="s">
+        <v>553</v>
+      </c>
+      <c r="O5" s="111" t="s">
+        <v>554</v>
+      </c>
+      <c r="P5" s="111" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q5" s="111" t="s">
+        <v>556</v>
+      </c>
+      <c r="R5" s="111" t="s">
+        <v>596</v>
       </c>
       <c r="S5" s="92"/>
       <c r="V5" s="106"/>
@@ -7803,47 +7603,47 @@
       <c r="B6" s="58"/>
       <c r="C6" s="85"/>
       <c r="D6" s="83" t="s">
-        <v>607</v>
+        <v>664</v>
       </c>
       <c r="E6" s="83" t="s">
-        <v>608</v>
+        <v>666</v>
       </c>
       <c r="F6" s="83" t="s">
-        <v>610</v>
+        <v>668</v>
       </c>
       <c r="G6" s="83" t="s">
-        <v>612</v>
+        <v>670</v>
       </c>
       <c r="H6" s="83" t="s">
-        <v>614</v>
+        <v>672</v>
       </c>
       <c r="I6" s="83"/>
       <c r="J6" s="83" t="s">
-        <v>867</v>
+        <v>674</v>
       </c>
       <c r="K6" s="83" t="s">
-        <v>616</v>
+        <v>676</v>
       </c>
       <c r="L6" s="83" t="s">
-        <v>618</v>
+        <v>678</v>
       </c>
       <c r="M6" s="83" t="s">
-        <v>620</v>
+        <v>680</v>
       </c>
       <c r="N6" s="83" t="s">
-        <v>622</v>
+        <v>682</v>
       </c>
       <c r="O6" s="83" t="s">
-        <v>624</v>
+        <v>684</v>
       </c>
       <c r="P6" s="83" t="s">
-        <v>626</v>
+        <v>686</v>
       </c>
       <c r="Q6" s="83" t="s">
-        <v>628</v>
+        <v>688</v>
       </c>
       <c r="R6" s="83" t="s">
-        <v>630</v>
+        <v>690</v>
       </c>
       <c r="S6" s="93"/>
       <c r="V6" s="106"/>
@@ -7873,38 +7673,38 @@
       <c r="B8" s="56"/>
       <c r="D8" s="82"/>
       <c r="E8" s="82" t="s">
-        <v>631</v>
+        <v>691</v>
       </c>
       <c r="F8" s="82" t="s">
-        <v>633</v>
+        <v>693</v>
       </c>
       <c r="G8" s="82" t="s">
-        <v>635</v>
+        <v>695</v>
       </c>
       <c r="H8" s="82" t="s">
-        <v>637</v>
+        <v>697</v>
       </c>
       <c r="I8" s="82" t="s">
-        <v>639</v>
+        <v>699</v>
       </c>
       <c r="J8" s="82" t="s">
-        <v>641</v>
+        <v>701</v>
       </c>
       <c r="K8" s="82"/>
       <c r="L8" s="82" t="s">
-        <v>643</v>
+        <v>703</v>
       </c>
       <c r="M8" s="82" t="s">
-        <v>263</v>
+        <v>705</v>
       </c>
       <c r="N8" s="82" t="s">
-        <v>646</v>
+        <v>706</v>
       </c>
       <c r="O8" s="82" t="s">
-        <v>648</v>
+        <v>708</v>
       </c>
       <c r="P8" s="82" t="s">
-        <v>650</v>
+        <v>710</v>
       </c>
       <c r="Q8" s="82"/>
       <c r="R8" s="82"/>
@@ -7916,49 +7716,53 @@
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="97" t="s">
+      <c r="D9" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="97" t="s">
-        <v>795</v>
-      </c>
-      <c r="F9" s="97" t="s">
-        <v>796</v>
-      </c>
-      <c r="G9" s="97" t="s">
-        <v>797</v>
-      </c>
-      <c r="H9" s="97" t="s">
-        <v>798</v>
-      </c>
-      <c r="I9" s="97" t="s">
-        <v>799</v>
-      </c>
-      <c r="J9" s="97" t="s">
-        <v>800</v>
-      </c>
-      <c r="K9" s="97" t="s">
+      <c r="E9" s="111" t="s">
+        <v>597</v>
+      </c>
+      <c r="F9" s="111" t="s">
+        <v>598</v>
+      </c>
+      <c r="G9" s="111" t="s">
+        <v>599</v>
+      </c>
+      <c r="H9" s="111" t="s">
+        <v>600</v>
+      </c>
+      <c r="I9" s="111" t="s">
+        <v>601</v>
+      </c>
+      <c r="J9" s="111" t="s">
+        <v>602</v>
+      </c>
+      <c r="K9" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="L9" s="97" t="s">
-        <v>801</v>
-      </c>
-      <c r="M9" s="97" t="s">
+      <c r="L9" s="111" t="s">
+        <v>603</v>
+      </c>
+      <c r="M9" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="N9" s="97" t="s">
-        <v>802</v>
-      </c>
-      <c r="O9" s="97" t="s">
-        <v>803</v>
-      </c>
-      <c r="P9" s="97" t="s">
-        <v>804</v>
-      </c>
-      <c r="Q9" s="97" t="s">
+      <c r="N9" s="111" t="s">
+        <v>604</v>
+      </c>
+      <c r="O9" s="111" t="s">
+        <v>605</v>
+      </c>
+      <c r="P9" s="111" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q9" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="R9" s="97"/>
+      <c r="R9" s="111" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="S9" s="92"/>
       <c r="T9" s="90"/>
       <c r="V9" s="106"/>
@@ -7967,38 +7771,38 @@
       <c r="B10" s="58"/>
       <c r="D10" s="83"/>
       <c r="E10" s="83" t="s">
-        <v>632</v>
+        <v>692</v>
       </c>
       <c r="F10" s="83" t="s">
-        <v>634</v>
+        <v>694</v>
       </c>
       <c r="G10" s="83" t="s">
-        <v>636</v>
+        <v>696</v>
       </c>
       <c r="H10" s="83" t="s">
-        <v>638</v>
+        <v>698</v>
       </c>
       <c r="I10" s="83" t="s">
-        <v>640</v>
+        <v>700</v>
       </c>
       <c r="J10" s="83" t="s">
-        <v>642</v>
+        <v>702</v>
       </c>
       <c r="K10" s="83"/>
       <c r="L10" s="83" t="s">
-        <v>644</v>
+        <v>704</v>
       </c>
       <c r="M10" s="83" t="s">
-        <v>645</v>
+        <v>378</v>
       </c>
       <c r="N10" s="104" t="s">
-        <v>647</v>
+        <v>707</v>
       </c>
       <c r="O10" s="83" t="s">
-        <v>649</v>
+        <v>709</v>
       </c>
       <c r="P10" s="83" t="s">
-        <v>651</v>
+        <v>711</v>
       </c>
       <c r="Q10" s="83"/>
       <c r="R10" s="83"/>
@@ -8050,21 +7854,25 @@
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="97"/>
+      <c r="D13" s="111" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="111"/>
       <c r="S13" s="92"/>
       <c r="V13" s="106"/>
     </row>
@@ -8111,43 +7919,43 @@
     <row r="16" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="56"/>
       <c r="D16" s="82" t="s">
-        <v>652</v>
+        <v>712</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>654</v>
+        <v>714</v>
       </c>
       <c r="F16" s="82" t="s">
-        <v>656</v>
+        <v>716</v>
       </c>
       <c r="G16" s="82"/>
       <c r="H16" s="82" t="s">
-        <v>658</v>
+        <v>718</v>
       </c>
       <c r="I16" s="82" t="s">
-        <v>660</v>
+        <v>720</v>
       </c>
       <c r="J16" s="82" t="s">
-        <v>662</v>
+        <v>722</v>
       </c>
       <c r="K16" s="82" t="s">
-        <v>641</v>
+        <v>701</v>
       </c>
       <c r="L16" s="82"/>
       <c r="M16" s="82" t="s">
-        <v>641</v>
+        <v>701</v>
       </c>
       <c r="N16" s="82" t="s">
-        <v>660</v>
+        <v>720</v>
       </c>
       <c r="O16" s="82" t="s">
-        <v>662</v>
+        <v>722</v>
       </c>
       <c r="P16" s="82" t="s">
-        <v>658</v>
+        <v>718</v>
       </c>
       <c r="Q16" s="82"/>
       <c r="R16" s="82" t="s">
-        <v>658</v>
+        <v>718</v>
       </c>
       <c r="S16" s="91"/>
       <c r="V16" s="106"/>
@@ -8157,50 +7965,50 @@
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="97" t="s">
-        <v>805</v>
-      </c>
-      <c r="E17" s="97" t="s">
-        <v>806</v>
-      </c>
-      <c r="F17" s="97" t="s">
+      <c r="D17" s="111" t="s">
+        <v>607</v>
+      </c>
+      <c r="E17" s="111" t="s">
+        <v>608</v>
+      </c>
+      <c r="F17" s="111" t="s">
         <v>239</v>
       </c>
-      <c r="G17" s="97" t="s">
-        <v>807</v>
-      </c>
-      <c r="H17" s="97" t="s">
-        <v>808</v>
-      </c>
-      <c r="I17" s="97" t="s">
-        <v>809</v>
-      </c>
-      <c r="J17" s="97" t="s">
-        <v>810</v>
-      </c>
-      <c r="K17" s="97" t="s">
-        <v>800</v>
-      </c>
-      <c r="L17" s="97" t="s">
+      <c r="G17" s="111" t="s">
+        <v>609</v>
+      </c>
+      <c r="H17" s="111" t="s">
+        <v>610</v>
+      </c>
+      <c r="I17" s="111" t="s">
+        <v>611</v>
+      </c>
+      <c r="J17" s="111" t="s">
+        <v>612</v>
+      </c>
+      <c r="K17" s="111" t="s">
+        <v>602</v>
+      </c>
+      <c r="L17" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="M17" s="97" t="s">
-        <v>800</v>
-      </c>
-      <c r="N17" s="97" t="s">
-        <v>809</v>
-      </c>
-      <c r="O17" s="97" t="s">
-        <v>810</v>
-      </c>
-      <c r="P17" s="97" t="s">
-        <v>808</v>
-      </c>
-      <c r="Q17" s="97" t="s">
+      <c r="M17" s="111" t="s">
+        <v>602</v>
+      </c>
+      <c r="N17" s="111" t="s">
+        <v>611</v>
+      </c>
+      <c r="O17" s="111" t="s">
+        <v>612</v>
+      </c>
+      <c r="P17" s="111" t="s">
+        <v>610</v>
+      </c>
+      <c r="Q17" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="R17" s="97" t="s">
-        <v>808</v>
+      <c r="R17" s="111" t="s">
+        <v>610</v>
       </c>
       <c r="S17" s="92"/>
       <c r="V17" s="106"/>
@@ -8208,43 +8016,43 @@
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="58"/>
       <c r="D18" s="83" t="s">
-        <v>653</v>
+        <v>713</v>
       </c>
       <c r="E18" s="83" t="s">
-        <v>655</v>
+        <v>715</v>
       </c>
       <c r="F18" s="83" t="s">
-        <v>657</v>
+        <v>717</v>
       </c>
       <c r="G18" s="83"/>
       <c r="H18" s="83" t="s">
-        <v>659</v>
+        <v>719</v>
       </c>
       <c r="I18" s="83" t="s">
-        <v>661</v>
+        <v>721</v>
       </c>
       <c r="J18" s="83" t="s">
-        <v>663</v>
+        <v>723</v>
       </c>
       <c r="K18" s="83" t="s">
-        <v>642</v>
+        <v>702</v>
       </c>
       <c r="L18" s="83"/>
       <c r="M18" s="83" t="s">
-        <v>642</v>
+        <v>702</v>
       </c>
       <c r="N18" s="83" t="s">
-        <v>661</v>
+        <v>721</v>
       </c>
       <c r="O18" s="83" t="s">
-        <v>663</v>
+        <v>723</v>
       </c>
       <c r="P18" s="83" t="s">
-        <v>659</v>
+        <v>719</v>
       </c>
       <c r="Q18" s="83"/>
       <c r="R18" s="83" t="s">
-        <v>659</v>
+        <v>719</v>
       </c>
       <c r="S18" s="94"/>
       <c r="V18" s="106"/>
@@ -8272,43 +8080,43 @@
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="56"/>
       <c r="D20" s="82" t="s">
-        <v>664</v>
+        <v>724</v>
       </c>
       <c r="E20" s="82" t="s">
-        <v>300</v>
+        <v>726</v>
       </c>
       <c r="F20" s="82" t="s">
-        <v>641</v>
+        <v>701</v>
       </c>
       <c r="G20" s="82"/>
       <c r="H20" s="82" t="s">
-        <v>641</v>
+        <v>701</v>
       </c>
       <c r="I20" s="82" t="s">
-        <v>664</v>
+        <v>724</v>
       </c>
       <c r="J20" s="82" t="s">
-        <v>300</v>
+        <v>726</v>
       </c>
       <c r="K20" s="82" t="s">
-        <v>658</v>
+        <v>718</v>
       </c>
       <c r="L20" s="82"/>
       <c r="M20" s="82" t="s">
-        <v>667</v>
+        <v>727</v>
       </c>
       <c r="N20" s="82" t="s">
-        <v>551</v>
+        <v>729</v>
       </c>
       <c r="O20" s="82" t="s">
-        <v>866</v>
+        <v>673</v>
       </c>
       <c r="P20" s="82" t="s">
-        <v>658</v>
+        <v>718</v>
       </c>
       <c r="Q20" s="82"/>
       <c r="R20" s="82" t="s">
-        <v>670</v>
+        <v>731</v>
       </c>
       <c r="S20" s="91"/>
       <c r="V20" s="106"/>
@@ -8318,50 +8126,50 @@
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="97" t="s">
-        <v>573</v>
-      </c>
-      <c r="E21" s="97" t="s">
+      <c r="D21" s="111" t="s">
+        <v>558</v>
+      </c>
+      <c r="E21" s="111" t="s">
         <v>191</v>
       </c>
-      <c r="F21" s="97" t="s">
-        <v>800</v>
-      </c>
-      <c r="G21" s="97" t="s">
+      <c r="F21" s="111" t="s">
+        <v>602</v>
+      </c>
+      <c r="G21" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="H21" s="97" t="s">
-        <v>800</v>
-      </c>
-      <c r="I21" s="97" t="s">
-        <v>573</v>
-      </c>
-      <c r="J21" s="97" t="s">
+      <c r="H21" s="111" t="s">
+        <v>602</v>
+      </c>
+      <c r="I21" s="111" t="s">
+        <v>558</v>
+      </c>
+      <c r="J21" s="111" t="s">
         <v>191</v>
       </c>
-      <c r="K21" s="97" t="s">
-        <v>808</v>
-      </c>
-      <c r="L21" s="97" t="s">
+      <c r="K21" s="111" t="s">
+        <v>610</v>
+      </c>
+      <c r="L21" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="M21" s="101" t="s">
-        <v>811</v>
-      </c>
-      <c r="N21" s="97" t="s">
-        <v>574</v>
-      </c>
-      <c r="O21" s="102" t="s">
-        <v>792</v>
-      </c>
-      <c r="P21" s="97" t="s">
-        <v>812</v>
-      </c>
-      <c r="Q21" s="97" t="s">
+      <c r="M21" s="112" t="s">
+        <v>613</v>
+      </c>
+      <c r="N21" s="111" t="s">
+        <v>559</v>
+      </c>
+      <c r="O21" s="111" t="s">
+        <v>594</v>
+      </c>
+      <c r="P21" s="111" t="s">
+        <v>614</v>
+      </c>
+      <c r="Q21" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="R21" s="97" t="s">
-        <v>813</v>
+      <c r="R21" s="111" t="s">
+        <v>615</v>
       </c>
       <c r="S21" s="92"/>
       <c r="V21" s="106"/>
@@ -8369,43 +8177,43 @@
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="58"/>
       <c r="D22" s="83" t="s">
-        <v>665</v>
+        <v>725</v>
       </c>
       <c r="E22" s="83" t="s">
-        <v>666</v>
+        <v>382</v>
       </c>
       <c r="F22" s="83" t="s">
-        <v>642</v>
+        <v>702</v>
       </c>
       <c r="G22" s="83"/>
       <c r="H22" s="83" t="s">
-        <v>642</v>
+        <v>702</v>
       </c>
       <c r="I22" s="83" t="s">
-        <v>665</v>
+        <v>725</v>
       </c>
       <c r="J22" s="83" t="s">
-        <v>666</v>
+        <v>382</v>
       </c>
       <c r="K22" s="83" t="s">
-        <v>659</v>
+        <v>719</v>
       </c>
       <c r="L22" s="83"/>
       <c r="M22" s="83" t="s">
-        <v>668</v>
+        <v>728</v>
       </c>
       <c r="N22" s="83" t="s">
-        <v>669</v>
+        <v>730</v>
       </c>
       <c r="O22" s="83" t="s">
-        <v>867</v>
+        <v>674</v>
       </c>
       <c r="P22" s="83" t="s">
-        <v>659</v>
+        <v>719</v>
       </c>
       <c r="Q22" s="83"/>
       <c r="R22" s="83" t="s">
-        <v>671</v>
+        <v>732</v>
       </c>
       <c r="S22" s="94"/>
       <c r="V22" s="107"/>
@@ -8433,13 +8241,13 @@
     <row r="24" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="56"/>
       <c r="D24" s="82" t="s">
-        <v>281</v>
+        <v>733</v>
       </c>
       <c r="E24" s="82" t="s">
-        <v>552</v>
+        <v>734</v>
       </c>
       <c r="F24" s="82" t="s">
-        <v>300</v>
+        <v>726</v>
       </c>
       <c r="G24" s="82"/>
       <c r="H24" s="82"/>
@@ -8461,42 +8269,46 @@
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="97" t="s">
-        <v>814</v>
-      </c>
-      <c r="E25" s="97" t="s">
-        <v>815</v>
-      </c>
-      <c r="F25" s="97" t="s">
+      <c r="D25" s="111" t="s">
+        <v>616</v>
+      </c>
+      <c r="E25" s="111" t="s">
+        <v>617</v>
+      </c>
+      <c r="F25" s="111" t="s">
         <v>191</v>
       </c>
-      <c r="G25" s="97" t="s">
+      <c r="G25" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="H25" s="97"/>
-      <c r="I25" s="97"/>
-      <c r="J25" s="97"/>
-      <c r="K25" s="97"/>
-      <c r="L25" s="97"/>
-      <c r="M25" s="97"/>
-      <c r="N25" s="97"/>
-      <c r="O25" s="97"/>
-      <c r="P25" s="97"/>
-      <c r="Q25" s="97"/>
-      <c r="R25" s="97"/>
+      <c r="H25" s="111" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="I25" s="111"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="111"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="111"/>
+      <c r="O25" s="111"/>
+      <c r="P25" s="111"/>
+      <c r="Q25" s="111"/>
+      <c r="R25" s="111"/>
       <c r="S25" s="92"/>
       <c r="V25" s="60"/>
     </row>
     <row r="26" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="58"/>
       <c r="D26" s="83" t="s">
-        <v>672</v>
+        <v>353</v>
       </c>
       <c r="E26" s="83" t="s">
-        <v>673</v>
+        <v>735</v>
       </c>
       <c r="F26" s="83" t="s">
-        <v>666</v>
+        <v>382</v>
       </c>
       <c r="G26" s="83"/>
       <c r="H26" s="83"/>
@@ -8570,21 +8382,25 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="97"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="97"/>
-      <c r="I29" s="97"/>
-      <c r="J29" s="97"/>
-      <c r="K29" s="97"/>
-      <c r="L29" s="97"/>
-      <c r="M29" s="97"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="97"/>
-      <c r="R29" s="97"/>
+      <c r="D29" s="111" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="E29" s="111"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="111"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="111"/>
+      <c r="L29" s="111"/>
+      <c r="M29" s="111"/>
+      <c r="N29" s="111"/>
+      <c r="O29" s="111"/>
+      <c r="P29" s="111"/>
+      <c r="Q29" s="111"/>
+      <c r="R29" s="111"/>
       <c r="S29" s="92"/>
       <c r="U29" s="67" t="str">
         <f t="shared" si="0"/>
@@ -8643,42 +8459,42 @@
     <row r="32" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="56"/>
       <c r="D32" s="82" t="s">
-        <v>652</v>
+        <v>712</v>
       </c>
       <c r="E32" s="82" t="s">
-        <v>654</v>
+        <v>714</v>
       </c>
       <c r="F32" s="82" t="s">
-        <v>656</v>
+        <v>716</v>
       </c>
       <c r="G32" s="82"/>
       <c r="H32" s="82" t="s">
-        <v>300</v>
+        <v>726</v>
       </c>
       <c r="I32" s="82" t="s">
-        <v>674</v>
+        <v>736</v>
       </c>
       <c r="J32" s="82" t="s">
-        <v>676</v>
+        <v>738</v>
       </c>
       <c r="K32" s="82" t="s">
-        <v>641</v>
+        <v>701</v>
       </c>
       <c r="L32" s="82" t="s">
-        <v>678</v>
+        <v>740</v>
       </c>
       <c r="M32" s="82"/>
       <c r="N32" s="82" t="s">
-        <v>660</v>
+        <v>720</v>
       </c>
       <c r="O32" s="82" t="s">
-        <v>313</v>
+        <v>742</v>
       </c>
       <c r="P32" s="82" t="s">
-        <v>660</v>
+        <v>720</v>
       </c>
       <c r="Q32" s="82" t="s">
-        <v>681</v>
+        <v>743</v>
       </c>
       <c r="R32" s="82"/>
       <c r="S32" s="91"/>
@@ -8693,49 +8509,49 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="97" t="s">
-        <v>805</v>
-      </c>
-      <c r="E33" s="97" t="s">
-        <v>806</v>
-      </c>
-      <c r="F33" s="97" t="s">
+      <c r="D33" s="111" t="s">
+        <v>607</v>
+      </c>
+      <c r="E33" s="111" t="s">
+        <v>608</v>
+      </c>
+      <c r="F33" s="111" t="s">
         <v>239</v>
       </c>
-      <c r="G33" s="97" t="s">
-        <v>807</v>
-      </c>
-      <c r="H33" s="97" t="s">
+      <c r="G33" s="111" t="s">
+        <v>609</v>
+      </c>
+      <c r="H33" s="111" t="s">
         <v>191</v>
       </c>
-      <c r="I33" s="97" t="s">
-        <v>575</v>
-      </c>
-      <c r="J33" s="97" t="s">
-        <v>816</v>
-      </c>
-      <c r="K33" s="97" t="s">
-        <v>800</v>
-      </c>
-      <c r="L33" s="97" t="s">
-        <v>817</v>
-      </c>
-      <c r="M33" s="97" t="s">
+      <c r="I33" s="111" t="s">
+        <v>560</v>
+      </c>
+      <c r="J33" s="111" t="s">
+        <v>618</v>
+      </c>
+      <c r="K33" s="111" t="s">
+        <v>602</v>
+      </c>
+      <c r="L33" s="111" t="s">
+        <v>619</v>
+      </c>
+      <c r="M33" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="N33" s="97" t="s">
-        <v>809</v>
-      </c>
-      <c r="O33" s="97" t="s">
-        <v>818</v>
-      </c>
-      <c r="P33" s="97" t="s">
-        <v>809</v>
-      </c>
-      <c r="Q33" s="97" t="s">
-        <v>819</v>
-      </c>
-      <c r="R33" s="97" t="s">
+      <c r="N33" s="111" t="s">
+        <v>611</v>
+      </c>
+      <c r="O33" s="111" t="s">
+        <v>620</v>
+      </c>
+      <c r="P33" s="111" t="s">
+        <v>611</v>
+      </c>
+      <c r="Q33" s="111" t="s">
+        <v>621</v>
+      </c>
+      <c r="R33" s="111" t="s">
         <v>183</v>
       </c>
       <c r="S33" s="92"/>
@@ -8744,42 +8560,42 @@
     <row r="34" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="58"/>
       <c r="D34" s="83" t="s">
-        <v>653</v>
+        <v>713</v>
       </c>
       <c r="E34" s="83" t="s">
-        <v>655</v>
+        <v>715</v>
       </c>
       <c r="F34" s="83" t="s">
-        <v>657</v>
+        <v>717</v>
       </c>
       <c r="G34" s="83"/>
       <c r="H34" s="83" t="s">
-        <v>666</v>
+        <v>382</v>
       </c>
       <c r="I34" s="83" t="s">
-        <v>675</v>
+        <v>737</v>
       </c>
       <c r="J34" s="83" t="s">
-        <v>677</v>
+        <v>739</v>
       </c>
       <c r="K34" s="83" t="s">
-        <v>642</v>
+        <v>702</v>
       </c>
       <c r="L34" s="83" t="s">
-        <v>679</v>
+        <v>741</v>
       </c>
       <c r="M34" s="83"/>
       <c r="N34" s="83" t="s">
-        <v>661</v>
+        <v>721</v>
       </c>
       <c r="O34" s="83" t="s">
-        <v>680</v>
+        <v>399</v>
       </c>
       <c r="P34" s="83" t="s">
-        <v>661</v>
+        <v>721</v>
       </c>
       <c r="Q34" s="83" t="s">
-        <v>682</v>
+        <v>744</v>
       </c>
       <c r="R34" s="83"/>
       <c r="S34" s="94"/>
@@ -8808,45 +8624,45 @@
     <row r="36" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="56"/>
       <c r="D36" s="82" t="s">
-        <v>660</v>
+        <v>720</v>
       </c>
       <c r="E36" s="82" t="s">
-        <v>546</v>
+        <v>745</v>
       </c>
       <c r="F36" s="82" t="s">
-        <v>660</v>
+        <v>720</v>
       </c>
       <c r="G36" s="82" t="s">
-        <v>684</v>
+        <v>747</v>
       </c>
       <c r="H36" s="82"/>
       <c r="I36" s="82" t="s">
-        <v>660</v>
+        <v>720</v>
       </c>
       <c r="J36" s="82" t="s">
-        <v>686</v>
+        <v>749</v>
       </c>
       <c r="K36" s="82" t="s">
-        <v>660</v>
+        <v>720</v>
       </c>
       <c r="L36" s="82" t="s">
-        <v>688</v>
+        <v>751</v>
       </c>
       <c r="M36" s="82"/>
       <c r="N36" s="82" t="s">
-        <v>300</v>
+        <v>726</v>
       </c>
       <c r="O36" s="82" t="s">
-        <v>554</v>
+        <v>753</v>
       </c>
       <c r="P36" s="82" t="s">
-        <v>641</v>
+        <v>701</v>
       </c>
       <c r="Q36" s="82" t="s">
-        <v>557</v>
+        <v>755</v>
       </c>
       <c r="R36" s="82" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="S36" s="91"/>
       <c r="V36" s="60"/>
@@ -8856,49 +8672,49 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="97" t="s">
-        <v>809</v>
-      </c>
-      <c r="E37" s="97" t="s">
-        <v>820</v>
-      </c>
-      <c r="F37" s="97" t="s">
-        <v>809</v>
-      </c>
-      <c r="G37" s="97" t="s">
-        <v>821</v>
-      </c>
-      <c r="H37" s="97" t="s">
+      <c r="D37" s="111" t="s">
+        <v>611</v>
+      </c>
+      <c r="E37" s="111" t="s">
+        <v>622</v>
+      </c>
+      <c r="F37" s="111" t="s">
+        <v>611</v>
+      </c>
+      <c r="G37" s="111" t="s">
+        <v>623</v>
+      </c>
+      <c r="H37" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="I37" s="97" t="s">
-        <v>809</v>
-      </c>
-      <c r="J37" s="97" t="s">
-        <v>822</v>
-      </c>
-      <c r="K37" s="97" t="s">
-        <v>809</v>
-      </c>
-      <c r="L37" s="97" t="s">
-        <v>823</v>
-      </c>
-      <c r="M37" s="97" t="s">
+      <c r="I37" s="111" t="s">
+        <v>611</v>
+      </c>
+      <c r="J37" s="111" t="s">
+        <v>624</v>
+      </c>
+      <c r="K37" s="111" t="s">
+        <v>611</v>
+      </c>
+      <c r="L37" s="111" t="s">
+        <v>625</v>
+      </c>
+      <c r="M37" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="N37" s="97" t="s">
+      <c r="N37" s="111" t="s">
         <v>191</v>
       </c>
-      <c r="O37" s="97" t="s">
-        <v>576</v>
-      </c>
-      <c r="P37" s="97" t="s">
-        <v>800</v>
-      </c>
-      <c r="Q37" s="97" t="s">
-        <v>824</v>
-      </c>
-      <c r="R37" s="97" t="s">
+      <c r="O37" s="111" t="s">
+        <v>561</v>
+      </c>
+      <c r="P37" s="111" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q37" s="111" t="s">
+        <v>626</v>
+      </c>
+      <c r="R37" s="111" t="s">
         <v>185</v>
       </c>
       <c r="S37" s="92"/>
@@ -8907,45 +8723,45 @@
     <row r="38" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="58"/>
       <c r="D38" s="83" t="s">
-        <v>661</v>
+        <v>721</v>
       </c>
       <c r="E38" s="83" t="s">
-        <v>683</v>
+        <v>746</v>
       </c>
       <c r="F38" s="83" t="s">
-        <v>661</v>
+        <v>721</v>
       </c>
       <c r="G38" s="83" t="s">
-        <v>685</v>
+        <v>748</v>
       </c>
       <c r="H38" s="83"/>
       <c r="I38" s="83" t="s">
-        <v>661</v>
+        <v>721</v>
       </c>
       <c r="J38" s="83" t="s">
-        <v>687</v>
+        <v>750</v>
       </c>
       <c r="K38" s="83" t="s">
-        <v>661</v>
+        <v>721</v>
       </c>
       <c r="L38" s="83" t="s">
-        <v>689</v>
+        <v>752</v>
       </c>
       <c r="M38" s="83"/>
       <c r="N38" s="83" t="s">
-        <v>666</v>
+        <v>382</v>
       </c>
       <c r="O38" s="83" t="s">
-        <v>690</v>
+        <v>754</v>
       </c>
       <c r="P38" s="83" t="s">
-        <v>642</v>
+        <v>702</v>
       </c>
       <c r="Q38" s="83" t="s">
-        <v>691</v>
+        <v>756</v>
       </c>
       <c r="R38" s="83" t="s">
-        <v>692</v>
+        <v>758</v>
       </c>
       <c r="S38" s="94"/>
       <c r="V38" s="60"/>
@@ -8973,45 +8789,45 @@
     <row r="40" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="56"/>
       <c r="D40" s="82" t="s">
-        <v>658</v>
+        <v>718</v>
       </c>
       <c r="E40" s="82"/>
       <c r="F40" s="82" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="G40" s="82" t="s">
-        <v>667</v>
+        <v>727</v>
       </c>
       <c r="H40" s="82" t="s">
-        <v>551</v>
+        <v>729</v>
       </c>
       <c r="I40" s="82" t="s">
-        <v>866</v>
+        <v>673</v>
       </c>
       <c r="J40" s="82" t="s">
-        <v>658</v>
+        <v>718</v>
       </c>
       <c r="K40" s="82"/>
       <c r="L40" s="82" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="M40" s="82" t="s">
-        <v>693</v>
+        <v>759</v>
       </c>
       <c r="N40" s="82" t="s">
-        <v>695</v>
+        <v>761</v>
       </c>
       <c r="O40" s="82" t="s">
-        <v>697</v>
+        <v>763</v>
       </c>
       <c r="P40" s="82" t="s">
-        <v>699</v>
+        <v>765</v>
       </c>
       <c r="Q40" s="82" t="s">
-        <v>701</v>
+        <v>767</v>
       </c>
       <c r="R40" s="82" t="s">
-        <v>703</v>
+        <v>769</v>
       </c>
       <c r="S40" s="91"/>
       <c r="V40" s="60"/>
@@ -9021,50 +8837,50 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="97" t="s">
-        <v>808</v>
-      </c>
-      <c r="E41" s="97" t="s">
+      <c r="D41" s="111" t="s">
+        <v>610</v>
+      </c>
+      <c r="E41" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="F41" s="97" t="s">
+      <c r="F41" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="G41" s="97" t="s">
-        <v>811</v>
-      </c>
-      <c r="H41" s="97" t="s">
-        <v>574</v>
-      </c>
-      <c r="I41" s="102" t="s">
-        <v>792</v>
-      </c>
-      <c r="J41" s="97" t="s">
-        <v>812</v>
-      </c>
-      <c r="K41" s="97" t="s">
+      <c r="G41" s="111" t="s">
+        <v>613</v>
+      </c>
+      <c r="H41" s="111" t="s">
+        <v>559</v>
+      </c>
+      <c r="I41" s="111" t="s">
+        <v>594</v>
+      </c>
+      <c r="J41" s="111" t="s">
+        <v>614</v>
+      </c>
+      <c r="K41" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="L41" s="97" t="s">
+      <c r="L41" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="M41" s="97" t="s">
-        <v>825</v>
-      </c>
-      <c r="N41" s="97" t="s">
-        <v>826</v>
-      </c>
-      <c r="O41" s="97" t="s">
-        <v>827</v>
-      </c>
-      <c r="P41" s="97" t="s">
-        <v>828</v>
-      </c>
-      <c r="Q41" s="97" t="s">
-        <v>829</v>
-      </c>
-      <c r="R41" s="97" t="s">
-        <v>830</v>
+      <c r="M41" s="111" t="s">
+        <v>627</v>
+      </c>
+      <c r="N41" s="111" t="s">
+        <v>628</v>
+      </c>
+      <c r="O41" s="111" t="s">
+        <v>629</v>
+      </c>
+      <c r="P41" s="111" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q41" s="111" t="s">
+        <v>631</v>
+      </c>
+      <c r="R41" s="111" t="s">
+        <v>632</v>
       </c>
       <c r="S41" s="92"/>
       <c r="V41" s="60"/>
@@ -9072,45 +8888,45 @@
     <row r="42" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="58"/>
       <c r="D42" s="83" t="s">
-        <v>659</v>
+        <v>719</v>
       </c>
       <c r="E42" s="83"/>
       <c r="F42" s="83" t="s">
-        <v>692</v>
+        <v>758</v>
       </c>
       <c r="G42" s="83" t="s">
-        <v>668</v>
+        <v>728</v>
       </c>
       <c r="H42" s="83" t="s">
-        <v>669</v>
+        <v>730</v>
       </c>
       <c r="I42" s="83" t="s">
-        <v>867</v>
+        <v>674</v>
       </c>
       <c r="J42" s="83" t="s">
-        <v>659</v>
+        <v>719</v>
       </c>
       <c r="K42" s="83"/>
       <c r="L42" s="83" t="s">
-        <v>692</v>
+        <v>758</v>
       </c>
       <c r="M42" s="83" t="s">
-        <v>694</v>
+        <v>760</v>
       </c>
       <c r="N42" s="83" t="s">
-        <v>696</v>
+        <v>762</v>
       </c>
       <c r="O42" s="83" t="s">
-        <v>698</v>
+        <v>764</v>
       </c>
       <c r="P42" s="83" t="s">
-        <v>700</v>
+        <v>766</v>
       </c>
       <c r="Q42" s="83" t="s">
-        <v>702</v>
+        <v>768</v>
       </c>
       <c r="R42" s="83" t="s">
-        <v>704</v>
+        <v>770</v>
       </c>
       <c r="S42" s="94"/>
       <c r="V42" s="60"/>
@@ -9139,25 +8955,25 @@
       <c r="B44" s="56"/>
       <c r="D44" s="82"/>
       <c r="E44" s="82" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="F44" s="82" t="s">
-        <v>658</v>
+        <v>718</v>
       </c>
       <c r="G44" s="82" t="s">
-        <v>313</v>
+        <v>742</v>
       </c>
       <c r="H44" s="82" t="s">
-        <v>705</v>
+        <v>771</v>
       </c>
       <c r="I44" s="82" t="s">
-        <v>707</v>
+        <v>773</v>
       </c>
       <c r="J44" s="82" t="s">
-        <v>709</v>
+        <v>775</v>
       </c>
       <c r="K44" s="82" t="s">
-        <v>676</v>
+        <v>738</v>
       </c>
       <c r="L44" s="82"/>
       <c r="M44" s="82"/>
@@ -9174,39 +8990,43 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="97" t="s">
-        <v>572</v>
-      </c>
-      <c r="E45" s="97" t="s">
+      <c r="D45" s="111" t="s">
+        <v>557</v>
+      </c>
+      <c r="E45" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="F45" s="97" t="s">
-        <v>808</v>
-      </c>
-      <c r="G45" s="97" t="s">
-        <v>831</v>
-      </c>
-      <c r="H45" s="97" t="s">
-        <v>832</v>
-      </c>
-      <c r="I45" s="97" t="s">
-        <v>833</v>
-      </c>
-      <c r="J45" s="97" t="s">
-        <v>834</v>
-      </c>
-      <c r="K45" s="97" t="s">
-        <v>816</v>
-      </c>
-      <c r="L45" s="97" t="s">
+      <c r="F45" s="111" t="s">
+        <v>610</v>
+      </c>
+      <c r="G45" s="111" t="s">
+        <v>633</v>
+      </c>
+      <c r="H45" s="111" t="s">
+        <v>634</v>
+      </c>
+      <c r="I45" s="111" t="s">
+        <v>635</v>
+      </c>
+      <c r="J45" s="111" t="s">
+        <v>636</v>
+      </c>
+      <c r="K45" s="111" t="s">
+        <v>618</v>
+      </c>
+      <c r="L45" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="M45" s="97"/>
-      <c r="N45" s="97"/>
-      <c r="O45" s="97"/>
-      <c r="P45" s="97"/>
-      <c r="Q45" s="97"/>
-      <c r="R45" s="97"/>
+      <c r="M45" s="111" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="N45" s="111"/>
+      <c r="O45" s="111"/>
+      <c r="P45" s="111"/>
+      <c r="Q45" s="111"/>
+      <c r="R45" s="111"/>
       <c r="S45" s="92"/>
       <c r="V45" s="60"/>
     </row>
@@ -9214,25 +9034,25 @@
       <c r="B46" s="58"/>
       <c r="D46" s="83"/>
       <c r="E46" s="83" t="s">
-        <v>692</v>
+        <v>758</v>
       </c>
       <c r="F46" s="83" t="s">
-        <v>659</v>
+        <v>719</v>
       </c>
       <c r="G46" s="83" t="s">
-        <v>680</v>
+        <v>399</v>
       </c>
       <c r="H46" s="83" t="s">
-        <v>706</v>
+        <v>772</v>
       </c>
       <c r="I46" s="83" t="s">
-        <v>708</v>
+        <v>774</v>
       </c>
       <c r="J46" s="83" t="s">
-        <v>710</v>
+        <v>776</v>
       </c>
       <c r="K46" s="83" t="s">
-        <v>677</v>
+        <v>739</v>
       </c>
       <c r="L46" s="83"/>
       <c r="M46" s="83"/>
@@ -9289,21 +9109,25 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="97"/>
-      <c r="E49" s="97"/>
-      <c r="F49" s="97"/>
-      <c r="G49" s="97"/>
-      <c r="H49" s="97"/>
-      <c r="I49" s="97"/>
-      <c r="J49" s="97"/>
-      <c r="K49" s="97"/>
-      <c r="L49" s="97"/>
-      <c r="M49" s="97"/>
-      <c r="N49" s="97"/>
-      <c r="O49" s="97"/>
-      <c r="P49" s="97"/>
-      <c r="Q49" s="97"/>
-      <c r="R49" s="97"/>
+      <c r="D49" s="111" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="E49" s="111"/>
+      <c r="F49" s="111"/>
+      <c r="G49" s="111"/>
+      <c r="H49" s="111"/>
+      <c r="I49" s="111"/>
+      <c r="J49" s="111"/>
+      <c r="K49" s="111"/>
+      <c r="L49" s="111"/>
+      <c r="M49" s="111"/>
+      <c r="N49" s="111"/>
+      <c r="O49" s="111"/>
+      <c r="P49" s="111"/>
+      <c r="Q49" s="111"/>
+      <c r="R49" s="111"/>
       <c r="S49" s="92"/>
       <c r="V49" s="60"/>
     </row>
@@ -9350,42 +9174,42 @@
     <row r="52" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="56"/>
       <c r="D52" s="82" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="E52" s="82" t="s">
-        <v>693</v>
+        <v>759</v>
       </c>
       <c r="F52" s="82" t="s">
-        <v>293</v>
+        <v>777</v>
       </c>
       <c r="G52" s="82"/>
       <c r="H52" s="82" t="s">
-        <v>712</v>
+        <v>778</v>
       </c>
       <c r="I52" s="82" t="s">
-        <v>326</v>
+        <v>780</v>
       </c>
       <c r="J52" s="82" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="K52" s="82" t="s">
-        <v>703</v>
+        <v>769</v>
       </c>
       <c r="L52" s="82" t="s">
-        <v>658</v>
+        <v>718</v>
       </c>
       <c r="M52" s="82" t="s">
-        <v>293</v>
+        <v>777</v>
       </c>
       <c r="N52" s="82"/>
       <c r="O52" s="82" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="P52" s="82" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="Q52" s="82" t="s">
-        <v>715</v>
+        <v>781</v>
       </c>
       <c r="R52" s="82"/>
       <c r="S52" s="91"/>
@@ -9396,49 +9220,49 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="97" t="s">
+      <c r="D53" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="E53" s="97" t="s">
-        <v>825</v>
-      </c>
-      <c r="F53" s="97" t="s">
+      <c r="E53" s="111" t="s">
+        <v>627</v>
+      </c>
+      <c r="F53" s="111" t="s">
         <v>232</v>
       </c>
-      <c r="G53" s="97" t="s">
+      <c r="G53" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="H53" s="97" t="s">
-        <v>835</v>
-      </c>
-      <c r="I53" s="97" t="s">
+      <c r="H53" s="111" t="s">
+        <v>637</v>
+      </c>
+      <c r="I53" s="111" t="s">
         <v>197</v>
       </c>
-      <c r="J53" s="97" t="s">
+      <c r="J53" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="K53" s="97" t="s">
-        <v>830</v>
-      </c>
-      <c r="L53" s="97" t="s">
-        <v>812</v>
-      </c>
-      <c r="M53" s="97" t="s">
+      <c r="K53" s="111" t="s">
+        <v>632</v>
+      </c>
+      <c r="L53" s="111" t="s">
+        <v>614</v>
+      </c>
+      <c r="M53" s="111" t="s">
         <v>232</v>
       </c>
-      <c r="N53" s="97" t="s">
+      <c r="N53" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="O53" s="97" t="s">
+      <c r="O53" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="P53" s="97" t="s">
+      <c r="P53" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="Q53" s="97" t="s">
-        <v>577</v>
-      </c>
-      <c r="R53" s="97" t="s">
+      <c r="Q53" s="111" t="s">
+        <v>562</v>
+      </c>
+      <c r="R53" s="111" t="s">
         <v>183</v>
       </c>
       <c r="S53" s="92"/>
@@ -9447,42 +9271,42 @@
     <row r="54" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="58"/>
       <c r="D54" s="83" t="s">
-        <v>692</v>
+        <v>758</v>
       </c>
       <c r="E54" s="83" t="s">
-        <v>694</v>
+        <v>760</v>
       </c>
       <c r="F54" s="83" t="s">
-        <v>711</v>
+        <v>370</v>
       </c>
       <c r="G54" s="83"/>
       <c r="H54" s="83" t="s">
-        <v>713</v>
+        <v>779</v>
       </c>
       <c r="I54" s="83" t="s">
-        <v>714</v>
+        <v>361</v>
       </c>
       <c r="J54" s="83" t="s">
-        <v>692</v>
+        <v>758</v>
       </c>
       <c r="K54" s="83" t="s">
-        <v>704</v>
+        <v>770</v>
       </c>
       <c r="L54" s="83" t="s">
-        <v>659</v>
+        <v>719</v>
       </c>
       <c r="M54" s="83" t="s">
-        <v>711</v>
+        <v>370</v>
       </c>
       <c r="N54" s="83"/>
       <c r="O54" s="83" t="s">
-        <v>692</v>
+        <v>758</v>
       </c>
       <c r="P54" s="83" t="s">
-        <v>692</v>
+        <v>758</v>
       </c>
       <c r="Q54" s="83" t="s">
-        <v>716</v>
+        <v>782</v>
       </c>
       <c r="R54" s="83"/>
       <c r="S54" s="94"/>
@@ -9511,45 +9335,45 @@
     <row r="56" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="56"/>
       <c r="D56" s="82" t="s">
-        <v>670</v>
+        <v>731</v>
       </c>
       <c r="E56" s="82" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="F56" s="82" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="G56" s="82" t="s">
-        <v>715</v>
+        <v>781</v>
       </c>
       <c r="H56" s="82" t="s">
-        <v>717</v>
+        <v>783</v>
       </c>
       <c r="I56" s="82"/>
       <c r="J56" s="82" t="s">
-        <v>712</v>
+        <v>778</v>
       </c>
       <c r="K56" s="82" t="s">
-        <v>326</v>
+        <v>780</v>
       </c>
       <c r="L56" s="82" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="M56" s="82" t="s">
-        <v>560</v>
+        <v>785</v>
       </c>
       <c r="N56" s="82" t="s">
-        <v>720</v>
+        <v>787</v>
       </c>
       <c r="O56" s="82"/>
       <c r="P56" s="82" t="s">
-        <v>670</v>
+        <v>731</v>
       </c>
       <c r="Q56" s="82" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="R56" s="82" t="s">
-        <v>560</v>
+        <v>785</v>
       </c>
       <c r="S56" s="91"/>
       <c r="V56" s="60"/>
@@ -9559,50 +9383,50 @@
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="97" t="s">
-        <v>813</v>
-      </c>
-      <c r="E57" s="97" t="s">
+      <c r="D57" s="111" t="s">
+        <v>615</v>
+      </c>
+      <c r="E57" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="F57" s="97" t="s">
+      <c r="F57" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="G57" s="98" t="s">
-        <v>577</v>
-      </c>
-      <c r="H57" s="97" t="s">
-        <v>836</v>
-      </c>
-      <c r="I57" s="97" t="s">
-        <v>572</v>
-      </c>
-      <c r="J57" s="97" t="s">
-        <v>835</v>
-      </c>
-      <c r="K57" s="97" t="s">
+      <c r="G57" s="113" t="s">
+        <v>562</v>
+      </c>
+      <c r="H57" s="111" t="s">
+        <v>638</v>
+      </c>
+      <c r="I57" s="111" t="s">
+        <v>557</v>
+      </c>
+      <c r="J57" s="111" t="s">
+        <v>637</v>
+      </c>
+      <c r="K57" s="111" t="s">
         <v>197</v>
       </c>
-      <c r="L57" s="97" t="s">
+      <c r="L57" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="M57" s="97" t="s">
-        <v>837</v>
-      </c>
-      <c r="N57" s="97" t="s">
-        <v>838</v>
-      </c>
-      <c r="O57" s="97" t="s">
+      <c r="M57" s="111" t="s">
+        <v>639</v>
+      </c>
+      <c r="N57" s="111" t="s">
+        <v>640</v>
+      </c>
+      <c r="O57" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="P57" s="97" t="s">
-        <v>813</v>
-      </c>
-      <c r="Q57" s="97" t="s">
+      <c r="P57" s="111" t="s">
+        <v>615</v>
+      </c>
+      <c r="Q57" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="R57" s="97" t="s">
-        <v>837</v>
+      <c r="R57" s="111" t="s">
+        <v>639</v>
       </c>
       <c r="S57" s="92"/>
       <c r="V57" s="60"/>
@@ -9610,45 +9434,45 @@
     <row r="58" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="58"/>
       <c r="D58" s="83" t="s">
-        <v>671</v>
+        <v>732</v>
       </c>
       <c r="E58" s="83" t="s">
-        <v>692</v>
+        <v>758</v>
       </c>
       <c r="F58" s="83" t="s">
-        <v>692</v>
+        <v>758</v>
       </c>
       <c r="G58" s="83" t="s">
-        <v>716</v>
+        <v>782</v>
       </c>
       <c r="H58" s="83" t="s">
-        <v>718</v>
+        <v>784</v>
       </c>
       <c r="I58" s="83"/>
       <c r="J58" s="83" t="s">
-        <v>713</v>
+        <v>779</v>
       </c>
       <c r="K58" s="83" t="s">
-        <v>714</v>
+        <v>361</v>
       </c>
       <c r="L58" s="83" t="s">
-        <v>692</v>
+        <v>758</v>
       </c>
       <c r="M58" s="83" t="s">
-        <v>719</v>
+        <v>786</v>
       </c>
       <c r="N58" s="83" t="s">
-        <v>721</v>
+        <v>788</v>
       </c>
       <c r="O58" s="83"/>
       <c r="P58" s="83" t="s">
-        <v>671</v>
+        <v>732</v>
       </c>
       <c r="Q58" s="83" t="s">
-        <v>692</v>
+        <v>758</v>
       </c>
       <c r="R58" s="83" t="s">
-        <v>719</v>
+        <v>786</v>
       </c>
       <c r="S58" s="94"/>
       <c r="V58" s="60"/>
@@ -9676,10 +9500,10 @@
     <row r="60" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="56"/>
       <c r="D60" s="82" t="s">
-        <v>720</v>
+        <v>787</v>
       </c>
       <c r="E60" s="82" t="s">
-        <v>717</v>
+        <v>783</v>
       </c>
       <c r="F60" s="82"/>
       <c r="G60" s="82"/>
@@ -9702,37 +9526,41 @@
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="D61" s="97" t="s">
-        <v>838</v>
-      </c>
-      <c r="E61" s="97" t="s">
-        <v>836</v>
-      </c>
-      <c r="F61" s="97" t="s">
+      <c r="D61" s="111" t="s">
+        <v>640</v>
+      </c>
+      <c r="E61" s="111" t="s">
+        <v>638</v>
+      </c>
+      <c r="F61" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="G61" s="98"/>
-      <c r="H61" s="97"/>
-      <c r="I61" s="97"/>
-      <c r="J61" s="97"/>
-      <c r="K61" s="97"/>
-      <c r="L61" s="97"/>
-      <c r="M61" s="97"/>
-      <c r="N61" s="97"/>
-      <c r="O61" s="97"/>
-      <c r="P61" s="97"/>
-      <c r="Q61" s="97"/>
-      <c r="R61" s="97"/>
+      <c r="G61" s="113" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="H61" s="111"/>
+      <c r="I61" s="111"/>
+      <c r="J61" s="111"/>
+      <c r="K61" s="111"/>
+      <c r="L61" s="111"/>
+      <c r="M61" s="111"/>
+      <c r="N61" s="111"/>
+      <c r="O61" s="111"/>
+      <c r="P61" s="111"/>
+      <c r="Q61" s="111"/>
+      <c r="R61" s="111"/>
       <c r="S61" s="92"/>
       <c r="V61" s="60"/>
     </row>
     <row r="62" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="58"/>
       <c r="D62" s="83" t="s">
-        <v>721</v>
+        <v>788</v>
       </c>
       <c r="E62" s="83" t="s">
-        <v>718</v>
+        <v>784</v>
       </c>
       <c r="F62" s="83"/>
       <c r="G62" s="83"/>
@@ -9795,21 +9623,25 @@
         <f>B61+1</f>
         <v>16</v>
       </c>
-      <c r="D65" s="97"/>
-      <c r="E65" s="97"/>
-      <c r="F65" s="97"/>
-      <c r="G65" s="98"/>
-      <c r="H65" s="97"/>
-      <c r="I65" s="97"/>
-      <c r="J65" s="97"/>
-      <c r="K65" s="97"/>
-      <c r="L65" s="97"/>
-      <c r="M65" s="97"/>
-      <c r="N65" s="97"/>
-      <c r="O65" s="97"/>
-      <c r="P65" s="97"/>
-      <c r="Q65" s="97"/>
-      <c r="R65" s="97"/>
+      <c r="D65" s="111" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="E65" s="111"/>
+      <c r="F65" s="111"/>
+      <c r="G65" s="113"/>
+      <c r="H65" s="111"/>
+      <c r="I65" s="111"/>
+      <c r="J65" s="111"/>
+      <c r="K65" s="111"/>
+      <c r="L65" s="111"/>
+      <c r="M65" s="111"/>
+      <c r="N65" s="111"/>
+      <c r="O65" s="111"/>
+      <c r="P65" s="111"/>
+      <c r="Q65" s="111"/>
+      <c r="R65" s="111"/>
       <c r="S65" s="92"/>
       <c r="V65" s="60"/>
     </row>
@@ -9856,43 +9688,43 @@
     <row r="68" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="56"/>
       <c r="D68" s="82" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="E68" s="82" t="s">
-        <v>648</v>
+        <v>708</v>
       </c>
       <c r="F68" s="82" t="s">
-        <v>722</v>
+        <v>789</v>
       </c>
       <c r="G68" s="82" t="s">
-        <v>681</v>
+        <v>743</v>
       </c>
       <c r="H68" s="82" t="s">
-        <v>549</v>
+        <v>791</v>
       </c>
       <c r="I68" s="82"/>
       <c r="J68" s="82" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="K68" s="82" t="s">
-        <v>725</v>
+        <v>793</v>
       </c>
       <c r="L68" s="82"/>
       <c r="M68" s="82" t="s">
-        <v>670</v>
+        <v>731</v>
       </c>
       <c r="N68" s="82" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="O68" s="82" t="s">
-        <v>553</v>
+        <v>795</v>
       </c>
       <c r="P68" s="82"/>
       <c r="Q68" s="82" t="s">
-        <v>561</v>
+        <v>797</v>
       </c>
       <c r="R68" s="82" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="S68" s="91"/>
       <c r="V68" s="60"/>
@@ -9902,49 +9734,49 @@
         <f>B65+1</f>
         <v>17</v>
       </c>
-      <c r="D69" s="97" t="s">
+      <c r="D69" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="E69" s="97" t="s">
-        <v>803</v>
-      </c>
-      <c r="F69" s="97" t="s">
-        <v>839</v>
-      </c>
-      <c r="G69" s="98" t="s">
-        <v>819</v>
-      </c>
-      <c r="H69" s="97" t="s">
-        <v>840</v>
-      </c>
-      <c r="I69" s="97" t="s">
+      <c r="E69" s="111" t="s">
+        <v>605</v>
+      </c>
+      <c r="F69" s="111" t="s">
+        <v>641</v>
+      </c>
+      <c r="G69" s="113" t="s">
+        <v>621</v>
+      </c>
+      <c r="H69" s="111" t="s">
+        <v>642</v>
+      </c>
+      <c r="I69" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="J69" s="97" t="s">
+      <c r="J69" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="K69" s="97" t="s">
-        <v>841</v>
-      </c>
-      <c r="L69" s="97" t="s">
+      <c r="K69" s="111" t="s">
+        <v>643</v>
+      </c>
+      <c r="L69" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="M69" s="97" t="s">
-        <v>813</v>
-      </c>
-      <c r="N69" s="97" t="s">
+      <c r="M69" s="111" t="s">
+        <v>615</v>
+      </c>
+      <c r="N69" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="O69" s="97" t="s">
-        <v>578</v>
-      </c>
-      <c r="P69" s="97" t="s">
+      <c r="O69" s="111" t="s">
+        <v>563</v>
+      </c>
+      <c r="P69" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="Q69" s="97" t="s">
-        <v>842</v>
-      </c>
-      <c r="R69" s="97" t="s">
+      <c r="Q69" s="111" t="s">
+        <v>644</v>
+      </c>
+      <c r="R69" s="111" t="s">
         <v>185</v>
       </c>
       <c r="S69" s="92"/>
@@ -9953,43 +9785,43 @@
     <row r="70" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="58"/>
       <c r="D70" s="83" t="s">
-        <v>692</v>
+        <v>758</v>
       </c>
       <c r="E70" s="83" t="s">
-        <v>649</v>
+        <v>709</v>
       </c>
       <c r="F70" s="83" t="s">
-        <v>723</v>
+        <v>790</v>
       </c>
       <c r="G70" s="83" t="s">
-        <v>682</v>
+        <v>744</v>
       </c>
       <c r="H70" s="83" t="s">
-        <v>724</v>
+        <v>792</v>
       </c>
       <c r="I70" s="83"/>
       <c r="J70" s="83" t="s">
-        <v>692</v>
+        <v>758</v>
       </c>
       <c r="K70" s="83" t="s">
-        <v>726</v>
+        <v>794</v>
       </c>
       <c r="L70" s="83"/>
       <c r="M70" s="83" t="s">
-        <v>671</v>
+        <v>732</v>
       </c>
       <c r="N70" s="83" t="s">
-        <v>692</v>
+        <v>758</v>
       </c>
       <c r="O70" s="83" t="s">
-        <v>727</v>
+        <v>796</v>
       </c>
       <c r="P70" s="83"/>
       <c r="Q70" s="83" t="s">
-        <v>728</v>
+        <v>798</v>
       </c>
       <c r="R70" s="83" t="s">
-        <v>692</v>
+        <v>758</v>
       </c>
       <c r="S70" s="94"/>
       <c r="V70" s="60"/>
@@ -10017,45 +9849,45 @@
     <row r="72" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="56"/>
       <c r="D72" s="82" t="s">
-        <v>304</v>
+        <v>799</v>
       </c>
       <c r="E72" s="82" t="s">
-        <v>553</v>
+        <v>795</v>
       </c>
       <c r="F72" s="82" t="s">
-        <v>554</v>
+        <v>753</v>
       </c>
       <c r="G72" s="82"/>
       <c r="H72" s="82" t="s">
-        <v>611</v>
+        <v>669</v>
       </c>
       <c r="I72" s="82" t="s">
-        <v>730</v>
+        <v>800</v>
       </c>
       <c r="J72" s="82" t="s">
-        <v>613</v>
+        <v>671</v>
       </c>
       <c r="K72" s="82" t="s">
-        <v>627</v>
+        <v>687</v>
       </c>
       <c r="L72" s="82"/>
       <c r="M72" s="82" t="s">
-        <v>732</v>
+        <v>802</v>
       </c>
       <c r="N72" s="82" t="s">
-        <v>617</v>
+        <v>677</v>
       </c>
       <c r="O72" s="82" t="s">
-        <v>619</v>
+        <v>679</v>
       </c>
       <c r="P72" s="82" t="s">
-        <v>621</v>
+        <v>681</v>
       </c>
       <c r="Q72" s="82" t="s">
-        <v>623</v>
+        <v>683</v>
       </c>
       <c r="R72" s="82" t="s">
-        <v>625</v>
+        <v>685</v>
       </c>
       <c r="S72" s="91"/>
       <c r="V72" s="60"/>
@@ -10065,50 +9897,50 @@
         <f>B69+1</f>
         <v>18</v>
       </c>
-      <c r="D73" s="97" t="s">
+      <c r="D73" s="111" t="s">
         <v>190</v>
       </c>
-      <c r="E73" s="97" t="s">
-        <v>578</v>
-      </c>
-      <c r="F73" s="97" t="s">
-        <v>576</v>
-      </c>
-      <c r="G73" s="97" t="s">
-        <v>807</v>
-      </c>
-      <c r="H73" s="97" t="s">
+      <c r="E73" s="111" t="s">
+        <v>563</v>
+      </c>
+      <c r="F73" s="111" t="s">
+        <v>561</v>
+      </c>
+      <c r="G73" s="111" t="s">
+        <v>609</v>
+      </c>
+      <c r="H73" s="111" t="s">
+        <v>549</v>
+      </c>
+      <c r="I73" s="111" t="s">
+        <v>254</v>
+      </c>
+      <c r="J73" s="111" t="s">
+        <v>550</v>
+      </c>
+      <c r="K73" s="111" t="s">
+        <v>645</v>
+      </c>
+      <c r="L73" s="111" t="s">
+        <v>183</v>
+      </c>
+      <c r="M73" s="111" t="s">
         <v>564</v>
       </c>
-      <c r="I73" s="97" t="s">
-        <v>254</v>
-      </c>
-      <c r="J73" s="97" t="s">
-        <v>565</v>
-      </c>
-      <c r="K73" s="97" t="s">
-        <v>843</v>
-      </c>
-      <c r="L73" s="97" t="s">
-        <v>183</v>
-      </c>
-      <c r="M73" s="97" t="s">
-        <v>579</v>
-      </c>
-      <c r="N73" s="97" t="s">
-        <v>566</v>
-      </c>
-      <c r="O73" s="97" t="s">
-        <v>567</v>
-      </c>
-      <c r="P73" s="97" t="s">
-        <v>568</v>
-      </c>
-      <c r="Q73" s="97" t="s">
-        <v>569</v>
-      </c>
-      <c r="R73" s="102" t="s">
-        <v>570</v>
+      <c r="N73" s="111" t="s">
+        <v>551</v>
+      </c>
+      <c r="O73" s="111" t="s">
+        <v>552</v>
+      </c>
+      <c r="P73" s="111" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q73" s="111" t="s">
+        <v>554</v>
+      </c>
+      <c r="R73" s="111" t="s">
+        <v>555</v>
       </c>
       <c r="S73" s="92"/>
       <c r="V73" s="60"/>
@@ -10116,45 +9948,45 @@
     <row r="74" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="58"/>
       <c r="D74" s="83" t="s">
-        <v>729</v>
+        <v>391</v>
       </c>
       <c r="E74" s="83" t="s">
-        <v>727</v>
+        <v>796</v>
       </c>
       <c r="F74" s="83" t="s">
-        <v>690</v>
+        <v>754</v>
       </c>
       <c r="G74" s="83"/>
       <c r="H74" s="83" t="s">
-        <v>612</v>
+        <v>670</v>
       </c>
       <c r="I74" s="83" t="s">
-        <v>731</v>
+        <v>801</v>
       </c>
       <c r="J74" s="83" t="s">
-        <v>614</v>
+        <v>672</v>
       </c>
       <c r="K74" s="83" t="s">
-        <v>628</v>
+        <v>688</v>
       </c>
       <c r="L74" s="83"/>
       <c r="M74" s="83" t="s">
-        <v>733</v>
+        <v>803</v>
       </c>
       <c r="N74" s="83" t="s">
-        <v>618</v>
+        <v>678</v>
       </c>
       <c r="O74" s="83" t="s">
-        <v>620</v>
+        <v>680</v>
       </c>
       <c r="P74" s="83" t="s">
-        <v>622</v>
+        <v>682</v>
       </c>
       <c r="Q74" s="83" t="s">
-        <v>624</v>
+        <v>684</v>
       </c>
       <c r="R74" s="83" t="s">
-        <v>626</v>
+        <v>686</v>
       </c>
       <c r="S74" s="94"/>
       <c r="V74" s="60"/>
@@ -10182,43 +10014,43 @@
     <row r="76" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="56"/>
       <c r="D76" s="82" t="s">
-        <v>627</v>
+        <v>687</v>
       </c>
       <c r="E76" s="82" t="s">
-        <v>554</v>
+        <v>753</v>
       </c>
       <c r="F76" s="82"/>
       <c r="G76" s="82" t="s">
-        <v>853</v>
+        <v>804</v>
       </c>
       <c r="H76" s="82" t="s">
-        <v>548</v>
+        <v>795</v>
       </c>
       <c r="I76" s="82" t="s">
-        <v>734</v>
+        <v>806</v>
       </c>
       <c r="J76" s="82" t="s">
-        <v>736</v>
+        <v>808</v>
       </c>
       <c r="K76" s="82"/>
       <c r="L76" s="82" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="M76" s="82" t="s">
-        <v>734</v>
+        <v>806</v>
       </c>
       <c r="N76" s="82" t="s">
-        <v>736</v>
+        <v>808</v>
       </c>
       <c r="O76" s="82" t="s">
-        <v>554</v>
+        <v>753</v>
       </c>
       <c r="P76" s="82"/>
       <c r="Q76" s="82" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="R76" s="82" t="s">
-        <v>738</v>
+        <v>810</v>
       </c>
       <c r="S76" s="91"/>
       <c r="V76" s="60"/>
@@ -10228,49 +10060,49 @@
         <f>B73+1</f>
         <v>19</v>
       </c>
-      <c r="D77" s="97" t="s">
-        <v>571</v>
-      </c>
-      <c r="E77" s="97" t="s">
-        <v>576</v>
-      </c>
-      <c r="F77" s="97" t="s">
+      <c r="D77" s="111" t="s">
+        <v>556</v>
+      </c>
+      <c r="E77" s="111" t="s">
+        <v>561</v>
+      </c>
+      <c r="F77" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="G77" s="98" t="s">
-        <v>580</v>
-      </c>
-      <c r="H77" s="97" t="s">
+      <c r="G77" s="113" t="s">
+        <v>565</v>
+      </c>
+      <c r="H77" s="111" t="s">
+        <v>563</v>
+      </c>
+      <c r="I77" s="111" t="s">
+        <v>566</v>
+      </c>
+      <c r="J77" s="111" t="s">
+        <v>567</v>
+      </c>
+      <c r="K77" s="111" t="s">
+        <v>183</v>
+      </c>
+      <c r="L77" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="I77" s="97" t="s">
-        <v>581</v>
-      </c>
-      <c r="J77" s="97" t="s">
-        <v>582</v>
-      </c>
-      <c r="K77" s="97" t="s">
+      <c r="M77" s="111" t="s">
+        <v>566</v>
+      </c>
+      <c r="N77" s="111" t="s">
+        <v>567</v>
+      </c>
+      <c r="O77" s="111" t="s">
+        <v>561</v>
+      </c>
+      <c r="P77" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="L77" s="97" t="s">
+      <c r="Q77" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="M77" s="97" t="s">
-        <v>581</v>
-      </c>
-      <c r="N77" s="97" t="s">
-        <v>582</v>
-      </c>
-      <c r="O77" s="97" t="s">
-        <v>576</v>
-      </c>
-      <c r="P77" s="97" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q77" s="97" t="s">
-        <v>185</v>
-      </c>
-      <c r="R77" s="97" t="s">
+      <c r="R77" s="111" t="s">
         <v>188</v>
       </c>
       <c r="S77" s="92"/>
@@ -10279,43 +10111,43 @@
     <row r="78" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="58"/>
       <c r="D78" s="83" t="s">
-        <v>628</v>
+        <v>688</v>
       </c>
       <c r="E78" s="83" t="s">
-        <v>690</v>
+        <v>754</v>
       </c>
       <c r="F78" s="83"/>
       <c r="G78" s="83" t="s">
-        <v>854</v>
+        <v>805</v>
       </c>
       <c r="H78" s="83" t="s">
-        <v>692</v>
+        <v>796</v>
       </c>
       <c r="I78" s="83" t="s">
-        <v>735</v>
+        <v>807</v>
       </c>
       <c r="J78" s="83" t="s">
-        <v>737</v>
+        <v>809</v>
       </c>
       <c r="K78" s="83"/>
       <c r="L78" s="83" t="s">
-        <v>692</v>
+        <v>758</v>
       </c>
       <c r="M78" s="83" t="s">
-        <v>735</v>
+        <v>807</v>
       </c>
       <c r="N78" s="83" t="s">
-        <v>737</v>
+        <v>809</v>
       </c>
       <c r="O78" s="83" t="s">
-        <v>690</v>
+        <v>754</v>
       </c>
       <c r="P78" s="83"/>
       <c r="Q78" s="83" t="s">
-        <v>692</v>
+        <v>758</v>
       </c>
       <c r="R78" s="83" t="s">
-        <v>739</v>
+        <v>811</v>
       </c>
       <c r="S78" s="94"/>
       <c r="V78" s="60"/>
@@ -10343,43 +10175,43 @@
     <row r="80" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="56"/>
       <c r="D80" s="82" t="s">
-        <v>740</v>
+        <v>812</v>
       </c>
       <c r="E80" s="82" t="s">
-        <v>742</v>
+        <v>814</v>
       </c>
       <c r="F80" s="82"/>
       <c r="G80" s="82" t="s">
-        <v>744</v>
+        <v>816</v>
       </c>
       <c r="H80" s="82" t="s">
-        <v>654</v>
+        <v>714</v>
       </c>
       <c r="I80" s="82" t="s">
-        <v>746</v>
+        <v>818</v>
       </c>
       <c r="J80" s="82" t="s">
-        <v>748</v>
+        <v>820</v>
       </c>
       <c r="K80" s="82"/>
       <c r="L80" s="82" t="s">
-        <v>556</v>
+        <v>822</v>
       </c>
       <c r="M80" s="82" t="s">
-        <v>551</v>
+        <v>729</v>
       </c>
       <c r="N80" s="82"/>
       <c r="O80" s="82" t="s">
-        <v>303</v>
+        <v>824</v>
       </c>
       <c r="P80" s="82" t="s">
-        <v>278</v>
+        <v>825</v>
       </c>
       <c r="Q80" s="82" t="s">
-        <v>753</v>
+        <v>826</v>
       </c>
       <c r="R80" s="82" t="s">
-        <v>755</v>
+        <v>828</v>
       </c>
       <c r="S80" s="91"/>
       <c r="V80" s="60"/>
@@ -10389,50 +10221,50 @@
         <f>B77+1</f>
         <v>20</v>
       </c>
-      <c r="D81" s="97" t="s">
-        <v>583</v>
-      </c>
-      <c r="E81" s="97" t="s">
-        <v>584</v>
-      </c>
-      <c r="F81" s="97" t="s">
+      <c r="D81" s="111" t="s">
+        <v>568</v>
+      </c>
+      <c r="E81" s="111" t="s">
+        <v>569</v>
+      </c>
+      <c r="F81" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="G81" s="97" t="s">
-        <v>585</v>
-      </c>
-      <c r="H81" s="97" t="s">
-        <v>586</v>
-      </c>
-      <c r="I81" s="97" t="s">
-        <v>587</v>
-      </c>
-      <c r="J81" s="97" t="s">
-        <v>588</v>
-      </c>
-      <c r="K81" s="97" t="s">
+      <c r="G81" s="111" t="s">
+        <v>570</v>
+      </c>
+      <c r="H81" s="111" t="s">
+        <v>571</v>
+      </c>
+      <c r="I81" s="111" t="s">
+        <v>572</v>
+      </c>
+      <c r="J81" s="111" t="s">
+        <v>573</v>
+      </c>
+      <c r="K81" s="111" t="s">
         <v>216</v>
       </c>
-      <c r="L81" s="97" t="s">
-        <v>589</v>
-      </c>
-      <c r="M81" s="97" t="s">
+      <c r="L81" s="111" t="s">
         <v>574</v>
       </c>
-      <c r="N81" s="97" t="s">
+      <c r="M81" s="111" t="s">
+        <v>559</v>
+      </c>
+      <c r="N81" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="O81" s="97" t="s">
-        <v>844</v>
-      </c>
-      <c r="P81" s="97" t="s">
-        <v>845</v>
-      </c>
-      <c r="Q81" s="97" t="s">
-        <v>846</v>
-      </c>
-      <c r="R81" s="97" t="s">
-        <v>847</v>
+      <c r="O81" s="111" t="s">
+        <v>646</v>
+      </c>
+      <c r="P81" s="111" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q81" s="111" t="s">
+        <v>648</v>
+      </c>
+      <c r="R81" s="111" t="s">
+        <v>649</v>
       </c>
       <c r="S81" s="92"/>
       <c r="V81" s="60"/>
@@ -10440,43 +10272,43 @@
     <row r="82" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="58"/>
       <c r="D82" s="83" t="s">
-        <v>741</v>
+        <v>813</v>
       </c>
       <c r="E82" s="83" t="s">
-        <v>743</v>
+        <v>815</v>
       </c>
       <c r="F82" s="83"/>
       <c r="G82" s="83" t="s">
-        <v>745</v>
+        <v>817</v>
       </c>
       <c r="H82" s="83" t="s">
-        <v>655</v>
+        <v>715</v>
       </c>
       <c r="I82" s="83" t="s">
-        <v>747</v>
+        <v>819</v>
       </c>
       <c r="J82" s="83" t="s">
-        <v>749</v>
+        <v>821</v>
       </c>
       <c r="K82" s="83"/>
       <c r="L82" s="83" t="s">
-        <v>750</v>
+        <v>823</v>
       </c>
       <c r="M82" s="83" t="s">
-        <v>669</v>
+        <v>730</v>
       </c>
       <c r="N82" s="83"/>
       <c r="O82" s="83" t="s">
-        <v>751</v>
+        <v>388</v>
       </c>
       <c r="P82" s="83" t="s">
-        <v>752</v>
+        <v>347</v>
       </c>
       <c r="Q82" s="83" t="s">
-        <v>754</v>
+        <v>827</v>
       </c>
       <c r="R82" s="83" t="s">
-        <v>756</v>
+        <v>829</v>
       </c>
       <c r="S82" s="94"/>
       <c r="V82" s="60"/>
@@ -10526,23 +10358,27 @@
         <f>B81+1</f>
         <v>21</v>
       </c>
-      <c r="D85" s="97" t="s">
+      <c r="D85" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="E85" s="97"/>
-      <c r="F85" s="97"/>
-      <c r="G85" s="98"/>
-      <c r="H85" s="97"/>
-      <c r="I85" s="97"/>
-      <c r="J85" s="97"/>
-      <c r="K85" s="97"/>
-      <c r="L85" s="97"/>
-      <c r="M85" s="97"/>
-      <c r="N85" s="97"/>
-      <c r="O85" s="97"/>
-      <c r="P85" s="97"/>
-      <c r="Q85" s="97"/>
-      <c r="R85" s="97"/>
+      <c r="E85" s="111" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="F85" s="111"/>
+      <c r="G85" s="113"/>
+      <c r="H85" s="111"/>
+      <c r="I85" s="111"/>
+      <c r="J85" s="111"/>
+      <c r="K85" s="111"/>
+      <c r="L85" s="111"/>
+      <c r="M85" s="111"/>
+      <c r="N85" s="111"/>
+      <c r="O85" s="111"/>
+      <c r="P85" s="111"/>
+      <c r="Q85" s="111"/>
+      <c r="R85" s="111"/>
       <c r="S85" s="92"/>
       <c r="V85" s="60"/>
     </row>
@@ -10611,21 +10447,25 @@
         <f>B85+1</f>
         <v>22</v>
       </c>
-      <c r="D89" s="97"/>
-      <c r="E89" s="97"/>
-      <c r="F89" s="97"/>
-      <c r="G89" s="97"/>
-      <c r="H89" s="97"/>
-      <c r="I89" s="97"/>
-      <c r="J89" s="97"/>
-      <c r="K89" s="97"/>
-      <c r="L89" s="97"/>
-      <c r="M89" s="97"/>
-      <c r="N89" s="97"/>
-      <c r="O89" s="97"/>
-      <c r="P89" s="97"/>
-      <c r="Q89" s="97"/>
-      <c r="R89" s="97"/>
+      <c r="D89" s="111" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="E89" s="111"/>
+      <c r="F89" s="111"/>
+      <c r="G89" s="111"/>
+      <c r="H89" s="111"/>
+      <c r="I89" s="111"/>
+      <c r="J89" s="111"/>
+      <c r="K89" s="111"/>
+      <c r="L89" s="111"/>
+      <c r="M89" s="111"/>
+      <c r="N89" s="111"/>
+      <c r="O89" s="111"/>
+      <c r="P89" s="111"/>
+      <c r="Q89" s="111"/>
+      <c r="R89" s="111"/>
       <c r="S89" s="92"/>
       <c r="V89" s="60"/>
     </row>
@@ -10672,45 +10512,45 @@
     <row r="92" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B92" s="56"/>
       <c r="D92" s="82" t="s">
-        <v>555</v>
+        <v>830</v>
       </c>
       <c r="E92" s="82" t="s">
-        <v>314</v>
+        <v>832</v>
       </c>
       <c r="F92" s="82" t="s">
-        <v>674</v>
+        <v>736</v>
       </c>
       <c r="G92" s="82" t="s">
-        <v>558</v>
+        <v>833</v>
       </c>
       <c r="H92" s="82"/>
       <c r="I92" s="82" t="s">
-        <v>732</v>
+        <v>802</v>
       </c>
       <c r="J92" s="82" t="s">
-        <v>617</v>
+        <v>677</v>
       </c>
       <c r="K92" s="82" t="s">
-        <v>619</v>
+        <v>679</v>
       </c>
       <c r="L92" s="82" t="s">
-        <v>621</v>
+        <v>681</v>
       </c>
       <c r="M92" s="82" t="s">
-        <v>623</v>
+        <v>683</v>
       </c>
       <c r="N92" s="82" t="s">
-        <v>625</v>
+        <v>685</v>
       </c>
       <c r="O92" s="82" t="s">
-        <v>627</v>
+        <v>687</v>
       </c>
       <c r="P92" s="82" t="s">
-        <v>554</v>
+        <v>753</v>
       </c>
       <c r="Q92" s="82"/>
       <c r="R92" s="82" t="s">
-        <v>553</v>
+        <v>795</v>
       </c>
       <c r="S92" s="91"/>
       <c r="V92" s="60"/>
@@ -10720,50 +10560,50 @@
         <f>B89+1</f>
         <v>23</v>
       </c>
-      <c r="D93" s="97" t="s">
-        <v>590</v>
-      </c>
-      <c r="E93" s="97" t="s">
+      <c r="D93" s="111" t="s">
+        <v>575</v>
+      </c>
+      <c r="E93" s="111" t="s">
         <v>196</v>
       </c>
-      <c r="F93" s="97" t="s">
-        <v>575</v>
-      </c>
-      <c r="G93" s="97" t="s">
-        <v>591</v>
-      </c>
-      <c r="H93" s="97" t="s">
+      <c r="F93" s="111" t="s">
+        <v>560</v>
+      </c>
+      <c r="G93" s="111" t="s">
+        <v>576</v>
+      </c>
+      <c r="H93" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="I93" s="97" t="s">
-        <v>579</v>
-      </c>
-      <c r="J93" s="97" t="s">
-        <v>566</v>
-      </c>
-      <c r="K93" s="97" t="s">
-        <v>567</v>
-      </c>
-      <c r="L93" s="97" t="s">
-        <v>568</v>
-      </c>
-      <c r="M93" s="97" t="s">
-        <v>569</v>
-      </c>
-      <c r="N93" s="102" t="s">
-        <v>570</v>
-      </c>
-      <c r="O93" s="97" t="s">
-        <v>571</v>
-      </c>
-      <c r="P93" s="97" t="s">
-        <v>576</v>
-      </c>
-      <c r="Q93" s="97" t="s">
+      <c r="I93" s="111" t="s">
+        <v>564</v>
+      </c>
+      <c r="J93" s="111" t="s">
+        <v>551</v>
+      </c>
+      <c r="K93" s="111" t="s">
+        <v>552</v>
+      </c>
+      <c r="L93" s="111" t="s">
+        <v>553</v>
+      </c>
+      <c r="M93" s="111" t="s">
+        <v>554</v>
+      </c>
+      <c r="N93" s="111" t="s">
+        <v>555</v>
+      </c>
+      <c r="O93" s="111" t="s">
+        <v>556</v>
+      </c>
+      <c r="P93" s="111" t="s">
+        <v>561</v>
+      </c>
+      <c r="Q93" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="R93" s="97" t="s">
-        <v>578</v>
+      <c r="R93" s="111" t="s">
+        <v>563</v>
       </c>
       <c r="S93" s="92"/>
       <c r="V93" s="60"/>
@@ -10771,45 +10611,45 @@
     <row r="94" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B94" s="58"/>
       <c r="D94" s="83" t="s">
-        <v>757</v>
+        <v>831</v>
       </c>
       <c r="E94" s="83" t="s">
-        <v>758</v>
+        <v>369</v>
       </c>
       <c r="F94" s="83" t="s">
-        <v>675</v>
+        <v>737</v>
       </c>
       <c r="G94" s="83" t="s">
-        <v>759</v>
+        <v>834</v>
       </c>
       <c r="H94" s="83"/>
       <c r="I94" s="83" t="s">
-        <v>733</v>
+        <v>803</v>
       </c>
       <c r="J94" s="83" t="s">
-        <v>618</v>
+        <v>678</v>
       </c>
       <c r="K94" s="83" t="s">
-        <v>620</v>
+        <v>680</v>
       </c>
       <c r="L94" s="83" t="s">
-        <v>622</v>
+        <v>682</v>
       </c>
       <c r="M94" s="83" t="s">
-        <v>624</v>
+        <v>684</v>
       </c>
       <c r="N94" s="83" t="s">
-        <v>626</v>
+        <v>686</v>
       </c>
       <c r="O94" s="83" t="s">
-        <v>628</v>
+        <v>688</v>
       </c>
       <c r="P94" s="83" t="s">
-        <v>690</v>
+        <v>754</v>
       </c>
       <c r="Q94" s="83"/>
       <c r="R94" s="83" t="s">
-        <v>727</v>
+        <v>796</v>
       </c>
       <c r="S94" s="94"/>
       <c r="V94" s="60"/>
@@ -10837,31 +10677,31 @@
     <row r="96" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B96" s="56"/>
       <c r="D96" s="82" t="s">
-        <v>855</v>
+        <v>835</v>
       </c>
       <c r="E96" s="82" t="s">
-        <v>857</v>
+        <v>837</v>
       </c>
       <c r="F96" s="82" t="s">
-        <v>627</v>
+        <v>687</v>
       </c>
       <c r="G96" s="82" t="s">
-        <v>623</v>
+        <v>683</v>
       </c>
       <c r="H96" s="82" t="s">
-        <v>555</v>
+        <v>830</v>
       </c>
       <c r="I96" s="82" t="s">
-        <v>859</v>
+        <v>839</v>
       </c>
       <c r="J96" s="82" t="s">
-        <v>555</v>
+        <v>830</v>
       </c>
       <c r="K96" s="82" t="s">
-        <v>611</v>
+        <v>669</v>
       </c>
       <c r="L96" s="82" t="s">
-        <v>730</v>
+        <v>800</v>
       </c>
       <c r="M96" s="82"/>
       <c r="N96" s="82"/>
@@ -10877,72 +10717,76 @@
         <f>B93+1</f>
         <v>24</v>
       </c>
-      <c r="D97" s="97" t="s">
-        <v>592</v>
-      </c>
-      <c r="E97" s="97" t="s">
-        <v>593</v>
-      </c>
-      <c r="F97" s="97" t="s">
-        <v>571</v>
-      </c>
-      <c r="G97" s="98" t="s">
-        <v>569</v>
-      </c>
-      <c r="H97" s="97" t="s">
-        <v>590</v>
-      </c>
-      <c r="I97" s="97" t="s">
-        <v>594</v>
-      </c>
-      <c r="J97" s="97" t="s">
-        <v>590</v>
-      </c>
-      <c r="K97" s="97" t="s">
-        <v>564</v>
-      </c>
-      <c r="L97" s="97" t="s">
+      <c r="D97" s="111" t="s">
+        <v>577</v>
+      </c>
+      <c r="E97" s="111" t="s">
+        <v>578</v>
+      </c>
+      <c r="F97" s="111" t="s">
+        <v>556</v>
+      </c>
+      <c r="G97" s="113" t="s">
+        <v>554</v>
+      </c>
+      <c r="H97" s="111" t="s">
+        <v>575</v>
+      </c>
+      <c r="I97" s="111" t="s">
+        <v>579</v>
+      </c>
+      <c r="J97" s="111" t="s">
+        <v>575</v>
+      </c>
+      <c r="K97" s="111" t="s">
+        <v>549</v>
+      </c>
+      <c r="L97" s="111" t="s">
         <v>254</v>
       </c>
-      <c r="M97" s="97" t="s">
-        <v>807</v>
-      </c>
-      <c r="N97" s="97"/>
-      <c r="O97" s="97"/>
-      <c r="P97" s="97"/>
-      <c r="Q97" s="97"/>
-      <c r="R97" s="97"/>
+      <c r="M97" s="111" t="s">
+        <v>609</v>
+      </c>
+      <c r="N97" s="111" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="O97" s="111"/>
+      <c r="P97" s="111"/>
+      <c r="Q97" s="111"/>
+      <c r="R97" s="111"/>
       <c r="S97" s="92"/>
       <c r="V97" s="60"/>
     </row>
     <row r="98" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B98" s="58"/>
       <c r="D98" s="83" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="E98" s="83" t="s">
-        <v>858</v>
+        <v>838</v>
       </c>
       <c r="F98" s="83" t="s">
-        <v>628</v>
+        <v>688</v>
       </c>
       <c r="G98" s="83" t="s">
-        <v>624</v>
+        <v>684</v>
       </c>
       <c r="H98" s="83" t="s">
-        <v>757</v>
+        <v>831</v>
       </c>
       <c r="I98" s="83" t="s">
-        <v>860</v>
+        <v>840</v>
       </c>
       <c r="J98" s="83" t="s">
-        <v>757</v>
+        <v>831</v>
       </c>
       <c r="K98" s="83" t="s">
-        <v>612</v>
+        <v>670</v>
       </c>
       <c r="L98" s="83" t="s">
-        <v>731</v>
+        <v>801</v>
       </c>
       <c r="M98" s="83"/>
       <c r="N98" s="83"/>
@@ -10998,21 +10842,25 @@
         <f>B97+1</f>
         <v>25</v>
       </c>
-      <c r="D101" s="97"/>
-      <c r="E101" s="97"/>
-      <c r="F101" s="97"/>
-      <c r="G101" s="97"/>
-      <c r="H101" s="97"/>
-      <c r="I101" s="97"/>
-      <c r="J101" s="97"/>
-      <c r="K101" s="97"/>
-      <c r="L101" s="97"/>
-      <c r="M101" s="97"/>
-      <c r="N101" s="97"/>
-      <c r="O101" s="97"/>
-      <c r="P101" s="97"/>
-      <c r="Q101" s="97"/>
-      <c r="R101" s="97"/>
+      <c r="D101" s="111" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="E101" s="111"/>
+      <c r="F101" s="111"/>
+      <c r="G101" s="111"/>
+      <c r="H101" s="111"/>
+      <c r="I101" s="111"/>
+      <c r="J101" s="111"/>
+      <c r="K101" s="111"/>
+      <c r="L101" s="111"/>
+      <c r="M101" s="111"/>
+      <c r="N101" s="111"/>
+      <c r="O101" s="111"/>
+      <c r="P101" s="111"/>
+      <c r="Q101" s="111"/>
+      <c r="R101" s="111"/>
       <c r="S101" s="92"/>
       <c r="V101" s="60"/>
     </row>
@@ -11059,45 +10907,45 @@
     <row r="104" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B104" s="56"/>
       <c r="D104" s="82" t="s">
-        <v>554</v>
+        <v>753</v>
       </c>
       <c r="E104" s="82" t="s">
-        <v>760</v>
+        <v>841</v>
       </c>
       <c r="F104" s="82" t="s">
-        <v>617</v>
+        <v>677</v>
       </c>
       <c r="G104" s="82" t="s">
-        <v>619</v>
+        <v>679</v>
       </c>
       <c r="H104" s="82" t="s">
-        <v>621</v>
+        <v>681</v>
       </c>
       <c r="I104" s="82" t="s">
-        <v>623</v>
+        <v>683</v>
       </c>
       <c r="J104" s="82" t="s">
-        <v>625</v>
+        <v>685</v>
       </c>
       <c r="K104" s="82" t="s">
-        <v>627</v>
+        <v>687</v>
       </c>
       <c r="L104" s="82"/>
       <c r="M104" s="82" t="s">
-        <v>300</v>
+        <v>726</v>
       </c>
       <c r="N104" s="82" t="s">
-        <v>310</v>
+        <v>843</v>
       </c>
       <c r="O104" s="82" t="s">
-        <v>559</v>
+        <v>844</v>
       </c>
       <c r="P104" s="82" t="s">
-        <v>764</v>
+        <v>846</v>
       </c>
       <c r="Q104" s="82"/>
       <c r="R104" s="82" t="s">
-        <v>300</v>
+        <v>726</v>
       </c>
       <c r="S104" s="91"/>
       <c r="V104" s="60"/>
@@ -11107,49 +10955,49 @@
         <f>B101+1</f>
         <v>26</v>
       </c>
-      <c r="D105" s="97" t="s">
-        <v>576</v>
-      </c>
-      <c r="E105" s="97" t="s">
-        <v>848</v>
-      </c>
-      <c r="F105" s="97" t="s">
-        <v>566</v>
-      </c>
-      <c r="G105" s="98" t="s">
-        <v>567</v>
-      </c>
-      <c r="H105" s="97" t="s">
-        <v>568</v>
-      </c>
-      <c r="I105" s="97" t="s">
-        <v>569</v>
-      </c>
-      <c r="J105" s="102" t="s">
-        <v>570</v>
-      </c>
-      <c r="K105" s="97" t="s">
-        <v>571</v>
-      </c>
-      <c r="L105" s="97" t="s">
+      <c r="D105" s="111" t="s">
+        <v>561</v>
+      </c>
+      <c r="E105" s="111" t="s">
+        <v>650</v>
+      </c>
+      <c r="F105" s="111" t="s">
+        <v>551</v>
+      </c>
+      <c r="G105" s="113" t="s">
+        <v>552</v>
+      </c>
+      <c r="H105" s="111" t="s">
+        <v>553</v>
+      </c>
+      <c r="I105" s="111" t="s">
+        <v>554</v>
+      </c>
+      <c r="J105" s="111" t="s">
+        <v>555</v>
+      </c>
+      <c r="K105" s="111" t="s">
+        <v>556</v>
+      </c>
+      <c r="L105" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="M105" s="97" t="s">
+      <c r="M105" s="111" t="s">
         <v>191</v>
       </c>
-      <c r="N105" s="97" t="s">
+      <c r="N105" s="111" t="s">
         <v>195</v>
       </c>
-      <c r="O105" s="99" t="s">
-        <v>596</v>
-      </c>
-      <c r="P105" s="97" t="s">
-        <v>597</v>
-      </c>
-      <c r="Q105" s="97" t="s">
+      <c r="O105" s="114" t="s">
+        <v>581</v>
+      </c>
+      <c r="P105" s="111" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q105" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="R105" s="97" t="s">
+      <c r="R105" s="111" t="s">
         <v>191</v>
       </c>
       <c r="S105" s="92"/>
@@ -11158,45 +11006,45 @@
     <row r="106" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B106" s="58"/>
       <c r="D106" s="83" t="s">
-        <v>690</v>
+        <v>754</v>
       </c>
       <c r="E106" s="83" t="s">
-        <v>761</v>
+        <v>842</v>
       </c>
       <c r="F106" s="83" t="s">
-        <v>618</v>
+        <v>678</v>
       </c>
       <c r="G106" s="83" t="s">
-        <v>620</v>
+        <v>680</v>
       </c>
       <c r="H106" s="83" t="s">
-        <v>622</v>
+        <v>682</v>
       </c>
       <c r="I106" s="83" t="s">
-        <v>624</v>
+        <v>684</v>
       </c>
       <c r="J106" s="83" t="s">
-        <v>626</v>
+        <v>686</v>
       </c>
       <c r="K106" s="83" t="s">
-        <v>628</v>
+        <v>688</v>
       </c>
       <c r="L106" s="83"/>
       <c r="M106" s="83" t="s">
-        <v>666</v>
+        <v>382</v>
       </c>
       <c r="N106" s="83" t="s">
-        <v>762</v>
+        <v>396</v>
       </c>
       <c r="O106" s="83" t="s">
-        <v>763</v>
+        <v>845</v>
       </c>
       <c r="P106" s="83" t="s">
-        <v>765</v>
+        <v>847</v>
       </c>
       <c r="Q106" s="83"/>
       <c r="R106" s="83" t="s">
-        <v>666</v>
+        <v>382</v>
       </c>
       <c r="S106" s="94"/>
       <c r="V106" s="60"/>
@@ -11224,42 +11072,42 @@
     <row r="108" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B108" s="56"/>
       <c r="D108" s="82" t="s">
-        <v>310</v>
+        <v>843</v>
       </c>
       <c r="E108" s="82" t="s">
-        <v>715</v>
+        <v>781</v>
       </c>
       <c r="F108" s="82" t="s">
-        <v>764</v>
+        <v>846</v>
       </c>
       <c r="G108" s="82"/>
       <c r="H108" s="82" t="s">
-        <v>300</v>
+        <v>726</v>
       </c>
       <c r="I108" s="82" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="J108" s="82" t="s">
-        <v>284</v>
+        <v>848</v>
       </c>
       <c r="K108" s="82" t="s">
-        <v>764</v>
+        <v>846</v>
       </c>
       <c r="L108" s="82"/>
       <c r="M108" s="82" t="s">
-        <v>300</v>
+        <v>726</v>
       </c>
       <c r="N108" s="82" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="O108" s="82" t="s">
-        <v>767</v>
+        <v>849</v>
       </c>
       <c r="P108" s="82" t="s">
-        <v>767</v>
+        <v>849</v>
       </c>
       <c r="Q108" s="82" t="s">
-        <v>764</v>
+        <v>846</v>
       </c>
       <c r="R108" s="82"/>
       <c r="S108" s="91"/>
@@ -11270,49 +11118,49 @@
         <f>B105+1</f>
         <v>27</v>
       </c>
-      <c r="D109" s="97" t="s">
+      <c r="D109" s="111" t="s">
         <v>195</v>
       </c>
-      <c r="E109" s="97" t="s">
-        <v>577</v>
-      </c>
-      <c r="F109" s="97" t="s">
-        <v>597</v>
-      </c>
-      <c r="G109" s="97" t="s">
+      <c r="E109" s="111" t="s">
+        <v>562</v>
+      </c>
+      <c r="F109" s="111" t="s">
+        <v>582</v>
+      </c>
+      <c r="G109" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="H109" s="97" t="s">
+      <c r="H109" s="111" t="s">
         <v>191</v>
       </c>
-      <c r="I109" s="97" t="s">
+      <c r="I109" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="J109" s="97" t="s">
+      <c r="J109" s="111" t="s">
         <v>225</v>
       </c>
-      <c r="K109" s="97" t="s">
-        <v>597</v>
-      </c>
-      <c r="L109" s="97" t="s">
+      <c r="K109" s="111" t="s">
+        <v>582</v>
+      </c>
+      <c r="L109" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="M109" s="97" t="s">
+      <c r="M109" s="111" t="s">
         <v>191</v>
       </c>
-      <c r="N109" s="97" t="s">
+      <c r="N109" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="O109" s="97" t="s">
-        <v>598</v>
-      </c>
-      <c r="P109" s="97" t="s">
-        <v>598</v>
-      </c>
-      <c r="Q109" s="97" t="s">
-        <v>597</v>
-      </c>
-      <c r="R109" s="97" t="s">
+      <c r="O109" s="111" t="s">
+        <v>583</v>
+      </c>
+      <c r="P109" s="111" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q109" s="111" t="s">
+        <v>582</v>
+      </c>
+      <c r="R109" s="111" t="s">
         <v>186</v>
       </c>
       <c r="S109" s="92"/>
@@ -11321,42 +11169,42 @@
     <row r="110" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B110" s="58"/>
       <c r="D110" s="83" t="s">
-        <v>762</v>
+        <v>396</v>
       </c>
       <c r="E110" s="83" t="s">
-        <v>716</v>
+        <v>782</v>
       </c>
       <c r="F110" s="83" t="s">
-        <v>765</v>
+        <v>847</v>
       </c>
       <c r="G110" s="83"/>
       <c r="H110" s="83" t="s">
-        <v>666</v>
+        <v>382</v>
       </c>
       <c r="I110" s="83" t="s">
-        <v>692</v>
+        <v>758</v>
       </c>
       <c r="J110" s="83" t="s">
-        <v>766</v>
+        <v>359</v>
       </c>
       <c r="K110" s="83" t="s">
-        <v>765</v>
+        <v>847</v>
       </c>
       <c r="L110" s="83"/>
       <c r="M110" s="83" t="s">
-        <v>666</v>
+        <v>382</v>
       </c>
       <c r="N110" s="83" t="s">
-        <v>692</v>
+        <v>758</v>
       </c>
       <c r="O110" s="83" t="s">
-        <v>768</v>
+        <v>850</v>
       </c>
       <c r="P110" s="83" t="s">
-        <v>768</v>
+        <v>850</v>
       </c>
       <c r="Q110" s="83" t="s">
-        <v>765</v>
+        <v>847</v>
       </c>
       <c r="R110" s="83"/>
       <c r="S110" s="94"/>
@@ -11385,32 +11233,32 @@
     <row r="112" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B112" s="56"/>
       <c r="D112" s="82" t="s">
-        <v>283</v>
+        <v>851</v>
       </c>
       <c r="E112" s="82" t="s">
-        <v>770</v>
+        <v>852</v>
       </c>
       <c r="F112" s="82" t="s">
-        <v>263</v>
+        <v>705</v>
       </c>
       <c r="G112" s="82" t="s">
-        <v>646</v>
+        <v>706</v>
       </c>
       <c r="H112" s="82" t="s">
-        <v>648</v>
+        <v>708</v>
       </c>
       <c r="I112" s="82"/>
       <c r="J112" s="82" t="s">
-        <v>772</v>
+        <v>854</v>
       </c>
       <c r="K112" s="82" t="s">
-        <v>774</v>
+        <v>856</v>
       </c>
       <c r="L112" s="82" t="s">
-        <v>660</v>
+        <v>720</v>
       </c>
       <c r="M112" s="82" t="s">
-        <v>776</v>
+        <v>858</v>
       </c>
       <c r="N112" s="82"/>
       <c r="O112" s="82"/>
@@ -11425,75 +11273,79 @@
         <f>B109+1</f>
         <v>28</v>
       </c>
-      <c r="D113" s="97" t="s">
+      <c r="D113" s="111" t="s">
         <v>202</v>
       </c>
-      <c r="E113" s="97" t="s">
-        <v>849</v>
-      </c>
-      <c r="F113" s="97" t="s">
+      <c r="E113" s="111" t="s">
+        <v>651</v>
+      </c>
+      <c r="F113" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="G113" s="97" t="s">
-        <v>802</v>
-      </c>
-      <c r="H113" s="97" t="s">
-        <v>803</v>
-      </c>
-      <c r="I113" s="97" t="s">
-        <v>807</v>
-      </c>
-      <c r="J113" s="97" t="s">
-        <v>850</v>
-      </c>
-      <c r="K113" s="97" t="s">
-        <v>851</v>
-      </c>
-      <c r="L113" s="97" t="s">
-        <v>809</v>
-      </c>
-      <c r="M113" s="97" t="s">
-        <v>852</v>
-      </c>
-      <c r="N113" s="97" t="s">
-        <v>807</v>
-      </c>
-      <c r="O113" s="99"/>
-      <c r="P113" s="97"/>
-      <c r="Q113" s="97"/>
-      <c r="R113" s="97"/>
+      <c r="G113" s="111" t="s">
+        <v>604</v>
+      </c>
+      <c r="H113" s="111" t="s">
+        <v>605</v>
+      </c>
+      <c r="I113" s="111" t="s">
+        <v>609</v>
+      </c>
+      <c r="J113" s="111" t="s">
+        <v>652</v>
+      </c>
+      <c r="K113" s="111" t="s">
+        <v>653</v>
+      </c>
+      <c r="L113" s="111" t="s">
+        <v>611</v>
+      </c>
+      <c r="M113" s="111" t="s">
+        <v>654</v>
+      </c>
+      <c r="N113" s="111" t="s">
+        <v>609</v>
+      </c>
+      <c r="O113" s="114" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="P113" s="111"/>
+      <c r="Q113" s="111"/>
+      <c r="R113" s="111"/>
       <c r="S113" s="92"/>
       <c r="V113" s="60"/>
     </row>
     <row r="114" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B114" s="58"/>
       <c r="D114" s="83" t="s">
-        <v>769</v>
+        <v>358</v>
       </c>
       <c r="E114" s="83" t="s">
-        <v>771</v>
+        <v>853</v>
       </c>
       <c r="F114" s="83" t="s">
-        <v>645</v>
+        <v>378</v>
       </c>
       <c r="G114" s="83" t="s">
-        <v>647</v>
+        <v>707</v>
       </c>
       <c r="H114" s="83" t="s">
-        <v>649</v>
+        <v>709</v>
       </c>
       <c r="I114" s="83"/>
       <c r="J114" s="83" t="s">
-        <v>773</v>
+        <v>855</v>
       </c>
       <c r="K114" s="83" t="s">
-        <v>775</v>
+        <v>857</v>
       </c>
       <c r="L114" s="83" t="s">
-        <v>661</v>
+        <v>721</v>
       </c>
       <c r="M114" s="83" t="s">
-        <v>777</v>
+        <v>859</v>
       </c>
       <c r="N114" s="83"/>
       <c r="O114" s="83"/>
@@ -11548,21 +11400,25 @@
         <f>B113+1</f>
         <v>29</v>
       </c>
-      <c r="D117" s="97"/>
-      <c r="E117" s="97"/>
-      <c r="F117" s="98"/>
-      <c r="G117" s="98"/>
-      <c r="H117" s="97"/>
-      <c r="I117" s="97"/>
-      <c r="J117" s="97"/>
-      <c r="K117" s="97"/>
-      <c r="L117" s="97"/>
-      <c r="M117" s="97"/>
-      <c r="N117" s="97"/>
-      <c r="O117" s="97"/>
-      <c r="P117" s="97"/>
-      <c r="Q117" s="97"/>
-      <c r="R117" s="97"/>
+      <c r="D117" s="111" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="E117" s="111"/>
+      <c r="F117" s="113"/>
+      <c r="G117" s="113"/>
+      <c r="H117" s="111"/>
+      <c r="I117" s="111"/>
+      <c r="J117" s="111"/>
+      <c r="K117" s="111"/>
+      <c r="L117" s="111"/>
+      <c r="M117" s="111"/>
+      <c r="N117" s="111"/>
+      <c r="O117" s="111"/>
+      <c r="P117" s="111"/>
+      <c r="Q117" s="111"/>
+      <c r="R117" s="111"/>
       <c r="S117" s="92"/>
       <c r="V117" s="60"/>
     </row>
@@ -11609,44 +11465,44 @@
     <row r="120" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B120" s="56"/>
       <c r="D120" s="82" t="s">
-        <v>554</v>
+        <v>753</v>
       </c>
       <c r="E120" s="82" t="s">
-        <v>778</v>
+        <v>860</v>
       </c>
       <c r="F120" s="82" t="s">
-        <v>617</v>
+        <v>677</v>
       </c>
       <c r="G120" s="82" t="s">
-        <v>619</v>
+        <v>679</v>
       </c>
       <c r="H120" s="82" t="s">
-        <v>621</v>
+        <v>681</v>
       </c>
       <c r="I120" s="82" t="s">
-        <v>623</v>
+        <v>683</v>
       </c>
       <c r="J120" s="82" t="s">
-        <v>625</v>
+        <v>685</v>
       </c>
       <c r="K120" s="82" t="s">
-        <v>627</v>
+        <v>687</v>
       </c>
       <c r="L120" s="82" t="s">
-        <v>764</v>
+        <v>846</v>
       </c>
       <c r="M120" s="82"/>
       <c r="N120" s="82" t="s">
-        <v>664</v>
+        <v>724</v>
       </c>
       <c r="O120" s="82" t="s">
-        <v>778</v>
+        <v>860</v>
       </c>
       <c r="P120" s="82" t="s">
-        <v>764</v>
+        <v>846</v>
       </c>
       <c r="Q120" s="82" t="s">
-        <v>780</v>
+        <v>862</v>
       </c>
       <c r="R120" s="82"/>
       <c r="S120" s="91"/>
@@ -11657,50 +11513,50 @@
         <f>B117+1</f>
         <v>30</v>
       </c>
-      <c r="D121" s="97" t="s">
-        <v>576</v>
-      </c>
-      <c r="E121" s="97" t="s">
-        <v>599</v>
-      </c>
-      <c r="F121" s="97" t="s">
-        <v>566</v>
-      </c>
-      <c r="G121" s="98" t="s">
-        <v>567</v>
-      </c>
-      <c r="H121" s="97" t="s">
-        <v>568</v>
-      </c>
-      <c r="I121" s="97" t="s">
-        <v>569</v>
-      </c>
-      <c r="J121" s="102" t="s">
-        <v>570</v>
-      </c>
-      <c r="K121" s="97" t="s">
-        <v>571</v>
-      </c>
-      <c r="L121" s="97" t="s">
-        <v>597</v>
-      </c>
-      <c r="M121" s="97" t="s">
+      <c r="D121" s="111" t="s">
+        <v>561</v>
+      </c>
+      <c r="E121" s="111" t="s">
+        <v>584</v>
+      </c>
+      <c r="F121" s="111" t="s">
+        <v>551</v>
+      </c>
+      <c r="G121" s="113" t="s">
+        <v>552</v>
+      </c>
+      <c r="H121" s="111" t="s">
+        <v>553</v>
+      </c>
+      <c r="I121" s="111" t="s">
+        <v>554</v>
+      </c>
+      <c r="J121" s="111" t="s">
+        <v>555</v>
+      </c>
+      <c r="K121" s="111" t="s">
+        <v>556</v>
+      </c>
+      <c r="L121" s="111" t="s">
+        <v>582</v>
+      </c>
+      <c r="M121" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="N121" s="97" t="s">
-        <v>573</v>
-      </c>
-      <c r="O121" s="97" t="s">
-        <v>599</v>
-      </c>
-      <c r="P121" s="97" t="s">
-        <v>597</v>
-      </c>
-      <c r="Q121" s="97" t="s">
-        <v>600</v>
-      </c>
-      <c r="R121" s="97" t="s">
-        <v>595</v>
+      <c r="N121" s="111" t="s">
+        <v>558</v>
+      </c>
+      <c r="O121" s="111" t="s">
+        <v>584</v>
+      </c>
+      <c r="P121" s="111" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q121" s="111" t="s">
+        <v>585</v>
+      </c>
+      <c r="R121" s="111" t="s">
+        <v>580</v>
       </c>
       <c r="S121" s="92"/>
       <c r="V121" s="60"/>
@@ -11708,44 +11564,44 @@
     <row r="122" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B122" s="58"/>
       <c r="D122" s="83" t="s">
-        <v>690</v>
+        <v>754</v>
       </c>
       <c r="E122" s="83" t="s">
-        <v>779</v>
+        <v>861</v>
       </c>
       <c r="F122" s="83" t="s">
-        <v>618</v>
+        <v>678</v>
       </c>
       <c r="G122" s="83" t="s">
-        <v>620</v>
+        <v>680</v>
       </c>
       <c r="H122" s="83" t="s">
-        <v>622</v>
+        <v>682</v>
       </c>
       <c r="I122" s="83" t="s">
-        <v>624</v>
+        <v>684</v>
       </c>
       <c r="J122" s="83" t="s">
-        <v>626</v>
+        <v>686</v>
       </c>
       <c r="K122" s="83" t="s">
-        <v>628</v>
+        <v>688</v>
       </c>
       <c r="L122" s="83" t="s">
-        <v>765</v>
+        <v>847</v>
       </c>
       <c r="M122" s="83"/>
       <c r="N122" s="83" t="s">
-        <v>665</v>
+        <v>725</v>
       </c>
       <c r="O122" s="83" t="s">
-        <v>779</v>
+        <v>861</v>
       </c>
       <c r="P122" s="83" t="s">
-        <v>765</v>
+        <v>847</v>
       </c>
       <c r="Q122" s="83" t="s">
-        <v>781</v>
+        <v>863</v>
       </c>
       <c r="R122" s="83"/>
       <c r="S122" s="94"/>
@@ -11774,43 +11630,43 @@
     <row r="124" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B124" s="56"/>
       <c r="D124" s="82" t="s">
-        <v>787</v>
+        <v>864</v>
       </c>
       <c r="E124" s="82" t="s">
-        <v>285</v>
+        <v>866</v>
       </c>
       <c r="F124" s="82"/>
       <c r="G124" s="82" t="s">
-        <v>787</v>
+        <v>864</v>
       </c>
       <c r="H124" s="82" t="s">
-        <v>285</v>
+        <v>866</v>
       </c>
       <c r="I124" s="82"/>
       <c r="J124" s="82" t="s">
-        <v>621</v>
+        <v>681</v>
       </c>
       <c r="K124" s="82" t="s">
-        <v>623</v>
+        <v>683</v>
       </c>
       <c r="L124" s="82" t="s">
-        <v>787</v>
+        <v>864</v>
       </c>
       <c r="M124" s="82" t="s">
-        <v>285</v>
+        <v>866</v>
       </c>
       <c r="N124" s="82"/>
       <c r="O124" s="82" t="s">
-        <v>621</v>
+        <v>681</v>
       </c>
       <c r="P124" s="82" t="s">
-        <v>623</v>
+        <v>683</v>
       </c>
       <c r="Q124" s="82" t="s">
-        <v>686</v>
+        <v>749</v>
       </c>
       <c r="R124" s="82" t="s">
-        <v>787</v>
+        <v>864</v>
       </c>
       <c r="S124" s="91"/>
       <c r="V124" s="60"/>
@@ -11820,50 +11676,50 @@
         <f>B121+1</f>
         <v>31</v>
       </c>
-      <c r="D125" s="97" t="s">
-        <v>601</v>
-      </c>
-      <c r="E125" s="97" t="s">
-        <v>602</v>
-      </c>
-      <c r="F125" s="97" t="s">
+      <c r="D125" s="111" t="s">
+        <v>586</v>
+      </c>
+      <c r="E125" s="111" t="s">
+        <v>587</v>
+      </c>
+      <c r="F125" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="G125" s="98" t="s">
-        <v>601</v>
-      </c>
-      <c r="H125" s="97" t="s">
-        <v>602</v>
-      </c>
-      <c r="I125" s="97" t="s">
+      <c r="G125" s="113" t="s">
+        <v>586</v>
+      </c>
+      <c r="H125" s="111" t="s">
+        <v>587</v>
+      </c>
+      <c r="I125" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="J125" s="97" t="s">
-        <v>568</v>
-      </c>
-      <c r="K125" s="97" t="s">
-        <v>569</v>
-      </c>
-      <c r="L125" s="97" t="s">
-        <v>601</v>
-      </c>
-      <c r="M125" s="97" t="s">
-        <v>602</v>
-      </c>
-      <c r="N125" s="97" t="s">
+      <c r="J125" s="111" t="s">
+        <v>553</v>
+      </c>
+      <c r="K125" s="111" t="s">
+        <v>554</v>
+      </c>
+      <c r="L125" s="111" t="s">
+        <v>586</v>
+      </c>
+      <c r="M125" s="111" t="s">
+        <v>587</v>
+      </c>
+      <c r="N125" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="O125" s="97" t="s">
-        <v>568</v>
-      </c>
-      <c r="P125" s="97" t="s">
-        <v>569</v>
-      </c>
-      <c r="Q125" s="97" t="s">
-        <v>603</v>
-      </c>
-      <c r="R125" s="97" t="s">
-        <v>601</v>
+      <c r="O125" s="111" t="s">
+        <v>553</v>
+      </c>
+      <c r="P125" s="111" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q125" s="111" t="s">
+        <v>588</v>
+      </c>
+      <c r="R125" s="111" t="s">
+        <v>586</v>
       </c>
       <c r="S125" s="92"/>
       <c r="V125" s="60"/>
@@ -11871,43 +11727,43 @@
     <row r="126" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B126" s="58"/>
       <c r="D126" s="83" t="s">
-        <v>788</v>
+        <v>865</v>
       </c>
       <c r="E126" s="83" t="s">
-        <v>782</v>
+        <v>360</v>
       </c>
       <c r="F126" s="83"/>
       <c r="G126" s="83" t="s">
-        <v>788</v>
+        <v>865</v>
       </c>
       <c r="H126" s="83" t="s">
-        <v>782</v>
+        <v>360</v>
       </c>
       <c r="I126" s="83"/>
       <c r="J126" s="83" t="s">
-        <v>622</v>
+        <v>682</v>
       </c>
       <c r="K126" s="83" t="s">
-        <v>624</v>
+        <v>684</v>
       </c>
       <c r="L126" s="83" t="s">
-        <v>788</v>
+        <v>865</v>
       </c>
       <c r="M126" s="83" t="s">
-        <v>782</v>
+        <v>360</v>
       </c>
       <c r="N126" s="83"/>
       <c r="O126" s="83" t="s">
-        <v>622</v>
+        <v>682</v>
       </c>
       <c r="P126" s="83" t="s">
-        <v>624</v>
+        <v>684</v>
       </c>
       <c r="Q126" s="83" t="s">
-        <v>687</v>
+        <v>750</v>
       </c>
       <c r="R126" s="83" t="s">
-        <v>788</v>
+        <v>865</v>
       </c>
       <c r="S126" s="94"/>
       <c r="V126" s="60"/>
@@ -11935,23 +11791,23 @@
     <row r="128" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B128" s="56"/>
       <c r="D128" s="82" t="s">
-        <v>285</v>
+        <v>866</v>
       </c>
       <c r="E128" s="82"/>
       <c r="F128" s="82" t="s">
-        <v>611</v>
+        <v>669</v>
       </c>
       <c r="G128" s="82" t="s">
-        <v>730</v>
+        <v>800</v>
       </c>
       <c r="H128" s="82" t="s">
-        <v>613</v>
+        <v>671</v>
       </c>
       <c r="I128" s="82" t="s">
-        <v>783</v>
+        <v>867</v>
       </c>
       <c r="J128" s="82" t="s">
-        <v>785</v>
+        <v>869</v>
       </c>
       <c r="K128" s="82"/>
       <c r="L128" s="82"/>
@@ -11969,60 +11825,60 @@
         <f>B125+1</f>
         <v>32</v>
       </c>
-      <c r="D129" s="97" t="s">
-        <v>602</v>
-      </c>
-      <c r="E129" s="97" t="s">
+      <c r="D129" s="111" t="s">
+        <v>587</v>
+      </c>
+      <c r="E129" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="F129" s="97" t="s">
-        <v>564</v>
-      </c>
-      <c r="G129" s="97" t="s">
+      <c r="F129" s="111" t="s">
+        <v>549</v>
+      </c>
+      <c r="G129" s="111" t="s">
         <v>254</v>
       </c>
-      <c r="H129" s="97" t="s">
-        <v>565</v>
-      </c>
-      <c r="I129" s="97" t="s">
-        <v>604</v>
-      </c>
-      <c r="J129" s="97" t="s">
-        <v>605</v>
-      </c>
-      <c r="K129" s="97" t="s">
-        <v>807</v>
-      </c>
-      <c r="L129" s="97"/>
-      <c r="M129" s="97"/>
-      <c r="N129" s="97"/>
-      <c r="O129" s="97"/>
-      <c r="P129" s="97"/>
-      <c r="Q129" s="97"/>
-      <c r="R129" s="97"/>
+      <c r="H129" s="111" t="s">
+        <v>550</v>
+      </c>
+      <c r="I129" s="111" t="s">
+        <v>589</v>
+      </c>
+      <c r="J129" s="111" t="s">
+        <v>590</v>
+      </c>
+      <c r="K129" s="111" t="s">
+        <v>609</v>
+      </c>
+      <c r="L129" s="111"/>
+      <c r="M129" s="111"/>
+      <c r="N129" s="111"/>
+      <c r="O129" s="111"/>
+      <c r="P129" s="111"/>
+      <c r="Q129" s="111"/>
+      <c r="R129" s="111"/>
       <c r="S129" s="92"/>
       <c r="V129" s="60"/>
     </row>
     <row r="130" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B130" s="58"/>
       <c r="D130" s="83" t="s">
-        <v>782</v>
+        <v>360</v>
       </c>
       <c r="E130" s="83"/>
       <c r="F130" s="83" t="s">
-        <v>612</v>
+        <v>670</v>
       </c>
       <c r="G130" s="83" t="s">
-        <v>731</v>
+        <v>801</v>
       </c>
       <c r="H130" s="83" t="s">
-        <v>614</v>
+        <v>672</v>
       </c>
       <c r="I130" s="83" t="s">
-        <v>784</v>
+        <v>868</v>
       </c>
       <c r="J130" s="83" t="s">
-        <v>786</v>
+        <v>870</v>
       </c>
       <c r="K130" s="83"/>
       <c r="L130" s="83"/>
@@ -12080,21 +11936,21 @@
         <f>B129+1</f>
         <v>33</v>
       </c>
-      <c r="D133" s="97"/>
-      <c r="E133" s="97"/>
-      <c r="F133" s="97"/>
-      <c r="G133" s="98"/>
-      <c r="H133" s="97"/>
-      <c r="I133" s="97"/>
-      <c r="J133" s="97"/>
-      <c r="K133" s="97"/>
-      <c r="L133" s="97"/>
-      <c r="M133" s="97"/>
-      <c r="N133" s="97"/>
-      <c r="O133" s="97"/>
-      <c r="P133" s="97"/>
-      <c r="Q133" s="97"/>
-      <c r="R133" s="97"/>
+      <c r="D133" s="111"/>
+      <c r="E133" s="111"/>
+      <c r="F133" s="111"/>
+      <c r="G133" s="113"/>
+      <c r="H133" s="111"/>
+      <c r="I133" s="111"/>
+      <c r="J133" s="111"/>
+      <c r="K133" s="111"/>
+      <c r="L133" s="111"/>
+      <c r="M133" s="111"/>
+      <c r="N133" s="111"/>
+      <c r="O133" s="111"/>
+      <c r="P133" s="111"/>
+      <c r="Q133" s="111"/>
+      <c r="R133" s="111"/>
       <c r="S133" s="92"/>
       <c r="V133" s="60"/>
     </row>
@@ -12163,21 +12019,21 @@
         <f>B133+1</f>
         <v>34</v>
       </c>
-      <c r="D137" s="97"/>
-      <c r="E137" s="97"/>
-      <c r="F137" s="97"/>
-      <c r="G137" s="97"/>
-      <c r="H137" s="97"/>
-      <c r="I137" s="97"/>
-      <c r="J137" s="97"/>
-      <c r="K137" s="97"/>
-      <c r="L137" s="97"/>
-      <c r="M137" s="97"/>
-      <c r="N137" s="97"/>
-      <c r="O137" s="97"/>
-      <c r="P137" s="97"/>
-      <c r="Q137" s="97"/>
-      <c r="R137" s="97"/>
+      <c r="D137" s="111"/>
+      <c r="E137" s="111"/>
+      <c r="F137" s="111"/>
+      <c r="G137" s="111"/>
+      <c r="H137" s="111"/>
+      <c r="I137" s="111"/>
+      <c r="J137" s="111"/>
+      <c r="K137" s="111"/>
+      <c r="L137" s="111"/>
+      <c r="M137" s="111"/>
+      <c r="N137" s="111"/>
+      <c r="O137" s="111"/>
+      <c r="P137" s="111"/>
+      <c r="Q137" s="111"/>
+      <c r="R137" s="111"/>
       <c r="S137" s="92"/>
       <c r="V137" s="60"/>
     </row>
@@ -12246,21 +12102,21 @@
         <f>B137+1</f>
         <v>35</v>
       </c>
-      <c r="D141" s="97"/>
-      <c r="E141" s="97"/>
-      <c r="F141" s="97"/>
-      <c r="G141" s="98"/>
-      <c r="H141" s="97"/>
-      <c r="I141" s="97"/>
-      <c r="J141" s="97"/>
-      <c r="K141" s="97"/>
-      <c r="L141" s="97"/>
-      <c r="M141" s="97"/>
-      <c r="N141" s="97"/>
-      <c r="O141" s="97"/>
-      <c r="P141" s="97"/>
-      <c r="Q141" s="97"/>
-      <c r="R141" s="97"/>
+      <c r="D141" s="111"/>
+      <c r="E141" s="111"/>
+      <c r="F141" s="111"/>
+      <c r="G141" s="113"/>
+      <c r="H141" s="111"/>
+      <c r="I141" s="111"/>
+      <c r="J141" s="111"/>
+      <c r="K141" s="111"/>
+      <c r="L141" s="111"/>
+      <c r="M141" s="111"/>
+      <c r="N141" s="111"/>
+      <c r="O141" s="111"/>
+      <c r="P141" s="111"/>
+      <c r="Q141" s="111"/>
+      <c r="R141" s="111"/>
       <c r="S141" s="92"/>
       <c r="V141" s="60"/>
     </row>
@@ -12329,21 +12185,21 @@
         <f>B141+1</f>
         <v>36</v>
       </c>
-      <c r="D145" s="97"/>
-      <c r="E145" s="97"/>
-      <c r="F145" s="97"/>
-      <c r="G145" s="98"/>
-      <c r="H145" s="97"/>
-      <c r="I145" s="97"/>
-      <c r="J145" s="97"/>
-      <c r="K145" s="97"/>
-      <c r="L145" s="97"/>
-      <c r="M145" s="97"/>
-      <c r="N145" s="97"/>
-      <c r="O145" s="97"/>
-      <c r="P145" s="97"/>
-      <c r="Q145" s="97"/>
-      <c r="R145" s="97"/>
+      <c r="D145" s="111"/>
+      <c r="E145" s="111"/>
+      <c r="F145" s="111"/>
+      <c r="G145" s="113"/>
+      <c r="H145" s="111"/>
+      <c r="I145" s="111"/>
+      <c r="J145" s="111"/>
+      <c r="K145" s="111"/>
+      <c r="L145" s="111"/>
+      <c r="M145" s="111"/>
+      <c r="N145" s="111"/>
+      <c r="O145" s="111"/>
+      <c r="P145" s="111"/>
+      <c r="Q145" s="111"/>
+      <c r="R145" s="111"/>
       <c r="S145" s="92"/>
       <c r="V145" s="60"/>
     </row>
@@ -12412,21 +12268,21 @@
         <f>B145+1</f>
         <v>37</v>
       </c>
-      <c r="D149" s="97"/>
-      <c r="E149" s="97"/>
-      <c r="F149" s="97"/>
-      <c r="G149" s="97"/>
-      <c r="H149" s="97"/>
-      <c r="I149" s="97"/>
-      <c r="J149" s="97"/>
-      <c r="K149" s="97"/>
-      <c r="L149" s="97"/>
-      <c r="M149" s="97"/>
-      <c r="N149" s="97"/>
-      <c r="O149" s="97"/>
-      <c r="P149" s="97"/>
-      <c r="Q149" s="97"/>
-      <c r="R149" s="97"/>
+      <c r="D149" s="111"/>
+      <c r="E149" s="111"/>
+      <c r="F149" s="111"/>
+      <c r="G149" s="111"/>
+      <c r="H149" s="111"/>
+      <c r="I149" s="111"/>
+      <c r="J149" s="111"/>
+      <c r="K149" s="111"/>
+      <c r="L149" s="111"/>
+      <c r="M149" s="111"/>
+      <c r="N149" s="111"/>
+      <c r="O149" s="111"/>
+      <c r="P149" s="111"/>
+      <c r="Q149" s="111"/>
+      <c r="R149" s="111"/>
       <c r="S149" s="92"/>
       <c r="V149" s="60"/>
     </row>
@@ -12495,21 +12351,21 @@
         <f>B149+1</f>
         <v>38</v>
       </c>
-      <c r="D153" s="97"/>
-      <c r="E153" s="97"/>
-      <c r="F153" s="97"/>
-      <c r="G153" s="97"/>
-      <c r="H153" s="97"/>
-      <c r="I153" s="97"/>
-      <c r="J153" s="97"/>
-      <c r="K153" s="97"/>
-      <c r="L153" s="97"/>
-      <c r="M153" s="97"/>
-      <c r="N153" s="97"/>
-      <c r="O153" s="97"/>
-      <c r="P153" s="97"/>
-      <c r="Q153" s="97"/>
-      <c r="R153" s="97"/>
+      <c r="D153" s="111"/>
+      <c r="E153" s="111"/>
+      <c r="F153" s="111"/>
+      <c r="G153" s="111"/>
+      <c r="H153" s="111"/>
+      <c r="I153" s="111"/>
+      <c r="J153" s="111"/>
+      <c r="K153" s="111"/>
+      <c r="L153" s="111"/>
+      <c r="M153" s="111"/>
+      <c r="N153" s="111"/>
+      <c r="O153" s="111"/>
+      <c r="P153" s="111"/>
+      <c r="Q153" s="111"/>
+      <c r="R153" s="111"/>
       <c r="S153" s="92"/>
       <c r="V153" s="60"/>
     </row>
@@ -12578,21 +12434,21 @@
         <f>B153+1</f>
         <v>39</v>
       </c>
-      <c r="D157" s="97"/>
-      <c r="E157" s="97"/>
-      <c r="F157" s="97"/>
-      <c r="G157" s="97"/>
-      <c r="H157" s="97"/>
-      <c r="I157" s="97"/>
-      <c r="J157" s="97"/>
-      <c r="K157" s="97"/>
-      <c r="L157" s="97"/>
-      <c r="M157" s="97"/>
-      <c r="N157" s="97"/>
-      <c r="O157" s="97"/>
-      <c r="P157" s="97"/>
-      <c r="Q157" s="97"/>
-      <c r="R157" s="97"/>
+      <c r="D157" s="111"/>
+      <c r="E157" s="111"/>
+      <c r="F157" s="111"/>
+      <c r="G157" s="111"/>
+      <c r="H157" s="111"/>
+      <c r="I157" s="111"/>
+      <c r="J157" s="111"/>
+      <c r="K157" s="111"/>
+      <c r="L157" s="111"/>
+      <c r="M157" s="111"/>
+      <c r="N157" s="111"/>
+      <c r="O157" s="111"/>
+      <c r="P157" s="111"/>
+      <c r="Q157" s="111"/>
+      <c r="R157" s="111"/>
       <c r="S157" s="92"/>
       <c r="V157" s="60"/>
     </row>
@@ -12661,21 +12517,21 @@
         <f>B157+1</f>
         <v>40</v>
       </c>
-      <c r="D161" s="97"/>
-      <c r="E161" s="97"/>
-      <c r="F161" s="97"/>
-      <c r="G161" s="97"/>
-      <c r="H161" s="97"/>
-      <c r="I161" s="97"/>
-      <c r="J161" s="97"/>
-      <c r="K161" s="97"/>
-      <c r="L161" s="97"/>
-      <c r="M161" s="97"/>
-      <c r="N161" s="97"/>
-      <c r="O161" s="97"/>
-      <c r="P161" s="97"/>
-      <c r="Q161" s="97"/>
-      <c r="R161" s="97"/>
+      <c r="D161" s="111"/>
+      <c r="E161" s="111"/>
+      <c r="F161" s="111"/>
+      <c r="G161" s="111"/>
+      <c r="H161" s="111"/>
+      <c r="I161" s="111"/>
+      <c r="J161" s="111"/>
+      <c r="K161" s="111"/>
+      <c r="L161" s="111"/>
+      <c r="M161" s="111"/>
+      <c r="N161" s="111"/>
+      <c r="O161" s="111"/>
+      <c r="P161" s="111"/>
+      <c r="Q161" s="111"/>
+      <c r="R161" s="111"/>
       <c r="S161" s="92"/>
       <c r="V161" s="60"/>
     </row>
@@ -12744,21 +12600,21 @@
         <f>B161+1</f>
         <v>41</v>
       </c>
-      <c r="D165" s="97"/>
-      <c r="E165" s="97"/>
-      <c r="F165" s="97"/>
-      <c r="G165" s="97"/>
-      <c r="H165" s="97"/>
-      <c r="I165" s="97"/>
-      <c r="J165" s="97"/>
-      <c r="K165" s="97"/>
-      <c r="L165" s="97"/>
-      <c r="M165" s="97"/>
-      <c r="N165" s="97"/>
-      <c r="O165" s="97"/>
-      <c r="P165" s="97"/>
-      <c r="Q165" s="97"/>
-      <c r="R165" s="97"/>
+      <c r="D165" s="111"/>
+      <c r="E165" s="111"/>
+      <c r="F165" s="111"/>
+      <c r="G165" s="111"/>
+      <c r="H165" s="111"/>
+      <c r="I165" s="111"/>
+      <c r="J165" s="111"/>
+      <c r="K165" s="111"/>
+      <c r="L165" s="111"/>
+      <c r="M165" s="111"/>
+      <c r="N165" s="111"/>
+      <c r="O165" s="111"/>
+      <c r="P165" s="111"/>
+      <c r="Q165" s="111"/>
+      <c r="R165" s="111"/>
       <c r="S165" s="92"/>
       <c r="V165" s="60"/>
     </row>
@@ -12826,21 +12682,21 @@
         <v>42</v>
       </c>
       <c r="C169" s="1"/>
-      <c r="D169" s="97"/>
-      <c r="E169" s="97"/>
-      <c r="F169" s="97"/>
-      <c r="G169" s="97"/>
-      <c r="H169" s="97"/>
-      <c r="I169" s="97"/>
-      <c r="J169" s="97"/>
-      <c r="K169" s="97"/>
-      <c r="L169" s="97"/>
-      <c r="M169" s="97"/>
-      <c r="N169" s="97"/>
-      <c r="O169" s="97"/>
-      <c r="P169" s="97"/>
-      <c r="Q169" s="97"/>
-      <c r="R169" s="97"/>
+      <c r="D169" s="111"/>
+      <c r="E169" s="111"/>
+      <c r="F169" s="111"/>
+      <c r="G169" s="111"/>
+      <c r="H169" s="111"/>
+      <c r="I169" s="111"/>
+      <c r="J169" s="111"/>
+      <c r="K169" s="111"/>
+      <c r="L169" s="111"/>
+      <c r="M169" s="111"/>
+      <c r="N169" s="111"/>
+      <c r="O169" s="111"/>
+      <c r="P169" s="111"/>
+      <c r="Q169" s="111"/>
+      <c r="R169" s="111"/>
     </row>
     <row r="170" spans="2:22">
       <c r="B170" s="58"/>
@@ -12905,21 +12761,21 @@
         <v>43</v>
       </c>
       <c r="C173" s="1"/>
-      <c r="D173" s="97"/>
-      <c r="E173" s="97"/>
-      <c r="F173" s="97"/>
-      <c r="G173" s="98"/>
-      <c r="H173" s="97"/>
-      <c r="I173" s="97"/>
-      <c r="J173" s="97"/>
-      <c r="K173" s="97"/>
-      <c r="L173" s="97"/>
-      <c r="M173" s="97"/>
-      <c r="N173" s="97"/>
-      <c r="O173" s="97"/>
-      <c r="P173" s="97"/>
-      <c r="Q173" s="97"/>
-      <c r="R173" s="97"/>
+      <c r="D173" s="111"/>
+      <c r="E173" s="111"/>
+      <c r="F173" s="111"/>
+      <c r="G173" s="113"/>
+      <c r="H173" s="111"/>
+      <c r="I173" s="111"/>
+      <c r="J173" s="111"/>
+      <c r="K173" s="111"/>
+      <c r="L173" s="111"/>
+      <c r="M173" s="111"/>
+      <c r="N173" s="111"/>
+      <c r="O173" s="111"/>
+      <c r="P173" s="111"/>
+      <c r="Q173" s="111"/>
+      <c r="R173" s="111"/>
     </row>
     <row r="174" spans="2:22">
       <c r="B174" s="58"/>
@@ -12984,21 +12840,21 @@
         <v>44</v>
       </c>
       <c r="C177" s="1"/>
-      <c r="D177" s="97"/>
-      <c r="E177" s="97"/>
-      <c r="F177" s="97"/>
-      <c r="G177" s="97"/>
-      <c r="H177" s="97"/>
-      <c r="I177" s="97"/>
-      <c r="J177" s="97"/>
-      <c r="K177" s="97"/>
-      <c r="L177" s="97"/>
-      <c r="M177" s="97"/>
-      <c r="N177" s="97"/>
-      <c r="O177" s="97"/>
-      <c r="P177" s="97"/>
-      <c r="Q177" s="97"/>
-      <c r="R177" s="97"/>
+      <c r="D177" s="111"/>
+      <c r="E177" s="111"/>
+      <c r="F177" s="111"/>
+      <c r="G177" s="111"/>
+      <c r="H177" s="111"/>
+      <c r="I177" s="111"/>
+      <c r="J177" s="111"/>
+      <c r="K177" s="111"/>
+      <c r="L177" s="111"/>
+      <c r="M177" s="111"/>
+      <c r="N177" s="111"/>
+      <c r="O177" s="111"/>
+      <c r="P177" s="111"/>
+      <c r="Q177" s="111"/>
+      <c r="R177" s="111"/>
     </row>
     <row r="178" spans="2:18">
       <c r="B178" s="58"/>
@@ -13063,21 +12919,21 @@
         <v>45</v>
       </c>
       <c r="C181" s="1"/>
-      <c r="D181" s="97"/>
-      <c r="E181" s="97"/>
-      <c r="F181" s="97"/>
-      <c r="G181" s="98"/>
-      <c r="H181" s="97"/>
-      <c r="I181" s="97"/>
-      <c r="J181" s="97"/>
-      <c r="K181" s="97"/>
-      <c r="L181" s="97"/>
-      <c r="M181" s="97"/>
-      <c r="N181" s="97"/>
-      <c r="O181" s="97"/>
-      <c r="P181" s="97"/>
-      <c r="Q181" s="97"/>
-      <c r="R181" s="97"/>
+      <c r="D181" s="111"/>
+      <c r="E181" s="111"/>
+      <c r="F181" s="111"/>
+      <c r="G181" s="113"/>
+      <c r="H181" s="111"/>
+      <c r="I181" s="111"/>
+      <c r="J181" s="111"/>
+      <c r="K181" s="111"/>
+      <c r="L181" s="111"/>
+      <c r="M181" s="111"/>
+      <c r="N181" s="111"/>
+      <c r="O181" s="111"/>
+      <c r="P181" s="111"/>
+      <c r="Q181" s="111"/>
+      <c r="R181" s="111"/>
     </row>
     <row r="182" spans="2:18">
       <c r="B182" s="58"/>
@@ -13142,21 +12998,21 @@
         <v>46</v>
       </c>
       <c r="C185" s="1"/>
-      <c r="D185" s="97"/>
-      <c r="E185" s="97"/>
-      <c r="F185" s="97"/>
-      <c r="G185" s="97"/>
-      <c r="H185" s="97"/>
-      <c r="I185" s="97"/>
-      <c r="J185" s="97"/>
-      <c r="K185" s="97"/>
-      <c r="L185" s="97"/>
-      <c r="M185" s="97"/>
-      <c r="N185" s="97"/>
-      <c r="O185" s="97"/>
-      <c r="P185" s="97"/>
-      <c r="Q185" s="97"/>
-      <c r="R185" s="97"/>
+      <c r="D185" s="111"/>
+      <c r="E185" s="111"/>
+      <c r="F185" s="111"/>
+      <c r="G185" s="111"/>
+      <c r="H185" s="111"/>
+      <c r="I185" s="111"/>
+      <c r="J185" s="111"/>
+      <c r="K185" s="111"/>
+      <c r="L185" s="111"/>
+      <c r="M185" s="111"/>
+      <c r="N185" s="111"/>
+      <c r="O185" s="111"/>
+      <c r="P185" s="111"/>
+      <c r="Q185" s="111"/>
+      <c r="R185" s="111"/>
     </row>
     <row r="186" spans="2:18">
       <c r="B186" s="58"/>
@@ -13221,21 +13077,21 @@
         <v>47</v>
       </c>
       <c r="C189" s="1"/>
-      <c r="D189" s="97"/>
-      <c r="E189" s="97"/>
-      <c r="F189" s="97"/>
-      <c r="G189" s="97"/>
-      <c r="H189" s="97"/>
-      <c r="I189" s="97"/>
-      <c r="J189" s="97"/>
-      <c r="K189" s="97"/>
-      <c r="L189" s="97"/>
-      <c r="M189" s="97"/>
-      <c r="N189" s="97"/>
-      <c r="O189" s="97"/>
-      <c r="P189" s="97"/>
-      <c r="Q189" s="97"/>
-      <c r="R189" s="97"/>
+      <c r="D189" s="111"/>
+      <c r="E189" s="111"/>
+      <c r="F189" s="111"/>
+      <c r="G189" s="111"/>
+      <c r="H189" s="111"/>
+      <c r="I189" s="111"/>
+      <c r="J189" s="111"/>
+      <c r="K189" s="111"/>
+      <c r="L189" s="111"/>
+      <c r="M189" s="111"/>
+      <c r="N189" s="111"/>
+      <c r="O189" s="111"/>
+      <c r="P189" s="111"/>
+      <c r="Q189" s="111"/>
+      <c r="R189" s="111"/>
     </row>
     <row r="190" spans="2:18">
       <c r="B190" s="58"/>
@@ -13300,21 +13156,21 @@
         <v>48</v>
       </c>
       <c r="C193" s="1"/>
-      <c r="D193" s="97"/>
-      <c r="E193" s="97"/>
-      <c r="F193" s="97"/>
-      <c r="G193" s="98"/>
-      <c r="H193" s="97"/>
-      <c r="I193" s="97"/>
-      <c r="J193" s="97"/>
-      <c r="K193" s="97"/>
-      <c r="L193" s="97"/>
-      <c r="M193" s="97"/>
-      <c r="N193" s="97"/>
-      <c r="O193" s="97"/>
-      <c r="P193" s="97"/>
-      <c r="Q193" s="97"/>
-      <c r="R193" s="97"/>
+      <c r="D193" s="111"/>
+      <c r="E193" s="111"/>
+      <c r="F193" s="111"/>
+      <c r="G193" s="113"/>
+      <c r="H193" s="111"/>
+      <c r="I193" s="111"/>
+      <c r="J193" s="111"/>
+      <c r="K193" s="111"/>
+      <c r="L193" s="111"/>
+      <c r="M193" s="111"/>
+      <c r="N193" s="111"/>
+      <c r="O193" s="111"/>
+      <c r="P193" s="111"/>
+      <c r="Q193" s="111"/>
+      <c r="R193" s="111"/>
     </row>
     <row r="194" spans="2:18">
       <c r="B194" s="58"/>
@@ -13379,21 +13235,21 @@
         <v>49</v>
       </c>
       <c r="C197" s="1"/>
-      <c r="D197" s="97"/>
-      <c r="E197" s="97"/>
-      <c r="F197" s="97"/>
-      <c r="G197" s="98"/>
-      <c r="H197" s="97"/>
-      <c r="I197" s="97"/>
-      <c r="J197" s="97"/>
-      <c r="K197" s="97"/>
-      <c r="L197" s="97"/>
-      <c r="M197" s="97"/>
-      <c r="N197" s="97"/>
-      <c r="O197" s="97"/>
-      <c r="P197" s="97"/>
-      <c r="Q197" s="97"/>
-      <c r="R197" s="97"/>
+      <c r="D197" s="111"/>
+      <c r="E197" s="111"/>
+      <c r="F197" s="111"/>
+      <c r="G197" s="113"/>
+      <c r="H197" s="111"/>
+      <c r="I197" s="111"/>
+      <c r="J197" s="111"/>
+      <c r="K197" s="111"/>
+      <c r="L197" s="111"/>
+      <c r="M197" s="111"/>
+      <c r="N197" s="111"/>
+      <c r="O197" s="111"/>
+      <c r="P197" s="111"/>
+      <c r="Q197" s="111"/>
+      <c r="R197" s="111"/>
     </row>
     <row r="198" spans="2:18">
       <c r="B198" s="58"/>
@@ -13458,21 +13314,21 @@
         <v>50</v>
       </c>
       <c r="C201" s="1"/>
-      <c r="D201" s="97"/>
-      <c r="E201" s="97"/>
-      <c r="F201" s="97"/>
-      <c r="G201" s="98"/>
-      <c r="H201" s="97"/>
-      <c r="I201" s="97"/>
-      <c r="J201" s="97"/>
-      <c r="K201" s="97"/>
-      <c r="L201" s="97"/>
-      <c r="M201" s="97"/>
-      <c r="N201" s="97"/>
-      <c r="O201" s="97"/>
-      <c r="P201" s="97"/>
-      <c r="Q201" s="97"/>
-      <c r="R201" s="97"/>
+      <c r="D201" s="111"/>
+      <c r="E201" s="111"/>
+      <c r="F201" s="111"/>
+      <c r="G201" s="113"/>
+      <c r="H201" s="111"/>
+      <c r="I201" s="111"/>
+      <c r="J201" s="111"/>
+      <c r="K201" s="111"/>
+      <c r="L201" s="111"/>
+      <c r="M201" s="111"/>
+      <c r="N201" s="111"/>
+      <c r="O201" s="111"/>
+      <c r="P201" s="111"/>
+      <c r="Q201" s="111"/>
+      <c r="R201" s="111"/>
     </row>
     <row r="202" spans="2:18">
       <c r="B202" s="58"/>
@@ -13537,21 +13393,21 @@
         <v>51</v>
       </c>
       <c r="C205" s="1"/>
-      <c r="D205" s="97"/>
-      <c r="E205" s="97"/>
-      <c r="F205" s="97"/>
-      <c r="G205" s="98"/>
-      <c r="H205" s="97"/>
-      <c r="I205" s="97"/>
-      <c r="J205" s="97"/>
-      <c r="K205" s="97"/>
-      <c r="L205" s="97"/>
-      <c r="M205" s="97"/>
-      <c r="N205" s="97"/>
-      <c r="O205" s="97"/>
-      <c r="P205" s="97"/>
-      <c r="Q205" s="97"/>
-      <c r="R205" s="97"/>
+      <c r="D205" s="111"/>
+      <c r="E205" s="111"/>
+      <c r="F205" s="111"/>
+      <c r="G205" s="113"/>
+      <c r="H205" s="111"/>
+      <c r="I205" s="111"/>
+      <c r="J205" s="111"/>
+      <c r="K205" s="111"/>
+      <c r="L205" s="111"/>
+      <c r="M205" s="111"/>
+      <c r="N205" s="111"/>
+      <c r="O205" s="111"/>
+      <c r="P205" s="111"/>
+      <c r="Q205" s="111"/>
+      <c r="R205" s="111"/>
     </row>
     <row r="206" spans="2:18">
       <c r="B206" s="58"/>
@@ -13616,21 +13472,21 @@
         <v>52</v>
       </c>
       <c r="C209" s="1"/>
-      <c r="D209" s="97"/>
-      <c r="E209" s="97"/>
-      <c r="F209" s="97"/>
-      <c r="G209" s="98"/>
-      <c r="H209" s="97"/>
-      <c r="I209" s="97"/>
-      <c r="J209" s="97"/>
-      <c r="K209" s="97"/>
-      <c r="L209" s="97"/>
-      <c r="M209" s="97"/>
-      <c r="N209" s="97"/>
-      <c r="O209" s="97"/>
-      <c r="P209" s="97"/>
-      <c r="Q209" s="97"/>
-      <c r="R209" s="97"/>
+      <c r="D209" s="111"/>
+      <c r="E209" s="111"/>
+      <c r="F209" s="111"/>
+      <c r="G209" s="113"/>
+      <c r="H209" s="111"/>
+      <c r="I209" s="111"/>
+      <c r="J209" s="111"/>
+      <c r="K209" s="111"/>
+      <c r="L209" s="111"/>
+      <c r="M209" s="111"/>
+      <c r="N209" s="111"/>
+      <c r="O209" s="111"/>
+      <c r="P209" s="111"/>
+      <c r="Q209" s="111"/>
+      <c r="R209" s="111"/>
     </row>
     <row r="210" spans="2:18">
       <c r="B210" s="58"/>
@@ -13695,21 +13551,21 @@
         <v>53</v>
       </c>
       <c r="C213" s="1"/>
-      <c r="D213" s="97"/>
-      <c r="E213" s="97"/>
-      <c r="F213" s="97"/>
-      <c r="G213" s="98"/>
-      <c r="H213" s="97"/>
-      <c r="I213" s="97"/>
-      <c r="J213" s="97"/>
-      <c r="K213" s="97"/>
-      <c r="L213" s="97"/>
-      <c r="M213" s="97"/>
-      <c r="N213" s="97"/>
-      <c r="O213" s="97"/>
-      <c r="P213" s="97"/>
-      <c r="Q213" s="97"/>
-      <c r="R213" s="97"/>
+      <c r="D213" s="111"/>
+      <c r="E213" s="111"/>
+      <c r="F213" s="111"/>
+      <c r="G213" s="113"/>
+      <c r="H213" s="111"/>
+      <c r="I213" s="111"/>
+      <c r="J213" s="111"/>
+      <c r="K213" s="111"/>
+      <c r="L213" s="111"/>
+      <c r="M213" s="111"/>
+      <c r="N213" s="111"/>
+      <c r="O213" s="111"/>
+      <c r="P213" s="111"/>
+      <c r="Q213" s="111"/>
+      <c r="R213" s="111"/>
     </row>
     <row r="214" spans="2:18">
       <c r="B214" s="58"/>
@@ -13774,21 +13630,21 @@
         <v>54</v>
       </c>
       <c r="C217" s="1"/>
-      <c r="D217" s="97"/>
-      <c r="E217" s="97"/>
-      <c r="F217" s="97"/>
-      <c r="G217" s="98"/>
-      <c r="H217" s="97"/>
-      <c r="I217" s="97"/>
-      <c r="J217" s="97"/>
-      <c r="K217" s="97"/>
-      <c r="L217" s="97"/>
-      <c r="M217" s="97"/>
-      <c r="N217" s="97"/>
-      <c r="O217" s="97"/>
-      <c r="P217" s="97"/>
-      <c r="Q217" s="97"/>
-      <c r="R217" s="97"/>
+      <c r="D217" s="111"/>
+      <c r="E217" s="111"/>
+      <c r="F217" s="111"/>
+      <c r="G217" s="113"/>
+      <c r="H217" s="111"/>
+      <c r="I217" s="111"/>
+      <c r="J217" s="111"/>
+      <c r="K217" s="111"/>
+      <c r="L217" s="111"/>
+      <c r="M217" s="111"/>
+      <c r="N217" s="111"/>
+      <c r="O217" s="111"/>
+      <c r="P217" s="111"/>
+      <c r="Q217" s="111"/>
+      <c r="R217" s="111"/>
     </row>
     <row r="218" spans="2:18">
       <c r="B218" s="58"/>
@@ -13853,21 +13709,21 @@
         <v>55</v>
       </c>
       <c r="C221" s="1"/>
-      <c r="D221" s="97"/>
-      <c r="E221" s="97"/>
-      <c r="F221" s="97"/>
-      <c r="G221" s="98"/>
-      <c r="H221" s="97"/>
-      <c r="I221" s="97"/>
-      <c r="J221" s="97"/>
-      <c r="K221" s="97"/>
-      <c r="L221" s="97"/>
-      <c r="M221" s="97"/>
-      <c r="N221" s="97"/>
-      <c r="O221" s="97"/>
-      <c r="P221" s="97"/>
-      <c r="Q221" s="97"/>
-      <c r="R221" s="97"/>
+      <c r="D221" s="111"/>
+      <c r="E221" s="111"/>
+      <c r="F221" s="111"/>
+      <c r="G221" s="113"/>
+      <c r="H221" s="111"/>
+      <c r="I221" s="111"/>
+      <c r="J221" s="111"/>
+      <c r="K221" s="111"/>
+      <c r="L221" s="111"/>
+      <c r="M221" s="111"/>
+      <c r="N221" s="111"/>
+      <c r="O221" s="111"/>
+      <c r="P221" s="111"/>
+      <c r="Q221" s="111"/>
+      <c r="R221" s="111"/>
     </row>
     <row r="222" spans="2:18">
       <c r="B222" s="58"/>
@@ -13932,21 +13788,21 @@
         <v>56</v>
       </c>
       <c r="C225" s="1"/>
-      <c r="D225" s="97"/>
-      <c r="E225" s="97"/>
-      <c r="F225" s="97"/>
-      <c r="G225" s="98"/>
-      <c r="H225" s="97"/>
-      <c r="I225" s="97"/>
-      <c r="J225" s="97"/>
-      <c r="K225" s="97"/>
-      <c r="L225" s="97"/>
-      <c r="M225" s="97"/>
-      <c r="N225" s="97"/>
-      <c r="O225" s="97"/>
-      <c r="P225" s="97"/>
-      <c r="Q225" s="97"/>
-      <c r="R225" s="97"/>
+      <c r="D225" s="111"/>
+      <c r="E225" s="111"/>
+      <c r="F225" s="111"/>
+      <c r="G225" s="113"/>
+      <c r="H225" s="111"/>
+      <c r="I225" s="111"/>
+      <c r="J225" s="111"/>
+      <c r="K225" s="111"/>
+      <c r="L225" s="111"/>
+      <c r="M225" s="111"/>
+      <c r="N225" s="111"/>
+      <c r="O225" s="111"/>
+      <c r="P225" s="111"/>
+      <c r="Q225" s="111"/>
+      <c r="R225" s="111"/>
     </row>
     <row r="226" spans="2:18">
       <c r="B226" s="58"/>
@@ -14011,21 +13867,21 @@
         <v>57</v>
       </c>
       <c r="C229" s="1"/>
-      <c r="D229" s="97"/>
-      <c r="E229" s="97"/>
-      <c r="F229" s="97"/>
-      <c r="G229" s="98"/>
-      <c r="H229" s="97"/>
-      <c r="I229" s="97"/>
-      <c r="J229" s="97"/>
-      <c r="K229" s="97"/>
-      <c r="L229" s="97"/>
-      <c r="M229" s="97"/>
-      <c r="N229" s="97"/>
-      <c r="O229" s="97"/>
-      <c r="P229" s="97"/>
-      <c r="Q229" s="97"/>
-      <c r="R229" s="97"/>
+      <c r="D229" s="111"/>
+      <c r="E229" s="111"/>
+      <c r="F229" s="111"/>
+      <c r="G229" s="113"/>
+      <c r="H229" s="111"/>
+      <c r="I229" s="111"/>
+      <c r="J229" s="111"/>
+      <c r="K229" s="111"/>
+      <c r="L229" s="111"/>
+      <c r="M229" s="111"/>
+      <c r="N229" s="111"/>
+      <c r="O229" s="111"/>
+      <c r="P229" s="111"/>
+      <c r="Q229" s="111"/>
+      <c r="R229" s="111"/>
     </row>
     <row r="230" spans="2:18">
       <c r="B230" s="58"/>
@@ -14090,21 +13946,21 @@
         <v>58</v>
       </c>
       <c r="C233" s="1"/>
-      <c r="D233" s="97"/>
-      <c r="E233" s="97"/>
-      <c r="F233" s="97"/>
-      <c r="G233" s="98"/>
-      <c r="H233" s="97"/>
-      <c r="I233" s="97"/>
-      <c r="J233" s="97"/>
-      <c r="K233" s="97"/>
-      <c r="L233" s="97"/>
-      <c r="M233" s="97"/>
-      <c r="N233" s="97"/>
-      <c r="O233" s="97"/>
-      <c r="P233" s="97"/>
-      <c r="Q233" s="97"/>
-      <c r="R233" s="97"/>
+      <c r="D233" s="111"/>
+      <c r="E233" s="111"/>
+      <c r="F233" s="111"/>
+      <c r="G233" s="113"/>
+      <c r="H233" s="111"/>
+      <c r="I233" s="111"/>
+      <c r="J233" s="111"/>
+      <c r="K233" s="111"/>
+      <c r="L233" s="111"/>
+      <c r="M233" s="111"/>
+      <c r="N233" s="111"/>
+      <c r="O233" s="111"/>
+      <c r="P233" s="111"/>
+      <c r="Q233" s="111"/>
+      <c r="R233" s="111"/>
     </row>
     <row r="234" spans="2:18">
       <c r="B234" s="58"/>
@@ -14169,21 +14025,21 @@
         <v>59</v>
       </c>
       <c r="C237" s="1"/>
-      <c r="D237" s="97"/>
-      <c r="E237" s="97"/>
-      <c r="F237" s="97"/>
-      <c r="G237" s="98"/>
-      <c r="H237" s="97"/>
-      <c r="I237" s="97"/>
-      <c r="J237" s="97"/>
-      <c r="K237" s="97"/>
-      <c r="L237" s="97"/>
-      <c r="M237" s="97"/>
-      <c r="N237" s="97"/>
-      <c r="O237" s="97"/>
-      <c r="P237" s="97"/>
-      <c r="Q237" s="97"/>
-      <c r="R237" s="97"/>
+      <c r="D237" s="111"/>
+      <c r="E237" s="111"/>
+      <c r="F237" s="111"/>
+      <c r="G237" s="113"/>
+      <c r="H237" s="111"/>
+      <c r="I237" s="111"/>
+      <c r="J237" s="111"/>
+      <c r="K237" s="111"/>
+      <c r="L237" s="111"/>
+      <c r="M237" s="111"/>
+      <c r="N237" s="111"/>
+      <c r="O237" s="111"/>
+      <c r="P237" s="111"/>
+      <c r="Q237" s="111"/>
+      <c r="R237" s="111"/>
     </row>
     <row r="238" spans="2:18">
       <c r="B238" s="58"/>
@@ -14248,21 +14104,21 @@
         <v>60</v>
       </c>
       <c r="C241" s="1"/>
-      <c r="D241" s="97"/>
-      <c r="E241" s="97"/>
-      <c r="F241" s="97"/>
-      <c r="G241" s="98"/>
-      <c r="H241" s="97"/>
-      <c r="I241" s="97"/>
-      <c r="J241" s="97"/>
-      <c r="K241" s="97"/>
-      <c r="L241" s="97"/>
-      <c r="M241" s="97"/>
-      <c r="N241" s="97"/>
-      <c r="O241" s="97"/>
-      <c r="P241" s="97"/>
-      <c r="Q241" s="97"/>
-      <c r="R241" s="97"/>
+      <c r="D241" s="111"/>
+      <c r="E241" s="111"/>
+      <c r="F241" s="111"/>
+      <c r="G241" s="113"/>
+      <c r="H241" s="111"/>
+      <c r="I241" s="111"/>
+      <c r="J241" s="111"/>
+      <c r="K241" s="111"/>
+      <c r="L241" s="111"/>
+      <c r="M241" s="111"/>
+      <c r="N241" s="111"/>
+      <c r="O241" s="111"/>
+      <c r="P241" s="111"/>
+      <c r="Q241" s="111"/>
+      <c r="R241" s="111"/>
     </row>
     <row r="242" spans="2:18">
       <c r="B242" s="58"/>
